--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 12_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 12_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="5"/>
+    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -990,7 +990,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="468">
+  <cellXfs count="469">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1882,6 +1882,66 @@
     <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1900,12 +1960,48 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1915,101 +2011,29 @@
     <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2044,31 +2068,7 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="22" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2086,6 +2086,33 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2128,30 +2155,6 @@
     <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2206,7 +2209,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3584,7 +3587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q89"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A80" sqref="A80:F80"/>
     </sheetView>
@@ -3610,13 +3613,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="367" t="s">
+      <c r="A1" s="399" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="367"/>
-      <c r="C1" s="367"/>
-      <c r="D1" s="367"/>
-      <c r="E1" s="367"/>
+      <c r="B1" s="399"/>
+      <c r="C1" s="399"/>
+      <c r="D1" s="399"/>
+      <c r="E1" s="399"/>
       <c r="H1" s="124"/>
       <c r="I1" s="124"/>
       <c r="J1" s="124"/>
@@ -3646,145 +3649,145 @@
       <c r="P2" s="128"/>
     </row>
     <row r="3" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="368" t="s">
+      <c r="A3" s="400" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="368"/>
-      <c r="C3" s="368"/>
-      <c r="D3" s="368"/>
-      <c r="E3" s="368"/>
-      <c r="F3" s="368"/>
-      <c r="G3" s="368"/>
-      <c r="H3" s="368"/>
-      <c r="I3" s="368"/>
-      <c r="J3" s="368"/>
-      <c r="K3" s="368"/>
-      <c r="L3" s="368"/>
-      <c r="M3" s="368"/>
-      <c r="N3" s="368"/>
-      <c r="O3" s="368"/>
-      <c r="P3" s="368"/>
+      <c r="B3" s="400"/>
+      <c r="C3" s="400"/>
+      <c r="D3" s="400"/>
+      <c r="E3" s="400"/>
+      <c r="F3" s="400"/>
+      <c r="G3" s="400"/>
+      <c r="H3" s="400"/>
+      <c r="I3" s="400"/>
+      <c r="J3" s="400"/>
+      <c r="K3" s="400"/>
+      <c r="L3" s="400"/>
+      <c r="M3" s="400"/>
+      <c r="N3" s="400"/>
+      <c r="O3" s="400"/>
+      <c r="P3" s="400"/>
     </row>
     <row r="4" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="368" t="s">
+      <c r="A4" s="400" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="368"/>
-      <c r="C4" s="368"/>
-      <c r="D4" s="368"/>
-      <c r="E4" s="368"/>
-      <c r="F4" s="368"/>
-      <c r="G4" s="368"/>
-      <c r="H4" s="368"/>
-      <c r="I4" s="368"/>
-      <c r="J4" s="368"/>
-      <c r="K4" s="368"/>
-      <c r="L4" s="368"/>
-      <c r="M4" s="368"/>
-      <c r="N4" s="368"/>
-      <c r="O4" s="368"/>
-      <c r="P4" s="368"/>
+      <c r="B4" s="400"/>
+      <c r="C4" s="400"/>
+      <c r="D4" s="400"/>
+      <c r="E4" s="400"/>
+      <c r="F4" s="400"/>
+      <c r="G4" s="400"/>
+      <c r="H4" s="400"/>
+      <c r="I4" s="400"/>
+      <c r="J4" s="400"/>
+      <c r="K4" s="400"/>
+      <c r="L4" s="400"/>
+      <c r="M4" s="400"/>
+      <c r="N4" s="400"/>
+      <c r="O4" s="400"/>
+      <c r="P4" s="400"/>
     </row>
     <row r="5" spans="1:16" s="123" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="378" t="s">
+      <c r="A5" s="393" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="379" t="s">
+      <c r="B5" s="394" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="378" t="s">
+      <c r="C5" s="393" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="378" t="s">
+      <c r="D5" s="393" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="378"/>
-      <c r="F5" s="370" t="s">
+      <c r="E5" s="393"/>
+      <c r="F5" s="395" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="370"/>
-      <c r="H5" s="370"/>
-      <c r="I5" s="370"/>
-      <c r="J5" s="370"/>
-      <c r="K5" s="370"/>
-      <c r="L5" s="370"/>
-      <c r="M5" s="369" t="s">
+      <c r="G5" s="395"/>
+      <c r="H5" s="395"/>
+      <c r="I5" s="395"/>
+      <c r="J5" s="395"/>
+      <c r="K5" s="395"/>
+      <c r="L5" s="395"/>
+      <c r="M5" s="401" t="s">
         <v>125</v>
       </c>
-      <c r="N5" s="369"/>
-      <c r="O5" s="369"/>
-      <c r="P5" s="370" t="s">
+      <c r="N5" s="401"/>
+      <c r="O5" s="401"/>
+      <c r="P5" s="395" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="123" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="378"/>
-      <c r="B6" s="379"/>
-      <c r="C6" s="378"/>
-      <c r="D6" s="378" t="s">
+      <c r="A6" s="393"/>
+      <c r="B6" s="394"/>
+      <c r="C6" s="393"/>
+      <c r="D6" s="393" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="378" t="s">
+      <c r="E6" s="393" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="378" t="s">
+      <c r="F6" s="393" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="378" t="s">
+      <c r="G6" s="393" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="371" t="s">
+      <c r="H6" s="396" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="371" t="s">
+      <c r="I6" s="396" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="380" t="s">
+      <c r="J6" s="397" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="380"/>
-      <c r="L6" s="371" t="s">
+      <c r="K6" s="397"/>
+      <c r="L6" s="396" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="371" t="s">
+      <c r="M6" s="396" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="371" t="s">
+      <c r="N6" s="396" t="s">
         <v>80</v>
       </c>
-      <c r="O6" s="371" t="s">
+      <c r="O6" s="396" t="s">
         <v>82</v>
       </c>
-      <c r="P6" s="370"/>
+      <c r="P6" s="395"/>
     </row>
     <row r="7" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="378"/>
-      <c r="B7" s="379"/>
-      <c r="C7" s="378"/>
-      <c r="D7" s="378"/>
-      <c r="E7" s="378"/>
-      <c r="F7" s="378"/>
-      <c r="G7" s="378"/>
-      <c r="H7" s="371"/>
-      <c r="I7" s="371"/>
+      <c r="A7" s="393"/>
+      <c r="B7" s="394"/>
+      <c r="C7" s="393"/>
+      <c r="D7" s="393"/>
+      <c r="E7" s="393"/>
+      <c r="F7" s="393"/>
+      <c r="G7" s="393"/>
+      <c r="H7" s="396"/>
+      <c r="I7" s="396"/>
       <c r="J7" s="206" t="s">
         <v>83</v>
       </c>
       <c r="K7" s="196" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="371"/>
-      <c r="M7" s="371"/>
-      <c r="N7" s="371"/>
-      <c r="O7" s="371"/>
-      <c r="P7" s="370"/>
+      <c r="L7" s="396"/>
+      <c r="M7" s="396"/>
+      <c r="N7" s="396"/>
+      <c r="O7" s="396"/>
+      <c r="P7" s="395"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="362"/>
-      <c r="B8" s="359"/>
-      <c r="C8" s="362"/>
-      <c r="D8" s="362"/>
-      <c r="E8" s="362"/>
+      <c r="A8" s="382"/>
+      <c r="B8" s="379"/>
+      <c r="C8" s="382"/>
+      <c r="D8" s="382"/>
+      <c r="E8" s="382"/>
       <c r="F8" s="162"/>
       <c r="G8" s="162"/>
       <c r="H8" s="163"/>
@@ -3798,11 +3801,11 @@
       <c r="P8" s="162"/>
     </row>
     <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="363"/>
-      <c r="B9" s="360"/>
-      <c r="C9" s="363"/>
-      <c r="D9" s="363"/>
-      <c r="E9" s="363"/>
+      <c r="A9" s="383"/>
+      <c r="B9" s="380"/>
+      <c r="C9" s="383"/>
+      <c r="D9" s="383"/>
+      <c r="E9" s="383"/>
       <c r="F9" s="174"/>
       <c r="G9" s="174"/>
       <c r="H9" s="175"/>
@@ -3816,11 +3819,11 @@
       <c r="P9" s="174"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="363"/>
-      <c r="B10" s="360"/>
-      <c r="C10" s="363"/>
-      <c r="D10" s="363"/>
-      <c r="E10" s="363"/>
+      <c r="A10" s="383"/>
+      <c r="B10" s="380"/>
+      <c r="C10" s="383"/>
+      <c r="D10" s="383"/>
+      <c r="E10" s="383"/>
       <c r="F10" s="174"/>
       <c r="G10" s="174"/>
       <c r="H10" s="175"/>
@@ -3834,11 +3837,11 @@
       <c r="P10" s="174"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="363"/>
-      <c r="B11" s="360"/>
-      <c r="C11" s="363"/>
-      <c r="D11" s="363"/>
-      <c r="E11" s="363"/>
+      <c r="A11" s="383"/>
+      <c r="B11" s="380"/>
+      <c r="C11" s="383"/>
+      <c r="D11" s="383"/>
+      <c r="E11" s="383"/>
       <c r="F11" s="174"/>
       <c r="G11" s="174"/>
       <c r="H11" s="175"/>
@@ -3852,11 +3855,11 @@
       <c r="P11" s="174"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="364"/>
-      <c r="B12" s="361"/>
-      <c r="C12" s="364"/>
-      <c r="D12" s="364"/>
-      <c r="E12" s="364"/>
+      <c r="A12" s="384"/>
+      <c r="B12" s="381"/>
+      <c r="C12" s="384"/>
+      <c r="D12" s="384"/>
+      <c r="E12" s="384"/>
       <c r="F12" s="165"/>
       <c r="G12" s="165"/>
       <c r="H12" s="166"/>
@@ -3870,11 +3873,11 @@
       <c r="P12" s="168"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="372"/>
-      <c r="B13" s="374"/>
-      <c r="C13" s="372"/>
-      <c r="D13" s="372"/>
-      <c r="E13" s="372"/>
+      <c r="A13" s="385"/>
+      <c r="B13" s="387"/>
+      <c r="C13" s="385"/>
+      <c r="D13" s="385"/>
+      <c r="E13" s="385"/>
       <c r="F13" s="207"/>
       <c r="G13" s="207"/>
       <c r="H13" s="208"/>
@@ -3888,11 +3891,11 @@
       <c r="P13" s="307"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="373"/>
+      <c r="A14" s="360"/>
       <c r="B14" s="375"/>
-      <c r="C14" s="373"/>
-      <c r="D14" s="373"/>
-      <c r="E14" s="373"/>
+      <c r="C14" s="360"/>
+      <c r="D14" s="360"/>
+      <c r="E14" s="360"/>
       <c r="F14" s="309"/>
       <c r="G14" s="309"/>
       <c r="H14" s="310"/>
@@ -3924,11 +3927,11 @@
       <c r="P15" s="169"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="373"/>
+      <c r="A16" s="360"/>
       <c r="B16" s="375"/>
-      <c r="C16" s="373"/>
-      <c r="D16" s="373"/>
-      <c r="E16" s="373"/>
+      <c r="C16" s="360"/>
+      <c r="D16" s="360"/>
+      <c r="E16" s="360"/>
       <c r="F16" s="207"/>
       <c r="G16" s="207"/>
       <c r="H16" s="208"/>
@@ -3942,11 +3945,11 @@
       <c r="P16" s="207"/>
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="373"/>
+      <c r="A17" s="360"/>
       <c r="B17" s="375"/>
-      <c r="C17" s="373"/>
-      <c r="D17" s="373"/>
-      <c r="E17" s="373"/>
+      <c r="C17" s="360"/>
+      <c r="D17" s="360"/>
+      <c r="E17" s="360"/>
       <c r="F17" s="174"/>
       <c r="G17" s="174"/>
       <c r="H17" s="175"/>
@@ -3996,11 +3999,11 @@
       <c r="P19" s="156"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="372"/>
-      <c r="B20" s="374"/>
-      <c r="C20" s="372"/>
-      <c r="D20" s="372"/>
-      <c r="E20" s="372"/>
+      <c r="A20" s="385"/>
+      <c r="B20" s="387"/>
+      <c r="C20" s="385"/>
+      <c r="D20" s="385"/>
+      <c r="E20" s="385"/>
       <c r="F20" s="207"/>
       <c r="G20" s="207"/>
       <c r="H20" s="208"/>
@@ -4014,11 +4017,11 @@
       <c r="P20" s="207"/>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="373"/>
+      <c r="A21" s="360"/>
       <c r="B21" s="375"/>
-      <c r="C21" s="373"/>
-      <c r="D21" s="373"/>
-      <c r="E21" s="373"/>
+      <c r="C21" s="360"/>
+      <c r="D21" s="360"/>
+      <c r="E21" s="360"/>
       <c r="F21" s="170"/>
       <c r="G21" s="170"/>
       <c r="H21" s="171"/>
@@ -4032,11 +4035,11 @@
       <c r="P21" s="170"/>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="373"/>
+      <c r="A22" s="360"/>
       <c r="B22" s="375"/>
-      <c r="C22" s="373"/>
-      <c r="D22" s="373"/>
-      <c r="E22" s="373"/>
+      <c r="C22" s="360"/>
+      <c r="D22" s="360"/>
+      <c r="E22" s="360"/>
       <c r="F22" s="315"/>
       <c r="G22" s="315"/>
       <c r="H22" s="316"/>
@@ -4086,11 +4089,11 @@
       <c r="P24" s="320"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="372"/>
-      <c r="B25" s="374"/>
-      <c r="C25" s="372"/>
-      <c r="D25" s="382"/>
-      <c r="E25" s="372"/>
+      <c r="A25" s="385"/>
+      <c r="B25" s="387"/>
+      <c r="C25" s="385"/>
+      <c r="D25" s="388"/>
+      <c r="E25" s="385"/>
       <c r="F25" s="306"/>
       <c r="G25" s="306"/>
       <c r="H25" s="318"/>
@@ -4101,14 +4104,14 @@
       <c r="M25" s="318"/>
       <c r="N25" s="318"/>
       <c r="O25" s="318"/>
-      <c r="P25" s="372"/>
+      <c r="P25" s="385"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="373"/>
+      <c r="A26" s="360"/>
       <c r="B26" s="375"/>
-      <c r="C26" s="373"/>
-      <c r="D26" s="383"/>
-      <c r="E26" s="373"/>
+      <c r="C26" s="360"/>
+      <c r="D26" s="372"/>
+      <c r="E26" s="360"/>
       <c r="F26" s="170"/>
       <c r="G26" s="170"/>
       <c r="H26" s="171"/>
@@ -4119,14 +4122,14 @@
       <c r="M26" s="171"/>
       <c r="N26" s="171"/>
       <c r="O26" s="171"/>
-      <c r="P26" s="373"/>
+      <c r="P26" s="360"/>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="373"/>
+      <c r="A27" s="360"/>
       <c r="B27" s="375"/>
-      <c r="C27" s="373"/>
-      <c r="D27" s="383"/>
-      <c r="E27" s="373"/>
+      <c r="C27" s="360"/>
+      <c r="D27" s="372"/>
+      <c r="E27" s="360"/>
       <c r="F27" s="170"/>
       <c r="G27" s="170"/>
       <c r="H27" s="171"/>
@@ -4137,14 +4140,14 @@
       <c r="M27" s="171"/>
       <c r="N27" s="171"/>
       <c r="O27" s="171"/>
-      <c r="P27" s="373"/>
+      <c r="P27" s="360"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="373"/>
+      <c r="A28" s="360"/>
       <c r="B28" s="375"/>
-      <c r="C28" s="373"/>
-      <c r="D28" s="383"/>
-      <c r="E28" s="373"/>
+      <c r="C28" s="360"/>
+      <c r="D28" s="372"/>
+      <c r="E28" s="360"/>
       <c r="F28" s="174"/>
       <c r="G28" s="174"/>
       <c r="H28" s="175"/>
@@ -4155,14 +4158,14 @@
       <c r="M28" s="175"/>
       <c r="N28" s="175"/>
       <c r="O28" s="175"/>
-      <c r="P28" s="373"/>
+      <c r="P28" s="360"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="373"/>
+      <c r="A29" s="360"/>
       <c r="B29" s="375"/>
-      <c r="C29" s="373"/>
-      <c r="D29" s="383"/>
-      <c r="E29" s="373"/>
+      <c r="C29" s="360"/>
+      <c r="D29" s="372"/>
+      <c r="E29" s="360"/>
       <c r="F29" s="309"/>
       <c r="G29" s="309"/>
       <c r="H29" s="310"/>
@@ -4173,14 +4176,14 @@
       <c r="M29" s="310"/>
       <c r="N29" s="310"/>
       <c r="O29" s="310"/>
-      <c r="P29" s="376"/>
+      <c r="P29" s="386"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="372"/>
-      <c r="B30" s="374"/>
-      <c r="C30" s="372"/>
-      <c r="D30" s="372"/>
-      <c r="E30" s="372"/>
+      <c r="A30" s="385"/>
+      <c r="B30" s="387"/>
+      <c r="C30" s="385"/>
+      <c r="D30" s="385"/>
+      <c r="E30" s="385"/>
       <c r="F30" s="162"/>
       <c r="G30" s="162"/>
       <c r="H30" s="163"/>
@@ -4191,14 +4194,14 @@
       <c r="M30" s="163"/>
       <c r="N30" s="163"/>
       <c r="O30" s="163"/>
-      <c r="P30" s="372"/>
+      <c r="P30" s="385"/>
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="373"/>
+      <c r="A31" s="360"/>
       <c r="B31" s="375"/>
-      <c r="C31" s="373"/>
-      <c r="D31" s="373"/>
-      <c r="E31" s="373"/>
+      <c r="C31" s="360"/>
+      <c r="D31" s="360"/>
+      <c r="E31" s="360"/>
       <c r="F31" s="174"/>
       <c r="G31" s="174"/>
       <c r="H31" s="175"/>
@@ -4209,14 +4212,14 @@
       <c r="M31" s="175"/>
       <c r="N31" s="175"/>
       <c r="O31" s="175"/>
-      <c r="P31" s="373"/>
+      <c r="P31" s="360"/>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="373"/>
+      <c r="A32" s="360"/>
       <c r="B32" s="375"/>
-      <c r="C32" s="373"/>
-      <c r="D32" s="373"/>
-      <c r="E32" s="373"/>
+      <c r="C32" s="360"/>
+      <c r="D32" s="360"/>
+      <c r="E32" s="360"/>
       <c r="F32" s="174"/>
       <c r="G32" s="174"/>
       <c r="H32" s="175"/>
@@ -4227,14 +4230,14 @@
       <c r="M32" s="175"/>
       <c r="N32" s="175"/>
       <c r="O32" s="175"/>
-      <c r="P32" s="373"/>
+      <c r="P32" s="360"/>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="373"/>
+      <c r="A33" s="360"/>
       <c r="B33" s="375"/>
-      <c r="C33" s="373"/>
-      <c r="D33" s="373"/>
-      <c r="E33" s="373"/>
+      <c r="C33" s="360"/>
+      <c r="D33" s="360"/>
+      <c r="E33" s="360"/>
       <c r="F33" s="174"/>
       <c r="G33" s="174"/>
       <c r="H33" s="175"/>
@@ -4245,14 +4248,14 @@
       <c r="M33" s="175"/>
       <c r="N33" s="175"/>
       <c r="O33" s="175"/>
-      <c r="P33" s="373"/>
+      <c r="P33" s="360"/>
     </row>
     <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="373"/>
+      <c r="A34" s="360"/>
       <c r="B34" s="375"/>
-      <c r="C34" s="373"/>
-      <c r="D34" s="373"/>
-      <c r="E34" s="373"/>
+      <c r="C34" s="360"/>
+      <c r="D34" s="360"/>
+      <c r="E34" s="360"/>
       <c r="F34" s="174"/>
       <c r="G34" s="174"/>
       <c r="H34" s="175"/>
@@ -4263,14 +4266,14 @@
       <c r="M34" s="175"/>
       <c r="N34" s="175"/>
       <c r="O34" s="175"/>
-      <c r="P34" s="373"/>
+      <c r="P34" s="360"/>
     </row>
     <row r="35" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="373"/>
+      <c r="A35" s="360"/>
       <c r="B35" s="375"/>
-      <c r="C35" s="373"/>
-      <c r="D35" s="373"/>
-      <c r="E35" s="373"/>
+      <c r="C35" s="360"/>
+      <c r="D35" s="360"/>
+      <c r="E35" s="360"/>
       <c r="F35" s="174"/>
       <c r="G35" s="174"/>
       <c r="H35" s="175"/>
@@ -4281,14 +4284,14 @@
       <c r="M35" s="175"/>
       <c r="N35" s="175"/>
       <c r="O35" s="175"/>
-      <c r="P35" s="373"/>
+      <c r="P35" s="360"/>
     </row>
     <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="373"/>
+      <c r="A36" s="360"/>
       <c r="B36" s="375"/>
-      <c r="C36" s="373"/>
-      <c r="D36" s="373"/>
-      <c r="E36" s="373"/>
+      <c r="C36" s="360"/>
+      <c r="D36" s="360"/>
+      <c r="E36" s="360"/>
       <c r="F36" s="174"/>
       <c r="G36" s="174"/>
       <c r="H36" s="175"/>
@@ -4299,14 +4302,14 @@
       <c r="M36" s="175"/>
       <c r="N36" s="175"/>
       <c r="O36" s="175"/>
-      <c r="P36" s="373"/>
+      <c r="P36" s="360"/>
     </row>
     <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="373"/>
+      <c r="A37" s="360"/>
       <c r="B37" s="375"/>
-      <c r="C37" s="373"/>
-      <c r="D37" s="373"/>
-      <c r="E37" s="373"/>
+      <c r="C37" s="360"/>
+      <c r="D37" s="360"/>
+      <c r="E37" s="360"/>
       <c r="F37" s="309"/>
       <c r="G37" s="309"/>
       <c r="H37" s="310"/>
@@ -4317,14 +4320,14 @@
       <c r="M37" s="310"/>
       <c r="N37" s="310"/>
       <c r="O37" s="310"/>
-      <c r="P37" s="373"/>
+      <c r="P37" s="360"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="362"/>
-      <c r="B38" s="359"/>
-      <c r="C38" s="362"/>
-      <c r="D38" s="362"/>
-      <c r="E38" s="362"/>
+      <c r="A38" s="382"/>
+      <c r="B38" s="379"/>
+      <c r="C38" s="382"/>
+      <c r="D38" s="382"/>
+      <c r="E38" s="382"/>
       <c r="F38" s="162"/>
       <c r="G38" s="162"/>
       <c r="H38" s="163"/>
@@ -4338,11 +4341,11 @@
       <c r="P38" s="162"/>
     </row>
     <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="363"/>
-      <c r="B39" s="360"/>
-      <c r="C39" s="363"/>
-      <c r="D39" s="363"/>
-      <c r="E39" s="363"/>
+      <c r="A39" s="383"/>
+      <c r="B39" s="380"/>
+      <c r="C39" s="383"/>
+      <c r="D39" s="383"/>
+      <c r="E39" s="383"/>
       <c r="F39" s="174"/>
       <c r="G39" s="174"/>
       <c r="H39" s="175"/>
@@ -4356,11 +4359,11 @@
       <c r="P39" s="174"/>
     </row>
     <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="363"/>
-      <c r="B40" s="360"/>
-      <c r="C40" s="363"/>
-      <c r="D40" s="363"/>
-      <c r="E40" s="363"/>
+      <c r="A40" s="383"/>
+      <c r="B40" s="380"/>
+      <c r="C40" s="383"/>
+      <c r="D40" s="383"/>
+      <c r="E40" s="383"/>
       <c r="F40" s="174"/>
       <c r="G40" s="174"/>
       <c r="H40" s="175"/>
@@ -4374,11 +4377,11 @@
       <c r="P40" s="174"/>
     </row>
     <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="364"/>
-      <c r="B41" s="361"/>
-      <c r="C41" s="364"/>
-      <c r="D41" s="364"/>
-      <c r="E41" s="364"/>
+      <c r="A41" s="384"/>
+      <c r="B41" s="381"/>
+      <c r="C41" s="384"/>
+      <c r="D41" s="384"/>
+      <c r="E41" s="384"/>
       <c r="F41" s="165"/>
       <c r="G41" s="165"/>
       <c r="H41" s="166"/>
@@ -4392,11 +4395,11 @@
       <c r="P41" s="326"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="372"/>
-      <c r="B42" s="374"/>
-      <c r="C42" s="372"/>
-      <c r="D42" s="372"/>
-      <c r="E42" s="372"/>
+      <c r="A42" s="385"/>
+      <c r="B42" s="387"/>
+      <c r="C42" s="385"/>
+      <c r="D42" s="385"/>
+      <c r="E42" s="385"/>
       <c r="F42" s="207"/>
       <c r="G42" s="207"/>
       <c r="H42" s="208"/>
@@ -4410,11 +4413,11 @@
       <c r="P42" s="325"/>
     </row>
     <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="373"/>
+      <c r="A43" s="360"/>
       <c r="B43" s="375"/>
-      <c r="C43" s="373"/>
-      <c r="D43" s="373"/>
-      <c r="E43" s="373"/>
+      <c r="C43" s="360"/>
+      <c r="D43" s="360"/>
+      <c r="E43" s="360"/>
       <c r="F43" s="309"/>
       <c r="G43" s="309"/>
       <c r="H43" s="310"/>
@@ -4428,11 +4431,11 @@
       <c r="P43" s="331"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="372"/>
-      <c r="B44" s="374"/>
-      <c r="C44" s="372"/>
-      <c r="D44" s="382"/>
-      <c r="E44" s="372"/>
+      <c r="A44" s="385"/>
+      <c r="B44" s="387"/>
+      <c r="C44" s="385"/>
+      <c r="D44" s="388"/>
+      <c r="E44" s="385"/>
       <c r="F44" s="162"/>
       <c r="G44" s="162"/>
       <c r="H44" s="163"/>
@@ -4446,11 +4449,11 @@
       <c r="P44" s="332"/>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="373"/>
+      <c r="A45" s="360"/>
       <c r="B45" s="375"/>
-      <c r="C45" s="373"/>
-      <c r="D45" s="383"/>
-      <c r="E45" s="373"/>
+      <c r="C45" s="360"/>
+      <c r="D45" s="372"/>
+      <c r="E45" s="360"/>
       <c r="F45" s="174"/>
       <c r="G45" s="174"/>
       <c r="H45" s="175"/>
@@ -4464,11 +4467,11 @@
       <c r="P45" s="199"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="376"/>
-      <c r="B46" s="381"/>
-      <c r="C46" s="376"/>
-      <c r="D46" s="384"/>
-      <c r="E46" s="376"/>
+      <c r="A46" s="386"/>
+      <c r="B46" s="389"/>
+      <c r="C46" s="386"/>
+      <c r="D46" s="390"/>
+      <c r="E46" s="386"/>
       <c r="F46" s="165"/>
       <c r="G46" s="165"/>
       <c r="H46" s="166"/>
@@ -4518,11 +4521,11 @@
       <c r="P48" s="156"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="373"/>
+      <c r="A49" s="360"/>
       <c r="B49" s="375"/>
-      <c r="C49" s="373"/>
-      <c r="D49" s="373"/>
-      <c r="E49" s="373"/>
+      <c r="C49" s="360"/>
+      <c r="D49" s="360"/>
+      <c r="E49" s="360"/>
       <c r="F49" s="207"/>
       <c r="G49" s="207"/>
       <c r="H49" s="208"/>
@@ -4536,11 +4539,11 @@
       <c r="P49" s="325"/>
     </row>
     <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="373"/>
+      <c r="A50" s="360"/>
       <c r="B50" s="375"/>
-      <c r="C50" s="373"/>
-      <c r="D50" s="373"/>
-      <c r="E50" s="373"/>
+      <c r="C50" s="360"/>
+      <c r="D50" s="360"/>
+      <c r="E50" s="360"/>
       <c r="F50" s="309"/>
       <c r="G50" s="309"/>
       <c r="H50" s="310"/>
@@ -4554,11 +4557,11 @@
       <c r="P50" s="331"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="362"/>
-      <c r="B51" s="359"/>
-      <c r="C51" s="362"/>
-      <c r="D51" s="362"/>
-      <c r="E51" s="362"/>
+      <c r="A51" s="382"/>
+      <c r="B51" s="379"/>
+      <c r="C51" s="382"/>
+      <c r="D51" s="382"/>
+      <c r="E51" s="382"/>
       <c r="F51" s="162"/>
       <c r="G51" s="162"/>
       <c r="H51" s="163"/>
@@ -4572,11 +4575,11 @@
       <c r="P51" s="332"/>
     </row>
     <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="363"/>
-      <c r="B52" s="360"/>
-      <c r="C52" s="363"/>
-      <c r="D52" s="363"/>
-      <c r="E52" s="363"/>
+      <c r="A52" s="383"/>
+      <c r="B52" s="380"/>
+      <c r="C52" s="383"/>
+      <c r="D52" s="383"/>
+      <c r="E52" s="383"/>
       <c r="F52" s="174"/>
       <c r="G52" s="174"/>
       <c r="H52" s="175"/>
@@ -4590,11 +4593,11 @@
       <c r="P52" s="199"/>
     </row>
     <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="363"/>
-      <c r="B53" s="360"/>
-      <c r="C53" s="363"/>
-      <c r="D53" s="363"/>
-      <c r="E53" s="363"/>
+      <c r="A53" s="383"/>
+      <c r="B53" s="380"/>
+      <c r="C53" s="383"/>
+      <c r="D53" s="383"/>
+      <c r="E53" s="383"/>
       <c r="F53" s="174"/>
       <c r="G53" s="174"/>
       <c r="H53" s="175"/>
@@ -4608,11 +4611,11 @@
       <c r="P53" s="174"/>
     </row>
     <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="364"/>
-      <c r="B54" s="361"/>
-      <c r="C54" s="364"/>
-      <c r="D54" s="364"/>
-      <c r="E54" s="364"/>
+      <c r="A54" s="384"/>
+      <c r="B54" s="381"/>
+      <c r="C54" s="384"/>
+      <c r="D54" s="384"/>
+      <c r="E54" s="384"/>
       <c r="F54" s="165"/>
       <c r="G54" s="165"/>
       <c r="H54" s="166"/>
@@ -4626,11 +4629,11 @@
       <c r="P54" s="165"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="362"/>
-      <c r="B55" s="359"/>
-      <c r="C55" s="362"/>
-      <c r="D55" s="362"/>
-      <c r="E55" s="362"/>
+      <c r="A55" s="382"/>
+      <c r="B55" s="379"/>
+      <c r="C55" s="382"/>
+      <c r="D55" s="382"/>
+      <c r="E55" s="382"/>
       <c r="F55" s="162"/>
       <c r="G55" s="162"/>
       <c r="H55" s="163"/>
@@ -4644,11 +4647,11 @@
       <c r="P55" s="162"/>
     </row>
     <row r="56" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="363"/>
-      <c r="B56" s="360"/>
-      <c r="C56" s="363"/>
-      <c r="D56" s="363"/>
-      <c r="E56" s="363"/>
+      <c r="A56" s="383"/>
+      <c r="B56" s="380"/>
+      <c r="C56" s="383"/>
+      <c r="D56" s="383"/>
+      <c r="E56" s="383"/>
       <c r="F56" s="174"/>
       <c r="G56" s="174"/>
       <c r="H56" s="175"/>
@@ -4662,11 +4665,11 @@
       <c r="P56" s="174"/>
     </row>
     <row r="57" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="364"/>
-      <c r="B57" s="361"/>
-      <c r="C57" s="364"/>
-      <c r="D57" s="364"/>
-      <c r="E57" s="364"/>
+      <c r="A57" s="384"/>
+      <c r="B57" s="381"/>
+      <c r="C57" s="384"/>
+      <c r="D57" s="384"/>
+      <c r="E57" s="384"/>
       <c r="F57" s="165"/>
       <c r="G57" s="165"/>
       <c r="H57" s="166"/>
@@ -4716,11 +4719,11 @@
       <c r="P59" s="174"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="385"/>
-      <c r="B60" s="387"/>
-      <c r="C60" s="385"/>
-      <c r="D60" s="385"/>
-      <c r="E60" s="385"/>
+      <c r="A60" s="359"/>
+      <c r="B60" s="374"/>
+      <c r="C60" s="359"/>
+      <c r="D60" s="359"/>
+      <c r="E60" s="359"/>
       <c r="F60" s="174"/>
       <c r="G60" s="174"/>
       <c r="H60" s="175"/>
@@ -4734,11 +4737,11 @@
       <c r="P60" s="174"/>
     </row>
     <row r="61" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="386"/>
-      <c r="B61" s="388"/>
-      <c r="C61" s="386"/>
-      <c r="D61" s="386"/>
-      <c r="E61" s="386"/>
+      <c r="A61" s="361"/>
+      <c r="B61" s="376"/>
+      <c r="C61" s="361"/>
+      <c r="D61" s="361"/>
+      <c r="E61" s="361"/>
       <c r="F61" s="174"/>
       <c r="G61" s="174"/>
       <c r="H61" s="175"/>
@@ -4752,11 +4755,11 @@
       <c r="P61" s="174"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" s="385"/>
-      <c r="B62" s="387"/>
-      <c r="C62" s="385"/>
-      <c r="D62" s="385"/>
-      <c r="E62" s="385"/>
+      <c r="A62" s="359"/>
+      <c r="B62" s="374"/>
+      <c r="C62" s="359"/>
+      <c r="D62" s="359"/>
+      <c r="E62" s="359"/>
       <c r="F62" s="174"/>
       <c r="G62" s="174"/>
       <c r="H62" s="175"/>
@@ -4770,11 +4773,11 @@
       <c r="P62" s="174"/>
     </row>
     <row r="63" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="386"/>
-      <c r="B63" s="388"/>
-      <c r="C63" s="386"/>
-      <c r="D63" s="386"/>
-      <c r="E63" s="386"/>
+      <c r="A63" s="361"/>
+      <c r="B63" s="376"/>
+      <c r="C63" s="361"/>
+      <c r="D63" s="361"/>
+      <c r="E63" s="361"/>
       <c r="F63" s="174"/>
       <c r="G63" s="174"/>
       <c r="H63" s="175"/>
@@ -4824,11 +4827,11 @@
       <c r="P65" s="174"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="385"/>
-      <c r="B66" s="387"/>
-      <c r="C66" s="385"/>
-      <c r="D66" s="385"/>
-      <c r="E66" s="385"/>
+      <c r="A66" s="359"/>
+      <c r="B66" s="374"/>
+      <c r="C66" s="359"/>
+      <c r="D66" s="359"/>
+      <c r="E66" s="359"/>
       <c r="F66" s="174"/>
       <c r="G66" s="174"/>
       <c r="H66" s="175"/>
@@ -4839,14 +4842,14 @@
       <c r="M66" s="175"/>
       <c r="N66" s="175"/>
       <c r="O66" s="175"/>
-      <c r="P66" s="389"/>
+      <c r="P66" s="377"/>
     </row>
     <row r="67" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="386"/>
-      <c r="B67" s="388"/>
-      <c r="C67" s="386"/>
-      <c r="D67" s="386"/>
-      <c r="E67" s="386"/>
+      <c r="A67" s="361"/>
+      <c r="B67" s="376"/>
+      <c r="C67" s="361"/>
+      <c r="D67" s="361"/>
+      <c r="E67" s="361"/>
       <c r="F67" s="174"/>
       <c r="G67" s="174"/>
       <c r="H67" s="175"/>
@@ -4857,130 +4860,130 @@
       <c r="M67" s="175"/>
       <c r="N67" s="175"/>
       <c r="O67" s="175"/>
-      <c r="P67" s="390"/>
+      <c r="P67" s="378"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="385"/>
-      <c r="B68" s="387"/>
-      <c r="C68" s="385"/>
-      <c r="D68" s="400"/>
-      <c r="E68" s="385"/>
+      <c r="A68" s="359"/>
+      <c r="B68" s="374"/>
+      <c r="C68" s="359"/>
+      <c r="D68" s="371"/>
+      <c r="E68" s="359"/>
       <c r="F68" s="174"/>
       <c r="G68" s="174"/>
       <c r="H68" s="175"/>
       <c r="I68" s="175"/>
-      <c r="J68" s="391"/>
-      <c r="K68" s="394"/>
-      <c r="L68" s="397"/>
-      <c r="M68" s="397"/>
+      <c r="J68" s="362"/>
+      <c r="K68" s="365"/>
+      <c r="L68" s="368"/>
+      <c r="M68" s="368"/>
       <c r="N68" s="175"/>
       <c r="O68" s="175"/>
       <c r="P68" s="174"/>
     </row>
     <row r="69" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="373"/>
+      <c r="A69" s="360"/>
       <c r="B69" s="375"/>
-      <c r="C69" s="373"/>
-      <c r="D69" s="383"/>
-      <c r="E69" s="373"/>
+      <c r="C69" s="360"/>
+      <c r="D69" s="372"/>
+      <c r="E69" s="360"/>
       <c r="F69" s="174"/>
       <c r="G69" s="174"/>
       <c r="H69" s="175"/>
       <c r="I69" s="175"/>
-      <c r="J69" s="392"/>
-      <c r="K69" s="395"/>
-      <c r="L69" s="398"/>
-      <c r="M69" s="398"/>
+      <c r="J69" s="363"/>
+      <c r="K69" s="366"/>
+      <c r="L69" s="369"/>
+      <c r="M69" s="369"/>
       <c r="N69" s="175"/>
       <c r="O69" s="175"/>
       <c r="P69" s="174"/>
     </row>
     <row r="70" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="373"/>
+      <c r="A70" s="360"/>
       <c r="B70" s="375"/>
-      <c r="C70" s="373"/>
-      <c r="D70" s="383"/>
-      <c r="E70" s="373"/>
+      <c r="C70" s="360"/>
+      <c r="D70" s="372"/>
+      <c r="E70" s="360"/>
       <c r="F70" s="174"/>
       <c r="G70" s="174"/>
       <c r="H70" s="175"/>
       <c r="I70" s="175"/>
-      <c r="J70" s="392"/>
-      <c r="K70" s="395"/>
-      <c r="L70" s="398"/>
-      <c r="M70" s="398"/>
+      <c r="J70" s="363"/>
+      <c r="K70" s="366"/>
+      <c r="L70" s="369"/>
+      <c r="M70" s="369"/>
       <c r="N70" s="175"/>
       <c r="O70" s="175"/>
       <c r="P70" s="174"/>
     </row>
     <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="373"/>
+      <c r="A71" s="360"/>
       <c r="B71" s="375"/>
-      <c r="C71" s="373"/>
-      <c r="D71" s="383"/>
-      <c r="E71" s="373"/>
+      <c r="C71" s="360"/>
+      <c r="D71" s="372"/>
+      <c r="E71" s="360"/>
       <c r="F71" s="174"/>
       <c r="G71" s="174"/>
       <c r="H71" s="175"/>
       <c r="I71" s="175"/>
-      <c r="J71" s="392"/>
-      <c r="K71" s="395"/>
-      <c r="L71" s="398"/>
-      <c r="M71" s="398"/>
+      <c r="J71" s="363"/>
+      <c r="K71" s="366"/>
+      <c r="L71" s="369"/>
+      <c r="M71" s="369"/>
       <c r="N71" s="175"/>
       <c r="O71" s="175"/>
       <c r="P71" s="174"/>
     </row>
     <row r="72" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="373"/>
+      <c r="A72" s="360"/>
       <c r="B72" s="375"/>
-      <c r="C72" s="373"/>
-      <c r="D72" s="383"/>
-      <c r="E72" s="373"/>
+      <c r="C72" s="360"/>
+      <c r="D72" s="372"/>
+      <c r="E72" s="360"/>
       <c r="F72" s="174"/>
       <c r="G72" s="174"/>
       <c r="H72" s="175"/>
       <c r="I72" s="175"/>
-      <c r="J72" s="392"/>
-      <c r="K72" s="395"/>
-      <c r="L72" s="398"/>
-      <c r="M72" s="398"/>
+      <c r="J72" s="363"/>
+      <c r="K72" s="366"/>
+      <c r="L72" s="369"/>
+      <c r="M72" s="369"/>
       <c r="N72" s="175"/>
       <c r="O72" s="175"/>
       <c r="P72" s="174"/>
     </row>
     <row r="73" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="373"/>
+      <c r="A73" s="360"/>
       <c r="B73" s="375"/>
-      <c r="C73" s="373"/>
-      <c r="D73" s="383"/>
-      <c r="E73" s="373"/>
+      <c r="C73" s="360"/>
+      <c r="D73" s="372"/>
+      <c r="E73" s="360"/>
       <c r="F73" s="174"/>
       <c r="G73" s="174"/>
       <c r="H73" s="175"/>
       <c r="I73" s="175"/>
-      <c r="J73" s="392"/>
-      <c r="K73" s="395"/>
-      <c r="L73" s="398"/>
-      <c r="M73" s="398"/>
+      <c r="J73" s="363"/>
+      <c r="K73" s="366"/>
+      <c r="L73" s="369"/>
+      <c r="M73" s="369"/>
       <c r="N73" s="175"/>
       <c r="O73" s="175"/>
       <c r="P73" s="174"/>
     </row>
     <row r="74" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="386"/>
-      <c r="B74" s="388"/>
-      <c r="C74" s="386"/>
-      <c r="D74" s="401"/>
-      <c r="E74" s="386"/>
+      <c r="A74" s="361"/>
+      <c r="B74" s="376"/>
+      <c r="C74" s="361"/>
+      <c r="D74" s="373"/>
+      <c r="E74" s="361"/>
       <c r="F74" s="174"/>
       <c r="G74" s="174"/>
       <c r="H74" s="175"/>
       <c r="I74" s="175"/>
-      <c r="J74" s="393"/>
-      <c r="K74" s="396"/>
-      <c r="L74" s="399"/>
-      <c r="M74" s="399"/>
+      <c r="J74" s="364"/>
+      <c r="K74" s="367"/>
+      <c r="L74" s="370"/>
+      <c r="M74" s="370"/>
       <c r="N74" s="175"/>
       <c r="O74" s="175"/>
       <c r="P74" s="199"/>
@@ -5040,14 +5043,14 @@
       <c r="P77" s="165"/>
     </row>
     <row r="78" spans="1:17" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="377" t="s">
+      <c r="A78" s="392" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="377"/>
-      <c r="C78" s="377"/>
-      <c r="D78" s="377"/>
-      <c r="E78" s="377"/>
-      <c r="F78" s="377"/>
+      <c r="B78" s="392"/>
+      <c r="C78" s="392"/>
+      <c r="D78" s="392"/>
+      <c r="E78" s="392"/>
+      <c r="F78" s="392"/>
       <c r="G78" s="131">
         <f>SUM(G8:G77)</f>
         <v>0</v>
@@ -5067,17 +5070,17 @@
       <c r="N78" s="132"/>
       <c r="O78" s="132"/>
       <c r="P78" s="132"/>
-      <c r="Q78" s="365"/>
+      <c r="Q78" s="398"/>
     </row>
     <row r="79" spans="1:17" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="366" t="s">
+      <c r="A79" s="391" t="s">
         <v>135</v>
       </c>
-      <c r="B79" s="366"/>
-      <c r="C79" s="366"/>
-      <c r="D79" s="366"/>
-      <c r="E79" s="366"/>
-      <c r="F79" s="366"/>
+      <c r="B79" s="391"/>
+      <c r="C79" s="391"/>
+      <c r="D79" s="391"/>
+      <c r="E79" s="391"/>
+      <c r="F79" s="391"/>
       <c r="G79" s="131">
         <f>G78</f>
         <v>0</v>
@@ -5094,17 +5097,17 @@
       <c r="N79" s="136"/>
       <c r="O79" s="136"/>
       <c r="P79" s="136"/>
-      <c r="Q79" s="365"/>
+      <c r="Q79" s="398"/>
     </row>
     <row r="80" spans="1:17" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="366" t="s">
+      <c r="A80" s="468" t="s">
         <v>77</v>
       </c>
-      <c r="B80" s="366"/>
-      <c r="C80" s="366"/>
-      <c r="D80" s="366"/>
-      <c r="E80" s="366"/>
-      <c r="F80" s="366"/>
+      <c r="B80" s="468"/>
+      <c r="C80" s="468"/>
+      <c r="D80" s="468"/>
+      <c r="E80" s="468"/>
+      <c r="F80" s="468"/>
       <c r="G80" s="137" t="s">
         <v>45</v>
       </c>
@@ -5122,14 +5125,14 @@
       <c r="P80" s="138"/>
     </row>
     <row r="81" spans="1:16" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="366" t="s">
+      <c r="A81" s="391" t="s">
         <v>78</v>
       </c>
-      <c r="B81" s="366"/>
-      <c r="C81" s="366"/>
-      <c r="D81" s="366"/>
-      <c r="E81" s="366"/>
-      <c r="F81" s="366"/>
+      <c r="B81" s="391"/>
+      <c r="C81" s="391"/>
+      <c r="D81" s="391"/>
+      <c r="E81" s="391"/>
+      <c r="F81" s="391"/>
       <c r="G81" s="136"/>
       <c r="H81" s="136"/>
       <c r="I81" s="132"/>
@@ -5145,14 +5148,14 @@
       <c r="P81" s="138"/>
     </row>
     <row r="82" spans="1:16" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="366" t="s">
+      <c r="A82" s="391" t="s">
         <v>79</v>
       </c>
-      <c r="B82" s="366"/>
-      <c r="C82" s="366"/>
-      <c r="D82" s="366"/>
-      <c r="E82" s="366"/>
-      <c r="F82" s="366"/>
+      <c r="B82" s="391"/>
+      <c r="C82" s="391"/>
+      <c r="D82" s="391"/>
+      <c r="E82" s="391"/>
+      <c r="F82" s="391"/>
       <c r="G82" s="136"/>
       <c r="H82" s="136"/>
       <c r="I82" s="132"/>
@@ -5223,25 +5226,77 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="114">
-    <mergeCell ref="E68:E74"/>
-    <mergeCell ref="J68:J74"/>
-    <mergeCell ref="K68:K74"/>
-    <mergeCell ref="L68:L74"/>
-    <mergeCell ref="M68:M74"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="D68:D74"/>
-    <mergeCell ref="B68:B74"/>
-    <mergeCell ref="C68:C74"/>
-    <mergeCell ref="A68:A74"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="Q78:Q79"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="D60:D61"/>
@@ -5266,77 +5321,25 @@
     <mergeCell ref="B25:B29"/>
     <mergeCell ref="A25:A29"/>
     <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="Q78:Q79"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="E68:E74"/>
+    <mergeCell ref="J68:J74"/>
+    <mergeCell ref="K68:K74"/>
+    <mergeCell ref="L68:L74"/>
+    <mergeCell ref="M68:M74"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="D68:D74"/>
+    <mergeCell ref="B68:B74"/>
+    <mergeCell ref="C68:C74"/>
+    <mergeCell ref="A68:A74"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.22" top="0.4" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5381,75 +5384,75 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="404" t="s">
+      <c r="A3" s="412" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="404"/>
-      <c r="C3" s="404"/>
-      <c r="D3" s="404"/>
-      <c r="E3" s="404"/>
-      <c r="F3" s="404"/>
-      <c r="G3" s="404"/>
-      <c r="H3" s="404"/>
-      <c r="I3" s="404"/>
-      <c r="J3" s="404"/>
-      <c r="K3" s="404"/>
+      <c r="B3" s="412"/>
+      <c r="C3" s="412"/>
+      <c r="D3" s="412"/>
+      <c r="E3" s="412"/>
+      <c r="F3" s="412"/>
+      <c r="G3" s="412"/>
+      <c r="H3" s="412"/>
+      <c r="I3" s="412"/>
+      <c r="J3" s="412"/>
+      <c r="K3" s="412"/>
       <c r="L3" s="261"/>
       <c r="M3" s="261"/>
       <c r="N3" s="261"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="405" t="s">
+      <c r="A4" s="413" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="405"/>
-      <c r="C4" s="405"/>
-      <c r="D4" s="405"/>
-      <c r="E4" s="405"/>
-      <c r="F4" s="405"/>
-      <c r="G4" s="405"/>
-      <c r="H4" s="405"/>
-      <c r="I4" s="405"/>
-      <c r="J4" s="406"/>
-      <c r="K4" s="405"/>
+      <c r="B4" s="413"/>
+      <c r="C4" s="413"/>
+      <c r="D4" s="413"/>
+      <c r="E4" s="413"/>
+      <c r="F4" s="413"/>
+      <c r="G4" s="413"/>
+      <c r="H4" s="413"/>
+      <c r="I4" s="413"/>
+      <c r="J4" s="414"/>
+      <c r="K4" s="413"/>
       <c r="L4" s="262"/>
       <c r="M4" s="262"/>
       <c r="N4" s="262"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="407" t="s">
+      <c r="A5" s="415" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="408" t="s">
+      <c r="B5" s="416" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="407" t="s">
+      <c r="C5" s="415" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="407" t="s">
+      <c r="D5" s="415" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="407"/>
-      <c r="F5" s="409" t="s">
+      <c r="E5" s="415"/>
+      <c r="F5" s="417" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="409"/>
-      <c r="H5" s="409"/>
-      <c r="I5" s="409"/>
-      <c r="J5" s="410"/>
-      <c r="K5" s="411" t="s">
+      <c r="G5" s="417"/>
+      <c r="H5" s="417"/>
+      <c r="I5" s="417"/>
+      <c r="J5" s="418"/>
+      <c r="K5" s="419" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="403" t="s">
+      <c r="L5" s="411" t="s">
         <v>92</v>
       </c>
-      <c r="M5" s="403"/>
-      <c r="N5" s="403"/>
+      <c r="M5" s="411"/>
+      <c r="N5" s="411"/>
     </row>
     <row r="6" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="407"/>
-      <c r="B6" s="408"/>
-      <c r="C6" s="407"/>
+      <c r="A6" s="415"/>
+      <c r="B6" s="416"/>
+      <c r="C6" s="415"/>
       <c r="D6" s="263" t="s">
         <v>40</v>
       </c>
@@ -5471,7 +5474,7 @@
       <c r="J6" s="267" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="411"/>
+      <c r="K6" s="419"/>
       <c r="L6" s="268" t="s">
         <v>52</v>
       </c>
@@ -5483,11 +5486,11 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="412"/>
-      <c r="B7" s="415"/>
-      <c r="C7" s="412"/>
-      <c r="D7" s="412"/>
-      <c r="E7" s="412"/>
+      <c r="A7" s="420"/>
+      <c r="B7" s="421"/>
+      <c r="C7" s="420"/>
+      <c r="D7" s="420"/>
+      <c r="E7" s="420"/>
       <c r="F7" s="269"/>
       <c r="G7" s="269"/>
       <c r="H7" s="270"/>
@@ -5499,11 +5502,11 @@
       <c r="N7" s="273"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="413"/>
-      <c r="B8" s="416"/>
-      <c r="C8" s="413"/>
-      <c r="D8" s="413"/>
-      <c r="E8" s="413"/>
+      <c r="A8" s="406"/>
+      <c r="B8" s="403"/>
+      <c r="C8" s="406"/>
+      <c r="D8" s="406"/>
+      <c r="E8" s="406"/>
       <c r="F8" s="274"/>
       <c r="G8" s="274"/>
       <c r="H8" s="275"/>
@@ -5515,11 +5518,11 @@
       <c r="N8" s="278"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="414"/>
-      <c r="B9" s="417"/>
-      <c r="C9" s="414"/>
-      <c r="D9" s="414"/>
-      <c r="E9" s="414"/>
+      <c r="A9" s="408"/>
+      <c r="B9" s="409"/>
+      <c r="C9" s="408"/>
+      <c r="D9" s="408"/>
+      <c r="E9" s="408"/>
       <c r="F9" s="274"/>
       <c r="G9" s="274"/>
       <c r="H9" s="275"/>
@@ -5547,11 +5550,11 @@
       <c r="N10" s="278"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="418"/>
-      <c r="B11" s="419"/>
-      <c r="C11" s="418"/>
-      <c r="D11" s="418"/>
-      <c r="E11" s="418"/>
+      <c r="A11" s="405"/>
+      <c r="B11" s="402"/>
+      <c r="C11" s="405"/>
+      <c r="D11" s="405"/>
+      <c r="E11" s="405"/>
       <c r="F11" s="274"/>
       <c r="G11" s="274"/>
       <c r="H11" s="275"/>
@@ -5563,11 +5566,11 @@
       <c r="N11" s="278"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="413"/>
-      <c r="B12" s="416"/>
-      <c r="C12" s="413"/>
-      <c r="D12" s="413"/>
-      <c r="E12" s="413"/>
+      <c r="A12" s="406"/>
+      <c r="B12" s="403"/>
+      <c r="C12" s="406"/>
+      <c r="D12" s="406"/>
+      <c r="E12" s="406"/>
       <c r="F12" s="274"/>
       <c r="G12" s="274"/>
       <c r="H12" s="275"/>
@@ -5579,11 +5582,11 @@
       <c r="N12" s="278"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="414"/>
-      <c r="B13" s="417"/>
-      <c r="C13" s="414"/>
-      <c r="D13" s="414"/>
-      <c r="E13" s="414"/>
+      <c r="A13" s="408"/>
+      <c r="B13" s="409"/>
+      <c r="C13" s="408"/>
+      <c r="D13" s="408"/>
+      <c r="E13" s="408"/>
       <c r="F13" s="274"/>
       <c r="G13" s="274"/>
       <c r="H13" s="275"/>
@@ -5595,11 +5598,11 @@
       <c r="N13" s="278"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="418"/>
-      <c r="B14" s="419"/>
-      <c r="C14" s="418"/>
-      <c r="D14" s="418"/>
-      <c r="E14" s="418"/>
+      <c r="A14" s="405"/>
+      <c r="B14" s="402"/>
+      <c r="C14" s="405"/>
+      <c r="D14" s="405"/>
+      <c r="E14" s="405"/>
       <c r="F14" s="274"/>
       <c r="G14" s="274"/>
       <c r="H14" s="275"/>
@@ -5611,11 +5614,11 @@
       <c r="N14" s="278"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="413"/>
-      <c r="B15" s="416"/>
-      <c r="C15" s="413"/>
-      <c r="D15" s="413"/>
-      <c r="E15" s="413"/>
+      <c r="A15" s="406"/>
+      <c r="B15" s="403"/>
+      <c r="C15" s="406"/>
+      <c r="D15" s="406"/>
+      <c r="E15" s="406"/>
       <c r="F15" s="274"/>
       <c r="G15" s="274"/>
       <c r="H15" s="275"/>
@@ -5627,11 +5630,11 @@
       <c r="N15" s="278"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="413"/>
-      <c r="B16" s="416"/>
-      <c r="C16" s="413"/>
-      <c r="D16" s="413"/>
-      <c r="E16" s="413"/>
+      <c r="A16" s="406"/>
+      <c r="B16" s="403"/>
+      <c r="C16" s="406"/>
+      <c r="D16" s="406"/>
+      <c r="E16" s="406"/>
       <c r="F16" s="274"/>
       <c r="G16" s="274"/>
       <c r="H16" s="275"/>
@@ -5643,11 +5646,11 @@
       <c r="N16" s="278"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="414"/>
-      <c r="B17" s="417"/>
-      <c r="C17" s="414"/>
-      <c r="D17" s="414"/>
-      <c r="E17" s="414"/>
+      <c r="A17" s="408"/>
+      <c r="B17" s="409"/>
+      <c r="C17" s="408"/>
+      <c r="D17" s="408"/>
+      <c r="E17" s="408"/>
       <c r="F17" s="274"/>
       <c r="G17" s="274"/>
       <c r="H17" s="275"/>
@@ -5659,11 +5662,11 @@
       <c r="N17" s="278"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="418"/>
-      <c r="B18" s="419"/>
-      <c r="C18" s="418"/>
-      <c r="D18" s="418"/>
-      <c r="E18" s="418"/>
+      <c r="A18" s="405"/>
+      <c r="B18" s="402"/>
+      <c r="C18" s="405"/>
+      <c r="D18" s="405"/>
+      <c r="E18" s="405"/>
       <c r="F18" s="274"/>
       <c r="G18" s="274"/>
       <c r="H18" s="275"/>
@@ -5675,11 +5678,11 @@
       <c r="N18" s="278"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="413"/>
-      <c r="B19" s="416"/>
-      <c r="C19" s="413"/>
-      <c r="D19" s="413"/>
-      <c r="E19" s="413"/>
+      <c r="A19" s="406"/>
+      <c r="B19" s="403"/>
+      <c r="C19" s="406"/>
+      <c r="D19" s="406"/>
+      <c r="E19" s="406"/>
       <c r="F19" s="274"/>
       <c r="G19" s="274"/>
       <c r="H19" s="275"/>
@@ -5691,11 +5694,11 @@
       <c r="N19" s="278"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="414"/>
-      <c r="B20" s="417"/>
-      <c r="C20" s="414"/>
-      <c r="D20" s="414"/>
-      <c r="E20" s="414"/>
+      <c r="A20" s="408"/>
+      <c r="B20" s="409"/>
+      <c r="C20" s="408"/>
+      <c r="D20" s="408"/>
+      <c r="E20" s="408"/>
       <c r="F20" s="274"/>
       <c r="G20" s="274"/>
       <c r="H20" s="275"/>
@@ -5723,11 +5726,11 @@
       <c r="N21" s="278"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="418"/>
-      <c r="B22" s="419"/>
-      <c r="C22" s="418"/>
-      <c r="D22" s="418"/>
-      <c r="E22" s="418"/>
+      <c r="A22" s="405"/>
+      <c r="B22" s="402"/>
+      <c r="C22" s="405"/>
+      <c r="D22" s="405"/>
+      <c r="E22" s="405"/>
       <c r="F22" s="274"/>
       <c r="G22" s="274"/>
       <c r="H22" s="275"/>
@@ -5739,11 +5742,11 @@
       <c r="N22" s="278"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="413"/>
-      <c r="B23" s="416"/>
-      <c r="C23" s="413"/>
-      <c r="D23" s="413"/>
-      <c r="E23" s="413"/>
+      <c r="A23" s="406"/>
+      <c r="B23" s="403"/>
+      <c r="C23" s="406"/>
+      <c r="D23" s="406"/>
+      <c r="E23" s="406"/>
       <c r="F23" s="274"/>
       <c r="G23" s="274"/>
       <c r="H23" s="275"/>
@@ -5755,11 +5758,11 @@
       <c r="N23" s="278"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="414"/>
-      <c r="B24" s="417"/>
-      <c r="C24" s="414"/>
-      <c r="D24" s="414"/>
-      <c r="E24" s="414"/>
+      <c r="A24" s="408"/>
+      <c r="B24" s="409"/>
+      <c r="C24" s="408"/>
+      <c r="D24" s="408"/>
+      <c r="E24" s="408"/>
       <c r="F24" s="274"/>
       <c r="G24" s="274"/>
       <c r="H24" s="275"/>
@@ -5803,11 +5806,11 @@
       <c r="N26" s="278"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="418"/>
-      <c r="B27" s="419"/>
-      <c r="C27" s="418"/>
-      <c r="D27" s="418"/>
-      <c r="E27" s="418"/>
+      <c r="A27" s="405"/>
+      <c r="B27" s="402"/>
+      <c r="C27" s="405"/>
+      <c r="D27" s="405"/>
+      <c r="E27" s="405"/>
       <c r="F27" s="274"/>
       <c r="G27" s="274"/>
       <c r="H27" s="275"/>
@@ -5819,11 +5822,11 @@
       <c r="N27" s="278"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="414"/>
-      <c r="B28" s="417"/>
-      <c r="C28" s="414"/>
-      <c r="D28" s="414"/>
-      <c r="E28" s="414"/>
+      <c r="A28" s="408"/>
+      <c r="B28" s="409"/>
+      <c r="C28" s="408"/>
+      <c r="D28" s="408"/>
+      <c r="E28" s="408"/>
       <c r="F28" s="274"/>
       <c r="G28" s="274"/>
       <c r="H28" s="275"/>
@@ -5835,11 +5838,11 @@
       <c r="N28" s="278"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="418"/>
-      <c r="B29" s="419"/>
-      <c r="C29" s="418"/>
-      <c r="D29" s="418"/>
-      <c r="E29" s="418"/>
+      <c r="A29" s="405"/>
+      <c r="B29" s="402"/>
+      <c r="C29" s="405"/>
+      <c r="D29" s="405"/>
+      <c r="E29" s="405"/>
       <c r="F29" s="274"/>
       <c r="G29" s="274"/>
       <c r="H29" s="275"/>
@@ -5851,11 +5854,11 @@
       <c r="N29" s="278"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="414"/>
-      <c r="B30" s="417"/>
-      <c r="C30" s="414"/>
-      <c r="D30" s="414"/>
-      <c r="E30" s="414"/>
+      <c r="A30" s="408"/>
+      <c r="B30" s="409"/>
+      <c r="C30" s="408"/>
+      <c r="D30" s="408"/>
+      <c r="E30" s="408"/>
       <c r="F30" s="274"/>
       <c r="G30" s="274"/>
       <c r="H30" s="275"/>
@@ -5867,11 +5870,11 @@
       <c r="N30" s="278"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="418"/>
-      <c r="B31" s="419"/>
-      <c r="C31" s="418"/>
-      <c r="D31" s="418"/>
-      <c r="E31" s="418"/>
+      <c r="A31" s="405"/>
+      <c r="B31" s="402"/>
+      <c r="C31" s="405"/>
+      <c r="D31" s="405"/>
+      <c r="E31" s="405"/>
       <c r="F31" s="274"/>
       <c r="G31" s="274"/>
       <c r="H31" s="275"/>
@@ -5883,11 +5886,11 @@
       <c r="N31" s="278"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="413"/>
-      <c r="B32" s="416"/>
-      <c r="C32" s="413"/>
-      <c r="D32" s="413"/>
-      <c r="E32" s="413"/>
+      <c r="A32" s="406"/>
+      <c r="B32" s="403"/>
+      <c r="C32" s="406"/>
+      <c r="D32" s="406"/>
+      <c r="E32" s="406"/>
       <c r="F32" s="274"/>
       <c r="G32" s="274"/>
       <c r="H32" s="275"/>
@@ -5899,11 +5902,11 @@
       <c r="N32" s="278"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="413"/>
-      <c r="B33" s="416"/>
-      <c r="C33" s="413"/>
-      <c r="D33" s="413"/>
-      <c r="E33" s="413"/>
+      <c r="A33" s="406"/>
+      <c r="B33" s="403"/>
+      <c r="C33" s="406"/>
+      <c r="D33" s="406"/>
+      <c r="E33" s="406"/>
       <c r="F33" s="274"/>
       <c r="G33" s="274"/>
       <c r="H33" s="275"/>
@@ -5915,11 +5918,11 @@
       <c r="N33" s="278"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="421"/>
-      <c r="B34" s="420"/>
-      <c r="C34" s="421"/>
-      <c r="D34" s="421"/>
-      <c r="E34" s="421"/>
+      <c r="A34" s="407"/>
+      <c r="B34" s="404"/>
+      <c r="C34" s="407"/>
+      <c r="D34" s="407"/>
+      <c r="E34" s="407"/>
       <c r="F34" s="280"/>
       <c r="G34" s="280"/>
       <c r="H34" s="281"/>
@@ -5931,13 +5934,13 @@
       <c r="N34" s="285"/>
     </row>
     <row r="35" spans="1:14" s="292" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="402" t="s">
+      <c r="A35" s="410" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="402"/>
-      <c r="C35" s="402"/>
-      <c r="D35" s="402"/>
-      <c r="E35" s="402"/>
+      <c r="B35" s="410"/>
+      <c r="C35" s="410"/>
+      <c r="D35" s="410"/>
+      <c r="E35" s="410"/>
       <c r="F35" s="286"/>
       <c r="G35" s="286">
         <f>SUM(G7:G34)</f>
@@ -6025,40 +6028,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="D14:D17"/>
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="A3:K3"/>
@@ -6075,6 +6044,40 @@
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.28000000000000003" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7046,17 +7049,17 @@
       <c r="C1" s="212"/>
       <c r="D1" s="212"/>
       <c r="E1" s="212"/>
-      <c r="Z1" s="446" t="s">
+      <c r="Z1" s="433" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="447"/>
-      <c r="AB1" s="447"/>
-      <c r="AC1" s="447"/>
-      <c r="AD1" s="447"/>
-      <c r="AE1" s="447"/>
-      <c r="AF1" s="447"/>
-      <c r="AG1" s="447"/>
-      <c r="AH1" s="448"/>
+      <c r="AA1" s="434"/>
+      <c r="AB1" s="434"/>
+      <c r="AC1" s="434"/>
+      <c r="AD1" s="434"/>
+      <c r="AE1" s="434"/>
+      <c r="AF1" s="434"/>
+      <c r="AG1" s="434"/>
+      <c r="AH1" s="435"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="215" t="s">
@@ -7066,19 +7069,19 @@
       <c r="C2" s="216"/>
       <c r="D2" s="216"/>
       <c r="E2" s="216"/>
-      <c r="Z2" s="441" t="s">
+      <c r="Z2" s="427" t="s">
         <v>99</v>
       </c>
-      <c r="AA2" s="442"/>
-      <c r="AB2" s="442"/>
-      <c r="AC2" s="442"/>
-      <c r="AD2" s="442"/>
-      <c r="AE2" s="443"/>
-      <c r="AF2" s="444" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG2" s="467"/>
-      <c r="AH2" s="445"/>
+      <c r="AA2" s="428"/>
+      <c r="AB2" s="428"/>
+      <c r="AC2" s="428"/>
+      <c r="AD2" s="428"/>
+      <c r="AE2" s="429"/>
+      <c r="AF2" s="430" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG2" s="431"/>
+      <c r="AH2" s="432"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="215" t="s">
@@ -7088,19 +7091,19 @@
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
-      <c r="Z3" s="441" t="s">
+      <c r="Z3" s="427" t="s">
         <v>102</v>
       </c>
-      <c r="AA3" s="442"/>
-      <c r="AB3" s="442"/>
-      <c r="AC3" s="442"/>
-      <c r="AD3" s="442"/>
-      <c r="AE3" s="443"/>
-      <c r="AF3" s="444" t="s">
+      <c r="AA3" s="428"/>
+      <c r="AB3" s="428"/>
+      <c r="AC3" s="428"/>
+      <c r="AD3" s="428"/>
+      <c r="AE3" s="429"/>
+      <c r="AF3" s="430" t="s">
         <v>103</v>
       </c>
-      <c r="AG3" s="467"/>
-      <c r="AH3" s="445"/>
+      <c r="AG3" s="431"/>
+      <c r="AH3" s="432"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="215" t="s">
@@ -7113,19 +7116,19 @@
       <c r="T4" s="213" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="441" t="s">
+      <c r="Z4" s="427" t="s">
         <v>105</v>
       </c>
-      <c r="AA4" s="442"/>
-      <c r="AB4" s="442"/>
-      <c r="AC4" s="442"/>
-      <c r="AD4" s="442"/>
-      <c r="AE4" s="443"/>
-      <c r="AF4" s="444" t="s">
+      <c r="AA4" s="428"/>
+      <c r="AB4" s="428"/>
+      <c r="AC4" s="428"/>
+      <c r="AD4" s="428"/>
+      <c r="AE4" s="429"/>
+      <c r="AF4" s="430" t="s">
         <v>106</v>
       </c>
-      <c r="AG4" s="467"/>
-      <c r="AH4" s="445"/>
+      <c r="AG4" s="431"/>
+      <c r="AH4" s="432"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="215" t="s">
@@ -7135,19 +7138,19 @@
       <c r="C5" s="79"/>
       <c r="D5" s="79"/>
       <c r="E5" s="79"/>
-      <c r="Z5" s="428" t="s">
+      <c r="Z5" s="437" t="s">
         <v>108</v>
       </c>
-      <c r="AA5" s="428"/>
-      <c r="AB5" s="428"/>
-      <c r="AC5" s="428"/>
-      <c r="AD5" s="428"/>
-      <c r="AE5" s="428"/>
-      <c r="AF5" s="429" t="s">
+      <c r="AA5" s="437"/>
+      <c r="AB5" s="437"/>
+      <c r="AC5" s="437"/>
+      <c r="AD5" s="437"/>
+      <c r="AE5" s="437"/>
+      <c r="AF5" s="438" t="s">
         <v>109</v>
       </c>
-      <c r="AG5" s="429"/>
-      <c r="AH5" s="429"/>
+      <c r="AG5" s="438"/>
+      <c r="AH5" s="438"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="215"/>
@@ -7155,19 +7158,19 @@
       <c r="C6" s="79"/>
       <c r="D6" s="79"/>
       <c r="E6" s="79"/>
-      <c r="Z6" s="441" t="s">
+      <c r="Z6" s="427" t="s">
         <v>129</v>
       </c>
-      <c r="AA6" s="442"/>
-      <c r="AB6" s="442"/>
-      <c r="AC6" s="442"/>
-      <c r="AD6" s="442"/>
-      <c r="AE6" s="443"/>
-      <c r="AF6" s="444" t="s">
+      <c r="AA6" s="428"/>
+      <c r="AB6" s="428"/>
+      <c r="AC6" s="428"/>
+      <c r="AD6" s="428"/>
+      <c r="AE6" s="429"/>
+      <c r="AF6" s="430" t="s">
         <v>126</v>
       </c>
-      <c r="AG6" s="467"/>
-      <c r="AH6" s="445"/>
+      <c r="AG6" s="431"/>
+      <c r="AH6" s="432"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="217"/>
@@ -7177,93 +7180,93 @@
       <c r="E7" s="217"/>
     </row>
     <row r="8" spans="1:40" s="220" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="430" t="s">
+      <c r="A8" s="439" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="430"/>
-      <c r="C8" s="430"/>
-      <c r="D8" s="430"/>
-      <c r="E8" s="430"/>
-      <c r="F8" s="430"/>
-      <c r="G8" s="430"/>
-      <c r="H8" s="430"/>
-      <c r="I8" s="430"/>
-      <c r="J8" s="430"/>
-      <c r="K8" s="430"/>
-      <c r="L8" s="430"/>
-      <c r="M8" s="430"/>
-      <c r="N8" s="430"/>
-      <c r="O8" s="430"/>
-      <c r="P8" s="430"/>
-      <c r="Q8" s="430"/>
-      <c r="R8" s="430"/>
-      <c r="S8" s="430"/>
-      <c r="T8" s="430"/>
-      <c r="U8" s="430"/>
-      <c r="V8" s="430"/>
-      <c r="W8" s="430"/>
-      <c r="X8" s="430"/>
-      <c r="Y8" s="430"/>
-      <c r="Z8" s="430"/>
-      <c r="AA8" s="430"/>
-      <c r="AB8" s="430"/>
-      <c r="AC8" s="430"/>
-      <c r="AD8" s="430"/>
-      <c r="AE8" s="430"/>
-      <c r="AF8" s="430"/>
-      <c r="AG8" s="430"/>
-      <c r="AH8" s="430"/>
-      <c r="AI8" s="430"/>
-      <c r="AJ8" s="430"/>
-      <c r="AK8" s="430"/>
-      <c r="AL8" s="430"/>
-      <c r="AM8" s="430"/>
+      <c r="B8" s="439"/>
+      <c r="C8" s="439"/>
+      <c r="D8" s="439"/>
+      <c r="E8" s="439"/>
+      <c r="F8" s="439"/>
+      <c r="G8" s="439"/>
+      <c r="H8" s="439"/>
+      <c r="I8" s="439"/>
+      <c r="J8" s="439"/>
+      <c r="K8" s="439"/>
+      <c r="L8" s="439"/>
+      <c r="M8" s="439"/>
+      <c r="N8" s="439"/>
+      <c r="O8" s="439"/>
+      <c r="P8" s="439"/>
+      <c r="Q8" s="439"/>
+      <c r="R8" s="439"/>
+      <c r="S8" s="439"/>
+      <c r="T8" s="439"/>
+      <c r="U8" s="439"/>
+      <c r="V8" s="439"/>
+      <c r="W8" s="439"/>
+      <c r="X8" s="439"/>
+      <c r="Y8" s="439"/>
+      <c r="Z8" s="439"/>
+      <c r="AA8" s="439"/>
+      <c r="AB8" s="439"/>
+      <c r="AC8" s="439"/>
+      <c r="AD8" s="439"/>
+      <c r="AE8" s="439"/>
+      <c r="AF8" s="439"/>
+      <c r="AG8" s="439"/>
+      <c r="AH8" s="439"/>
+      <c r="AI8" s="439"/>
+      <c r="AJ8" s="439"/>
+      <c r="AK8" s="439"/>
+      <c r="AL8" s="439"/>
+      <c r="AM8" s="439"/>
       <c r="AN8" s="219"/>
     </row>
     <row r="10" spans="1:40" s="225" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="431" t="s">
+      <c r="A10" s="440" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="431" t="s">
+      <c r="B10" s="440" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="431" t="s">
+      <c r="C10" s="440" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="434" t="s">
+      <c r="D10" s="443" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="435"/>
-      <c r="F10" s="435"/>
-      <c r="G10" s="435"/>
-      <c r="H10" s="435"/>
-      <c r="I10" s="435"/>
-      <c r="J10" s="435"/>
-      <c r="K10" s="435"/>
-      <c r="L10" s="435"/>
-      <c r="M10" s="435"/>
-      <c r="N10" s="435"/>
-      <c r="O10" s="435"/>
-      <c r="P10" s="435"/>
-      <c r="Q10" s="435"/>
-      <c r="R10" s="435"/>
-      <c r="S10" s="435"/>
-      <c r="T10" s="435"/>
-      <c r="U10" s="435"/>
-      <c r="V10" s="435"/>
-      <c r="W10" s="435"/>
-      <c r="X10" s="435"/>
-      <c r="Y10" s="435"/>
-      <c r="Z10" s="435"/>
-      <c r="AA10" s="435"/>
-      <c r="AB10" s="435"/>
-      <c r="AC10" s="435"/>
-      <c r="AD10" s="435"/>
-      <c r="AE10" s="435"/>
-      <c r="AF10" s="435"/>
-      <c r="AG10" s="435"/>
-      <c r="AH10" s="435"/>
-      <c r="AI10" s="436" t="s">
+      <c r="E10" s="444"/>
+      <c r="F10" s="444"/>
+      <c r="G10" s="444"/>
+      <c r="H10" s="444"/>
+      <c r="I10" s="444"/>
+      <c r="J10" s="444"/>
+      <c r="K10" s="444"/>
+      <c r="L10" s="444"/>
+      <c r="M10" s="444"/>
+      <c r="N10" s="444"/>
+      <c r="O10" s="444"/>
+      <c r="P10" s="444"/>
+      <c r="Q10" s="444"/>
+      <c r="R10" s="444"/>
+      <c r="S10" s="444"/>
+      <c r="T10" s="444"/>
+      <c r="U10" s="444"/>
+      <c r="V10" s="444"/>
+      <c r="W10" s="444"/>
+      <c r="X10" s="444"/>
+      <c r="Y10" s="444"/>
+      <c r="Z10" s="444"/>
+      <c r="AA10" s="444"/>
+      <c r="AB10" s="444"/>
+      <c r="AC10" s="444"/>
+      <c r="AD10" s="444"/>
+      <c r="AE10" s="444"/>
+      <c r="AF10" s="444"/>
+      <c r="AG10" s="444"/>
+      <c r="AH10" s="444"/>
+      <c r="AI10" s="445" t="s">
         <v>114</v>
       </c>
       <c r="AJ10" s="221"/>
@@ -7273,9 +7276,9 @@
       <c r="AN10" s="224"/>
     </row>
     <row r="11" spans="1:40" s="225" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="432"/>
-      <c r="B11" s="432"/>
-      <c r="C11" s="432"/>
+      <c r="A11" s="441"/>
+      <c r="B11" s="441"/>
+      <c r="C11" s="441"/>
       <c r="D11" s="226">
         <v>1</v>
       </c>
@@ -7369,7 +7372,7 @@
       <c r="AH11" s="226">
         <v>31</v>
       </c>
-      <c r="AI11" s="436"/>
+      <c r="AI11" s="445"/>
       <c r="AJ11" s="227"/>
       <c r="AK11" s="223"/>
       <c r="AL11" s="223"/>
@@ -7377,9 +7380,9 @@
       <c r="AN11" s="224"/>
     </row>
     <row r="12" spans="1:40" s="231" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="433"/>
-      <c r="B12" s="433"/>
-      <c r="C12" s="433"/>
+      <c r="A12" s="442"/>
+      <c r="B12" s="442"/>
+      <c r="C12" s="442"/>
       <c r="D12" s="226" t="s">
         <v>115</v>
       </c>
@@ -7473,7 +7476,7 @@
       <c r="AH12" s="228" t="s">
         <v>117</v>
       </c>
-      <c r="AI12" s="436"/>
+      <c r="AI12" s="445"/>
       <c r="AJ12" s="230"/>
       <c r="AN12" s="232"/>
     </row>
@@ -7900,10 +7903,10 @@
       <c r="AN16" s="232"/>
     </row>
     <row r="17" spans="1:40" s="231" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="437" t="s">
+      <c r="A17" s="446" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="438"/>
+      <c r="B17" s="447"/>
       <c r="C17" s="238"/>
       <c r="D17" s="238"/>
       <c r="E17" s="239"/>
@@ -7946,47 +7949,47 @@
       <c r="AN17" s="232"/>
     </row>
     <row r="19" spans="1:40" s="248" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="439"/>
-      <c r="B19" s="439"/>
-      <c r="C19" s="439"/>
-      <c r="D19" s="439"/>
-      <c r="E19" s="439"/>
-      <c r="F19" s="439"/>
-      <c r="G19" s="439"/>
+      <c r="A19" s="448"/>
+      <c r="B19" s="448"/>
+      <c r="C19" s="448"/>
+      <c r="D19" s="448"/>
+      <c r="E19" s="448"/>
+      <c r="F19" s="448"/>
+      <c r="G19" s="448"/>
       <c r="H19" s="243"/>
-      <c r="I19" s="440"/>
-      <c r="J19" s="440"/>
-      <c r="K19" s="440"/>
-      <c r="L19" s="440"/>
-      <c r="M19" s="440"/>
+      <c r="I19" s="449"/>
+      <c r="J19" s="449"/>
+      <c r="K19" s="449"/>
+      <c r="L19" s="449"/>
+      <c r="M19" s="449"/>
       <c r="N19" s="244"/>
-      <c r="O19" s="440"/>
-      <c r="P19" s="440"/>
-      <c r="Q19" s="440"/>
-      <c r="R19" s="440"/>
-      <c r="S19" s="440"/>
-      <c r="T19" s="440"/>
-      <c r="U19" s="440"/>
-      <c r="V19" s="440"/>
-      <c r="W19" s="440"/>
-      <c r="X19" s="440"/>
-      <c r="Y19" s="440"/>
+      <c r="O19" s="449"/>
+      <c r="P19" s="449"/>
+      <c r="Q19" s="449"/>
+      <c r="R19" s="449"/>
+      <c r="S19" s="449"/>
+      <c r="T19" s="449"/>
+      <c r="U19" s="449"/>
+      <c r="V19" s="449"/>
+      <c r="W19" s="449"/>
+      <c r="X19" s="449"/>
+      <c r="Y19" s="449"/>
       <c r="Z19" s="245"/>
       <c r="AA19" s="253" t="s">
         <v>13</v>
       </c>
       <c r="AB19" s="246"/>
-      <c r="AC19" s="440"/>
-      <c r="AD19" s="440"/>
-      <c r="AE19" s="440"/>
-      <c r="AF19" s="440"/>
-      <c r="AG19" s="440"/>
-      <c r="AH19" s="440"/>
-      <c r="AI19" s="440"/>
-      <c r="AJ19" s="440"/>
-      <c r="AK19" s="440"/>
-      <c r="AL19" s="440"/>
-      <c r="AM19" s="440"/>
+      <c r="AC19" s="449"/>
+      <c r="AD19" s="449"/>
+      <c r="AE19" s="449"/>
+      <c r="AF19" s="449"/>
+      <c r="AG19" s="449"/>
+      <c r="AH19" s="449"/>
+      <c r="AI19" s="449"/>
+      <c r="AJ19" s="449"/>
+      <c r="AK19" s="449"/>
+      <c r="AL19" s="449"/>
+      <c r="AM19" s="449"/>
       <c r="AN19" s="247"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
@@ -8025,131 +8028,131 @@
       <c r="AN34" s="252"/>
     </row>
     <row r="35" spans="3:40" s="251" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="427"/>
-      <c r="H35" s="427"/>
-      <c r="I35" s="427"/>
-      <c r="J35" s="427"/>
-      <c r="K35" s="427"/>
-      <c r="L35" s="427"/>
-      <c r="M35" s="427"/>
-      <c r="N35" s="427"/>
-      <c r="O35" s="427"/>
-      <c r="P35" s="427"/>
-      <c r="Q35" s="427"/>
-      <c r="R35" s="427"/>
-      <c r="S35" s="427"/>
-      <c r="T35" s="427"/>
-      <c r="U35" s="427"/>
-      <c r="V35" s="427"/>
-      <c r="W35" s="427"/>
-      <c r="X35" s="427"/>
+      <c r="G35" s="436"/>
+      <c r="H35" s="436"/>
+      <c r="I35" s="436"/>
+      <c r="J35" s="436"/>
+      <c r="K35" s="436"/>
+      <c r="L35" s="436"/>
+      <c r="M35" s="436"/>
+      <c r="N35" s="436"/>
+      <c r="O35" s="436"/>
+      <c r="P35" s="436"/>
+      <c r="Q35" s="436"/>
+      <c r="R35" s="436"/>
+      <c r="S35" s="436"/>
+      <c r="T35" s="436"/>
+      <c r="U35" s="436"/>
+      <c r="V35" s="436"/>
+      <c r="W35" s="436"/>
+      <c r="X35" s="436"/>
       <c r="AN35" s="252"/>
     </row>
     <row r="36" spans="3:40" s="251" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="427"/>
-      <c r="H36" s="427"/>
-      <c r="I36" s="427"/>
-      <c r="J36" s="427"/>
-      <c r="K36" s="427"/>
-      <c r="L36" s="427"/>
-      <c r="M36" s="427"/>
-      <c r="N36" s="427"/>
-      <c r="O36" s="427"/>
-      <c r="P36" s="427"/>
-      <c r="Q36" s="427"/>
-      <c r="R36" s="427"/>
-      <c r="S36" s="427"/>
-      <c r="T36" s="427"/>
-      <c r="U36" s="427"/>
-      <c r="V36" s="427"/>
-      <c r="W36" s="427"/>
-      <c r="X36" s="427"/>
+      <c r="G36" s="436"/>
+      <c r="H36" s="436"/>
+      <c r="I36" s="436"/>
+      <c r="J36" s="436"/>
+      <c r="K36" s="436"/>
+      <c r="L36" s="436"/>
+      <c r="M36" s="436"/>
+      <c r="N36" s="436"/>
+      <c r="O36" s="436"/>
+      <c r="P36" s="436"/>
+      <c r="Q36" s="436"/>
+      <c r="R36" s="436"/>
+      <c r="S36" s="436"/>
+      <c r="T36" s="436"/>
+      <c r="U36" s="436"/>
+      <c r="V36" s="436"/>
+      <c r="W36" s="436"/>
+      <c r="X36" s="436"/>
       <c r="AN36" s="252"/>
     </row>
     <row r="37" spans="3:40" s="251" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="427"/>
-      <c r="H37" s="427"/>
-      <c r="I37" s="427"/>
-      <c r="J37" s="427"/>
-      <c r="K37" s="427"/>
-      <c r="L37" s="427"/>
-      <c r="M37" s="427"/>
-      <c r="N37" s="427"/>
-      <c r="O37" s="427"/>
-      <c r="P37" s="427"/>
-      <c r="Q37" s="427"/>
-      <c r="R37" s="427"/>
-      <c r="S37" s="427"/>
-      <c r="T37" s="427"/>
-      <c r="U37" s="427"/>
-      <c r="V37" s="427"/>
-      <c r="W37" s="427"/>
-      <c r="X37" s="427"/>
+      <c r="G37" s="436"/>
+      <c r="H37" s="436"/>
+      <c r="I37" s="436"/>
+      <c r="J37" s="436"/>
+      <c r="K37" s="436"/>
+      <c r="L37" s="436"/>
+      <c r="M37" s="436"/>
+      <c r="N37" s="436"/>
+      <c r="O37" s="436"/>
+      <c r="P37" s="436"/>
+      <c r="Q37" s="436"/>
+      <c r="R37" s="436"/>
+      <c r="S37" s="436"/>
+      <c r="T37" s="436"/>
+      <c r="U37" s="436"/>
+      <c r="V37" s="436"/>
+      <c r="W37" s="436"/>
+      <c r="X37" s="436"/>
       <c r="AN37" s="252"/>
     </row>
     <row r="38" spans="3:40" s="251" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="427"/>
-      <c r="H38" s="427"/>
-      <c r="I38" s="427"/>
-      <c r="J38" s="427"/>
-      <c r="K38" s="427"/>
-      <c r="L38" s="427"/>
-      <c r="M38" s="427"/>
-      <c r="N38" s="427"/>
-      <c r="O38" s="427"/>
-      <c r="P38" s="427"/>
-      <c r="Q38" s="427"/>
-      <c r="R38" s="427"/>
-      <c r="S38" s="427"/>
-      <c r="T38" s="427"/>
-      <c r="U38" s="427"/>
-      <c r="V38" s="427"/>
-      <c r="W38" s="427"/>
-      <c r="X38" s="427"/>
+      <c r="G38" s="436"/>
+      <c r="H38" s="436"/>
+      <c r="I38" s="436"/>
+      <c r="J38" s="436"/>
+      <c r="K38" s="436"/>
+      <c r="L38" s="436"/>
+      <c r="M38" s="436"/>
+      <c r="N38" s="436"/>
+      <c r="O38" s="436"/>
+      <c r="P38" s="436"/>
+      <c r="Q38" s="436"/>
+      <c r="R38" s="436"/>
+      <c r="S38" s="436"/>
+      <c r="T38" s="436"/>
+      <c r="U38" s="436"/>
+      <c r="V38" s="436"/>
+      <c r="W38" s="436"/>
+      <c r="X38" s="436"/>
       <c r="AN38" s="252"/>
     </row>
     <row r="39" spans="3:40" s="251" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="427"/>
-      <c r="H39" s="427"/>
-      <c r="I39" s="427"/>
-      <c r="J39" s="427"/>
-      <c r="K39" s="427"/>
-      <c r="L39" s="427"/>
-      <c r="M39" s="427"/>
-      <c r="N39" s="427"/>
-      <c r="O39" s="427"/>
-      <c r="P39" s="427"/>
-      <c r="Q39" s="427"/>
-      <c r="R39" s="427"/>
-      <c r="S39" s="427"/>
-      <c r="T39" s="427"/>
-      <c r="U39" s="427"/>
-      <c r="V39" s="427"/>
-      <c r="W39" s="427"/>
-      <c r="X39" s="427"/>
+      <c r="G39" s="436"/>
+      <c r="H39" s="436"/>
+      <c r="I39" s="436"/>
+      <c r="J39" s="436"/>
+      <c r="K39" s="436"/>
+      <c r="L39" s="436"/>
+      <c r="M39" s="436"/>
+      <c r="N39" s="436"/>
+      <c r="O39" s="436"/>
+      <c r="P39" s="436"/>
+      <c r="Q39" s="436"/>
+      <c r="R39" s="436"/>
+      <c r="S39" s="436"/>
+      <c r="T39" s="436"/>
+      <c r="U39" s="436"/>
+      <c r="V39" s="436"/>
+      <c r="W39" s="436"/>
+      <c r="X39" s="436"/>
       <c r="AN39" s="252"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C40" s="213"/>
       <c r="D40" s="213"/>
-      <c r="G40" s="427"/>
-      <c r="H40" s="427"/>
-      <c r="I40" s="427"/>
-      <c r="J40" s="427"/>
-      <c r="K40" s="427"/>
-      <c r="L40" s="427"/>
-      <c r="M40" s="427"/>
-      <c r="N40" s="427"/>
-      <c r="O40" s="427"/>
-      <c r="P40" s="427"/>
-      <c r="Q40" s="427"/>
-      <c r="R40" s="427"/>
-      <c r="S40" s="427"/>
-      <c r="T40" s="427"/>
-      <c r="U40" s="427"/>
-      <c r="V40" s="427"/>
-      <c r="W40" s="427"/>
-      <c r="X40" s="427"/>
+      <c r="G40" s="436"/>
+      <c r="H40" s="436"/>
+      <c r="I40" s="436"/>
+      <c r="J40" s="436"/>
+      <c r="K40" s="436"/>
+      <c r="L40" s="436"/>
+      <c r="M40" s="436"/>
+      <c r="N40" s="436"/>
+      <c r="O40" s="436"/>
+      <c r="P40" s="436"/>
+      <c r="Q40" s="436"/>
+      <c r="R40" s="436"/>
+      <c r="S40" s="436"/>
+      <c r="T40" s="436"/>
+      <c r="U40" s="436"/>
+      <c r="V40" s="436"/>
+      <c r="W40" s="436"/>
+      <c r="X40" s="436"/>
       <c r="AN40" s="213"/>
     </row>
     <row r="41" spans="3:40" x14ac:dyDescent="0.25">
@@ -8159,13 +8162,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="Z1:AH1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
     <mergeCell ref="G35:X40"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AH5"/>
@@ -8182,6 +8178,13 @@
     <mergeCell ref="AC19:AM19"/>
     <mergeCell ref="Z6:AE6"/>
     <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="Z1:AH1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -8192,7 +8195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:L4"/>
     </sheetView>
   </sheetViews>
@@ -9032,38 +9035,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="457" t="s">
+      <c r="A1" s="458" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="457"/>
-      <c r="C1" s="457"/>
-      <c r="D1" s="457"/>
+      <c r="B1" s="458"/>
+      <c r="C1" s="458"/>
+      <c r="D1" s="458"/>
       <c r="E1" s="80"/>
-      <c r="F1" s="458" t="s">
+      <c r="F1" s="459" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="458"/>
-      <c r="H1" s="458"/>
-      <c r="I1" s="458"/>
-      <c r="J1" s="458"/>
-      <c r="K1" s="458"/>
+      <c r="G1" s="459"/>
+      <c r="H1" s="459"/>
+      <c r="I1" s="459"/>
+      <c r="J1" s="459"/>
+      <c r="K1" s="459"/>
     </row>
     <row r="2" spans="1:12" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="459" t="s">
+      <c r="A2" s="460" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="459"/>
-      <c r="C2" s="459"/>
-      <c r="D2" s="459"/>
+      <c r="B2" s="460"/>
+      <c r="C2" s="460"/>
+      <c r="D2" s="460"/>
       <c r="E2" s="80"/>
-      <c r="F2" s="460" t="s">
+      <c r="F2" s="461" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="460"/>
-      <c r="H2" s="460"/>
-      <c r="I2" s="460"/>
-      <c r="J2" s="460"/>
-      <c r="K2" s="460"/>
+      <c r="G2" s="461"/>
+      <c r="H2" s="461"/>
+      <c r="I2" s="461"/>
+      <c r="J2" s="461"/>
+      <c r="K2" s="461"/>
     </row>
     <row r="3" spans="1:12" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
@@ -9076,43 +9079,43 @@
       <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:12" s="42" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="461" t="s">
+      <c r="A4" s="462" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="461"/>
-      <c r="C4" s="461"/>
-      <c r="D4" s="461"/>
-      <c r="E4" s="461"/>
-      <c r="F4" s="461"/>
-      <c r="G4" s="461"/>
-      <c r="H4" s="461"/>
-      <c r="I4" s="461"/>
-      <c r="J4" s="461"/>
-      <c r="K4" s="461"/>
-      <c r="L4" s="461"/>
+      <c r="B4" s="462"/>
+      <c r="C4" s="462"/>
+      <c r="D4" s="462"/>
+      <c r="E4" s="462"/>
+      <c r="F4" s="462"/>
+      <c r="G4" s="462"/>
+      <c r="H4" s="462"/>
+      <c r="I4" s="462"/>
+      <c r="J4" s="462"/>
+      <c r="K4" s="462"/>
+      <c r="L4" s="462"/>
     </row>
     <row r="5" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="462" t="s">
+      <c r="A5" s="463" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="462"/>
-      <c r="C5" s="462"/>
-      <c r="D5" s="462"/>
-      <c r="E5" s="462"/>
-      <c r="F5" s="462"/>
-      <c r="G5" s="462"/>
-      <c r="H5" s="462"/>
-      <c r="I5" s="462"/>
-      <c r="J5" s="462"/>
-      <c r="K5" s="462"/>
-      <c r="L5" s="462"/>
+      <c r="B5" s="463"/>
+      <c r="C5" s="463"/>
+      <c r="D5" s="463"/>
+      <c r="E5" s="463"/>
+      <c r="F5" s="463"/>
+      <c r="G5" s="463"/>
+      <c r="H5" s="463"/>
+      <c r="I5" s="463"/>
+      <c r="J5" s="463"/>
+      <c r="K5" s="463"/>
+      <c r="L5" s="463"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J6" s="463" t="s">
+      <c r="J6" s="464" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="463"/>
-      <c r="L6" s="463"/>
+      <c r="K6" s="464"/>
+      <c r="L6" s="464"/>
     </row>
     <row r="7" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="146" t="s">
@@ -9179,12 +9182,12 @@
       <c r="L8" s="146"/>
     </row>
     <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="454" t="s">
+      <c r="A9" s="455" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="455"/>
-      <c r="C9" s="455"/>
-      <c r="D9" s="456"/>
+      <c r="B9" s="456"/>
+      <c r="C9" s="456"/>
+      <c r="D9" s="457"/>
       <c r="E9" s="148"/>
       <c r="F9" s="152">
         <f>SUM(F10:F12)</f>
@@ -9307,12 +9310,12 @@
       <c r="L12" s="50"/>
     </row>
     <row r="13" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="451" t="s">
+      <c r="A13" s="452" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="452"/>
-      <c r="C13" s="452"/>
-      <c r="D13" s="453"/>
+      <c r="B13" s="453"/>
+      <c r="C13" s="453"/>
+      <c r="D13" s="454"/>
       <c r="E13" s="89"/>
       <c r="F13" s="152">
         <f>SUM(F14:F14)</f>
@@ -9369,11 +9372,11 @@
       <c r="L14" s="54"/>
     </row>
     <row r="15" spans="1:12" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="464" t="s">
+      <c r="A15" s="465" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="465"/>
-      <c r="C15" s="466"/>
+      <c r="B15" s="466"/>
+      <c r="C15" s="467"/>
       <c r="D15" s="86"/>
       <c r="E15" s="87"/>
       <c r="F15" s="86">
@@ -9400,14 +9403,14 @@
       <c r="L15" s="85"/>
     </row>
     <row r="17" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="449"/>
-      <c r="C17" s="449"/>
-      <c r="D17" s="449"/>
+      <c r="B17" s="450"/>
+      <c r="C17" s="450"/>
+      <c r="D17" s="450"/>
       <c r="E17" s="82"/>
-      <c r="H17" s="449"/>
-      <c r="I17" s="449"/>
-      <c r="J17" s="449"/>
-      <c r="K17" s="449"/>
+      <c r="H17" s="450"/>
+      <c r="I17" s="450"/>
+      <c r="J17" s="450"/>
+      <c r="K17" s="450"/>
     </row>
     <row r="18" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B18" s="143" t="s">
@@ -9419,12 +9422,12 @@
         <v>84</v>
       </c>
       <c r="G18" s="143"/>
-      <c r="H18" s="449" t="s">
+      <c r="H18" s="450" t="s">
         <v>90</v>
       </c>
-      <c r="I18" s="449"/>
-      <c r="J18" s="449"/>
-      <c r="K18" s="449"/>
+      <c r="I18" s="450"/>
+      <c r="J18" s="450"/>
+      <c r="K18" s="450"/>
     </row>
     <row r="19" spans="2:11" s="144" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B19" s="145" t="s">
@@ -9436,12 +9439,12 @@
         <v>91</v>
       </c>
       <c r="G19" s="145"/>
-      <c r="H19" s="450" t="s">
+      <c r="H19" s="451" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="450"/>
-      <c r="J19" s="450"/>
-      <c r="K19" s="450"/>
+      <c r="I19" s="451"/>
+      <c r="J19" s="451"/>
+      <c r="K19" s="451"/>
     </row>
     <row r="22" spans="2:11" s="96" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="91"/>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 12_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 12_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="1"/>
+    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="184">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -443,6 +443,138 @@
   </si>
   <si>
     <t xml:space="preserve"> Số:122020.BL/PKT. MST: 0108806878</t>
+  </si>
+  <si>
+    <t>Hằng KT</t>
+  </si>
+  <si>
+    <t>2CX90</t>
+  </si>
+  <si>
+    <t>A Lâm</t>
+  </si>
+  <si>
+    <t>Anh Thắng</t>
+  </si>
+  <si>
+    <t>1CX40</t>
+  </si>
+  <si>
+    <t>2CX40</t>
+  </si>
+  <si>
+    <t>3CX90</t>
+  </si>
+  <si>
+    <t>GCX90</t>
+  </si>
+  <si>
+    <t>BCX90</t>
+  </si>
+  <si>
+    <t>SN40</t>
+  </si>
+  <si>
+    <t>GC90</t>
+  </si>
+  <si>
+    <t>TĐ90</t>
+  </si>
+  <si>
+    <t>ĐTH Việt Đức</t>
+  </si>
+  <si>
+    <t>1268/681</t>
+  </si>
+  <si>
+    <t>Chị Trường</t>
+  </si>
+  <si>
+    <t>Biển Đỏ</t>
+  </si>
+  <si>
+    <t>GCX40</t>
+  </si>
+  <si>
+    <t>Anh Lâm</t>
+  </si>
+  <si>
+    <t>Chị Nhân</t>
+  </si>
+  <si>
+    <t>Bình Dương</t>
+  </si>
+  <si>
+    <t>Chị Thủy</t>
+  </si>
+  <si>
+    <t>Thái thịnh</t>
+  </si>
+  <si>
+    <t>Việt Anh</t>
+  </si>
+  <si>
+    <t>Kim Giang</t>
+  </si>
+  <si>
+    <t>1CX90</t>
+  </si>
+  <si>
+    <t>ĐL Duy nhất</t>
+  </si>
+  <si>
+    <t>Trả thưởng</t>
+  </si>
+  <si>
+    <t>Chị Tâm</t>
+  </si>
+  <si>
+    <t>Xuất lỗi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khách </t>
+  </si>
+  <si>
+    <t>H.M.Giám</t>
+  </si>
+  <si>
+    <t>Chị Thắm</t>
+  </si>
+  <si>
+    <t>Yên Bái</t>
+  </si>
+  <si>
+    <t>Chị Phương</t>
+  </si>
+  <si>
+    <t>Sơn La</t>
+  </si>
+  <si>
+    <t>ĐL Thủy Vy</t>
+  </si>
+  <si>
+    <t>ĐL Thanh Hà</t>
+  </si>
+  <si>
+    <t>Chị Huệ</t>
+  </si>
+  <si>
+    <t>Điện Biên</t>
+  </si>
+  <si>
+    <t>2b cốc</t>
+  </si>
+  <si>
+    <t>Chị Thơm</t>
+  </si>
+  <si>
+    <t>Chị Nga</t>
+  </si>
+  <si>
+    <t>Hải Phòng</t>
+  </si>
+  <si>
+    <t>Thanh Hà</t>
   </si>
 </sst>
 </file>
@@ -990,7 +1122,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="469">
+  <cellXfs count="489">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1374,14 +1506,12 @@
     <xf numFmtId="9" fontId="28" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="28" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="28" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1749,36 +1879,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="28" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="28" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1796,9 +1900,6 @@
     <xf numFmtId="9" fontId="28" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1813,9 +1914,6 @@
     </xf>
     <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1852,6 +1950,15 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1969,14 +2076,8 @@
     <xf numFmtId="168" fontId="28" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="168" fontId="28" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2002,6 +2103,9 @@
     <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2065,12 +2169,6 @@
     <xf numFmtId="167" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2209,7 +2307,103 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="28" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="28" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2532,7 +2726,7 @@
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="96" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="327" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="312" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" style="96" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.42578125" style="96" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="100" customWidth="1"/>
@@ -2552,9 +2746,9 @@
       <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="328"/>
+      <c r="B1" s="313"/>
       <c r="C1" s="97"/>
-      <c r="D1" s="328"/>
+      <c r="D1" s="313"/>
       <c r="E1" s="98"/>
       <c r="F1" s="99" t="s">
         <v>1</v>
@@ -2593,16 +2787,16 @@
       <c r="Q2" s="106"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="355" t="s">
+      <c r="A3" s="342" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="355"/>
-      <c r="C3" s="355"/>
-      <c r="D3" s="355"/>
-      <c r="E3" s="355"/>
-      <c r="F3" s="355"/>
-      <c r="G3" s="355"/>
-      <c r="H3" s="355"/>
+      <c r="B3" s="342"/>
+      <c r="C3" s="342"/>
+      <c r="D3" s="342"/>
+      <c r="E3" s="342"/>
+      <c r="F3" s="342"/>
+      <c r="G3" s="342"/>
+      <c r="H3" s="342"/>
       <c r="I3" s="107"/>
       <c r="J3" s="107"/>
       <c r="K3" s="107"/>
@@ -2614,74 +2808,74 @@
       <c r="Q3" s="107"/>
     </row>
     <row r="4" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="356" t="s">
+      <c r="A4" s="343" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="356" t="s">
+      <c r="B4" s="343" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="356" t="s">
+      <c r="C4" s="343" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="357" t="s">
+      <c r="D4" s="344" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="358" t="s">
+      <c r="E4" s="345" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="358"/>
-      <c r="G4" s="358" t="s">
+      <c r="F4" s="345"/>
+      <c r="G4" s="345" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="358"/>
+      <c r="H4" s="345"/>
     </row>
     <row r="5" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="356"/>
-      <c r="B5" s="356"/>
-      <c r="C5" s="356"/>
-      <c r="D5" s="357"/>
-      <c r="E5" s="205" t="s">
+      <c r="A5" s="343"/>
+      <c r="B5" s="343"/>
+      <c r="C5" s="343"/>
+      <c r="D5" s="344"/>
+      <c r="E5" s="203" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="205" t="s">
+      <c r="F5" s="203" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="205" t="s">
+      <c r="G5" s="203" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="205" t="s">
+      <c r="H5" s="203" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="200"/>
-      <c r="B6" s="200"/>
-      <c r="C6" s="201"/>
-      <c r="D6" s="202"/>
-      <c r="E6" s="203"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="203"/>
-      <c r="H6" s="204"/>
+      <c r="A6" s="198"/>
+      <c r="B6" s="198"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="200"/>
+      <c r="E6" s="201"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="201"/>
+      <c r="H6" s="202"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="200"/>
-      <c r="B7" s="200"/>
-      <c r="C7" s="201"/>
-      <c r="D7" s="202"/>
-      <c r="E7" s="203"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="203"/>
-      <c r="H7" s="204"/>
+      <c r="A7" s="198"/>
+      <c r="B7" s="198"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="200"/>
+      <c r="E7" s="201"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="201"/>
+      <c r="H7" s="202"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="200"/>
-      <c r="B8" s="200"/>
-      <c r="C8" s="201"/>
-      <c r="D8" s="202"/>
-      <c r="E8" s="203"/>
-      <c r="F8" s="204"/>
-      <c r="G8" s="203"/>
-      <c r="H8" s="204"/>
+      <c r="A8" s="198"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="201"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="201"/>
+      <c r="H8" s="202"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="92"/>
@@ -2714,9 +2908,9 @@
       <c r="H11" s="108"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="313"/>
+      <c r="A12" s="304"/>
       <c r="B12" s="92"/>
-      <c r="C12" s="314"/>
+      <c r="C12" s="305"/>
       <c r="D12" s="94"/>
       <c r="E12" s="95"/>
       <c r="F12" s="108"/>
@@ -2724,9 +2918,9 @@
       <c r="H12" s="108"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="313"/>
+      <c r="A13" s="304"/>
       <c r="B13" s="92"/>
-      <c r="C13" s="314"/>
+      <c r="C13" s="305"/>
       <c r="D13" s="94"/>
       <c r="E13" s="95"/>
       <c r="F13" s="108"/>
@@ -2734,29 +2928,29 @@
       <c r="H13" s="108"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="313"/>
+      <c r="A14" s="304"/>
       <c r="B14" s="92"/>
-      <c r="C14" s="314"/>
-      <c r="D14" s="202"/>
-      <c r="E14" s="203"/>
-      <c r="F14" s="204"/>
-      <c r="G14" s="203"/>
-      <c r="H14" s="204"/>
+      <c r="C14" s="305"/>
+      <c r="D14" s="200"/>
+      <c r="E14" s="201"/>
+      <c r="F14" s="202"/>
+      <c r="G14" s="201"/>
+      <c r="H14" s="202"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="313"/>
+      <c r="A15" s="304"/>
       <c r="B15" s="92"/>
-      <c r="C15" s="314"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="203"/>
-      <c r="F15" s="204"/>
-      <c r="G15" s="203"/>
-      <c r="H15" s="204"/>
+      <c r="C15" s="305"/>
+      <c r="D15" s="200"/>
+      <c r="E15" s="201"/>
+      <c r="F15" s="202"/>
+      <c r="G15" s="201"/>
+      <c r="H15" s="202"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="313"/>
+      <c r="A16" s="304"/>
       <c r="B16" s="92"/>
-      <c r="C16" s="314"/>
+      <c r="C16" s="305"/>
       <c r="D16" s="94"/>
       <c r="E16" s="95"/>
       <c r="F16" s="108"/>
@@ -2764,9 +2958,9 @@
       <c r="H16" s="108"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="313"/>
+      <c r="A17" s="304"/>
       <c r="B17" s="92"/>
-      <c r="C17" s="314"/>
+      <c r="C17" s="305"/>
       <c r="D17" s="94"/>
       <c r="E17" s="95"/>
       <c r="F17" s="108"/>
@@ -2774,9 +2968,9 @@
       <c r="H17" s="108"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="313"/>
+      <c r="A18" s="304"/>
       <c r="B18" s="92"/>
-      <c r="C18" s="314"/>
+      <c r="C18" s="305"/>
       <c r="D18" s="94"/>
       <c r="E18" s="95"/>
       <c r="F18" s="108"/>
@@ -2784,9 +2978,9 @@
       <c r="H18" s="108"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="313"/>
+      <c r="A19" s="304"/>
       <c r="B19" s="92"/>
-      <c r="C19" s="314"/>
+      <c r="C19" s="305"/>
       <c r="D19" s="94"/>
       <c r="E19" s="95"/>
       <c r="F19" s="108"/>
@@ -2794,9 +2988,9 @@
       <c r="H19" s="110"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="313"/>
+      <c r="A20" s="304"/>
       <c r="B20" s="92"/>
-      <c r="C20" s="314"/>
+      <c r="C20" s="305"/>
       <c r="D20" s="94"/>
       <c r="E20" s="95"/>
       <c r="F20" s="108"/>
@@ -2806,9 +3000,9 @@
       <c r="L20" s="100"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="313"/>
+      <c r="A21" s="304"/>
       <c r="B21" s="92"/>
-      <c r="C21" s="314"/>
+      <c r="C21" s="305"/>
       <c r="D21" s="94"/>
       <c r="E21" s="95"/>
       <c r="F21" s="108"/>
@@ -2818,9 +3012,9 @@
       <c r="L21" s="100"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="313"/>
+      <c r="A22" s="304"/>
       <c r="B22" s="92"/>
-      <c r="C22" s="314"/>
+      <c r="C22" s="305"/>
       <c r="D22" s="94"/>
       <c r="E22" s="95"/>
       <c r="F22" s="108"/>
@@ -2830,9 +3024,9 @@
       <c r="L22" s="100"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="313"/>
+      <c r="A23" s="304"/>
       <c r="B23" s="92"/>
-      <c r="C23" s="314"/>
+      <c r="C23" s="305"/>
       <c r="D23" s="94"/>
       <c r="E23" s="95"/>
       <c r="F23" s="108"/>
@@ -2842,9 +3036,9 @@
       <c r="L23" s="100"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="313"/>
+      <c r="A24" s="304"/>
       <c r="B24" s="92"/>
-      <c r="C24" s="314"/>
+      <c r="C24" s="305"/>
       <c r="D24" s="94"/>
       <c r="E24" s="95"/>
       <c r="F24" s="108"/>
@@ -2862,8 +3056,8 @@
       <c r="F25" s="108"/>
       <c r="G25" s="95"/>
       <c r="H25" s="110"/>
-      <c r="K25" s="349"/>
-      <c r="L25" s="350"/>
+      <c r="K25" s="336"/>
+      <c r="L25" s="337"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="92"/>
@@ -2874,7 +3068,7 @@
       <c r="F26" s="108"/>
       <c r="G26" s="95"/>
       <c r="H26" s="110"/>
-      <c r="N26" s="210"/>
+      <c r="N26" s="208"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="92"/>
@@ -2885,7 +3079,7 @@
       <c r="F27" s="108"/>
       <c r="G27" s="95"/>
       <c r="H27" s="110"/>
-      <c r="K27" s="210"/>
+      <c r="K27" s="208"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="92"/>
@@ -2906,7 +3100,7 @@
       <c r="F29" s="108"/>
       <c r="G29" s="95"/>
       <c r="H29" s="110"/>
-      <c r="J29" s="210"/>
+      <c r="J29" s="208"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="92"/>
@@ -2917,29 +3111,29 @@
       <c r="F30" s="108"/>
       <c r="G30" s="95"/>
       <c r="H30" s="110"/>
-      <c r="J30" s="210"/>
-    </row>
-    <row r="31" spans="1:14" s="346" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="340"/>
-      <c r="B31" s="340"/>
-      <c r="C31" s="341"/>
-      <c r="D31" s="342"/>
-      <c r="E31" s="343"/>
-      <c r="F31" s="344"/>
-      <c r="G31" s="343"/>
-      <c r="H31" s="345"/>
-      <c r="J31" s="347"/>
-    </row>
-    <row r="32" spans="1:14" s="346" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="340"/>
-      <c r="B32" s="340"/>
-      <c r="C32" s="341"/>
-      <c r="D32" s="342"/>
-      <c r="E32" s="343"/>
-      <c r="F32" s="344"/>
-      <c r="G32" s="343"/>
-      <c r="H32" s="345"/>
-      <c r="K32" s="347"/>
+      <c r="J30" s="208"/>
+    </row>
+    <row r="31" spans="1:14" s="330" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="324"/>
+      <c r="B31" s="324"/>
+      <c r="C31" s="325"/>
+      <c r="D31" s="326"/>
+      <c r="E31" s="327"/>
+      <c r="F31" s="328"/>
+      <c r="G31" s="327"/>
+      <c r="H31" s="329"/>
+      <c r="J31" s="331"/>
+    </row>
+    <row r="32" spans="1:14" s="330" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="324"/>
+      <c r="B32" s="324"/>
+      <c r="C32" s="325"/>
+      <c r="D32" s="326"/>
+      <c r="E32" s="327"/>
+      <c r="F32" s="328"/>
+      <c r="G32" s="327"/>
+      <c r="H32" s="329"/>
+      <c r="K32" s="331"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="92"/>
@@ -2950,7 +3144,7 @@
       <c r="F33" s="108"/>
       <c r="G33" s="95"/>
       <c r="H33" s="110"/>
-      <c r="K33" s="210"/>
+      <c r="K33" s="208"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="92"/>
@@ -2961,69 +3155,69 @@
       <c r="F34" s="108"/>
       <c r="G34" s="95"/>
       <c r="H34" s="110"/>
-      <c r="K34" s="210"/>
-    </row>
-    <row r="35" spans="1:11" s="346" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="340"/>
-      <c r="B35" s="340"/>
-      <c r="C35" s="341"/>
-      <c r="D35" s="342"/>
-      <c r="E35" s="343"/>
-      <c r="F35" s="344"/>
-      <c r="G35" s="343"/>
-      <c r="H35" s="345"/>
-      <c r="K35" s="347"/>
-    </row>
-    <row r="36" spans="1:11" s="346" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="340"/>
-      <c r="B36" s="340"/>
-      <c r="C36" s="341"/>
-      <c r="D36" s="342"/>
-      <c r="E36" s="343"/>
-      <c r="F36" s="344"/>
-      <c r="G36" s="343"/>
-      <c r="H36" s="345"/>
-    </row>
-    <row r="37" spans="1:11" s="346" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="340"/>
-      <c r="B37" s="340"/>
-      <c r="C37" s="341"/>
-      <c r="D37" s="342"/>
-      <c r="E37" s="348"/>
-      <c r="F37" s="343"/>
-      <c r="G37" s="343"/>
-      <c r="H37" s="345"/>
-    </row>
-    <row r="38" spans="1:11" s="346" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="340"/>
-      <c r="B38" s="340"/>
-      <c r="C38" s="341"/>
-      <c r="D38" s="342"/>
-      <c r="E38" s="343"/>
-      <c r="F38" s="344"/>
-      <c r="G38" s="343"/>
-      <c r="H38" s="345"/>
-      <c r="K38" s="348"/>
-    </row>
-    <row r="39" spans="1:11" s="346" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="340"/>
-      <c r="B39" s="340"/>
-      <c r="C39" s="341"/>
-      <c r="D39" s="342"/>
-      <c r="E39" s="343"/>
-      <c r="F39" s="344"/>
-      <c r="G39" s="343"/>
-      <c r="H39" s="345"/>
-    </row>
-    <row r="40" spans="1:11" s="346" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="340"/>
-      <c r="B40" s="340"/>
-      <c r="C40" s="341"/>
-      <c r="D40" s="342"/>
-      <c r="E40" s="343"/>
-      <c r="F40" s="343"/>
-      <c r="G40" s="343"/>
-      <c r="H40" s="345"/>
+      <c r="K34" s="208"/>
+    </row>
+    <row r="35" spans="1:11" s="330" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="324"/>
+      <c r="B35" s="324"/>
+      <c r="C35" s="325"/>
+      <c r="D35" s="326"/>
+      <c r="E35" s="327"/>
+      <c r="F35" s="328"/>
+      <c r="G35" s="327"/>
+      <c r="H35" s="329"/>
+      <c r="K35" s="331"/>
+    </row>
+    <row r="36" spans="1:11" s="330" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="324"/>
+      <c r="B36" s="324"/>
+      <c r="C36" s="325"/>
+      <c r="D36" s="326"/>
+      <c r="E36" s="327"/>
+      <c r="F36" s="328"/>
+      <c r="G36" s="327"/>
+      <c r="H36" s="329"/>
+    </row>
+    <row r="37" spans="1:11" s="330" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="324"/>
+      <c r="B37" s="324"/>
+      <c r="C37" s="325"/>
+      <c r="D37" s="326"/>
+      <c r="E37" s="332"/>
+      <c r="F37" s="327"/>
+      <c r="G37" s="327"/>
+      <c r="H37" s="329"/>
+    </row>
+    <row r="38" spans="1:11" s="330" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="324"/>
+      <c r="B38" s="324"/>
+      <c r="C38" s="325"/>
+      <c r="D38" s="326"/>
+      <c r="E38" s="327"/>
+      <c r="F38" s="328"/>
+      <c r="G38" s="327"/>
+      <c r="H38" s="329"/>
+      <c r="K38" s="332"/>
+    </row>
+    <row r="39" spans="1:11" s="330" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="324"/>
+      <c r="B39" s="324"/>
+      <c r="C39" s="325"/>
+      <c r="D39" s="326"/>
+      <c r="E39" s="327"/>
+      <c r="F39" s="328"/>
+      <c r="G39" s="327"/>
+      <c r="H39" s="329"/>
+    </row>
+    <row r="40" spans="1:11" s="330" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="324"/>
+      <c r="B40" s="324"/>
+      <c r="C40" s="325"/>
+      <c r="D40" s="326"/>
+      <c r="E40" s="327"/>
+      <c r="F40" s="327"/>
+      <c r="G40" s="327"/>
+      <c r="H40" s="329"/>
     </row>
     <row r="41" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="92"/>
@@ -3034,77 +3228,77 @@
       <c r="F41" s="95"/>
       <c r="G41" s="95"/>
       <c r="H41" s="110"/>
-      <c r="K41" s="210"/>
-    </row>
-    <row r="42" spans="1:11" s="346" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="340"/>
-      <c r="B42" s="340"/>
-      <c r="C42" s="341"/>
-      <c r="D42" s="342"/>
-      <c r="E42" s="343"/>
-      <c r="F42" s="344"/>
-      <c r="G42" s="343"/>
-      <c r="H42" s="345"/>
-    </row>
-    <row r="43" spans="1:11" s="346" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="340"/>
-      <c r="B43" s="340"/>
-      <c r="C43" s="341"/>
-      <c r="D43" s="342"/>
-      <c r="E43" s="343"/>
-      <c r="F43" s="344"/>
-      <c r="G43" s="343"/>
-      <c r="H43" s="345"/>
-    </row>
-    <row r="44" spans="1:11" s="346" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="340"/>
-      <c r="B44" s="340"/>
-      <c r="C44" s="341"/>
-      <c r="D44" s="342"/>
-      <c r="E44" s="348"/>
-      <c r="F44" s="343"/>
-      <c r="G44" s="343"/>
-      <c r="H44" s="345"/>
-    </row>
-    <row r="45" spans="1:11" s="346" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="340"/>
-      <c r="B45" s="340"/>
-      <c r="C45" s="341"/>
-      <c r="D45" s="342"/>
-      <c r="E45" s="343"/>
-      <c r="F45" s="344"/>
-      <c r="G45" s="343"/>
-      <c r="H45" s="345"/>
-    </row>
-    <row r="46" spans="1:11" s="346" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="340"/>
-      <c r="B46" s="340"/>
-      <c r="C46" s="341"/>
-      <c r="D46" s="342"/>
-      <c r="E46" s="344"/>
-      <c r="F46" s="348"/>
-      <c r="G46" s="343"/>
-      <c r="H46" s="345"/>
-    </row>
-    <row r="47" spans="1:11" s="346" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="340"/>
-      <c r="B47" s="340"/>
-      <c r="C47" s="341"/>
-      <c r="D47" s="342"/>
-      <c r="E47" s="343"/>
-      <c r="F47" s="344"/>
-      <c r="G47" s="343"/>
-      <c r="H47" s="345"/>
-    </row>
-    <row r="48" spans="1:11" s="346" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="340"/>
-      <c r="B48" s="340"/>
-      <c r="C48" s="341"/>
-      <c r="D48" s="342"/>
-      <c r="E48" s="343"/>
-      <c r="F48" s="344"/>
-      <c r="G48" s="343"/>
-      <c r="H48" s="345"/>
+      <c r="K41" s="208"/>
+    </row>
+    <row r="42" spans="1:11" s="330" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="324"/>
+      <c r="B42" s="324"/>
+      <c r="C42" s="325"/>
+      <c r="D42" s="326"/>
+      <c r="E42" s="327"/>
+      <c r="F42" s="328"/>
+      <c r="G42" s="327"/>
+      <c r="H42" s="329"/>
+    </row>
+    <row r="43" spans="1:11" s="330" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="324"/>
+      <c r="B43" s="324"/>
+      <c r="C43" s="325"/>
+      <c r="D43" s="326"/>
+      <c r="E43" s="327"/>
+      <c r="F43" s="328"/>
+      <c r="G43" s="327"/>
+      <c r="H43" s="329"/>
+    </row>
+    <row r="44" spans="1:11" s="330" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="324"/>
+      <c r="B44" s="324"/>
+      <c r="C44" s="325"/>
+      <c r="D44" s="326"/>
+      <c r="E44" s="332"/>
+      <c r="F44" s="327"/>
+      <c r="G44" s="327"/>
+      <c r="H44" s="329"/>
+    </row>
+    <row r="45" spans="1:11" s="330" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="324"/>
+      <c r="B45" s="324"/>
+      <c r="C45" s="325"/>
+      <c r="D45" s="326"/>
+      <c r="E45" s="327"/>
+      <c r="F45" s="328"/>
+      <c r="G45" s="327"/>
+      <c r="H45" s="329"/>
+    </row>
+    <row r="46" spans="1:11" s="330" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="324"/>
+      <c r="B46" s="324"/>
+      <c r="C46" s="325"/>
+      <c r="D46" s="326"/>
+      <c r="E46" s="328"/>
+      <c r="F46" s="332"/>
+      <c r="G46" s="327"/>
+      <c r="H46" s="329"/>
+    </row>
+    <row r="47" spans="1:11" s="330" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="324"/>
+      <c r="B47" s="324"/>
+      <c r="C47" s="325"/>
+      <c r="D47" s="326"/>
+      <c r="E47" s="327"/>
+      <c r="F47" s="328"/>
+      <c r="G47" s="327"/>
+      <c r="H47" s="329"/>
+    </row>
+    <row r="48" spans="1:11" s="330" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="324"/>
+      <c r="B48" s="324"/>
+      <c r="C48" s="325"/>
+      <c r="D48" s="326"/>
+      <c r="E48" s="327"/>
+      <c r="F48" s="328"/>
+      <c r="G48" s="327"/>
+      <c r="H48" s="329"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="92"/>
@@ -3484,12 +3678,12 @@
       <c r="H86" s="110"/>
     </row>
     <row r="87" spans="1:10" s="113" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="352" t="s">
+      <c r="A87" s="339" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="353"/>
-      <c r="C87" s="353"/>
-      <c r="D87" s="354"/>
+      <c r="B87" s="340"/>
+      <c r="C87" s="340"/>
+      <c r="D87" s="341"/>
       <c r="E87" s="112">
         <f>SUM(E9:E86)</f>
         <v>0</v>
@@ -3520,11 +3714,11 @@
       <c r="J88" s="114"/>
     </row>
     <row r="89" spans="1:10" s="113" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A89" s="351" t="s">
+      <c r="A89" s="338" t="s">
         <v>81</v>
       </c>
-      <c r="B89" s="351"/>
-      <c r="C89" s="351"/>
+      <c r="B89" s="338"/>
+      <c r="C89" s="338"/>
       <c r="D89" s="115"/>
       <c r="E89" s="116"/>
       <c r="F89" s="116"/>
@@ -3532,34 +3726,34 @@
       <c r="H89" s="116"/>
       <c r="J89" s="114"/>
     </row>
-    <row r="90" spans="1:10" s="333" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="339"/>
-      <c r="C90" s="334" t="s">
+    <row r="90" spans="1:10" s="317" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="323"/>
+      <c r="C90" s="318" t="s">
         <v>84</v>
       </c>
-      <c r="D90" s="335"/>
-      <c r="F90" s="334" t="s">
+      <c r="D90" s="319"/>
+      <c r="F90" s="318" t="s">
         <v>13</v>
       </c>
-      <c r="G90" s="335"/>
-      <c r="H90" s="335"/>
-    </row>
-    <row r="91" spans="1:10" s="333" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="339"/>
-      <c r="C91" s="336" t="s">
+      <c r="G90" s="319"/>
+      <c r="H90" s="319"/>
+    </row>
+    <row r="91" spans="1:10" s="317" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="323"/>
+      <c r="C91" s="320" t="s">
         <v>91</v>
       </c>
-      <c r="D91" s="337"/>
-      <c r="F91" s="336" t="s">
+      <c r="D91" s="321"/>
+      <c r="F91" s="320" t="s">
         <v>15</v>
       </c>
-      <c r="G91" s="337"/>
-      <c r="H91" s="337"/>
+      <c r="G91" s="321"/>
+      <c r="H91" s="321"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="334"/>
-      <c r="D94" s="334"/>
-      <c r="E94" s="338"/>
+      <c r="C94" s="318"/>
+      <c r="D94" s="318"/>
+      <c r="E94" s="322"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:H87">
@@ -3587,15 +3781,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A80" sqref="A80:F80"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="128" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="182"/>
+    <col min="2" max="2" width="8.5703125" style="180"/>
     <col min="3" max="3" width="7.5703125" style="128" customWidth="1"/>
     <col min="4" max="5" width="8.5703125" style="128"/>
     <col min="6" max="6" width="8.5703125" style="160"/>
@@ -3603,7 +3797,7 @@
     <col min="8" max="8" width="9.7109375" style="159" customWidth="1"/>
     <col min="9" max="9" width="11.140625" style="159" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" style="159" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="183"/>
+    <col min="11" max="11" width="8.5703125" style="181"/>
     <col min="12" max="12" width="16.42578125" style="159" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" style="159" customWidth="1"/>
     <col min="14" max="14" width="11.140625" style="159" customWidth="1"/>
@@ -3613,13 +3807,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="399" t="s">
+      <c r="A1" s="385" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="399"/>
-      <c r="C1" s="399"/>
-      <c r="D1" s="399"/>
-      <c r="E1" s="399"/>
+      <c r="B1" s="385"/>
+      <c r="C1" s="385"/>
+      <c r="D1" s="385"/>
+      <c r="E1" s="385"/>
       <c r="H1" s="124"/>
       <c r="I1" s="124"/>
       <c r="J1" s="124"/>
@@ -3649,1441 +3843,2285 @@
       <c r="P2" s="128"/>
     </row>
     <row r="3" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="400" t="s">
+      <c r="A3" s="386" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="400"/>
-      <c r="C3" s="400"/>
-      <c r="D3" s="400"/>
-      <c r="E3" s="400"/>
-      <c r="F3" s="400"/>
-      <c r="G3" s="400"/>
-      <c r="H3" s="400"/>
-      <c r="I3" s="400"/>
-      <c r="J3" s="400"/>
-      <c r="K3" s="400"/>
-      <c r="L3" s="400"/>
-      <c r="M3" s="400"/>
-      <c r="N3" s="400"/>
-      <c r="O3" s="400"/>
-      <c r="P3" s="400"/>
+      <c r="B3" s="386"/>
+      <c r="C3" s="386"/>
+      <c r="D3" s="386"/>
+      <c r="E3" s="386"/>
+      <c r="F3" s="386"/>
+      <c r="G3" s="386"/>
+      <c r="H3" s="386"/>
+      <c r="I3" s="386"/>
+      <c r="J3" s="386"/>
+      <c r="K3" s="386"/>
+      <c r="L3" s="386"/>
+      <c r="M3" s="386"/>
+      <c r="N3" s="386"/>
+      <c r="O3" s="386"/>
+      <c r="P3" s="386"/>
     </row>
     <row r="4" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="400" t="s">
+      <c r="A4" s="386" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="400"/>
-      <c r="C4" s="400"/>
-      <c r="D4" s="400"/>
-      <c r="E4" s="400"/>
-      <c r="F4" s="400"/>
-      <c r="G4" s="400"/>
-      <c r="H4" s="400"/>
-      <c r="I4" s="400"/>
-      <c r="J4" s="400"/>
-      <c r="K4" s="400"/>
-      <c r="L4" s="400"/>
-      <c r="M4" s="400"/>
-      <c r="N4" s="400"/>
-      <c r="O4" s="400"/>
-      <c r="P4" s="400"/>
+      <c r="B4" s="386"/>
+      <c r="C4" s="386"/>
+      <c r="D4" s="386"/>
+      <c r="E4" s="386"/>
+      <c r="F4" s="386"/>
+      <c r="G4" s="386"/>
+      <c r="H4" s="386"/>
+      <c r="I4" s="386"/>
+      <c r="J4" s="386"/>
+      <c r="K4" s="386"/>
+      <c r="L4" s="386"/>
+      <c r="M4" s="386"/>
+      <c r="N4" s="386"/>
+      <c r="O4" s="386"/>
+      <c r="P4" s="386"/>
     </row>
     <row r="5" spans="1:16" s="123" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="393" t="s">
+      <c r="A5" s="378" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="394" t="s">
+      <c r="B5" s="379" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="393" t="s">
+      <c r="C5" s="378" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="393" t="s">
+      <c r="D5" s="378" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="393"/>
-      <c r="F5" s="395" t="s">
+      <c r="E5" s="378"/>
+      <c r="F5" s="380" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="395"/>
-      <c r="H5" s="395"/>
-      <c r="I5" s="395"/>
-      <c r="J5" s="395"/>
-      <c r="K5" s="395"/>
-      <c r="L5" s="395"/>
-      <c r="M5" s="401" t="s">
+      <c r="G5" s="380"/>
+      <c r="H5" s="380"/>
+      <c r="I5" s="380"/>
+      <c r="J5" s="380"/>
+      <c r="K5" s="380"/>
+      <c r="L5" s="380"/>
+      <c r="M5" s="387" t="s">
         <v>125</v>
       </c>
-      <c r="N5" s="401"/>
-      <c r="O5" s="401"/>
-      <c r="P5" s="395" t="s">
+      <c r="N5" s="387"/>
+      <c r="O5" s="387"/>
+      <c r="P5" s="380" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="123" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="393"/>
-      <c r="B6" s="394"/>
-      <c r="C6" s="393"/>
-      <c r="D6" s="393" t="s">
+      <c r="A6" s="378"/>
+      <c r="B6" s="379"/>
+      <c r="C6" s="378"/>
+      <c r="D6" s="378" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="393" t="s">
+      <c r="E6" s="378" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="393" t="s">
+      <c r="F6" s="378" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="393" t="s">
+      <c r="G6" s="378" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="396" t="s">
+      <c r="H6" s="381" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="396" t="s">
+      <c r="I6" s="381" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="397" t="s">
+      <c r="J6" s="382" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="397"/>
-      <c r="L6" s="396" t="s">
+      <c r="K6" s="382"/>
+      <c r="L6" s="381" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="396" t="s">
+      <c r="M6" s="381" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="396" t="s">
+      <c r="N6" s="381" t="s">
         <v>80</v>
       </c>
-      <c r="O6" s="396" t="s">
+      <c r="O6" s="381" t="s">
         <v>82</v>
       </c>
-      <c r="P6" s="395"/>
+      <c r="P6" s="380"/>
     </row>
     <row r="7" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="393"/>
-      <c r="B7" s="394"/>
-      <c r="C7" s="393"/>
-      <c r="D7" s="393"/>
-      <c r="E7" s="393"/>
-      <c r="F7" s="393"/>
-      <c r="G7" s="393"/>
-      <c r="H7" s="396"/>
-      <c r="I7" s="396"/>
-      <c r="J7" s="206" t="s">
+      <c r="A7" s="378"/>
+      <c r="B7" s="379"/>
+      <c r="C7" s="378"/>
+      <c r="D7" s="378"/>
+      <c r="E7" s="378"/>
+      <c r="F7" s="378"/>
+      <c r="G7" s="378"/>
+      <c r="H7" s="381"/>
+      <c r="I7" s="381"/>
+      <c r="J7" s="204" t="s">
         <v>83</v>
       </c>
-      <c r="K7" s="196" t="s">
+      <c r="K7" s="194" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="396"/>
-      <c r="M7" s="396"/>
-      <c r="N7" s="396"/>
-      <c r="O7" s="396"/>
-      <c r="P7" s="395"/>
+      <c r="L7" s="381"/>
+      <c r="M7" s="381"/>
+      <c r="N7" s="381"/>
+      <c r="O7" s="381"/>
+      <c r="P7" s="380"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="382"/>
-      <c r="B8" s="379"/>
-      <c r="C8" s="382"/>
-      <c r="D8" s="382"/>
-      <c r="E8" s="382"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="164"/>
-      <c r="L8" s="163"/>
-      <c r="M8" s="163"/>
-      <c r="N8" s="163"/>
-      <c r="O8" s="163"/>
-      <c r="P8" s="162"/>
+      <c r="A8" s="452">
+        <v>1264</v>
+      </c>
+      <c r="B8" s="453">
+        <v>44166</v>
+      </c>
+      <c r="C8" s="452" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="452"/>
+      <c r="E8" s="452"/>
+      <c r="F8" s="454" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="454">
+        <v>1</v>
+      </c>
+      <c r="H8" s="455">
+        <v>465000</v>
+      </c>
+      <c r="I8" s="455">
+        <f>G8*H8</f>
+        <v>465000</v>
+      </c>
+      <c r="J8" s="455"/>
+      <c r="K8" s="456">
+        <v>0.41</v>
+      </c>
+      <c r="L8" s="455">
+        <f>I8*(1-K8)</f>
+        <v>274350.00000000006</v>
+      </c>
+      <c r="M8" s="455"/>
+      <c r="N8" s="455">
+        <f>L8</f>
+        <v>274350.00000000006</v>
+      </c>
+      <c r="O8" s="455"/>
+      <c r="P8" s="454"/>
     </row>
     <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="383"/>
-      <c r="B9" s="380"/>
-      <c r="C9" s="383"/>
-      <c r="D9" s="383"/>
-      <c r="E9" s="383"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="175"/>
-      <c r="K9" s="176"/>
-      <c r="L9" s="175"/>
-      <c r="M9" s="175"/>
-      <c r="N9" s="175"/>
-      <c r="O9" s="175"/>
-      <c r="P9" s="174"/>
+      <c r="A9" s="457" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="366">
+        <v>44168</v>
+      </c>
+      <c r="C9" s="369" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="369" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="457" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="161" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="161">
+        <v>3</v>
+      </c>
+      <c r="H9" s="162">
+        <v>225000</v>
+      </c>
+      <c r="I9" s="162">
+        <f>G9*H9</f>
+        <v>675000</v>
+      </c>
+      <c r="J9" s="162"/>
+      <c r="K9" s="163">
+        <v>1</v>
+      </c>
+      <c r="L9" s="162">
+        <f t="shared" ref="L9:L49" si="0">I9*(1-K9)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="162"/>
+      <c r="N9" s="162"/>
+      <c r="O9" s="162"/>
+      <c r="P9" s="161"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="383"/>
-      <c r="B10" s="380"/>
-      <c r="C10" s="383"/>
-      <c r="D10" s="383"/>
-      <c r="E10" s="383"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="175"/>
-      <c r="I10" s="175"/>
-      <c r="J10" s="175"/>
-      <c r="K10" s="176"/>
-      <c r="L10" s="175"/>
-      <c r="M10" s="175"/>
-      <c r="N10" s="175"/>
-      <c r="O10" s="175"/>
-      <c r="P10" s="174"/>
+      <c r="A10" s="458"/>
+      <c r="B10" s="367"/>
+      <c r="C10" s="370"/>
+      <c r="D10" s="370"/>
+      <c r="E10" s="458"/>
+      <c r="F10" s="172" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="172">
+        <v>3</v>
+      </c>
+      <c r="H10" s="173">
+        <v>235000</v>
+      </c>
+      <c r="I10" s="173">
+        <f t="shared" ref="I10:I49" si="1">G10*H10</f>
+        <v>705000</v>
+      </c>
+      <c r="J10" s="173"/>
+      <c r="K10" s="174">
+        <v>1</v>
+      </c>
+      <c r="L10" s="173">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="173"/>
+      <c r="N10" s="173"/>
+      <c r="O10" s="173"/>
+      <c r="P10" s="172"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="383"/>
-      <c r="B11" s="380"/>
-      <c r="C11" s="383"/>
-      <c r="D11" s="383"/>
-      <c r="E11" s="383"/>
-      <c r="F11" s="174"/>
-      <c r="G11" s="174"/>
-      <c r="H11" s="175"/>
-      <c r="I11" s="175"/>
-      <c r="J11" s="175"/>
-      <c r="K11" s="176"/>
-      <c r="L11" s="175"/>
-      <c r="M11" s="175"/>
-      <c r="N11" s="305"/>
-      <c r="O11" s="305"/>
-      <c r="P11" s="174"/>
+      <c r="A11" s="458"/>
+      <c r="B11" s="367"/>
+      <c r="C11" s="370"/>
+      <c r="D11" s="370"/>
+      <c r="E11" s="458"/>
+      <c r="F11" s="172" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="172">
+        <v>2</v>
+      </c>
+      <c r="H11" s="173">
+        <v>475000</v>
+      </c>
+      <c r="I11" s="173">
+        <f t="shared" si="1"/>
+        <v>950000</v>
+      </c>
+      <c r="J11" s="173"/>
+      <c r="K11" s="174">
+        <v>1</v>
+      </c>
+      <c r="L11" s="173">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="173"/>
+      <c r="N11" s="303"/>
+      <c r="O11" s="303"/>
+      <c r="P11" s="172"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="384"/>
-      <c r="B12" s="381"/>
-      <c r="C12" s="384"/>
-      <c r="D12" s="384"/>
-      <c r="E12" s="384"/>
-      <c r="F12" s="165"/>
-      <c r="G12" s="165"/>
-      <c r="H12" s="166"/>
-      <c r="I12" s="166"/>
-      <c r="J12" s="308"/>
-      <c r="K12" s="167"/>
-      <c r="L12" s="166"/>
-      <c r="M12" s="166"/>
-      <c r="N12" s="168"/>
-      <c r="O12" s="168"/>
-      <c r="P12" s="168"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="385"/>
-      <c r="B13" s="387"/>
-      <c r="C13" s="385"/>
-      <c r="D13" s="385"/>
-      <c r="E13" s="385"/>
-      <c r="F13" s="207"/>
-      <c r="G13" s="207"/>
-      <c r="H13" s="208"/>
-      <c r="I13" s="208"/>
-      <c r="J13" s="208"/>
-      <c r="K13" s="209"/>
-      <c r="L13" s="208"/>
-      <c r="M13" s="307"/>
-      <c r="N13" s="307"/>
-      <c r="O13" s="307"/>
-      <c r="P13" s="307"/>
+      <c r="A12" s="458"/>
+      <c r="B12" s="367"/>
+      <c r="C12" s="370"/>
+      <c r="D12" s="370"/>
+      <c r="E12" s="458"/>
+      <c r="F12" s="172" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="172">
+        <v>5</v>
+      </c>
+      <c r="H12" s="173">
+        <v>485000</v>
+      </c>
+      <c r="I12" s="173">
+        <f t="shared" si="1"/>
+        <v>2425000</v>
+      </c>
+      <c r="J12" s="459"/>
+      <c r="K12" s="174">
+        <v>1</v>
+      </c>
+      <c r="L12" s="173">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="173"/>
+      <c r="N12" s="303"/>
+      <c r="O12" s="303"/>
+      <c r="P12" s="303"/>
+    </row>
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="458"/>
+      <c r="B13" s="367"/>
+      <c r="C13" s="370"/>
+      <c r="D13" s="370"/>
+      <c r="E13" s="458"/>
+      <c r="F13" s="172" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" s="172">
+        <v>2</v>
+      </c>
+      <c r="H13" s="173">
+        <v>485000</v>
+      </c>
+      <c r="I13" s="173">
+        <f t="shared" si="1"/>
+        <v>970000</v>
+      </c>
+      <c r="J13" s="173"/>
+      <c r="K13" s="174">
+        <v>1</v>
+      </c>
+      <c r="L13" s="173">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="173"/>
+      <c r="N13" s="303"/>
+      <c r="O13" s="303"/>
+      <c r="P13" s="303"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="360"/>
-      <c r="B14" s="375"/>
-      <c r="C14" s="360"/>
-      <c r="D14" s="360"/>
-      <c r="E14" s="360"/>
-      <c r="F14" s="309"/>
-      <c r="G14" s="309"/>
-      <c r="H14" s="310"/>
-      <c r="I14" s="310"/>
-      <c r="J14" s="310"/>
-      <c r="K14" s="311"/>
-      <c r="L14" s="310"/>
-      <c r="M14" s="312"/>
-      <c r="N14" s="312"/>
-      <c r="O14" s="312"/>
-      <c r="P14" s="309"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="193"/>
-      <c r="B15" s="155"/>
-      <c r="C15" s="193"/>
-      <c r="D15" s="193"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="156"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="157"/>
-      <c r="K15" s="158"/>
-      <c r="L15" s="157"/>
-      <c r="M15" s="161"/>
-      <c r="N15" s="161"/>
-      <c r="O15" s="161"/>
-      <c r="P15" s="169"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="360"/>
-      <c r="B16" s="375"/>
-      <c r="C16" s="360"/>
-      <c r="D16" s="360"/>
-      <c r="E16" s="360"/>
-      <c r="F16" s="207"/>
-      <c r="G16" s="207"/>
-      <c r="H16" s="208"/>
-      <c r="I16" s="208"/>
-      <c r="J16" s="208"/>
-      <c r="K16" s="209"/>
-      <c r="L16" s="208"/>
-      <c r="M16" s="208"/>
-      <c r="N16" s="208"/>
-      <c r="O16" s="208"/>
-      <c r="P16" s="207"/>
-    </row>
-    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="360"/>
-      <c r="B17" s="375"/>
-      <c r="C17" s="360"/>
-      <c r="D17" s="360"/>
-      <c r="E17" s="360"/>
-      <c r="F17" s="174"/>
-      <c r="G17" s="174"/>
-      <c r="H17" s="175"/>
-      <c r="I17" s="175"/>
-      <c r="J17" s="175"/>
-      <c r="K17" s="176"/>
-      <c r="L17" s="175"/>
-      <c r="M17" s="175"/>
-      <c r="N17" s="175"/>
-      <c r="O17" s="175"/>
-      <c r="P17" s="174"/>
+      <c r="A14" s="458"/>
+      <c r="B14" s="367"/>
+      <c r="C14" s="370"/>
+      <c r="D14" s="370"/>
+      <c r="E14" s="458"/>
+      <c r="F14" s="172" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="172">
+        <v>2</v>
+      </c>
+      <c r="H14" s="173">
+        <v>550000</v>
+      </c>
+      <c r="I14" s="173">
+        <f t="shared" si="1"/>
+        <v>1100000</v>
+      </c>
+      <c r="J14" s="173"/>
+      <c r="K14" s="174">
+        <v>1</v>
+      </c>
+      <c r="L14" s="173">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="173"/>
+      <c r="N14" s="303"/>
+      <c r="O14" s="303"/>
+      <c r="P14" s="172"/>
+    </row>
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="458"/>
+      <c r="B15" s="367"/>
+      <c r="C15" s="370"/>
+      <c r="D15" s="370"/>
+      <c r="E15" s="458"/>
+      <c r="F15" s="172" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="172">
+        <v>5</v>
+      </c>
+      <c r="H15" s="173">
+        <v>455000</v>
+      </c>
+      <c r="I15" s="173">
+        <f t="shared" si="1"/>
+        <v>2275000</v>
+      </c>
+      <c r="J15" s="173"/>
+      <c r="K15" s="174">
+        <v>1</v>
+      </c>
+      <c r="L15" s="173">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="173"/>
+      <c r="N15" s="303"/>
+      <c r="O15" s="303"/>
+      <c r="P15" s="197"/>
+    </row>
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="460"/>
+      <c r="B16" s="368"/>
+      <c r="C16" s="371"/>
+      <c r="D16" s="371"/>
+      <c r="E16" s="460"/>
+      <c r="F16" s="164" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" s="164">
+        <v>2</v>
+      </c>
+      <c r="H16" s="165">
+        <v>455000</v>
+      </c>
+      <c r="I16" s="165">
+        <f t="shared" si="1"/>
+        <v>910000</v>
+      </c>
+      <c r="J16" s="165"/>
+      <c r="K16" s="166">
+        <v>1</v>
+      </c>
+      <c r="L16" s="165">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="165"/>
+      <c r="N16" s="165"/>
+      <c r="O16" s="165"/>
+      <c r="P16" s="164"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="369">
+        <v>1269</v>
+      </c>
+      <c r="B17" s="366">
+        <v>44169</v>
+      </c>
+      <c r="C17" s="369"/>
+      <c r="D17" s="369" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="369" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="161" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="161">
+        <v>72</v>
+      </c>
+      <c r="H17" s="162">
+        <v>255000</v>
+      </c>
+      <c r="I17" s="162">
+        <f t="shared" si="1"/>
+        <v>18360000</v>
+      </c>
+      <c r="J17" s="162"/>
+      <c r="K17" s="163">
+        <v>0.41</v>
+      </c>
+      <c r="L17" s="162">
+        <f t="shared" si="0"/>
+        <v>10832400.000000002</v>
+      </c>
+      <c r="M17" s="162"/>
+      <c r="N17" s="162">
+        <f>L17</f>
+        <v>10832400.000000002</v>
+      </c>
+      <c r="O17" s="162"/>
+      <c r="P17" s="161"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="193"/>
-      <c r="B18" s="155"/>
-      <c r="C18" s="193"/>
-      <c r="D18" s="193"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="156"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="157"/>
-      <c r="K18" s="158"/>
-      <c r="L18" s="157"/>
-      <c r="M18" s="157"/>
-      <c r="N18" s="157"/>
-      <c r="O18" s="157"/>
-      <c r="P18" s="156"/>
+      <c r="A18" s="371"/>
+      <c r="B18" s="368"/>
+      <c r="C18" s="371"/>
+      <c r="D18" s="371"/>
+      <c r="E18" s="371"/>
+      <c r="F18" s="164" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" s="164">
+        <v>60</v>
+      </c>
+      <c r="H18" s="165">
+        <v>455000</v>
+      </c>
+      <c r="I18" s="165">
+        <f t="shared" si="1"/>
+        <v>27300000</v>
+      </c>
+      <c r="J18" s="165"/>
+      <c r="K18" s="166">
+        <v>0.41</v>
+      </c>
+      <c r="L18" s="165">
+        <f t="shared" si="0"/>
+        <v>16107000.000000002</v>
+      </c>
+      <c r="M18" s="165"/>
+      <c r="N18" s="165">
+        <f>L18</f>
+        <v>16107000.000000002</v>
+      </c>
+      <c r="O18" s="165"/>
+      <c r="P18" s="164"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="193"/>
-      <c r="B19" s="155"/>
-      <c r="C19" s="193"/>
-      <c r="D19" s="193"/>
-      <c r="E19" s="193"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="157"/>
+      <c r="A19" s="191">
+        <v>1292</v>
+      </c>
+      <c r="B19" s="155">
+        <v>44170</v>
+      </c>
+      <c r="C19" s="191" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="191" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="191"/>
+      <c r="F19" s="156" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" s="156">
+        <v>3</v>
+      </c>
+      <c r="H19" s="157">
+        <v>550000</v>
+      </c>
+      <c r="I19" s="157">
+        <f t="shared" si="1"/>
+        <v>1650000</v>
+      </c>
       <c r="J19" s="157"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="157"/>
-      <c r="M19" s="157"/>
+      <c r="K19" s="158">
+        <v>0.41</v>
+      </c>
+      <c r="L19" s="157">
+        <f t="shared" si="0"/>
+        <v>973500.00000000012</v>
+      </c>
+      <c r="M19" s="157">
+        <f>L19</f>
+        <v>973500.00000000012</v>
+      </c>
       <c r="N19" s="157"/>
       <c r="O19" s="157"/>
       <c r="P19" s="156"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="385"/>
-      <c r="B20" s="387"/>
-      <c r="C20" s="385"/>
-      <c r="D20" s="385"/>
-      <c r="E20" s="385"/>
-      <c r="F20" s="207"/>
-      <c r="G20" s="207"/>
-      <c r="H20" s="208"/>
-      <c r="I20" s="208"/>
-      <c r="J20" s="208"/>
-      <c r="K20" s="209"/>
-      <c r="L20" s="208"/>
-      <c r="M20" s="208"/>
-      <c r="N20" s="208"/>
-      <c r="O20" s="208"/>
-      <c r="P20" s="207"/>
+      <c r="A20" s="306">
+        <v>1272</v>
+      </c>
+      <c r="B20" s="307">
+        <v>44170</v>
+      </c>
+      <c r="C20" s="306" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="306" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="306" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" s="156" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" s="156">
+        <v>2</v>
+      </c>
+      <c r="H20" s="157">
+        <v>455000</v>
+      </c>
+      <c r="I20" s="157">
+        <f t="shared" si="1"/>
+        <v>910000</v>
+      </c>
+      <c r="J20" s="157"/>
+      <c r="K20" s="158">
+        <v>0.41</v>
+      </c>
+      <c r="L20" s="157">
+        <f t="shared" si="0"/>
+        <v>536900.00000000012</v>
+      </c>
+      <c r="M20" s="157">
+        <f>L20</f>
+        <v>536900.00000000012</v>
+      </c>
+      <c r="N20" s="157"/>
+      <c r="O20" s="157"/>
+      <c r="P20" s="156"/>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="360"/>
-      <c r="B21" s="375"/>
-      <c r="C21" s="360"/>
-      <c r="D21" s="360"/>
-      <c r="E21" s="360"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="171"/>
-      <c r="I21" s="171"/>
-      <c r="J21" s="171"/>
-      <c r="K21" s="172"/>
-      <c r="L21" s="171"/>
-      <c r="M21" s="171"/>
-      <c r="N21" s="171"/>
-      <c r="O21" s="171"/>
-      <c r="P21" s="170"/>
+      <c r="A21" s="306">
+        <v>1273</v>
+      </c>
+      <c r="B21" s="307">
+        <v>44172</v>
+      </c>
+      <c r="C21" s="306" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="306" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="306" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" s="306" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="306">
+        <v>6</v>
+      </c>
+      <c r="H21" s="309">
+        <v>225000</v>
+      </c>
+      <c r="I21" s="309">
+        <f t="shared" si="1"/>
+        <v>1350000</v>
+      </c>
+      <c r="J21" s="309"/>
+      <c r="K21" s="310">
+        <v>0.41</v>
+      </c>
+      <c r="L21" s="309">
+        <f t="shared" si="0"/>
+        <v>796500.00000000012</v>
+      </c>
+      <c r="M21" s="309"/>
+      <c r="N21" s="309">
+        <f>L21</f>
+        <v>796500.00000000012</v>
+      </c>
+      <c r="O21" s="309"/>
+      <c r="P21" s="306"/>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="360"/>
-      <c r="B22" s="375"/>
-      <c r="C22" s="360"/>
-      <c r="D22" s="360"/>
-      <c r="E22" s="360"/>
-      <c r="F22" s="315"/>
-      <c r="G22" s="315"/>
-      <c r="H22" s="316"/>
-      <c r="I22" s="316"/>
-      <c r="J22" s="316"/>
-      <c r="K22" s="317"/>
-      <c r="L22" s="316"/>
-      <c r="M22" s="316"/>
-      <c r="N22" s="316"/>
-      <c r="O22" s="316"/>
-      <c r="P22" s="315"/>
+      <c r="A22" s="334">
+        <v>1275</v>
+      </c>
+      <c r="B22" s="335">
+        <v>44111</v>
+      </c>
+      <c r="C22" s="334" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="334" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" s="334" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" s="334" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22" s="334">
+        <v>2</v>
+      </c>
+      <c r="H22" s="461">
+        <v>455000</v>
+      </c>
+      <c r="I22" s="461">
+        <f t="shared" si="1"/>
+        <v>910000</v>
+      </c>
+      <c r="J22" s="461"/>
+      <c r="K22" s="462">
+        <v>0.41</v>
+      </c>
+      <c r="L22" s="461">
+        <f t="shared" si="0"/>
+        <v>536900.00000000012</v>
+      </c>
+      <c r="M22" s="461">
+        <f>L22</f>
+        <v>536900.00000000012</v>
+      </c>
+      <c r="N22" s="461"/>
+      <c r="O22" s="461"/>
+      <c r="P22" s="334"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="320"/>
-      <c r="B23" s="321"/>
-      <c r="C23" s="320"/>
-      <c r="D23" s="322"/>
-      <c r="E23" s="320"/>
-      <c r="F23" s="320"/>
-      <c r="G23" s="320"/>
-      <c r="H23" s="323"/>
-      <c r="I23" s="323"/>
-      <c r="J23" s="323"/>
-      <c r="K23" s="324"/>
-      <c r="L23" s="323"/>
-      <c r="M23" s="323"/>
-      <c r="N23" s="323"/>
-      <c r="O23" s="323"/>
-      <c r="P23" s="320"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="320"/>
-      <c r="B24" s="321"/>
-      <c r="C24" s="320"/>
-      <c r="D24" s="322"/>
-      <c r="E24" s="320"/>
-      <c r="F24" s="320"/>
-      <c r="G24" s="320"/>
-      <c r="H24" s="323"/>
-      <c r="I24" s="323"/>
-      <c r="J24" s="323"/>
-      <c r="K24" s="324"/>
-      <c r="L24" s="323"/>
-      <c r="M24" s="323"/>
-      <c r="N24" s="323"/>
-      <c r="O24" s="323"/>
-      <c r="P24" s="320"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="385"/>
-      <c r="B25" s="387"/>
-      <c r="C25" s="385"/>
-      <c r="D25" s="388"/>
-      <c r="E25" s="385"/>
-      <c r="F25" s="306"/>
-      <c r="G25" s="306"/>
-      <c r="H25" s="318"/>
-      <c r="I25" s="318"/>
-      <c r="J25" s="318"/>
-      <c r="K25" s="319"/>
-      <c r="L25" s="318"/>
-      <c r="M25" s="318"/>
-      <c r="N25" s="318"/>
-      <c r="O25" s="318"/>
-      <c r="P25" s="385"/>
+      <c r="A23" s="369">
+        <v>682</v>
+      </c>
+      <c r="B23" s="366">
+        <v>44174</v>
+      </c>
+      <c r="C23" s="369"/>
+      <c r="D23" s="457" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="369"/>
+      <c r="F23" s="333" t="s">
+        <v>164</v>
+      </c>
+      <c r="G23" s="333">
+        <v>24</v>
+      </c>
+      <c r="H23" s="463">
+        <v>455000</v>
+      </c>
+      <c r="I23" s="463">
+        <f t="shared" si="1"/>
+        <v>10920000</v>
+      </c>
+      <c r="J23" s="463"/>
+      <c r="K23" s="464">
+        <v>1</v>
+      </c>
+      <c r="L23" s="463">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="463"/>
+      <c r="N23" s="463"/>
+      <c r="O23" s="463"/>
+      <c r="P23" s="372" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="370"/>
+      <c r="B24" s="367"/>
+      <c r="C24" s="370"/>
+      <c r="D24" s="458"/>
+      <c r="E24" s="370"/>
+      <c r="F24" s="168" t="s">
+        <v>141</v>
+      </c>
+      <c r="G24" s="168">
+        <v>13</v>
+      </c>
+      <c r="H24" s="169">
+        <v>465000</v>
+      </c>
+      <c r="I24" s="169">
+        <f t="shared" si="1"/>
+        <v>6045000</v>
+      </c>
+      <c r="J24" s="169"/>
+      <c r="K24" s="170">
+        <v>1</v>
+      </c>
+      <c r="L24" s="169">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="169"/>
+      <c r="N24" s="169"/>
+      <c r="O24" s="169"/>
+      <c r="P24" s="347"/>
+    </row>
+    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="371"/>
+      <c r="B25" s="368"/>
+      <c r="C25" s="371"/>
+      <c r="D25" s="460"/>
+      <c r="E25" s="371"/>
+      <c r="F25" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" s="171">
+        <v>6</v>
+      </c>
+      <c r="H25" s="465">
+        <v>455000</v>
+      </c>
+      <c r="I25" s="465">
+        <f t="shared" si="1"/>
+        <v>2730000</v>
+      </c>
+      <c r="J25" s="465"/>
+      <c r="K25" s="466">
+        <v>1</v>
+      </c>
+      <c r="L25" s="465">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="465"/>
+      <c r="N25" s="465"/>
+      <c r="O25" s="465"/>
+      <c r="P25" s="373"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="360"/>
-      <c r="B26" s="375"/>
-      <c r="C26" s="360"/>
-      <c r="D26" s="372"/>
-      <c r="E26" s="360"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="170"/>
-      <c r="H26" s="171"/>
-      <c r="I26" s="171"/>
-      <c r="J26" s="171"/>
-      <c r="K26" s="172"/>
-      <c r="L26" s="171"/>
-      <c r="M26" s="171"/>
-      <c r="N26" s="171"/>
-      <c r="O26" s="171"/>
-      <c r="P26" s="360"/>
+      <c r="A26" s="306">
+        <v>1277</v>
+      </c>
+      <c r="B26" s="307">
+        <v>44175</v>
+      </c>
+      <c r="C26" s="306" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="308" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" s="306"/>
+      <c r="F26" s="306" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="306">
+        <v>1</v>
+      </c>
+      <c r="H26" s="309">
+        <v>225000</v>
+      </c>
+      <c r="I26" s="309">
+        <f t="shared" si="1"/>
+        <v>225000</v>
+      </c>
+      <c r="J26" s="309"/>
+      <c r="K26" s="310">
+        <v>0.41</v>
+      </c>
+      <c r="L26" s="309">
+        <f t="shared" si="0"/>
+        <v>132750.00000000003</v>
+      </c>
+      <c r="M26" s="309"/>
+      <c r="N26" s="309"/>
+      <c r="O26" s="309">
+        <f>L26</f>
+        <v>132750.00000000003</v>
+      </c>
+      <c r="P26" s="306"/>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="360"/>
-      <c r="B27" s="375"/>
-      <c r="C27" s="360"/>
-      <c r="D27" s="372"/>
-      <c r="E27" s="360"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="171"/>
-      <c r="I27" s="171"/>
-      <c r="J27" s="171"/>
-      <c r="K27" s="172"/>
-      <c r="L27" s="171"/>
-      <c r="M27" s="171"/>
-      <c r="N27" s="171"/>
-      <c r="O27" s="171"/>
-      <c r="P27" s="360"/>
+      <c r="A27" s="369">
+        <v>1290</v>
+      </c>
+      <c r="B27" s="366">
+        <v>44175</v>
+      </c>
+      <c r="C27" s="369"/>
+      <c r="D27" s="457" t="s">
+        <v>168</v>
+      </c>
+      <c r="E27" s="369"/>
+      <c r="F27" s="333" t="s">
+        <v>144</v>
+      </c>
+      <c r="G27" s="333">
+        <v>1</v>
+      </c>
+      <c r="H27" s="463">
+        <v>225000</v>
+      </c>
+      <c r="I27" s="463">
+        <f t="shared" si="1"/>
+        <v>225000</v>
+      </c>
+      <c r="J27" s="463"/>
+      <c r="K27" s="464">
+        <v>1</v>
+      </c>
+      <c r="L27" s="463">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="463"/>
+      <c r="N27" s="463"/>
+      <c r="O27" s="463"/>
+      <c r="P27" s="333"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="360"/>
-      <c r="B28" s="375"/>
-      <c r="C28" s="360"/>
-      <c r="D28" s="372"/>
-      <c r="E28" s="360"/>
-      <c r="F28" s="174"/>
-      <c r="G28" s="174"/>
-      <c r="H28" s="175"/>
-      <c r="I28" s="175"/>
-      <c r="J28" s="175"/>
-      <c r="K28" s="176"/>
-      <c r="L28" s="175"/>
-      <c r="M28" s="175"/>
-      <c r="N28" s="175"/>
-      <c r="O28" s="175"/>
-      <c r="P28" s="360"/>
+      <c r="A28" s="370"/>
+      <c r="B28" s="367"/>
+      <c r="C28" s="370"/>
+      <c r="D28" s="458"/>
+      <c r="E28" s="370"/>
+      <c r="F28" s="172" t="s">
+        <v>164</v>
+      </c>
+      <c r="G28" s="172">
+        <v>2</v>
+      </c>
+      <c r="H28" s="173">
+        <v>455000</v>
+      </c>
+      <c r="I28" s="173">
+        <f t="shared" si="1"/>
+        <v>910000</v>
+      </c>
+      <c r="J28" s="173"/>
+      <c r="K28" s="174">
+        <v>1</v>
+      </c>
+      <c r="L28" s="173">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="173"/>
+      <c r="N28" s="173"/>
+      <c r="O28" s="173"/>
+      <c r="P28" s="168"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="360"/>
-      <c r="B29" s="375"/>
-      <c r="C29" s="360"/>
-      <c r="D29" s="372"/>
-      <c r="E29" s="360"/>
-      <c r="F29" s="309"/>
-      <c r="G29" s="309"/>
-      <c r="H29" s="310"/>
-      <c r="I29" s="310"/>
-      <c r="J29" s="310"/>
-      <c r="K29" s="311"/>
-      <c r="L29" s="310"/>
-      <c r="M29" s="310"/>
-      <c r="N29" s="310"/>
-      <c r="O29" s="310"/>
-      <c r="P29" s="386"/>
+      <c r="A29" s="371"/>
+      <c r="B29" s="368"/>
+      <c r="C29" s="371"/>
+      <c r="D29" s="460"/>
+      <c r="E29" s="371"/>
+      <c r="F29" s="164" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29" s="164">
+        <v>1</v>
+      </c>
+      <c r="H29" s="165">
+        <v>485000</v>
+      </c>
+      <c r="I29" s="165">
+        <f t="shared" si="1"/>
+        <v>485000</v>
+      </c>
+      <c r="J29" s="165"/>
+      <c r="K29" s="166">
+        <v>1</v>
+      </c>
+      <c r="L29" s="165">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="165"/>
+      <c r="N29" s="165"/>
+      <c r="O29" s="165"/>
+      <c r="P29" s="171"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="385"/>
-      <c r="B30" s="387"/>
-      <c r="C30" s="385"/>
-      <c r="D30" s="385"/>
-      <c r="E30" s="385"/>
-      <c r="F30" s="162"/>
-      <c r="G30" s="162"/>
-      <c r="H30" s="163"/>
-      <c r="I30" s="163"/>
-      <c r="J30" s="163"/>
-      <c r="K30" s="164"/>
-      <c r="L30" s="163"/>
-      <c r="M30" s="163"/>
-      <c r="N30" s="163"/>
-      <c r="O30" s="163"/>
-      <c r="P30" s="385"/>
+      <c r="A30" s="452">
+        <v>1280</v>
+      </c>
+      <c r="B30" s="453">
+        <v>44175</v>
+      </c>
+      <c r="C30" s="452" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="452" t="s">
+        <v>169</v>
+      </c>
+      <c r="E30" s="452" t="s">
+        <v>170</v>
+      </c>
+      <c r="F30" s="454" t="s">
+        <v>147</v>
+      </c>
+      <c r="G30" s="454">
+        <v>2</v>
+      </c>
+      <c r="H30" s="455">
+        <v>485000</v>
+      </c>
+      <c r="I30" s="455">
+        <f t="shared" si="1"/>
+        <v>970000</v>
+      </c>
+      <c r="J30" s="455"/>
+      <c r="K30" s="456">
+        <v>0.41</v>
+      </c>
+      <c r="L30" s="455">
+        <f t="shared" si="0"/>
+        <v>572300.00000000012</v>
+      </c>
+      <c r="M30" s="455">
+        <f>L30</f>
+        <v>572300.00000000012</v>
+      </c>
+      <c r="N30" s="455"/>
+      <c r="O30" s="455"/>
+      <c r="P30" s="452"/>
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="360"/>
-      <c r="B31" s="375"/>
-      <c r="C31" s="360"/>
-      <c r="D31" s="360"/>
-      <c r="E31" s="360"/>
-      <c r="F31" s="174"/>
-      <c r="G31" s="174"/>
-      <c r="H31" s="175"/>
-      <c r="I31" s="175"/>
-      <c r="J31" s="175"/>
-      <c r="K31" s="176"/>
-      <c r="L31" s="175"/>
-      <c r="M31" s="175"/>
-      <c r="N31" s="175"/>
-      <c r="O31" s="175"/>
-      <c r="P31" s="360"/>
+      <c r="A31" s="306">
+        <v>1283</v>
+      </c>
+      <c r="B31" s="307">
+        <v>44176</v>
+      </c>
+      <c r="C31" s="306" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="306" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" s="306" t="s">
+        <v>172</v>
+      </c>
+      <c r="F31" s="156" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" s="156">
+        <v>12</v>
+      </c>
+      <c r="H31" s="157">
+        <v>465000</v>
+      </c>
+      <c r="I31" s="157">
+        <f t="shared" si="1"/>
+        <v>5580000</v>
+      </c>
+      <c r="J31" s="157"/>
+      <c r="K31" s="158">
+        <v>0.41</v>
+      </c>
+      <c r="L31" s="157">
+        <f t="shared" si="0"/>
+        <v>3292200.0000000005</v>
+      </c>
+      <c r="M31" s="157"/>
+      <c r="N31" s="157">
+        <f>L31</f>
+        <v>3292200.0000000005</v>
+      </c>
+      <c r="O31" s="157"/>
+      <c r="P31" s="306"/>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="360"/>
-      <c r="B32" s="375"/>
-      <c r="C32" s="360"/>
-      <c r="D32" s="360"/>
-      <c r="E32" s="360"/>
-      <c r="F32" s="174"/>
-      <c r="G32" s="174"/>
-      <c r="H32" s="175"/>
-      <c r="I32" s="175"/>
-      <c r="J32" s="175"/>
-      <c r="K32" s="176"/>
-      <c r="L32" s="175"/>
-      <c r="M32" s="175"/>
-      <c r="N32" s="175"/>
-      <c r="O32" s="175"/>
-      <c r="P32" s="360"/>
+      <c r="A32" s="369">
+        <v>1284</v>
+      </c>
+      <c r="B32" s="366">
+        <v>44177</v>
+      </c>
+      <c r="C32" s="369" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="369" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32" s="369" t="s">
+        <v>174</v>
+      </c>
+      <c r="F32" s="161" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" s="161">
+        <v>6</v>
+      </c>
+      <c r="H32" s="162">
+        <v>455000</v>
+      </c>
+      <c r="I32" s="162">
+        <f t="shared" si="1"/>
+        <v>2730000</v>
+      </c>
+      <c r="J32" s="162"/>
+      <c r="K32" s="163">
+        <v>0.41</v>
+      </c>
+      <c r="L32" s="162">
+        <f t="shared" si="0"/>
+        <v>1610700.0000000002</v>
+      </c>
+      <c r="M32" s="162"/>
+      <c r="N32" s="162">
+        <f>L32</f>
+        <v>1610700.0000000002</v>
+      </c>
+      <c r="O32" s="162"/>
+      <c r="P32" s="333"/>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="360"/>
-      <c r="B33" s="375"/>
-      <c r="C33" s="360"/>
-      <c r="D33" s="360"/>
-      <c r="E33" s="360"/>
-      <c r="F33" s="174"/>
-      <c r="G33" s="174"/>
-      <c r="H33" s="175"/>
-      <c r="I33" s="175"/>
-      <c r="J33" s="175"/>
-      <c r="K33" s="176"/>
-      <c r="L33" s="175"/>
-      <c r="M33" s="175"/>
-      <c r="N33" s="175"/>
-      <c r="O33" s="175"/>
-      <c r="P33" s="360"/>
+      <c r="A33" s="371"/>
+      <c r="B33" s="368"/>
+      <c r="C33" s="371"/>
+      <c r="D33" s="371"/>
+      <c r="E33" s="371"/>
+      <c r="F33" s="164" t="s">
+        <v>147</v>
+      </c>
+      <c r="G33" s="164">
+        <v>6</v>
+      </c>
+      <c r="H33" s="165">
+        <v>485000</v>
+      </c>
+      <c r="I33" s="165">
+        <f t="shared" si="1"/>
+        <v>2910000</v>
+      </c>
+      <c r="J33" s="165"/>
+      <c r="K33" s="166">
+        <v>0.41</v>
+      </c>
+      <c r="L33" s="165">
+        <f t="shared" si="0"/>
+        <v>1716900.0000000002</v>
+      </c>
+      <c r="M33" s="165"/>
+      <c r="N33" s="165">
+        <f>L33</f>
+        <v>1716900.0000000002</v>
+      </c>
+      <c r="O33" s="165"/>
+      <c r="P33" s="171"/>
     </row>
     <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="360"/>
-      <c r="B34" s="375"/>
-      <c r="C34" s="360"/>
-      <c r="D34" s="360"/>
-      <c r="E34" s="360"/>
-      <c r="F34" s="174"/>
-      <c r="G34" s="174"/>
-      <c r="H34" s="175"/>
-      <c r="I34" s="175"/>
-      <c r="J34" s="175"/>
-      <c r="K34" s="176"/>
-      <c r="L34" s="175"/>
-      <c r="M34" s="175"/>
-      <c r="N34" s="175"/>
-      <c r="O34" s="175"/>
-      <c r="P34" s="360"/>
+      <c r="A34" s="306">
+        <v>1285</v>
+      </c>
+      <c r="B34" s="307">
+        <v>44177</v>
+      </c>
+      <c r="C34" s="306" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" s="306" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" s="306"/>
+      <c r="F34" s="156" t="s">
+        <v>164</v>
+      </c>
+      <c r="G34" s="156">
+        <v>11</v>
+      </c>
+      <c r="H34" s="157">
+        <v>455000</v>
+      </c>
+      <c r="I34" s="157">
+        <f t="shared" si="1"/>
+        <v>5005000</v>
+      </c>
+      <c r="J34" s="157"/>
+      <c r="K34" s="158">
+        <v>0.41</v>
+      </c>
+      <c r="L34" s="157">
+        <f t="shared" si="0"/>
+        <v>2952950.0000000005</v>
+      </c>
+      <c r="M34" s="157"/>
+      <c r="N34" s="157"/>
+      <c r="O34" s="157">
+        <f>L34</f>
+        <v>2952950.0000000005</v>
+      </c>
+      <c r="P34" s="306"/>
     </row>
     <row r="35" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="360"/>
-      <c r="B35" s="375"/>
-      <c r="C35" s="360"/>
-      <c r="D35" s="360"/>
-      <c r="E35" s="360"/>
-      <c r="F35" s="174"/>
-      <c r="G35" s="174"/>
-      <c r="H35" s="175"/>
-      <c r="I35" s="175"/>
-      <c r="J35" s="175"/>
-      <c r="K35" s="176"/>
-      <c r="L35" s="175"/>
-      <c r="M35" s="175"/>
-      <c r="N35" s="175"/>
-      <c r="O35" s="175"/>
-      <c r="P35" s="360"/>
+      <c r="A35" s="306">
+        <v>1286</v>
+      </c>
+      <c r="B35" s="307">
+        <v>44179</v>
+      </c>
+      <c r="C35" s="306"/>
+      <c r="D35" s="306" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" s="306"/>
+      <c r="F35" s="156" t="s">
+        <v>164</v>
+      </c>
+      <c r="G35" s="156">
+        <v>24</v>
+      </c>
+      <c r="H35" s="157">
+        <v>455000</v>
+      </c>
+      <c r="I35" s="157">
+        <f t="shared" si="1"/>
+        <v>10920000</v>
+      </c>
+      <c r="J35" s="157"/>
+      <c r="K35" s="158">
+        <v>0.5</v>
+      </c>
+      <c r="L35" s="157">
+        <f t="shared" si="0"/>
+        <v>5460000</v>
+      </c>
+      <c r="M35" s="157"/>
+      <c r="N35" s="157"/>
+      <c r="O35" s="157">
+        <f>L35</f>
+        <v>5460000</v>
+      </c>
+      <c r="P35" s="306"/>
     </row>
     <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="360"/>
-      <c r="B36" s="375"/>
-      <c r="C36" s="360"/>
-      <c r="D36" s="360"/>
-      <c r="E36" s="360"/>
-      <c r="F36" s="174"/>
-      <c r="G36" s="174"/>
-      <c r="H36" s="175"/>
-      <c r="I36" s="175"/>
-      <c r="J36" s="175"/>
-      <c r="K36" s="176"/>
-      <c r="L36" s="175"/>
-      <c r="M36" s="175"/>
-      <c r="N36" s="175"/>
-      <c r="O36" s="175"/>
-      <c r="P36" s="360"/>
+      <c r="A36" s="369">
+        <v>1287</v>
+      </c>
+      <c r="B36" s="366">
+        <v>44179</v>
+      </c>
+      <c r="C36" s="369"/>
+      <c r="D36" s="457" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" s="369"/>
+      <c r="F36" s="161" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36" s="161">
+        <v>60</v>
+      </c>
+      <c r="H36" s="162">
+        <v>455000</v>
+      </c>
+      <c r="I36" s="162">
+        <f t="shared" si="1"/>
+        <v>27300000</v>
+      </c>
+      <c r="J36" s="162"/>
+      <c r="K36" s="163">
+        <v>0.5</v>
+      </c>
+      <c r="L36" s="162">
+        <f t="shared" si="0"/>
+        <v>13650000</v>
+      </c>
+      <c r="M36" s="162"/>
+      <c r="N36" s="162"/>
+      <c r="O36" s="162">
+        <f>L36</f>
+        <v>13650000</v>
+      </c>
+      <c r="P36" s="333"/>
     </row>
     <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="360"/>
-      <c r="B37" s="375"/>
-      <c r="C37" s="360"/>
-      <c r="D37" s="360"/>
-      <c r="E37" s="360"/>
-      <c r="F37" s="309"/>
-      <c r="G37" s="309"/>
-      <c r="H37" s="310"/>
-      <c r="I37" s="310"/>
-      <c r="J37" s="310"/>
-      <c r="K37" s="311"/>
-      <c r="L37" s="310"/>
-      <c r="M37" s="310"/>
-      <c r="N37" s="310"/>
-      <c r="O37" s="310"/>
-      <c r="P37" s="360"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="382"/>
-      <c r="B38" s="379"/>
-      <c r="C38" s="382"/>
-      <c r="D38" s="382"/>
-      <c r="E38" s="382"/>
-      <c r="F38" s="162"/>
-      <c r="G38" s="162"/>
-      <c r="H38" s="163"/>
-      <c r="I38" s="163"/>
-      <c r="J38" s="163"/>
-      <c r="K38" s="164"/>
-      <c r="L38" s="163"/>
-      <c r="M38" s="163"/>
-      <c r="N38" s="163"/>
-      <c r="O38" s="163"/>
-      <c r="P38" s="162"/>
+      <c r="A37" s="370"/>
+      <c r="B37" s="367"/>
+      <c r="C37" s="370"/>
+      <c r="D37" s="458"/>
+      <c r="E37" s="370"/>
+      <c r="F37" s="172" t="s">
+        <v>147</v>
+      </c>
+      <c r="G37" s="172">
+        <v>36</v>
+      </c>
+      <c r="H37" s="173">
+        <v>485000</v>
+      </c>
+      <c r="I37" s="173">
+        <f t="shared" si="1"/>
+        <v>17460000</v>
+      </c>
+      <c r="J37" s="173"/>
+      <c r="K37" s="174">
+        <v>0.5</v>
+      </c>
+      <c r="L37" s="173">
+        <f t="shared" si="0"/>
+        <v>8730000</v>
+      </c>
+      <c r="M37" s="173"/>
+      <c r="N37" s="173"/>
+      <c r="O37" s="173">
+        <f t="shared" ref="O37:O41" si="2">L37</f>
+        <v>8730000</v>
+      </c>
+      <c r="P37" s="168"/>
+    </row>
+    <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="370"/>
+      <c r="B38" s="367"/>
+      <c r="C38" s="370"/>
+      <c r="D38" s="458"/>
+      <c r="E38" s="370"/>
+      <c r="F38" s="172" t="s">
+        <v>148</v>
+      </c>
+      <c r="G38" s="172">
+        <v>24</v>
+      </c>
+      <c r="H38" s="173">
+        <v>485000</v>
+      </c>
+      <c r="I38" s="173">
+        <f t="shared" si="1"/>
+        <v>11640000</v>
+      </c>
+      <c r="J38" s="173"/>
+      <c r="K38" s="174">
+        <v>0.5</v>
+      </c>
+      <c r="L38" s="173">
+        <f t="shared" si="0"/>
+        <v>5820000</v>
+      </c>
+      <c r="M38" s="173"/>
+      <c r="N38" s="173"/>
+      <c r="O38" s="173">
+        <f t="shared" si="2"/>
+        <v>5820000</v>
+      </c>
+      <c r="P38" s="172"/>
     </row>
     <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="383"/>
-      <c r="B39" s="380"/>
-      <c r="C39" s="383"/>
-      <c r="D39" s="383"/>
-      <c r="E39" s="383"/>
-      <c r="F39" s="174"/>
-      <c r="G39" s="174"/>
-      <c r="H39" s="175"/>
-      <c r="I39" s="175"/>
-      <c r="J39" s="175"/>
-      <c r="K39" s="176"/>
-      <c r="L39" s="175"/>
-      <c r="M39" s="175"/>
-      <c r="N39" s="175"/>
-      <c r="O39" s="175"/>
-      <c r="P39" s="174"/>
+      <c r="A39" s="371"/>
+      <c r="B39" s="368"/>
+      <c r="C39" s="371"/>
+      <c r="D39" s="460"/>
+      <c r="E39" s="371"/>
+      <c r="F39" s="164" t="s">
+        <v>151</v>
+      </c>
+      <c r="G39" s="164">
+        <v>24</v>
+      </c>
+      <c r="H39" s="165">
+        <v>455000</v>
+      </c>
+      <c r="I39" s="165">
+        <f t="shared" si="1"/>
+        <v>10920000</v>
+      </c>
+      <c r="J39" s="165"/>
+      <c r="K39" s="166">
+        <v>0.5</v>
+      </c>
+      <c r="L39" s="165">
+        <f t="shared" si="0"/>
+        <v>5460000</v>
+      </c>
+      <c r="M39" s="165"/>
+      <c r="N39" s="165"/>
+      <c r="O39" s="165">
+        <f t="shared" si="2"/>
+        <v>5460000</v>
+      </c>
+      <c r="P39" s="164"/>
     </row>
     <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="383"/>
-      <c r="B40" s="380"/>
-      <c r="C40" s="383"/>
-      <c r="D40" s="383"/>
-      <c r="E40" s="383"/>
-      <c r="F40" s="174"/>
-      <c r="G40" s="174"/>
-      <c r="H40" s="175"/>
-      <c r="I40" s="175"/>
-      <c r="J40" s="175"/>
-      <c r="K40" s="176"/>
-      <c r="L40" s="175"/>
-      <c r="M40" s="175"/>
-      <c r="N40" s="175"/>
-      <c r="O40" s="175"/>
-      <c r="P40" s="174"/>
+      <c r="A40" s="372">
+        <v>1295</v>
+      </c>
+      <c r="B40" s="374">
+        <v>44545</v>
+      </c>
+      <c r="C40" s="372"/>
+      <c r="D40" s="372" t="s">
+        <v>177</v>
+      </c>
+      <c r="E40" s="372" t="s">
+        <v>178</v>
+      </c>
+      <c r="F40" s="205" t="s">
+        <v>144</v>
+      </c>
+      <c r="G40" s="205">
+        <v>24</v>
+      </c>
+      <c r="H40" s="206">
+        <v>225000</v>
+      </c>
+      <c r="I40" s="206">
+        <f t="shared" si="1"/>
+        <v>5400000</v>
+      </c>
+      <c r="J40" s="206">
+        <v>150000</v>
+      </c>
+      <c r="K40" s="207">
+        <v>0.41</v>
+      </c>
+      <c r="L40" s="206">
+        <f t="shared" si="0"/>
+        <v>3186000.0000000005</v>
+      </c>
+      <c r="M40" s="206"/>
+      <c r="N40" s="206">
+        <f>L40</f>
+        <v>3186000.0000000005</v>
+      </c>
+      <c r="O40" s="206"/>
+      <c r="P40" s="205" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="384"/>
-      <c r="B41" s="381"/>
-      <c r="C41" s="384"/>
-      <c r="D41" s="384"/>
-      <c r="E41" s="384"/>
-      <c r="F41" s="165"/>
-      <c r="G41" s="165"/>
-      <c r="H41" s="166"/>
-      <c r="I41" s="166"/>
-      <c r="J41" s="166"/>
-      <c r="K41" s="167"/>
-      <c r="L41" s="166"/>
-      <c r="M41" s="166"/>
-      <c r="N41" s="166"/>
-      <c r="O41" s="166"/>
-      <c r="P41" s="326"/>
+      <c r="A41" s="373"/>
+      <c r="B41" s="375"/>
+      <c r="C41" s="373"/>
+      <c r="D41" s="373"/>
+      <c r="E41" s="373"/>
+      <c r="F41" s="164" t="s">
+        <v>164</v>
+      </c>
+      <c r="G41" s="164">
+        <v>24</v>
+      </c>
+      <c r="H41" s="165">
+        <v>455000</v>
+      </c>
+      <c r="I41" s="165">
+        <f t="shared" si="1"/>
+        <v>10920000</v>
+      </c>
+      <c r="J41" s="165"/>
+      <c r="K41" s="166">
+        <v>0.41</v>
+      </c>
+      <c r="L41" s="165">
+        <f t="shared" si="0"/>
+        <v>6442800.0000000009</v>
+      </c>
+      <c r="M41" s="165"/>
+      <c r="N41" s="165">
+        <f>L41</f>
+        <v>6442800.0000000009</v>
+      </c>
+      <c r="O41" s="165"/>
+      <c r="P41" s="311"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="385"/>
-      <c r="B42" s="387"/>
-      <c r="C42" s="385"/>
-      <c r="D42" s="385"/>
-      <c r="E42" s="385"/>
-      <c r="F42" s="207"/>
-      <c r="G42" s="207"/>
-      <c r="H42" s="208"/>
-      <c r="I42" s="208"/>
-      <c r="J42" s="208"/>
-      <c r="K42" s="209"/>
-      <c r="L42" s="208"/>
-      <c r="M42" s="208"/>
-      <c r="N42" s="208"/>
-      <c r="O42" s="208"/>
-      <c r="P42" s="325"/>
+      <c r="A42" s="369">
+        <v>1294</v>
+      </c>
+      <c r="B42" s="366">
+        <v>44180</v>
+      </c>
+      <c r="C42" s="369" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42" s="369" t="s">
+        <v>180</v>
+      </c>
+      <c r="E42" s="369"/>
+      <c r="F42" s="161" t="s">
+        <v>164</v>
+      </c>
+      <c r="G42" s="161">
+        <v>4</v>
+      </c>
+      <c r="H42" s="162">
+        <v>455000</v>
+      </c>
+      <c r="I42" s="162">
+        <f t="shared" si="1"/>
+        <v>1820000</v>
+      </c>
+      <c r="J42" s="162"/>
+      <c r="K42" s="163">
+        <v>0.41</v>
+      </c>
+      <c r="L42" s="162">
+        <f t="shared" si="0"/>
+        <v>1073800.0000000002</v>
+      </c>
+      <c r="M42" s="162">
+        <f>L42</f>
+        <v>1073800.0000000002</v>
+      </c>
+      <c r="N42" s="162"/>
+      <c r="O42" s="162"/>
+      <c r="P42" s="316"/>
     </row>
     <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="360"/>
-      <c r="B43" s="375"/>
-      <c r="C43" s="360"/>
-      <c r="D43" s="360"/>
-      <c r="E43" s="360"/>
-      <c r="F43" s="309"/>
-      <c r="G43" s="309"/>
-      <c r="H43" s="310"/>
-      <c r="I43" s="310"/>
-      <c r="J43" s="310"/>
-      <c r="K43" s="311"/>
-      <c r="L43" s="310"/>
-      <c r="M43" s="310"/>
-      <c r="N43" s="310"/>
-      <c r="O43" s="310"/>
-      <c r="P43" s="331"/>
+      <c r="A43" s="370"/>
+      <c r="B43" s="367"/>
+      <c r="C43" s="370"/>
+      <c r="D43" s="370"/>
+      <c r="E43" s="370"/>
+      <c r="F43" s="172" t="s">
+        <v>141</v>
+      </c>
+      <c r="G43" s="172">
+        <v>1</v>
+      </c>
+      <c r="H43" s="173">
+        <v>465000</v>
+      </c>
+      <c r="I43" s="173">
+        <f t="shared" si="1"/>
+        <v>465000</v>
+      </c>
+      <c r="J43" s="173"/>
+      <c r="K43" s="174">
+        <v>0.41</v>
+      </c>
+      <c r="L43" s="173">
+        <f t="shared" si="0"/>
+        <v>274350.00000000006</v>
+      </c>
+      <c r="M43" s="173">
+        <f>L43</f>
+        <v>274350.00000000006</v>
+      </c>
+      <c r="N43" s="173"/>
+      <c r="O43" s="173"/>
+      <c r="P43" s="197"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="385"/>
-      <c r="B44" s="387"/>
-      <c r="C44" s="385"/>
-      <c r="D44" s="388"/>
-      <c r="E44" s="385"/>
-      <c r="F44" s="162"/>
-      <c r="G44" s="162"/>
-      <c r="H44" s="163"/>
-      <c r="I44" s="163"/>
-      <c r="J44" s="163"/>
-      <c r="K44" s="164"/>
-      <c r="L44" s="163"/>
-      <c r="M44" s="163"/>
-      <c r="N44" s="163"/>
-      <c r="O44" s="163"/>
-      <c r="P44" s="332"/>
+      <c r="A44" s="371"/>
+      <c r="B44" s="368"/>
+      <c r="C44" s="371"/>
+      <c r="D44" s="371"/>
+      <c r="E44" s="371"/>
+      <c r="F44" s="164" t="s">
+        <v>147</v>
+      </c>
+      <c r="G44" s="164">
+        <v>1</v>
+      </c>
+      <c r="H44" s="165">
+        <v>485000</v>
+      </c>
+      <c r="I44" s="165">
+        <f t="shared" si="1"/>
+        <v>485000</v>
+      </c>
+      <c r="J44" s="165"/>
+      <c r="K44" s="166">
+        <v>0.41</v>
+      </c>
+      <c r="L44" s="165">
+        <f t="shared" si="0"/>
+        <v>286150.00000000006</v>
+      </c>
+      <c r="M44" s="165">
+        <f>L44</f>
+        <v>286150.00000000006</v>
+      </c>
+      <c r="N44" s="165"/>
+      <c r="O44" s="165"/>
+      <c r="P44" s="311"/>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="360"/>
-      <c r="B45" s="375"/>
-      <c r="C45" s="360"/>
-      <c r="D45" s="372"/>
-      <c r="E45" s="360"/>
-      <c r="F45" s="174"/>
-      <c r="G45" s="174"/>
-      <c r="H45" s="175"/>
-      <c r="I45" s="175"/>
-      <c r="J45" s="175"/>
-      <c r="K45" s="176"/>
-      <c r="L45" s="175"/>
-      <c r="M45" s="175"/>
-      <c r="N45" s="175"/>
-      <c r="O45" s="175"/>
-      <c r="P45" s="199"/>
+      <c r="A45" s="306">
+        <v>2403</v>
+      </c>
+      <c r="B45" s="307">
+        <v>44181</v>
+      </c>
+      <c r="C45" s="306" t="s">
+        <v>167</v>
+      </c>
+      <c r="D45" s="308" t="s">
+        <v>167</v>
+      </c>
+      <c r="E45" s="306"/>
+      <c r="F45" s="156" t="s">
+        <v>164</v>
+      </c>
+      <c r="G45" s="156">
+        <v>2</v>
+      </c>
+      <c r="H45" s="157">
+        <v>455000</v>
+      </c>
+      <c r="I45" s="157">
+        <f t="shared" si="1"/>
+        <v>910000</v>
+      </c>
+      <c r="J45" s="157"/>
+      <c r="K45" s="158">
+        <v>0.41</v>
+      </c>
+      <c r="L45" s="157">
+        <f t="shared" si="0"/>
+        <v>536900.00000000012</v>
+      </c>
+      <c r="M45" s="157"/>
+      <c r="N45" s="157"/>
+      <c r="O45" s="157">
+        <f>L45</f>
+        <v>536900.00000000012</v>
+      </c>
+      <c r="P45" s="167"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="386"/>
-      <c r="B46" s="389"/>
-      <c r="C46" s="386"/>
-      <c r="D46" s="390"/>
-      <c r="E46" s="386"/>
-      <c r="F46" s="165"/>
-      <c r="G46" s="165"/>
-      <c r="H46" s="166"/>
-      <c r="I46" s="166"/>
-      <c r="J46" s="166"/>
-      <c r="K46" s="167"/>
-      <c r="L46" s="166"/>
-      <c r="M46" s="166"/>
-      <c r="N46" s="166"/>
-      <c r="O46" s="166"/>
-      <c r="P46" s="326"/>
+      <c r="A46" s="369">
+        <v>1298</v>
+      </c>
+      <c r="B46" s="366">
+        <v>44181</v>
+      </c>
+      <c r="C46" s="369" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46" s="457" t="s">
+        <v>181</v>
+      </c>
+      <c r="E46" s="369" t="s">
+        <v>182</v>
+      </c>
+      <c r="F46" s="161" t="s">
+        <v>164</v>
+      </c>
+      <c r="G46" s="161">
+        <v>10</v>
+      </c>
+      <c r="H46" s="162">
+        <v>455000</v>
+      </c>
+      <c r="I46" s="162">
+        <f t="shared" si="1"/>
+        <v>4550000</v>
+      </c>
+      <c r="J46" s="162"/>
+      <c r="K46" s="163">
+        <v>0.41</v>
+      </c>
+      <c r="L46" s="162">
+        <f t="shared" si="0"/>
+        <v>2684500.0000000005</v>
+      </c>
+      <c r="M46" s="162"/>
+      <c r="N46" s="162">
+        <f>L46</f>
+        <v>2684500.0000000005</v>
+      </c>
+      <c r="O46" s="162"/>
+      <c r="P46" s="316"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="193"/>
-      <c r="B47" s="155"/>
-      <c r="C47" s="193"/>
-      <c r="D47" s="193"/>
-      <c r="E47" s="193"/>
-      <c r="F47" s="320"/>
-      <c r="G47" s="320"/>
-      <c r="H47" s="323"/>
-      <c r="I47" s="323"/>
-      <c r="J47" s="323"/>
-      <c r="K47" s="324"/>
-      <c r="L47" s="323"/>
-      <c r="M47" s="323"/>
-      <c r="N47" s="323"/>
-      <c r="O47" s="323"/>
-      <c r="P47" s="169"/>
+      <c r="A47" s="370"/>
+      <c r="B47" s="367"/>
+      <c r="C47" s="370"/>
+      <c r="D47" s="458"/>
+      <c r="E47" s="370"/>
+      <c r="F47" s="168" t="s">
+        <v>141</v>
+      </c>
+      <c r="G47" s="168">
+        <v>9</v>
+      </c>
+      <c r="H47" s="169">
+        <v>465000</v>
+      </c>
+      <c r="I47" s="169">
+        <f t="shared" si="1"/>
+        <v>4185000</v>
+      </c>
+      <c r="J47" s="169"/>
+      <c r="K47" s="170">
+        <v>0.41</v>
+      </c>
+      <c r="L47" s="169">
+        <f t="shared" si="0"/>
+        <v>2469150.0000000005</v>
+      </c>
+      <c r="M47" s="169"/>
+      <c r="N47" s="169">
+        <f>L47</f>
+        <v>2469150.0000000005</v>
+      </c>
+      <c r="O47" s="169"/>
+      <c r="P47" s="197"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="193"/>
-      <c r="B48" s="155"/>
-      <c r="C48" s="193"/>
-      <c r="D48" s="193"/>
-      <c r="E48" s="193"/>
-      <c r="F48" s="156"/>
-      <c r="G48" s="156"/>
-      <c r="H48" s="157"/>
-      <c r="I48" s="157"/>
-      <c r="J48" s="157"/>
-      <c r="K48" s="158"/>
-      <c r="L48" s="157"/>
-      <c r="M48" s="157"/>
-      <c r="N48" s="157"/>
-      <c r="O48" s="157"/>
-      <c r="P48" s="156"/>
+      <c r="A48" s="370"/>
+      <c r="B48" s="367"/>
+      <c r="C48" s="370"/>
+      <c r="D48" s="458"/>
+      <c r="E48" s="370"/>
+      <c r="F48" s="172" t="s">
+        <v>147</v>
+      </c>
+      <c r="G48" s="172">
+        <v>3</v>
+      </c>
+      <c r="H48" s="173">
+        <v>485000</v>
+      </c>
+      <c r="I48" s="173">
+        <f t="shared" si="1"/>
+        <v>1455000</v>
+      </c>
+      <c r="J48" s="173"/>
+      <c r="K48" s="174">
+        <v>0.41</v>
+      </c>
+      <c r="L48" s="173">
+        <f t="shared" si="0"/>
+        <v>858450.00000000012</v>
+      </c>
+      <c r="M48" s="173"/>
+      <c r="N48" s="173">
+        <f>L48</f>
+        <v>858450.00000000012</v>
+      </c>
+      <c r="O48" s="173"/>
+      <c r="P48" s="172"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="360"/>
-      <c r="B49" s="375"/>
-      <c r="C49" s="360"/>
-      <c r="D49" s="360"/>
-      <c r="E49" s="360"/>
-      <c r="F49" s="207"/>
-      <c r="G49" s="207"/>
-      <c r="H49" s="208"/>
-      <c r="I49" s="208"/>
-      <c r="J49" s="208"/>
-      <c r="K49" s="209"/>
-      <c r="L49" s="208"/>
-      <c r="M49" s="208"/>
-      <c r="N49" s="208"/>
-      <c r="O49" s="208"/>
-      <c r="P49" s="325"/>
+      <c r="A49" s="371"/>
+      <c r="B49" s="368"/>
+      <c r="C49" s="371"/>
+      <c r="D49" s="460"/>
+      <c r="E49" s="371"/>
+      <c r="F49" s="164" t="s">
+        <v>148</v>
+      </c>
+      <c r="G49" s="164">
+        <v>2</v>
+      </c>
+      <c r="H49" s="165">
+        <v>485000</v>
+      </c>
+      <c r="I49" s="165">
+        <f t="shared" si="1"/>
+        <v>970000</v>
+      </c>
+      <c r="J49" s="165"/>
+      <c r="K49" s="166">
+        <v>0.41</v>
+      </c>
+      <c r="L49" s="165">
+        <f t="shared" si="0"/>
+        <v>572300.00000000012</v>
+      </c>
+      <c r="M49" s="165"/>
+      <c r="N49" s="165">
+        <f>L49</f>
+        <v>572300.00000000012</v>
+      </c>
+      <c r="O49" s="165"/>
+      <c r="P49" s="311"/>
     </row>
     <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="360"/>
-      <c r="B50" s="375"/>
-      <c r="C50" s="360"/>
-      <c r="D50" s="360"/>
-      <c r="E50" s="360"/>
-      <c r="F50" s="309"/>
-      <c r="G50" s="309"/>
-      <c r="H50" s="310"/>
-      <c r="I50" s="310"/>
-      <c r="J50" s="310"/>
-      <c r="K50" s="311"/>
-      <c r="L50" s="310"/>
-      <c r="M50" s="310"/>
-      <c r="N50" s="310"/>
-      <c r="O50" s="310"/>
-      <c r="P50" s="331"/>
+      <c r="A50" s="334"/>
+      <c r="B50" s="335"/>
+      <c r="C50" s="334"/>
+      <c r="D50" s="334"/>
+      <c r="E50" s="334"/>
+      <c r="F50" s="467"/>
+      <c r="G50" s="467"/>
+      <c r="H50" s="468"/>
+      <c r="I50" s="468"/>
+      <c r="J50" s="468"/>
+      <c r="K50" s="469"/>
+      <c r="L50" s="468"/>
+      <c r="M50" s="468"/>
+      <c r="N50" s="468"/>
+      <c r="O50" s="468"/>
+      <c r="P50" s="470"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="382"/>
-      <c r="B51" s="379"/>
-      <c r="C51" s="382"/>
-      <c r="D51" s="382"/>
-      <c r="E51" s="382"/>
-      <c r="F51" s="162"/>
-      <c r="G51" s="162"/>
-      <c r="H51" s="163"/>
-      <c r="I51" s="163"/>
-      <c r="J51" s="163"/>
-      <c r="K51" s="164"/>
-      <c r="L51" s="163"/>
-      <c r="M51" s="163"/>
-      <c r="N51" s="163"/>
-      <c r="O51" s="163"/>
-      <c r="P51" s="332"/>
+      <c r="A51" s="369"/>
+      <c r="B51" s="366"/>
+      <c r="C51" s="369"/>
+      <c r="D51" s="369"/>
+      <c r="E51" s="369"/>
+      <c r="F51" s="161"/>
+      <c r="G51" s="161"/>
+      <c r="H51" s="162"/>
+      <c r="I51" s="162"/>
+      <c r="J51" s="162"/>
+      <c r="K51" s="163"/>
+      <c r="L51" s="162"/>
+      <c r="M51" s="162"/>
+      <c r="N51" s="162"/>
+      <c r="O51" s="162"/>
+      <c r="P51" s="316"/>
     </row>
     <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="383"/>
-      <c r="B52" s="380"/>
-      <c r="C52" s="383"/>
-      <c r="D52" s="383"/>
-      <c r="E52" s="383"/>
-      <c r="F52" s="174"/>
-      <c r="G52" s="174"/>
-      <c r="H52" s="175"/>
-      <c r="I52" s="175"/>
-      <c r="J52" s="175"/>
-      <c r="K52" s="176"/>
-      <c r="L52" s="175"/>
-      <c r="M52" s="175"/>
-      <c r="N52" s="175"/>
-      <c r="O52" s="175"/>
-      <c r="P52" s="199"/>
+      <c r="A52" s="370"/>
+      <c r="B52" s="367"/>
+      <c r="C52" s="370"/>
+      <c r="D52" s="370"/>
+      <c r="E52" s="370"/>
+      <c r="F52" s="172"/>
+      <c r="G52" s="172"/>
+      <c r="H52" s="173"/>
+      <c r="I52" s="173"/>
+      <c r="J52" s="173"/>
+      <c r="K52" s="174"/>
+      <c r="L52" s="173"/>
+      <c r="M52" s="173"/>
+      <c r="N52" s="173"/>
+      <c r="O52" s="173"/>
+      <c r="P52" s="197"/>
     </row>
     <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="383"/>
-      <c r="B53" s="380"/>
-      <c r="C53" s="383"/>
-      <c r="D53" s="383"/>
-      <c r="E53" s="383"/>
-      <c r="F53" s="174"/>
-      <c r="G53" s="174"/>
-      <c r="H53" s="175"/>
-      <c r="I53" s="175"/>
-      <c r="J53" s="175"/>
-      <c r="K53" s="176"/>
-      <c r="L53" s="175"/>
-      <c r="M53" s="175"/>
-      <c r="N53" s="175"/>
-      <c r="O53" s="175"/>
-      <c r="P53" s="174"/>
+      <c r="A53" s="370"/>
+      <c r="B53" s="367"/>
+      <c r="C53" s="370"/>
+      <c r="D53" s="370"/>
+      <c r="E53" s="370"/>
+      <c r="F53" s="172"/>
+      <c r="G53" s="172"/>
+      <c r="H53" s="173"/>
+      <c r="I53" s="173"/>
+      <c r="J53" s="173"/>
+      <c r="K53" s="174"/>
+      <c r="L53" s="173"/>
+      <c r="M53" s="173"/>
+      <c r="N53" s="173"/>
+      <c r="O53" s="173"/>
+      <c r="P53" s="172"/>
     </row>
     <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="384"/>
-      <c r="B54" s="381"/>
-      <c r="C54" s="384"/>
-      <c r="D54" s="384"/>
-      <c r="E54" s="384"/>
-      <c r="F54" s="165"/>
-      <c r="G54" s="165"/>
-      <c r="H54" s="166"/>
-      <c r="I54" s="166"/>
-      <c r="J54" s="166"/>
-      <c r="K54" s="167"/>
-      <c r="L54" s="166"/>
-      <c r="M54" s="166"/>
-      <c r="N54" s="166"/>
-      <c r="O54" s="166"/>
-      <c r="P54" s="165"/>
+      <c r="A54" s="371"/>
+      <c r="B54" s="368"/>
+      <c r="C54" s="371"/>
+      <c r="D54" s="371"/>
+      <c r="E54" s="371"/>
+      <c r="F54" s="164"/>
+      <c r="G54" s="164"/>
+      <c r="H54" s="165"/>
+      <c r="I54" s="165"/>
+      <c r="J54" s="165"/>
+      <c r="K54" s="166"/>
+      <c r="L54" s="165"/>
+      <c r="M54" s="165"/>
+      <c r="N54" s="165"/>
+      <c r="O54" s="165"/>
+      <c r="P54" s="164"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="382"/>
-      <c r="B55" s="379"/>
-      <c r="C55" s="382"/>
-      <c r="D55" s="382"/>
-      <c r="E55" s="382"/>
-      <c r="F55" s="162"/>
-      <c r="G55" s="162"/>
-      <c r="H55" s="163"/>
-      <c r="I55" s="163"/>
-      <c r="J55" s="163"/>
-      <c r="K55" s="164"/>
-      <c r="L55" s="163"/>
-      <c r="M55" s="163"/>
-      <c r="N55" s="163"/>
-      <c r="O55" s="163"/>
-      <c r="P55" s="162"/>
+      <c r="A55" s="369"/>
+      <c r="B55" s="366"/>
+      <c r="C55" s="369"/>
+      <c r="D55" s="369"/>
+      <c r="E55" s="369"/>
+      <c r="F55" s="161"/>
+      <c r="G55" s="161"/>
+      <c r="H55" s="162"/>
+      <c r="I55" s="162"/>
+      <c r="J55" s="162"/>
+      <c r="K55" s="163"/>
+      <c r="L55" s="162"/>
+      <c r="M55" s="162"/>
+      <c r="N55" s="162"/>
+      <c r="O55" s="162"/>
+      <c r="P55" s="161"/>
     </row>
     <row r="56" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="383"/>
-      <c r="B56" s="380"/>
-      <c r="C56" s="383"/>
-      <c r="D56" s="383"/>
-      <c r="E56" s="383"/>
-      <c r="F56" s="174"/>
-      <c r="G56" s="174"/>
-      <c r="H56" s="175"/>
-      <c r="I56" s="175"/>
-      <c r="J56" s="175"/>
-      <c r="K56" s="176"/>
-      <c r="L56" s="175"/>
-      <c r="M56" s="175"/>
-      <c r="N56" s="175"/>
-      <c r="O56" s="175"/>
-      <c r="P56" s="174"/>
+      <c r="A56" s="370"/>
+      <c r="B56" s="367"/>
+      <c r="C56" s="370"/>
+      <c r="D56" s="370"/>
+      <c r="E56" s="370"/>
+      <c r="F56" s="172"/>
+      <c r="G56" s="172"/>
+      <c r="H56" s="173"/>
+      <c r="I56" s="173"/>
+      <c r="J56" s="173"/>
+      <c r="K56" s="174"/>
+      <c r="L56" s="173"/>
+      <c r="M56" s="173"/>
+      <c r="N56" s="173"/>
+      <c r="O56" s="173"/>
+      <c r="P56" s="172"/>
     </row>
     <row r="57" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="384"/>
-      <c r="B57" s="381"/>
-      <c r="C57" s="384"/>
-      <c r="D57" s="384"/>
-      <c r="E57" s="384"/>
-      <c r="F57" s="165"/>
-      <c r="G57" s="165"/>
-      <c r="H57" s="166"/>
-      <c r="I57" s="166"/>
-      <c r="J57" s="166"/>
-      <c r="K57" s="167"/>
-      <c r="L57" s="166"/>
-      <c r="M57" s="166"/>
-      <c r="N57" s="166"/>
-      <c r="O57" s="166"/>
-      <c r="P57" s="165"/>
+      <c r="A57" s="371"/>
+      <c r="B57" s="368"/>
+      <c r="C57" s="371"/>
+      <c r="D57" s="371"/>
+      <c r="E57" s="371"/>
+      <c r="F57" s="164"/>
+      <c r="G57" s="164"/>
+      <c r="H57" s="165"/>
+      <c r="I57" s="165"/>
+      <c r="J57" s="165"/>
+      <c r="K57" s="166"/>
+      <c r="L57" s="165"/>
+      <c r="M57" s="165"/>
+      <c r="N57" s="165"/>
+      <c r="O57" s="165"/>
+      <c r="P57" s="164"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="329"/>
-      <c r="B58" s="330"/>
-      <c r="C58" s="329"/>
-      <c r="D58" s="329"/>
-      <c r="E58" s="329"/>
-      <c r="F58" s="207"/>
-      <c r="G58" s="207"/>
-      <c r="H58" s="208"/>
-      <c r="I58" s="208"/>
-      <c r="J58" s="208"/>
-      <c r="K58" s="209"/>
-      <c r="L58" s="208"/>
-      <c r="M58" s="208"/>
-      <c r="N58" s="208"/>
-      <c r="O58" s="208"/>
-      <c r="P58" s="207"/>
+      <c r="A58" s="314"/>
+      <c r="B58" s="315"/>
+      <c r="C58" s="314"/>
+      <c r="D58" s="314"/>
+      <c r="E58" s="314"/>
+      <c r="F58" s="205"/>
+      <c r="G58" s="205"/>
+      <c r="H58" s="206"/>
+      <c r="I58" s="206"/>
+      <c r="J58" s="206"/>
+      <c r="K58" s="207"/>
+      <c r="L58" s="206"/>
+      <c r="M58" s="206"/>
+      <c r="N58" s="206"/>
+      <c r="O58" s="206"/>
+      <c r="P58" s="205"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="170"/>
-      <c r="B59" s="197"/>
-      <c r="C59" s="170"/>
-      <c r="D59" s="170"/>
-      <c r="E59" s="170"/>
-      <c r="F59" s="174"/>
-      <c r="G59" s="174"/>
-      <c r="H59" s="175"/>
-      <c r="I59" s="175"/>
-      <c r="J59" s="175"/>
-      <c r="K59" s="176"/>
-      <c r="L59" s="175"/>
-      <c r="M59" s="175"/>
-      <c r="N59" s="175"/>
-      <c r="O59" s="175"/>
-      <c r="P59" s="174"/>
+      <c r="A59" s="168"/>
+      <c r="B59" s="195"/>
+      <c r="C59" s="168"/>
+      <c r="D59" s="168"/>
+      <c r="E59" s="168"/>
+      <c r="F59" s="172"/>
+      <c r="G59" s="172"/>
+      <c r="H59" s="173"/>
+      <c r="I59" s="173"/>
+      <c r="J59" s="173"/>
+      <c r="K59" s="174"/>
+      <c r="L59" s="173"/>
+      <c r="M59" s="173"/>
+      <c r="N59" s="173"/>
+      <c r="O59" s="173"/>
+      <c r="P59" s="172"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="359"/>
-      <c r="B60" s="374"/>
-      <c r="C60" s="359"/>
-      <c r="D60" s="359"/>
-      <c r="E60" s="359"/>
-      <c r="F60" s="174"/>
-      <c r="G60" s="174"/>
-      <c r="H60" s="175"/>
-      <c r="I60" s="175"/>
-      <c r="J60" s="175"/>
-      <c r="K60" s="176"/>
-      <c r="L60" s="175"/>
-      <c r="M60" s="175"/>
-      <c r="N60" s="175"/>
-      <c r="O60" s="175"/>
-      <c r="P60" s="174"/>
+      <c r="A60" s="346"/>
+      <c r="B60" s="361"/>
+      <c r="C60" s="346"/>
+      <c r="D60" s="346"/>
+      <c r="E60" s="346"/>
+      <c r="F60" s="172"/>
+      <c r="G60" s="172"/>
+      <c r="H60" s="173"/>
+      <c r="I60" s="173"/>
+      <c r="J60" s="173"/>
+      <c r="K60" s="174"/>
+      <c r="L60" s="173"/>
+      <c r="M60" s="173"/>
+      <c r="N60" s="173"/>
+      <c r="O60" s="173"/>
+      <c r="P60" s="172"/>
     </row>
     <row r="61" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="361"/>
-      <c r="B61" s="376"/>
-      <c r="C61" s="361"/>
-      <c r="D61" s="361"/>
-      <c r="E61" s="361"/>
-      <c r="F61" s="174"/>
-      <c r="G61" s="174"/>
-      <c r="H61" s="175"/>
-      <c r="I61" s="175"/>
-      <c r="J61" s="175"/>
-      <c r="K61" s="176"/>
-      <c r="L61" s="175"/>
-      <c r="M61" s="175"/>
-      <c r="N61" s="175"/>
-      <c r="O61" s="175"/>
-      <c r="P61" s="174"/>
+      <c r="A61" s="348"/>
+      <c r="B61" s="363"/>
+      <c r="C61" s="348"/>
+      <c r="D61" s="348"/>
+      <c r="E61" s="348"/>
+      <c r="F61" s="172"/>
+      <c r="G61" s="172"/>
+      <c r="H61" s="173"/>
+      <c r="I61" s="173"/>
+      <c r="J61" s="173"/>
+      <c r="K61" s="174"/>
+      <c r="L61" s="173"/>
+      <c r="M61" s="173"/>
+      <c r="N61" s="173"/>
+      <c r="O61" s="173"/>
+      <c r="P61" s="172"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" s="359"/>
-      <c r="B62" s="374"/>
-      <c r="C62" s="359"/>
-      <c r="D62" s="359"/>
-      <c r="E62" s="359"/>
-      <c r="F62" s="174"/>
-      <c r="G62" s="174"/>
-      <c r="H62" s="175"/>
-      <c r="I62" s="175"/>
-      <c r="J62" s="175"/>
-      <c r="K62" s="176"/>
-      <c r="L62" s="175"/>
-      <c r="M62" s="175"/>
-      <c r="N62" s="175"/>
-      <c r="O62" s="175"/>
-      <c r="P62" s="174"/>
+      <c r="A62" s="346"/>
+      <c r="B62" s="361"/>
+      <c r="C62" s="346"/>
+      <c r="D62" s="346"/>
+      <c r="E62" s="346"/>
+      <c r="F62" s="172"/>
+      <c r="G62" s="172"/>
+      <c r="H62" s="173"/>
+      <c r="I62" s="173"/>
+      <c r="J62" s="173"/>
+      <c r="K62" s="174"/>
+      <c r="L62" s="173"/>
+      <c r="M62" s="173"/>
+      <c r="N62" s="173"/>
+      <c r="O62" s="173"/>
+      <c r="P62" s="172"/>
     </row>
     <row r="63" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="361"/>
-      <c r="B63" s="376"/>
-      <c r="C63" s="361"/>
-      <c r="D63" s="361"/>
-      <c r="E63" s="361"/>
-      <c r="F63" s="174"/>
-      <c r="G63" s="174"/>
-      <c r="H63" s="175"/>
-      <c r="I63" s="175"/>
-      <c r="J63" s="175"/>
-      <c r="K63" s="176"/>
-      <c r="L63" s="175"/>
-      <c r="M63" s="175"/>
-      <c r="N63" s="175"/>
-      <c r="O63" s="175"/>
-      <c r="P63" s="174"/>
+      <c r="A63" s="348"/>
+      <c r="B63" s="363"/>
+      <c r="C63" s="348"/>
+      <c r="D63" s="348"/>
+      <c r="E63" s="348"/>
+      <c r="F63" s="172"/>
+      <c r="G63" s="172"/>
+      <c r="H63" s="173"/>
+      <c r="I63" s="173"/>
+      <c r="J63" s="173"/>
+      <c r="K63" s="174"/>
+      <c r="L63" s="173"/>
+      <c r="M63" s="173"/>
+      <c r="N63" s="173"/>
+      <c r="O63" s="173"/>
+      <c r="P63" s="172"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A64" s="170"/>
-      <c r="B64" s="197"/>
-      <c r="C64" s="170"/>
-      <c r="D64" s="170"/>
-      <c r="E64" s="170"/>
-      <c r="F64" s="174"/>
-      <c r="G64" s="174"/>
-      <c r="H64" s="175"/>
-      <c r="I64" s="175"/>
-      <c r="J64" s="175"/>
-      <c r="K64" s="176"/>
-      <c r="L64" s="175"/>
-      <c r="M64" s="175"/>
-      <c r="N64" s="175"/>
-      <c r="O64" s="175"/>
-      <c r="P64" s="174"/>
+      <c r="A64" s="168"/>
+      <c r="B64" s="195"/>
+      <c r="C64" s="168"/>
+      <c r="D64" s="168"/>
+      <c r="E64" s="168"/>
+      <c r="F64" s="172"/>
+      <c r="G64" s="172"/>
+      <c r="H64" s="173"/>
+      <c r="I64" s="173"/>
+      <c r="J64" s="173"/>
+      <c r="K64" s="174"/>
+      <c r="L64" s="173"/>
+      <c r="M64" s="173"/>
+      <c r="N64" s="173"/>
+      <c r="O64" s="173"/>
+      <c r="P64" s="172"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" s="170"/>
-      <c r="B65" s="197"/>
-      <c r="C65" s="170"/>
-      <c r="D65" s="170"/>
-      <c r="E65" s="170"/>
-      <c r="F65" s="174"/>
-      <c r="G65" s="174"/>
-      <c r="H65" s="175"/>
-      <c r="I65" s="175"/>
-      <c r="J65" s="175"/>
-      <c r="K65" s="176"/>
-      <c r="L65" s="175"/>
-      <c r="M65" s="175"/>
-      <c r="N65" s="175"/>
-      <c r="O65" s="175"/>
-      <c r="P65" s="174"/>
+      <c r="A65" s="168"/>
+      <c r="B65" s="195"/>
+      <c r="C65" s="168"/>
+      <c r="D65" s="168"/>
+      <c r="E65" s="168"/>
+      <c r="F65" s="172"/>
+      <c r="G65" s="172"/>
+      <c r="H65" s="173"/>
+      <c r="I65" s="173"/>
+      <c r="J65" s="173"/>
+      <c r="K65" s="174"/>
+      <c r="L65" s="173"/>
+      <c r="M65" s="173"/>
+      <c r="N65" s="173"/>
+      <c r="O65" s="173"/>
+      <c r="P65" s="172"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="359"/>
-      <c r="B66" s="374"/>
-      <c r="C66" s="359"/>
-      <c r="D66" s="359"/>
-      <c r="E66" s="359"/>
-      <c r="F66" s="174"/>
-      <c r="G66" s="174"/>
-      <c r="H66" s="175"/>
-      <c r="I66" s="175"/>
-      <c r="J66" s="175"/>
-      <c r="K66" s="176"/>
-      <c r="L66" s="175"/>
-      <c r="M66" s="175"/>
-      <c r="N66" s="175"/>
-      <c r="O66" s="175"/>
-      <c r="P66" s="377"/>
+      <c r="A66" s="346"/>
+      <c r="B66" s="361"/>
+      <c r="C66" s="346"/>
+      <c r="D66" s="346"/>
+      <c r="E66" s="346"/>
+      <c r="F66" s="172"/>
+      <c r="G66" s="172"/>
+      <c r="H66" s="173"/>
+      <c r="I66" s="173"/>
+      <c r="J66" s="173"/>
+      <c r="K66" s="174"/>
+      <c r="L66" s="173"/>
+      <c r="M66" s="173"/>
+      <c r="N66" s="173"/>
+      <c r="O66" s="173"/>
+      <c r="P66" s="364"/>
     </row>
     <row r="67" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="361"/>
-      <c r="B67" s="376"/>
-      <c r="C67" s="361"/>
-      <c r="D67" s="361"/>
-      <c r="E67" s="361"/>
-      <c r="F67" s="174"/>
-      <c r="G67" s="174"/>
-      <c r="H67" s="175"/>
-      <c r="I67" s="175"/>
-      <c r="J67" s="175"/>
-      <c r="K67" s="176"/>
-      <c r="L67" s="175"/>
-      <c r="M67" s="175"/>
-      <c r="N67" s="175"/>
-      <c r="O67" s="175"/>
-      <c r="P67" s="378"/>
+      <c r="A67" s="348"/>
+      <c r="B67" s="363"/>
+      <c r="C67" s="348"/>
+      <c r="D67" s="348"/>
+      <c r="E67" s="348"/>
+      <c r="F67" s="172"/>
+      <c r="G67" s="172"/>
+      <c r="H67" s="173"/>
+      <c r="I67" s="173"/>
+      <c r="J67" s="173"/>
+      <c r="K67" s="174"/>
+      <c r="L67" s="173"/>
+      <c r="M67" s="173"/>
+      <c r="N67" s="173"/>
+      <c r="O67" s="173"/>
+      <c r="P67" s="365"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="359"/>
-      <c r="B68" s="374"/>
-      <c r="C68" s="359"/>
-      <c r="D68" s="371"/>
-      <c r="E68" s="359"/>
-      <c r="F68" s="174"/>
-      <c r="G68" s="174"/>
-      <c r="H68" s="175"/>
-      <c r="I68" s="175"/>
-      <c r="J68" s="362"/>
-      <c r="K68" s="365"/>
-      <c r="L68" s="368"/>
-      <c r="M68" s="368"/>
-      <c r="N68" s="175"/>
-      <c r="O68" s="175"/>
-      <c r="P68" s="174"/>
+      <c r="A68" s="346"/>
+      <c r="B68" s="361"/>
+      <c r="C68" s="346"/>
+      <c r="D68" s="358"/>
+      <c r="E68" s="346"/>
+      <c r="F68" s="172"/>
+      <c r="G68" s="172"/>
+      <c r="H68" s="173"/>
+      <c r="I68" s="173"/>
+      <c r="J68" s="349"/>
+      <c r="K68" s="352"/>
+      <c r="L68" s="355"/>
+      <c r="M68" s="355"/>
+      <c r="N68" s="173"/>
+      <c r="O68" s="173"/>
+      <c r="P68" s="172"/>
     </row>
     <row r="69" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="360"/>
-      <c r="B69" s="375"/>
-      <c r="C69" s="360"/>
-      <c r="D69" s="372"/>
-      <c r="E69" s="360"/>
-      <c r="F69" s="174"/>
-      <c r="G69" s="174"/>
-      <c r="H69" s="175"/>
-      <c r="I69" s="175"/>
-      <c r="J69" s="363"/>
-      <c r="K69" s="366"/>
-      <c r="L69" s="369"/>
-      <c r="M69" s="369"/>
-      <c r="N69" s="175"/>
-      <c r="O69" s="175"/>
-      <c r="P69" s="174"/>
+      <c r="A69" s="347"/>
+      <c r="B69" s="362"/>
+      <c r="C69" s="347"/>
+      <c r="D69" s="359"/>
+      <c r="E69" s="347"/>
+      <c r="F69" s="172"/>
+      <c r="G69" s="172"/>
+      <c r="H69" s="173"/>
+      <c r="I69" s="173"/>
+      <c r="J69" s="350"/>
+      <c r="K69" s="353"/>
+      <c r="L69" s="356"/>
+      <c r="M69" s="356"/>
+      <c r="N69" s="173"/>
+      <c r="O69" s="173"/>
+      <c r="P69" s="172"/>
     </row>
     <row r="70" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="360"/>
-      <c r="B70" s="375"/>
-      <c r="C70" s="360"/>
-      <c r="D70" s="372"/>
-      <c r="E70" s="360"/>
-      <c r="F70" s="174"/>
-      <c r="G70" s="174"/>
-      <c r="H70" s="175"/>
-      <c r="I70" s="175"/>
-      <c r="J70" s="363"/>
-      <c r="K70" s="366"/>
-      <c r="L70" s="369"/>
-      <c r="M70" s="369"/>
-      <c r="N70" s="175"/>
-      <c r="O70" s="175"/>
-      <c r="P70" s="174"/>
+      <c r="A70" s="347"/>
+      <c r="B70" s="362"/>
+      <c r="C70" s="347"/>
+      <c r="D70" s="359"/>
+      <c r="E70" s="347"/>
+      <c r="F70" s="172"/>
+      <c r="G70" s="172"/>
+      <c r="H70" s="173"/>
+      <c r="I70" s="173"/>
+      <c r="J70" s="350"/>
+      <c r="K70" s="353"/>
+      <c r="L70" s="356"/>
+      <c r="M70" s="356"/>
+      <c r="N70" s="173"/>
+      <c r="O70" s="173"/>
+      <c r="P70" s="172"/>
     </row>
     <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="360"/>
-      <c r="B71" s="375"/>
-      <c r="C71" s="360"/>
-      <c r="D71" s="372"/>
-      <c r="E71" s="360"/>
-      <c r="F71" s="174"/>
-      <c r="G71" s="174"/>
-      <c r="H71" s="175"/>
-      <c r="I71" s="175"/>
-      <c r="J71" s="363"/>
-      <c r="K71" s="366"/>
-      <c r="L71" s="369"/>
-      <c r="M71" s="369"/>
-      <c r="N71" s="175"/>
-      <c r="O71" s="175"/>
-      <c r="P71" s="174"/>
+      <c r="A71" s="347"/>
+      <c r="B71" s="362"/>
+      <c r="C71" s="347"/>
+      <c r="D71" s="359"/>
+      <c r="E71" s="347"/>
+      <c r="F71" s="172"/>
+      <c r="G71" s="172"/>
+      <c r="H71" s="173"/>
+      <c r="I71" s="173"/>
+      <c r="J71" s="350"/>
+      <c r="K71" s="353"/>
+      <c r="L71" s="356"/>
+      <c r="M71" s="356"/>
+      <c r="N71" s="173"/>
+      <c r="O71" s="173"/>
+      <c r="P71" s="172"/>
     </row>
     <row r="72" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="360"/>
-      <c r="B72" s="375"/>
-      <c r="C72" s="360"/>
-      <c r="D72" s="372"/>
-      <c r="E72" s="360"/>
-      <c r="F72" s="174"/>
-      <c r="G72" s="174"/>
-      <c r="H72" s="175"/>
-      <c r="I72" s="175"/>
-      <c r="J72" s="363"/>
-      <c r="K72" s="366"/>
-      <c r="L72" s="369"/>
-      <c r="M72" s="369"/>
-      <c r="N72" s="175"/>
-      <c r="O72" s="175"/>
-      <c r="P72" s="174"/>
+      <c r="A72" s="347"/>
+      <c r="B72" s="362"/>
+      <c r="C72" s="347"/>
+      <c r="D72" s="359"/>
+      <c r="E72" s="347"/>
+      <c r="F72" s="172"/>
+      <c r="G72" s="172"/>
+      <c r="H72" s="173"/>
+      <c r="I72" s="173"/>
+      <c r="J72" s="350"/>
+      <c r="K72" s="353"/>
+      <c r="L72" s="356"/>
+      <c r="M72" s="356"/>
+      <c r="N72" s="173"/>
+      <c r="O72" s="173"/>
+      <c r="P72" s="172"/>
     </row>
     <row r="73" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="360"/>
-      <c r="B73" s="375"/>
-      <c r="C73" s="360"/>
-      <c r="D73" s="372"/>
-      <c r="E73" s="360"/>
-      <c r="F73" s="174"/>
-      <c r="G73" s="174"/>
-      <c r="H73" s="175"/>
-      <c r="I73" s="175"/>
-      <c r="J73" s="363"/>
-      <c r="K73" s="366"/>
-      <c r="L73" s="369"/>
-      <c r="M73" s="369"/>
-      <c r="N73" s="175"/>
-      <c r="O73" s="175"/>
-      <c r="P73" s="174"/>
+      <c r="A73" s="347"/>
+      <c r="B73" s="362"/>
+      <c r="C73" s="347"/>
+      <c r="D73" s="359"/>
+      <c r="E73" s="347"/>
+      <c r="F73" s="172"/>
+      <c r="G73" s="172"/>
+      <c r="H73" s="173"/>
+      <c r="I73" s="173"/>
+      <c r="J73" s="350"/>
+      <c r="K73" s="353"/>
+      <c r="L73" s="356"/>
+      <c r="M73" s="356"/>
+      <c r="N73" s="173"/>
+      <c r="O73" s="173"/>
+      <c r="P73" s="172"/>
     </row>
     <row r="74" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="361"/>
-      <c r="B74" s="376"/>
-      <c r="C74" s="361"/>
-      <c r="D74" s="373"/>
-      <c r="E74" s="361"/>
-      <c r="F74" s="174"/>
-      <c r="G74" s="174"/>
-      <c r="H74" s="175"/>
-      <c r="I74" s="175"/>
-      <c r="J74" s="364"/>
-      <c r="K74" s="367"/>
-      <c r="L74" s="370"/>
-      <c r="M74" s="370"/>
-      <c r="N74" s="175"/>
-      <c r="O74" s="175"/>
-      <c r="P74" s="199"/>
+      <c r="A74" s="348"/>
+      <c r="B74" s="363"/>
+      <c r="C74" s="348"/>
+      <c r="D74" s="360"/>
+      <c r="E74" s="348"/>
+      <c r="F74" s="172"/>
+      <c r="G74" s="172"/>
+      <c r="H74" s="173"/>
+      <c r="I74" s="173"/>
+      <c r="J74" s="351"/>
+      <c r="K74" s="354"/>
+      <c r="L74" s="357"/>
+      <c r="M74" s="357"/>
+      <c r="N74" s="173"/>
+      <c r="O74" s="173"/>
+      <c r="P74" s="197"/>
     </row>
     <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="195"/>
-      <c r="B75" s="194"/>
-      <c r="C75" s="195"/>
-      <c r="D75" s="195"/>
-      <c r="E75" s="195"/>
-      <c r="F75" s="174"/>
-      <c r="G75" s="174"/>
-      <c r="H75" s="175"/>
-      <c r="I75" s="175"/>
-      <c r="J75" s="175"/>
-      <c r="K75" s="176"/>
-      <c r="L75" s="175"/>
-      <c r="M75" s="175"/>
-      <c r="N75" s="175"/>
-      <c r="O75" s="175"/>
-      <c r="P75" s="174"/>
+      <c r="A75" s="193"/>
+      <c r="B75" s="192"/>
+      <c r="C75" s="193"/>
+      <c r="D75" s="193"/>
+      <c r="E75" s="193"/>
+      <c r="F75" s="172"/>
+      <c r="G75" s="172"/>
+      <c r="H75" s="173"/>
+      <c r="I75" s="173"/>
+      <c r="J75" s="173"/>
+      <c r="K75" s="174"/>
+      <c r="L75" s="173"/>
+      <c r="M75" s="173"/>
+      <c r="N75" s="173"/>
+      <c r="O75" s="173"/>
+      <c r="P75" s="172"/>
     </row>
     <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="170"/>
-      <c r="B76" s="197"/>
-      <c r="C76" s="170"/>
-      <c r="D76" s="170"/>
-      <c r="E76" s="170"/>
-      <c r="F76" s="174"/>
-      <c r="G76" s="174"/>
-      <c r="H76" s="175"/>
-      <c r="I76" s="175"/>
-      <c r="J76" s="175"/>
-      <c r="K76" s="176"/>
-      <c r="L76" s="175"/>
-      <c r="M76" s="175"/>
-      <c r="N76" s="175"/>
-      <c r="O76" s="175"/>
-      <c r="P76" s="174"/>
+      <c r="A76" s="168"/>
+      <c r="B76" s="195"/>
+      <c r="C76" s="168"/>
+      <c r="D76" s="168"/>
+      <c r="E76" s="168"/>
+      <c r="F76" s="172"/>
+      <c r="G76" s="172"/>
+      <c r="H76" s="173"/>
+      <c r="I76" s="173"/>
+      <c r="J76" s="173"/>
+      <c r="K76" s="174"/>
+      <c r="L76" s="173"/>
+      <c r="M76" s="173"/>
+      <c r="N76" s="173"/>
+      <c r="O76" s="173"/>
+      <c r="P76" s="172"/>
     </row>
     <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="173"/>
-      <c r="B77" s="198"/>
-      <c r="C77" s="173"/>
-      <c r="D77" s="173"/>
-      <c r="E77" s="173"/>
-      <c r="F77" s="165"/>
-      <c r="G77" s="165"/>
-      <c r="H77" s="166"/>
-      <c r="I77" s="166"/>
-      <c r="J77" s="166"/>
-      <c r="K77" s="167"/>
-      <c r="L77" s="166"/>
-      <c r="M77" s="166"/>
-      <c r="N77" s="166"/>
-      <c r="O77" s="166"/>
-      <c r="P77" s="165"/>
+      <c r="A77" s="171"/>
+      <c r="B77" s="196"/>
+      <c r="C77" s="171"/>
+      <c r="D77" s="171"/>
+      <c r="E77" s="171"/>
+      <c r="F77" s="164"/>
+      <c r="G77" s="164"/>
+      <c r="H77" s="165"/>
+      <c r="I77" s="165"/>
+      <c r="J77" s="165"/>
+      <c r="K77" s="166"/>
+      <c r="L77" s="165"/>
+      <c r="M77" s="165"/>
+      <c r="N77" s="165"/>
+      <c r="O77" s="165"/>
+      <c r="P77" s="164"/>
     </row>
     <row r="78" spans="1:17" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="392" t="s">
+      <c r="A78" s="377" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="392"/>
-      <c r="C78" s="392"/>
-      <c r="D78" s="392"/>
-      <c r="E78" s="392"/>
-      <c r="F78" s="392"/>
+      <c r="B78" s="377"/>
+      <c r="C78" s="377"/>
+      <c r="D78" s="377"/>
+      <c r="E78" s="377"/>
+      <c r="F78" s="377"/>
       <c r="G78" s="131">
         <f>SUM(G8:G77)</f>
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="H78" s="132"/>
       <c r="I78" s="133">
         <f>SUM(I8:I77)</f>
-        <v>0</v>
+        <v>209090000</v>
       </c>
       <c r="J78" s="154"/>
       <c r="K78" s="133"/>
       <c r="L78" s="134">
         <f>SUM(L8:L77)</f>
-        <v>0</v>
+        <v>97839750</v>
       </c>
       <c r="M78" s="132"/>
       <c r="N78" s="132"/>
       <c r="O78" s="132"/>
       <c r="P78" s="132"/>
-      <c r="Q78" s="398"/>
+      <c r="Q78" s="383"/>
     </row>
     <row r="79" spans="1:17" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="391" t="s">
+      <c r="A79" s="376" t="s">
         <v>135</v>
       </c>
-      <c r="B79" s="391"/>
-      <c r="C79" s="391"/>
-      <c r="D79" s="391"/>
-      <c r="E79" s="391"/>
-      <c r="F79" s="391"/>
+      <c r="B79" s="376"/>
+      <c r="C79" s="376"/>
+      <c r="D79" s="376"/>
+      <c r="E79" s="376"/>
+      <c r="F79" s="376"/>
       <c r="G79" s="131">
         <f>G78</f>
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="H79" s="136"/>
       <c r="I79" s="133"/>
@@ -5091,23 +6129,23 @@
       <c r="K79" s="133"/>
       <c r="L79" s="134">
         <f>L78</f>
-        <v>0</v>
+        <v>97839750</v>
       </c>
       <c r="M79" s="136"/>
       <c r="N79" s="136"/>
       <c r="O79" s="136"/>
       <c r="P79" s="136"/>
-      <c r="Q79" s="398"/>
+      <c r="Q79" s="383"/>
     </row>
     <row r="80" spans="1:17" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="468" t="s">
+      <c r="A80" s="384" t="s">
         <v>77</v>
       </c>
-      <c r="B80" s="468"/>
-      <c r="C80" s="468"/>
-      <c r="D80" s="468"/>
-      <c r="E80" s="468"/>
-      <c r="F80" s="468"/>
+      <c r="B80" s="384"/>
+      <c r="C80" s="384"/>
+      <c r="D80" s="384"/>
+      <c r="E80" s="384"/>
+      <c r="F80" s="384"/>
       <c r="G80" s="137" t="s">
         <v>45</v>
       </c>
@@ -5117,7 +6155,7 @@
       <c r="K80" s="137"/>
       <c r="L80" s="134">
         <f>SUM(M8:M77)</f>
-        <v>0</v>
+        <v>4253900.0000000009</v>
       </c>
       <c r="M80" s="136"/>
       <c r="N80" s="136"/>
@@ -5125,14 +6163,14 @@
       <c r="P80" s="138"/>
     </row>
     <row r="81" spans="1:16" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="391" t="s">
+      <c r="A81" s="376" t="s">
         <v>78</v>
       </c>
-      <c r="B81" s="391"/>
-      <c r="C81" s="391"/>
-      <c r="D81" s="391"/>
-      <c r="E81" s="391"/>
-      <c r="F81" s="391"/>
+      <c r="B81" s="376"/>
+      <c r="C81" s="376"/>
+      <c r="D81" s="376"/>
+      <c r="E81" s="376"/>
+      <c r="F81" s="376"/>
       <c r="G81" s="136"/>
       <c r="H81" s="136"/>
       <c r="I81" s="132"/>
@@ -5140,7 +6178,7 @@
       <c r="K81" s="133"/>
       <c r="L81" s="134">
         <f>SUM(N8:N77)</f>
-        <v>0</v>
+        <v>50843250.000000007</v>
       </c>
       <c r="M81" s="136"/>
       <c r="N81" s="136"/>
@@ -5148,14 +6186,14 @@
       <c r="P81" s="138"/>
     </row>
     <row r="82" spans="1:16" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="391" t="s">
+      <c r="A82" s="376" t="s">
         <v>79</v>
       </c>
-      <c r="B82" s="391"/>
-      <c r="C82" s="391"/>
-      <c r="D82" s="391"/>
-      <c r="E82" s="391"/>
-      <c r="F82" s="391"/>
+      <c r="B82" s="376"/>
+      <c r="C82" s="376"/>
+      <c r="D82" s="376"/>
+      <c r="E82" s="376"/>
+      <c r="F82" s="376"/>
       <c r="G82" s="136"/>
       <c r="H82" s="136"/>
       <c r="I82" s="132"/>
@@ -5163,45 +6201,45 @@
       <c r="K82" s="133"/>
       <c r="L82" s="134">
         <f>SUM(O8:O77)</f>
-        <v>0</v>
+        <v>42742600</v>
       </c>
       <c r="M82" s="136"/>
       <c r="N82" s="136"/>
       <c r="O82" s="136"/>
       <c r="P82" s="138"/>
     </row>
-    <row r="85" spans="1:16" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C85" s="178"/>
-      <c r="E85" s="179" t="s">
+    <row r="85" spans="1:16" s="175" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C85" s="176"/>
+      <c r="E85" s="177" t="s">
         <v>84</v>
       </c>
-      <c r="F85" s="178"/>
-      <c r="G85" s="178"/>
-      <c r="H85" s="178"/>
-      <c r="I85" s="178"/>
-      <c r="L85" s="179" t="s">
+      <c r="F85" s="176"/>
+      <c r="G85" s="176"/>
+      <c r="H85" s="176"/>
+      <c r="I85" s="176"/>
+      <c r="L85" s="177" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:16" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C86" s="180"/>
-      <c r="E86" s="181" t="s">
+    <row r="86" spans="1:16" s="175" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C86" s="178"/>
+      <c r="E86" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="F86" s="180"/>
-      <c r="G86" s="180"/>
-      <c r="H86" s="180"/>
-      <c r="I86" s="180"/>
-      <c r="L86" s="181" t="s">
+      <c r="F86" s="178"/>
+      <c r="G86" s="178"/>
+      <c r="H86" s="178"/>
+      <c r="I86" s="178"/>
+      <c r="L86" s="179" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="160"/>
       <c r="B89" s="160"/>
-      <c r="C89" s="179"/>
+      <c r="C89" s="177"/>
       <c r="D89" s="160"/>
-      <c r="E89" s="179"/>
+      <c r="E89" s="177"/>
       <c r="F89" s="159"/>
       <c r="G89" s="159"/>
       <c r="H89" s="160"/>
@@ -5225,7 +6263,37 @@
     <filterColumn colId="12" showButton="0"/>
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
-  <mergeCells count="114">
+  <mergeCells count="108">
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
     <mergeCell ref="B55:B57"/>
     <mergeCell ref="A55:A57"/>
     <mergeCell ref="Q78:Q79"/>
@@ -5239,17 +6307,9 @@
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="M6:M7"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="E44:E46"/>
     <mergeCell ref="D51:D54"/>
-    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="D17:D18"/>
     <mergeCell ref="A81:F81"/>
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="A78:F78"/>
@@ -5273,54 +6333,26 @@
     <mergeCell ref="E55:E57"/>
     <mergeCell ref="C55:C57"/>
     <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D9:D16"/>
+    <mergeCell ref="E9:E16"/>
+    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A36:A39"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="D60:D61"/>
     <mergeCell ref="E60:E61"/>
     <mergeCell ref="B60:B61"/>
     <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="P25:P29"/>
-    <mergeCell ref="P30:P37"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="E30:E37"/>
-    <mergeCell ref="D30:D37"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="E49:E50"/>
     <mergeCell ref="P66:P67"/>
     <mergeCell ref="E66:E67"/>
     <mergeCell ref="D66:D67"/>
@@ -5350,684 +6382,781 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="256"/>
-    <col min="2" max="2" width="12" style="256" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="256" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="256" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="256" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="256"/>
-    <col min="7" max="7" width="6.28515625" style="256" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="256" customWidth="1"/>
-    <col min="9" max="9" width="14" style="256" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" style="257" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="258" customWidth="1"/>
-    <col min="12" max="12" width="4.42578125" style="259" customWidth="1"/>
-    <col min="13" max="13" width="4" style="259" customWidth="1"/>
-    <col min="14" max="14" width="14" style="259" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="256"/>
+    <col min="1" max="1" width="9.140625" style="254"/>
+    <col min="2" max="2" width="12" style="254" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="254" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="254" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="254" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="254"/>
+    <col min="7" max="7" width="6.28515625" style="254" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="254" customWidth="1"/>
+    <col min="9" max="9" width="14" style="254" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" style="255" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="256" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" style="257" customWidth="1"/>
+    <col min="13" max="13" width="4" style="257" customWidth="1"/>
+    <col min="14" max="14" width="14" style="257" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="254"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="255" t="s">
+      <c r="A1" s="253" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="260" t="s">
+      <c r="A2" s="258" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="412" t="s">
+      <c r="A3" s="398" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="412"/>
-      <c r="C3" s="412"/>
-      <c r="D3" s="412"/>
-      <c r="E3" s="412"/>
-      <c r="F3" s="412"/>
-      <c r="G3" s="412"/>
-      <c r="H3" s="412"/>
-      <c r="I3" s="412"/>
-      <c r="J3" s="412"/>
-      <c r="K3" s="412"/>
-      <c r="L3" s="261"/>
-      <c r="M3" s="261"/>
-      <c r="N3" s="261"/>
+      <c r="B3" s="398"/>
+      <c r="C3" s="398"/>
+      <c r="D3" s="398"/>
+      <c r="E3" s="398"/>
+      <c r="F3" s="398"/>
+      <c r="G3" s="398"/>
+      <c r="H3" s="398"/>
+      <c r="I3" s="398"/>
+      <c r="J3" s="398"/>
+      <c r="K3" s="398"/>
+      <c r="L3" s="259"/>
+      <c r="M3" s="259"/>
+      <c r="N3" s="259"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="413" t="s">
+      <c r="A4" s="399" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="413"/>
-      <c r="C4" s="413"/>
-      <c r="D4" s="413"/>
-      <c r="E4" s="413"/>
-      <c r="F4" s="413"/>
-      <c r="G4" s="413"/>
-      <c r="H4" s="413"/>
-      <c r="I4" s="413"/>
-      <c r="J4" s="414"/>
-      <c r="K4" s="413"/>
-      <c r="L4" s="262"/>
-      <c r="M4" s="262"/>
-      <c r="N4" s="262"/>
+      <c r="B4" s="399"/>
+      <c r="C4" s="399"/>
+      <c r="D4" s="399"/>
+      <c r="E4" s="399"/>
+      <c r="F4" s="399"/>
+      <c r="G4" s="399"/>
+      <c r="H4" s="399"/>
+      <c r="I4" s="399"/>
+      <c r="J4" s="400"/>
+      <c r="K4" s="399"/>
+      <c r="L4" s="260"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="415" t="s">
+      <c r="A5" s="401" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="416" t="s">
+      <c r="B5" s="402" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="415" t="s">
+      <c r="C5" s="401" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="415" t="s">
+      <c r="D5" s="401" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="415"/>
-      <c r="F5" s="417" t="s">
+      <c r="E5" s="401"/>
+      <c r="F5" s="403" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="417"/>
-      <c r="H5" s="417"/>
-      <c r="I5" s="417"/>
-      <c r="J5" s="418"/>
-      <c r="K5" s="419" t="s">
+      <c r="G5" s="403"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="403"/>
+      <c r="J5" s="404"/>
+      <c r="K5" s="405" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="411" t="s">
+      <c r="L5" s="397" t="s">
         <v>92</v>
       </c>
-      <c r="M5" s="411"/>
-      <c r="N5" s="411"/>
+      <c r="M5" s="397"/>
+      <c r="N5" s="397"/>
     </row>
     <row r="6" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="415"/>
-      <c r="B6" s="416"/>
-      <c r="C6" s="415"/>
-      <c r="D6" s="263" t="s">
+      <c r="A6" s="401"/>
+      <c r="B6" s="402"/>
+      <c r="C6" s="401"/>
+      <c r="D6" s="261" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="264" t="s">
+      <c r="E6" s="262" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="264" t="s">
+      <c r="F6" s="262" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="264" t="s">
+      <c r="G6" s="262" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="265" t="s">
+      <c r="H6" s="263" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="266" t="s">
+      <c r="I6" s="264" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="267" t="s">
+      <c r="J6" s="265" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="419"/>
-      <c r="L6" s="268" t="s">
+      <c r="K6" s="405"/>
+      <c r="L6" s="266" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="268" t="s">
+      <c r="M6" s="266" t="s">
         <v>80</v>
       </c>
-      <c r="N6" s="268" t="s">
+      <c r="N6" s="266" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="420"/>
-      <c r="B7" s="421"/>
-      <c r="C7" s="420"/>
-      <c r="D7" s="420"/>
-      <c r="E7" s="420"/>
-      <c r="F7" s="269"/>
-      <c r="G7" s="269"/>
-      <c r="H7" s="270"/>
-      <c r="I7" s="270"/>
-      <c r="J7" s="271"/>
-      <c r="K7" s="270"/>
-      <c r="L7" s="272"/>
-      <c r="M7" s="272"/>
-      <c r="N7" s="273"/>
+      <c r="A7" s="479">
+        <v>1270</v>
+      </c>
+      <c r="B7" s="480"/>
+      <c r="C7" s="479"/>
+      <c r="D7" s="479"/>
+      <c r="E7" s="479"/>
+      <c r="F7" s="479"/>
+      <c r="G7" s="479"/>
+      <c r="H7" s="481"/>
+      <c r="I7" s="481"/>
+      <c r="J7" s="482"/>
+      <c r="K7" s="481"/>
+      <c r="L7" s="483"/>
+      <c r="M7" s="483"/>
+      <c r="N7" s="484"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="406"/>
-      <c r="B8" s="403"/>
-      <c r="C8" s="406"/>
-      <c r="D8" s="406"/>
-      <c r="E8" s="406"/>
-      <c r="F8" s="274"/>
-      <c r="G8" s="274"/>
-      <c r="H8" s="275"/>
-      <c r="I8" s="275"/>
-      <c r="J8" s="276"/>
-      <c r="K8" s="275"/>
-      <c r="L8" s="277"/>
-      <c r="M8" s="277"/>
-      <c r="N8" s="278"/>
+      <c r="A8" s="479">
+        <v>1291</v>
+      </c>
+      <c r="B8" s="480"/>
+      <c r="C8" s="479"/>
+      <c r="D8" s="479"/>
+      <c r="E8" s="479"/>
+      <c r="F8" s="479"/>
+      <c r="G8" s="479"/>
+      <c r="H8" s="481"/>
+      <c r="I8" s="481"/>
+      <c r="J8" s="482"/>
+      <c r="K8" s="481"/>
+      <c r="L8" s="483"/>
+      <c r="M8" s="483"/>
+      <c r="N8" s="484"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="408"/>
-      <c r="B9" s="409"/>
-      <c r="C9" s="408"/>
-      <c r="D9" s="408"/>
-      <c r="E9" s="408"/>
-      <c r="F9" s="274"/>
-      <c r="G9" s="274"/>
-      <c r="H9" s="275"/>
-      <c r="I9" s="275"/>
-      <c r="J9" s="276"/>
-      <c r="K9" s="275"/>
-      <c r="L9" s="277"/>
-      <c r="M9" s="277"/>
-      <c r="N9" s="278"/>
+      <c r="A9" s="479">
+        <v>1276</v>
+      </c>
+      <c r="B9" s="480">
+        <v>44173</v>
+      </c>
+      <c r="C9" s="479"/>
+      <c r="D9" s="479" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="479"/>
+      <c r="F9" s="479" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" s="479">
+        <v>3</v>
+      </c>
+      <c r="H9" s="481">
+        <v>455000</v>
+      </c>
+      <c r="I9" s="481">
+        <f>H9</f>
+        <v>455000</v>
+      </c>
+      <c r="J9" s="482">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="481">
+        <f>I9*(1-J9)</f>
+        <v>227500</v>
+      </c>
+      <c r="L9" s="483"/>
+      <c r="M9" s="483"/>
+      <c r="N9" s="484"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="302"/>
-      <c r="B10" s="304"/>
-      <c r="C10" s="274"/>
-      <c r="D10" s="274"/>
-      <c r="E10" s="274"/>
-      <c r="F10" s="274"/>
-      <c r="G10" s="274"/>
-      <c r="H10" s="275"/>
-      <c r="I10" s="275"/>
-      <c r="J10" s="276"/>
-      <c r="K10" s="275"/>
-      <c r="L10" s="277"/>
-      <c r="M10" s="277"/>
-      <c r="N10" s="278"/>
+      <c r="A10" s="485">
+        <v>1282</v>
+      </c>
+      <c r="B10" s="486">
+        <v>44175</v>
+      </c>
+      <c r="C10" s="485"/>
+      <c r="D10" s="485" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="485"/>
+      <c r="F10" s="267" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" s="267">
+        <v>12</v>
+      </c>
+      <c r="H10" s="268">
+        <v>465000</v>
+      </c>
+      <c r="I10" s="268">
+        <f>G10*H10</f>
+        <v>5580000</v>
+      </c>
+      <c r="J10" s="269">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="268">
+        <f t="shared" ref="K10:K13" si="0">I10*(1-J10)</f>
+        <v>2790000</v>
+      </c>
+      <c r="L10" s="270"/>
+      <c r="M10" s="270"/>
+      <c r="N10" s="271"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="405"/>
-      <c r="B11" s="402"/>
-      <c r="C11" s="405"/>
-      <c r="D11" s="405"/>
-      <c r="E11" s="405"/>
-      <c r="F11" s="274"/>
-      <c r="G11" s="274"/>
-      <c r="H11" s="275"/>
-      <c r="I11" s="275"/>
-      <c r="J11" s="276"/>
-      <c r="K11" s="275"/>
-      <c r="L11" s="277"/>
-      <c r="M11" s="277"/>
-      <c r="N11" s="278"/>
+      <c r="A11" s="487"/>
+      <c r="B11" s="488"/>
+      <c r="C11" s="487"/>
+      <c r="D11" s="487"/>
+      <c r="E11" s="487"/>
+      <c r="F11" s="278" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="278">
+        <v>18</v>
+      </c>
+      <c r="H11" s="279">
+        <v>485000</v>
+      </c>
+      <c r="I11" s="279">
+        <f>G11*H11</f>
+        <v>8730000</v>
+      </c>
+      <c r="J11" s="280">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="279">
+        <f t="shared" si="0"/>
+        <v>4365000</v>
+      </c>
+      <c r="L11" s="282"/>
+      <c r="M11" s="282"/>
+      <c r="N11" s="283"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="406"/>
-      <c r="B12" s="403"/>
-      <c r="C12" s="406"/>
-      <c r="D12" s="406"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="274"/>
-      <c r="G12" s="274"/>
-      <c r="H12" s="275"/>
-      <c r="I12" s="275"/>
-      <c r="J12" s="276"/>
-      <c r="K12" s="275"/>
-      <c r="L12" s="277"/>
-      <c r="M12" s="277"/>
-      <c r="N12" s="278"/>
+      <c r="A12" s="485">
+        <v>1278</v>
+      </c>
+      <c r="B12" s="486">
+        <v>44540</v>
+      </c>
+      <c r="C12" s="485"/>
+      <c r="D12" s="485" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" s="485"/>
+      <c r="F12" s="267" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" s="267">
+        <v>24</v>
+      </c>
+      <c r="H12" s="268">
+        <v>455000</v>
+      </c>
+      <c r="I12" s="268">
+        <f t="shared" ref="I12:I13" si="1">G12*H12</f>
+        <v>10920000</v>
+      </c>
+      <c r="J12" s="269">
+        <v>0.5</v>
+      </c>
+      <c r="K12" s="268">
+        <f t="shared" si="0"/>
+        <v>5460000</v>
+      </c>
+      <c r="L12" s="270"/>
+      <c r="M12" s="270"/>
+      <c r="N12" s="271"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="408"/>
-      <c r="B13" s="409"/>
-      <c r="C13" s="408"/>
-      <c r="D13" s="408"/>
-      <c r="E13" s="408"/>
-      <c r="F13" s="274"/>
-      <c r="G13" s="274"/>
-      <c r="H13" s="275"/>
-      <c r="I13" s="275"/>
-      <c r="J13" s="276"/>
-      <c r="K13" s="275"/>
-      <c r="L13" s="277"/>
-      <c r="M13" s="277"/>
-      <c r="N13" s="278"/>
+      <c r="A13" s="487"/>
+      <c r="B13" s="488"/>
+      <c r="C13" s="487"/>
+      <c r="D13" s="487"/>
+      <c r="E13" s="487"/>
+      <c r="F13" s="278" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="278">
+        <v>13</v>
+      </c>
+      <c r="H13" s="279">
+        <v>465000</v>
+      </c>
+      <c r="I13" s="279">
+        <f t="shared" si="1"/>
+        <v>6045000</v>
+      </c>
+      <c r="J13" s="280">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="279">
+        <f t="shared" si="0"/>
+        <v>3022500</v>
+      </c>
+      <c r="L13" s="282"/>
+      <c r="M13" s="282"/>
+      <c r="N13" s="283"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="405"/>
-      <c r="B14" s="402"/>
-      <c r="C14" s="405"/>
-      <c r="D14" s="405"/>
-      <c r="E14" s="405"/>
-      <c r="F14" s="274"/>
-      <c r="G14" s="274"/>
-      <c r="H14" s="275"/>
-      <c r="I14" s="275"/>
-      <c r="J14" s="276"/>
-      <c r="K14" s="275"/>
-      <c r="L14" s="277"/>
-      <c r="M14" s="277"/>
-      <c r="N14" s="278"/>
+      <c r="A14" s="471"/>
+      <c r="B14" s="473"/>
+      <c r="C14" s="471"/>
+      <c r="D14" s="471"/>
+      <c r="E14" s="392"/>
+      <c r="F14" s="472"/>
+      <c r="G14" s="472"/>
+      <c r="H14" s="475"/>
+      <c r="I14" s="475"/>
+      <c r="J14" s="476"/>
+      <c r="K14" s="475"/>
+      <c r="L14" s="477"/>
+      <c r="M14" s="477"/>
+      <c r="N14" s="478"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="406"/>
-      <c r="B15" s="403"/>
-      <c r="C15" s="406"/>
-      <c r="D15" s="406"/>
-      <c r="E15" s="406"/>
-      <c r="F15" s="274"/>
-      <c r="G15" s="274"/>
-      <c r="H15" s="275"/>
-      <c r="I15" s="275"/>
-      <c r="J15" s="276"/>
-      <c r="K15" s="275"/>
-      <c r="L15" s="277"/>
-      <c r="M15" s="277"/>
-      <c r="N15" s="278"/>
+      <c r="A15" s="471"/>
+      <c r="B15" s="473"/>
+      <c r="C15" s="471"/>
+      <c r="D15" s="471"/>
+      <c r="E15" s="392"/>
+      <c r="F15" s="272"/>
+      <c r="G15" s="272"/>
+      <c r="H15" s="273"/>
+      <c r="I15" s="273"/>
+      <c r="J15" s="274"/>
+      <c r="K15" s="273"/>
+      <c r="L15" s="275"/>
+      <c r="M15" s="275"/>
+      <c r="N15" s="276"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="406"/>
-      <c r="B16" s="403"/>
-      <c r="C16" s="406"/>
-      <c r="D16" s="406"/>
-      <c r="E16" s="406"/>
-      <c r="F16" s="274"/>
-      <c r="G16" s="274"/>
-      <c r="H16" s="275"/>
-      <c r="I16" s="275"/>
-      <c r="J16" s="276"/>
-      <c r="K16" s="275"/>
-      <c r="L16" s="277"/>
-      <c r="M16" s="277"/>
-      <c r="N16" s="278"/>
+      <c r="A16" s="471"/>
+      <c r="B16" s="473"/>
+      <c r="C16" s="471"/>
+      <c r="D16" s="471"/>
+      <c r="E16" s="392"/>
+      <c r="F16" s="272"/>
+      <c r="G16" s="272"/>
+      <c r="H16" s="273"/>
+      <c r="I16" s="273"/>
+      <c r="J16" s="274"/>
+      <c r="K16" s="273"/>
+      <c r="L16" s="275"/>
+      <c r="M16" s="275"/>
+      <c r="N16" s="276"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="408"/>
-      <c r="B17" s="409"/>
-      <c r="C17" s="408"/>
-      <c r="D17" s="408"/>
-      <c r="E17" s="408"/>
-      <c r="F17" s="274"/>
-      <c r="G17" s="274"/>
-      <c r="H17" s="275"/>
-      <c r="I17" s="275"/>
-      <c r="J17" s="276"/>
-      <c r="K17" s="275"/>
-      <c r="L17" s="277"/>
-      <c r="M17" s="277"/>
-      <c r="N17" s="278"/>
+      <c r="A17" s="472"/>
+      <c r="B17" s="474"/>
+      <c r="C17" s="472"/>
+      <c r="D17" s="472"/>
+      <c r="E17" s="394"/>
+      <c r="F17" s="272"/>
+      <c r="G17" s="272"/>
+      <c r="H17" s="273"/>
+      <c r="I17" s="273"/>
+      <c r="J17" s="274"/>
+      <c r="K17" s="273"/>
+      <c r="L17" s="275"/>
+      <c r="M17" s="275"/>
+      <c r="N17" s="276"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="405"/>
-      <c r="B18" s="402"/>
-      <c r="C18" s="405"/>
-      <c r="D18" s="405"/>
-      <c r="E18" s="405"/>
-      <c r="F18" s="274"/>
-      <c r="G18" s="274"/>
-      <c r="H18" s="275"/>
-      <c r="I18" s="275"/>
-      <c r="J18" s="276"/>
-      <c r="K18" s="275"/>
-      <c r="L18" s="277"/>
-      <c r="M18" s="277"/>
-      <c r="N18" s="278"/>
+      <c r="A18" s="391"/>
+      <c r="B18" s="388"/>
+      <c r="C18" s="391"/>
+      <c r="D18" s="391"/>
+      <c r="E18" s="391"/>
+      <c r="F18" s="272"/>
+      <c r="G18" s="272"/>
+      <c r="H18" s="273"/>
+      <c r="I18" s="273"/>
+      <c r="J18" s="274"/>
+      <c r="K18" s="273"/>
+      <c r="L18" s="275"/>
+      <c r="M18" s="275"/>
+      <c r="N18" s="276"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="406"/>
-      <c r="B19" s="403"/>
-      <c r="C19" s="406"/>
-      <c r="D19" s="406"/>
-      <c r="E19" s="406"/>
-      <c r="F19" s="274"/>
-      <c r="G19" s="274"/>
-      <c r="H19" s="275"/>
-      <c r="I19" s="275"/>
-      <c r="J19" s="276"/>
-      <c r="K19" s="275"/>
-      <c r="L19" s="277"/>
-      <c r="M19" s="277"/>
-      <c r="N19" s="278"/>
+      <c r="A19" s="392"/>
+      <c r="B19" s="389"/>
+      <c r="C19" s="392"/>
+      <c r="D19" s="392"/>
+      <c r="E19" s="392"/>
+      <c r="F19" s="272"/>
+      <c r="G19" s="272"/>
+      <c r="H19" s="273"/>
+      <c r="I19" s="273"/>
+      <c r="J19" s="274"/>
+      <c r="K19" s="273"/>
+      <c r="L19" s="275"/>
+      <c r="M19" s="275"/>
+      <c r="N19" s="276"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="408"/>
-      <c r="B20" s="409"/>
-      <c r="C20" s="408"/>
-      <c r="D20" s="408"/>
-      <c r="E20" s="408"/>
-      <c r="F20" s="274"/>
-      <c r="G20" s="274"/>
-      <c r="H20" s="275"/>
-      <c r="I20" s="275"/>
-      <c r="J20" s="276"/>
-      <c r="K20" s="275"/>
-      <c r="L20" s="277"/>
-      <c r="M20" s="277"/>
-      <c r="N20" s="278"/>
+      <c r="A20" s="394"/>
+      <c r="B20" s="395"/>
+      <c r="C20" s="394"/>
+      <c r="D20" s="394"/>
+      <c r="E20" s="394"/>
+      <c r="F20" s="272"/>
+      <c r="G20" s="272"/>
+      <c r="H20" s="273"/>
+      <c r="I20" s="273"/>
+      <c r="J20" s="274"/>
+      <c r="K20" s="273"/>
+      <c r="L20" s="275"/>
+      <c r="M20" s="275"/>
+      <c r="N20" s="276"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="302"/>
-      <c r="B21" s="303"/>
-      <c r="C21" s="302"/>
-      <c r="D21" s="302"/>
-      <c r="E21" s="302"/>
-      <c r="F21" s="274"/>
-      <c r="G21" s="274"/>
-      <c r="H21" s="275"/>
-      <c r="I21" s="275"/>
-      <c r="J21" s="276"/>
-      <c r="K21" s="275"/>
-      <c r="L21" s="277"/>
-      <c r="M21" s="277"/>
-      <c r="N21" s="278"/>
+      <c r="A21" s="300"/>
+      <c r="B21" s="301"/>
+      <c r="C21" s="300"/>
+      <c r="D21" s="300"/>
+      <c r="E21" s="300"/>
+      <c r="F21" s="272"/>
+      <c r="G21" s="272"/>
+      <c r="H21" s="273"/>
+      <c r="I21" s="273"/>
+      <c r="J21" s="274"/>
+      <c r="K21" s="273"/>
+      <c r="L21" s="275"/>
+      <c r="M21" s="275"/>
+      <c r="N21" s="276"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="405"/>
-      <c r="B22" s="402"/>
-      <c r="C22" s="405"/>
-      <c r="D22" s="405"/>
-      <c r="E22" s="405"/>
-      <c r="F22" s="274"/>
-      <c r="G22" s="274"/>
-      <c r="H22" s="275"/>
-      <c r="I22" s="275"/>
-      <c r="J22" s="276"/>
-      <c r="K22" s="275"/>
-      <c r="L22" s="277"/>
-      <c r="M22" s="277"/>
-      <c r="N22" s="278"/>
+      <c r="A22" s="391"/>
+      <c r="B22" s="388"/>
+      <c r="C22" s="391"/>
+      <c r="D22" s="391"/>
+      <c r="E22" s="391"/>
+      <c r="F22" s="272"/>
+      <c r="G22" s="272"/>
+      <c r="H22" s="273"/>
+      <c r="I22" s="273"/>
+      <c r="J22" s="274"/>
+      <c r="K22" s="273"/>
+      <c r="L22" s="275"/>
+      <c r="M22" s="275"/>
+      <c r="N22" s="276"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="406"/>
-      <c r="B23" s="403"/>
-      <c r="C23" s="406"/>
-      <c r="D23" s="406"/>
-      <c r="E23" s="406"/>
-      <c r="F23" s="274"/>
-      <c r="G23" s="274"/>
-      <c r="H23" s="275"/>
-      <c r="I23" s="275"/>
-      <c r="J23" s="276"/>
-      <c r="K23" s="275"/>
-      <c r="L23" s="277"/>
-      <c r="M23" s="277"/>
-      <c r="N23" s="278"/>
+      <c r="A23" s="392"/>
+      <c r="B23" s="389"/>
+      <c r="C23" s="392"/>
+      <c r="D23" s="392"/>
+      <c r="E23" s="392"/>
+      <c r="F23" s="272"/>
+      <c r="G23" s="272"/>
+      <c r="H23" s="273"/>
+      <c r="I23" s="273"/>
+      <c r="J23" s="274"/>
+      <c r="K23" s="273"/>
+      <c r="L23" s="275"/>
+      <c r="M23" s="275"/>
+      <c r="N23" s="276"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="408"/>
-      <c r="B24" s="409"/>
-      <c r="C24" s="408"/>
-      <c r="D24" s="408"/>
-      <c r="E24" s="408"/>
-      <c r="F24" s="274"/>
-      <c r="G24" s="274"/>
-      <c r="H24" s="275"/>
-      <c r="I24" s="275"/>
-      <c r="J24" s="276"/>
-      <c r="K24" s="275"/>
-      <c r="L24" s="277"/>
-      <c r="M24" s="277"/>
-      <c r="N24" s="278"/>
+      <c r="A24" s="394"/>
+      <c r="B24" s="395"/>
+      <c r="C24" s="394"/>
+      <c r="D24" s="394"/>
+      <c r="E24" s="394"/>
+      <c r="F24" s="272"/>
+      <c r="G24" s="272"/>
+      <c r="H24" s="273"/>
+      <c r="I24" s="273"/>
+      <c r="J24" s="274"/>
+      <c r="K24" s="273"/>
+      <c r="L24" s="275"/>
+      <c r="M24" s="275"/>
+      <c r="N24" s="276"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="302"/>
-      <c r="B25" s="304"/>
-      <c r="C25" s="274"/>
-      <c r="D25" s="274"/>
-      <c r="E25" s="274"/>
-      <c r="F25" s="274"/>
-      <c r="G25" s="274"/>
-      <c r="H25" s="275"/>
-      <c r="I25" s="275"/>
-      <c r="J25" s="276"/>
-      <c r="K25" s="275"/>
-      <c r="L25" s="277"/>
-      <c r="M25" s="277"/>
-      <c r="N25" s="278"/>
+      <c r="A25" s="300"/>
+      <c r="B25" s="302"/>
+      <c r="C25" s="272"/>
+      <c r="D25" s="272"/>
+      <c r="E25" s="272"/>
+      <c r="F25" s="272"/>
+      <c r="G25" s="272"/>
+      <c r="H25" s="273"/>
+      <c r="I25" s="273"/>
+      <c r="J25" s="274"/>
+      <c r="K25" s="273"/>
+      <c r="L25" s="275"/>
+      <c r="M25" s="275"/>
+      <c r="N25" s="276"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="302"/>
-      <c r="B26" s="304"/>
-      <c r="C26" s="274"/>
-      <c r="D26" s="274"/>
-      <c r="E26" s="274"/>
-      <c r="F26" s="274"/>
-      <c r="G26" s="274"/>
-      <c r="H26" s="275"/>
-      <c r="I26" s="275"/>
-      <c r="J26" s="276"/>
-      <c r="K26" s="275"/>
-      <c r="L26" s="277"/>
-      <c r="M26" s="277"/>
-      <c r="N26" s="278"/>
+      <c r="A26" s="300"/>
+      <c r="B26" s="302"/>
+      <c r="C26" s="272"/>
+      <c r="D26" s="272"/>
+      <c r="E26" s="272"/>
+      <c r="F26" s="272"/>
+      <c r="G26" s="272"/>
+      <c r="H26" s="273"/>
+      <c r="I26" s="273"/>
+      <c r="J26" s="274"/>
+      <c r="K26" s="273"/>
+      <c r="L26" s="275"/>
+      <c r="M26" s="275"/>
+      <c r="N26" s="276"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="405"/>
-      <c r="B27" s="402"/>
-      <c r="C27" s="405"/>
-      <c r="D27" s="405"/>
-      <c r="E27" s="405"/>
-      <c r="F27" s="274"/>
-      <c r="G27" s="274"/>
-      <c r="H27" s="275"/>
-      <c r="I27" s="275"/>
-      <c r="J27" s="276"/>
-      <c r="K27" s="275"/>
-      <c r="L27" s="277"/>
-      <c r="M27" s="277"/>
-      <c r="N27" s="278"/>
+      <c r="A27" s="391"/>
+      <c r="B27" s="388"/>
+      <c r="C27" s="391"/>
+      <c r="D27" s="391"/>
+      <c r="E27" s="391"/>
+      <c r="F27" s="272"/>
+      <c r="G27" s="272"/>
+      <c r="H27" s="273"/>
+      <c r="I27" s="273"/>
+      <c r="J27" s="274"/>
+      <c r="K27" s="273"/>
+      <c r="L27" s="275"/>
+      <c r="M27" s="275"/>
+      <c r="N27" s="276"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="408"/>
-      <c r="B28" s="409"/>
-      <c r="C28" s="408"/>
-      <c r="D28" s="408"/>
-      <c r="E28" s="408"/>
-      <c r="F28" s="274"/>
-      <c r="G28" s="274"/>
-      <c r="H28" s="275"/>
-      <c r="I28" s="275"/>
-      <c r="J28" s="276"/>
-      <c r="K28" s="275"/>
-      <c r="L28" s="277"/>
-      <c r="M28" s="277"/>
-      <c r="N28" s="278"/>
+      <c r="A28" s="394"/>
+      <c r="B28" s="395"/>
+      <c r="C28" s="394"/>
+      <c r="D28" s="394"/>
+      <c r="E28" s="394"/>
+      <c r="F28" s="272"/>
+      <c r="G28" s="272"/>
+      <c r="H28" s="273"/>
+      <c r="I28" s="273"/>
+      <c r="J28" s="274"/>
+      <c r="K28" s="273"/>
+      <c r="L28" s="275"/>
+      <c r="M28" s="275"/>
+      <c r="N28" s="276"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="405"/>
-      <c r="B29" s="402"/>
-      <c r="C29" s="405"/>
-      <c r="D29" s="405"/>
-      <c r="E29" s="405"/>
-      <c r="F29" s="274"/>
-      <c r="G29" s="274"/>
-      <c r="H29" s="275"/>
-      <c r="I29" s="275"/>
-      <c r="J29" s="276"/>
-      <c r="K29" s="275"/>
-      <c r="L29" s="277"/>
-      <c r="M29" s="277"/>
-      <c r="N29" s="278"/>
+      <c r="A29" s="391"/>
+      <c r="B29" s="388"/>
+      <c r="C29" s="391"/>
+      <c r="D29" s="391"/>
+      <c r="E29" s="391"/>
+      <c r="F29" s="272"/>
+      <c r="G29" s="272"/>
+      <c r="H29" s="273"/>
+      <c r="I29" s="273"/>
+      <c r="J29" s="274"/>
+      <c r="K29" s="273"/>
+      <c r="L29" s="275"/>
+      <c r="M29" s="275"/>
+      <c r="N29" s="276"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="408"/>
-      <c r="B30" s="409"/>
-      <c r="C30" s="408"/>
-      <c r="D30" s="408"/>
-      <c r="E30" s="408"/>
-      <c r="F30" s="274"/>
-      <c r="G30" s="274"/>
-      <c r="H30" s="275"/>
-      <c r="I30" s="275"/>
-      <c r="J30" s="276"/>
-      <c r="K30" s="275"/>
-      <c r="L30" s="277"/>
-      <c r="M30" s="277"/>
-      <c r="N30" s="278"/>
+      <c r="A30" s="394"/>
+      <c r="B30" s="395"/>
+      <c r="C30" s="394"/>
+      <c r="D30" s="394"/>
+      <c r="E30" s="394"/>
+      <c r="F30" s="272"/>
+      <c r="G30" s="272"/>
+      <c r="H30" s="273"/>
+      <c r="I30" s="273"/>
+      <c r="J30" s="274"/>
+      <c r="K30" s="273"/>
+      <c r="L30" s="275"/>
+      <c r="M30" s="275"/>
+      <c r="N30" s="276"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="405"/>
-      <c r="B31" s="402"/>
-      <c r="C31" s="405"/>
-      <c r="D31" s="405"/>
-      <c r="E31" s="405"/>
-      <c r="F31" s="274"/>
-      <c r="G31" s="274"/>
-      <c r="H31" s="275"/>
-      <c r="I31" s="275"/>
-      <c r="J31" s="276"/>
-      <c r="K31" s="279"/>
-      <c r="L31" s="277"/>
-      <c r="M31" s="277"/>
-      <c r="N31" s="278"/>
+      <c r="A31" s="391"/>
+      <c r="B31" s="388"/>
+      <c r="C31" s="391"/>
+      <c r="D31" s="391"/>
+      <c r="E31" s="391"/>
+      <c r="F31" s="272"/>
+      <c r="G31" s="272"/>
+      <c r="H31" s="273"/>
+      <c r="I31" s="273"/>
+      <c r="J31" s="274"/>
+      <c r="K31" s="277"/>
+      <c r="L31" s="275"/>
+      <c r="M31" s="275"/>
+      <c r="N31" s="276"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="406"/>
-      <c r="B32" s="403"/>
-      <c r="C32" s="406"/>
-      <c r="D32" s="406"/>
-      <c r="E32" s="406"/>
-      <c r="F32" s="274"/>
-      <c r="G32" s="274"/>
-      <c r="H32" s="275"/>
-      <c r="I32" s="275"/>
-      <c r="J32" s="276"/>
-      <c r="K32" s="279"/>
-      <c r="L32" s="277"/>
-      <c r="M32" s="277"/>
-      <c r="N32" s="278"/>
+      <c r="A32" s="392"/>
+      <c r="B32" s="389"/>
+      <c r="C32" s="392"/>
+      <c r="D32" s="392"/>
+      <c r="E32" s="392"/>
+      <c r="F32" s="272"/>
+      <c r="G32" s="272"/>
+      <c r="H32" s="273"/>
+      <c r="I32" s="273"/>
+      <c r="J32" s="274"/>
+      <c r="K32" s="277"/>
+      <c r="L32" s="275"/>
+      <c r="M32" s="275"/>
+      <c r="N32" s="276"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="406"/>
-      <c r="B33" s="403"/>
-      <c r="C33" s="406"/>
-      <c r="D33" s="406"/>
-      <c r="E33" s="406"/>
-      <c r="F33" s="274"/>
-      <c r="G33" s="274"/>
-      <c r="H33" s="275"/>
-      <c r="I33" s="275"/>
-      <c r="J33" s="276"/>
-      <c r="K33" s="279"/>
-      <c r="L33" s="277"/>
-      <c r="M33" s="277"/>
-      <c r="N33" s="278"/>
+      <c r="A33" s="392"/>
+      <c r="B33" s="389"/>
+      <c r="C33" s="392"/>
+      <c r="D33" s="392"/>
+      <c r="E33" s="392"/>
+      <c r="F33" s="272"/>
+      <c r="G33" s="272"/>
+      <c r="H33" s="273"/>
+      <c r="I33" s="273"/>
+      <c r="J33" s="274"/>
+      <c r="K33" s="277"/>
+      <c r="L33" s="275"/>
+      <c r="M33" s="275"/>
+      <c r="N33" s="276"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="407"/>
-      <c r="B34" s="404"/>
-      <c r="C34" s="407"/>
-      <c r="D34" s="407"/>
-      <c r="E34" s="407"/>
-      <c r="F34" s="280"/>
-      <c r="G34" s="280"/>
-      <c r="H34" s="281"/>
-      <c r="I34" s="281"/>
-      <c r="J34" s="282"/>
-      <c r="K34" s="283"/>
-      <c r="L34" s="284"/>
-      <c r="M34" s="284"/>
-      <c r="N34" s="285"/>
-    </row>
-    <row r="35" spans="1:14" s="292" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="410" t="s">
+      <c r="A34" s="393"/>
+      <c r="B34" s="390"/>
+      <c r="C34" s="393"/>
+      <c r="D34" s="393"/>
+      <c r="E34" s="393"/>
+      <c r="F34" s="278"/>
+      <c r="G34" s="278"/>
+      <c r="H34" s="279"/>
+      <c r="I34" s="279"/>
+      <c r="J34" s="280"/>
+      <c r="K34" s="281"/>
+      <c r="L34" s="282"/>
+      <c r="M34" s="282"/>
+      <c r="N34" s="283"/>
+    </row>
+    <row r="35" spans="1:14" s="290" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="410"/>
-      <c r="C35" s="410"/>
-      <c r="D35" s="410"/>
-      <c r="E35" s="410"/>
-      <c r="F35" s="286"/>
-      <c r="G35" s="286">
+      <c r="B35" s="396"/>
+      <c r="C35" s="396"/>
+      <c r="D35" s="396"/>
+      <c r="E35" s="396"/>
+      <c r="F35" s="284"/>
+      <c r="G35" s="284">
         <f>SUM(G7:G34)</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="287"/>
-      <c r="I35" s="287">
+        <v>70</v>
+      </c>
+      <c r="H35" s="285"/>
+      <c r="I35" s="285">
         <f>SUM(I7:I34)</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="288"/>
-      <c r="K35" s="289">
+        <v>31730000</v>
+      </c>
+      <c r="J35" s="286"/>
+      <c r="K35" s="287">
         <f>SUM(K7:K34)</f>
-        <v>0</v>
-      </c>
-      <c r="L35" s="290"/>
-      <c r="M35" s="290"/>
-      <c r="N35" s="291">
+        <v>15865000</v>
+      </c>
+      <c r="L35" s="288"/>
+      <c r="M35" s="288"/>
+      <c r="N35" s="289">
         <f>SUM(N7:N34)</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="293"/>
-      <c r="H36" s="293"/>
+      <c r="G36" s="291"/>
+      <c r="H36" s="291"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G37" s="293"/>
-      <c r="H37" s="293"/>
-    </row>
-    <row r="38" spans="1:14" s="294" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="295"/>
-      <c r="E38" s="296" t="s">
+      <c r="G37" s="291"/>
+      <c r="H37" s="291"/>
+    </row>
+    <row r="38" spans="1:14" s="292" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="293"/>
+      <c r="E38" s="294" t="s">
         <v>84</v>
       </c>
-      <c r="F38" s="295"/>
-      <c r="G38" s="295"/>
-      <c r="H38" s="295"/>
-      <c r="K38" s="296"/>
-      <c r="L38" s="296" t="s">
+      <c r="F38" s="293"/>
+      <c r="G38" s="293"/>
+      <c r="H38" s="293"/>
+      <c r="K38" s="294"/>
+      <c r="L38" s="294" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="294" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="297"/>
-      <c r="E39" s="298" t="s">
+    <row r="39" spans="1:14" s="292" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="295"/>
+      <c r="E39" s="296" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="297"/>
-      <c r="G39" s="297"/>
-      <c r="H39" s="297"/>
-      <c r="K39" s="298"/>
-      <c r="L39" s="298" t="s">
+      <c r="F39" s="295"/>
+      <c r="G39" s="295"/>
+      <c r="H39" s="295"/>
+      <c r="K39" s="296"/>
+      <c r="L39" s="296" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G40" s="293"/>
-      <c r="H40" s="293"/>
+      <c r="G40" s="291"/>
+      <c r="H40" s="291"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G41" s="293"/>
-      <c r="H41" s="293"/>
-    </row>
-    <row r="42" spans="1:14" s="299" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="296"/>
-      <c r="E42" s="296"/>
-      <c r="F42" s="300"/>
-      <c r="K42" s="301"/>
-      <c r="L42" s="259"/>
-      <c r="M42" s="259"/>
-      <c r="N42" s="259"/>
+      <c r="G41" s="291"/>
+      <c r="H41" s="291"/>
+    </row>
+    <row r="42" spans="1:14" s="297" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="294"/>
+      <c r="E42" s="294"/>
+      <c r="F42" s="298"/>
+      <c r="K42" s="299"/>
+      <c r="L42" s="257"/>
+      <c r="M42" s="257"/>
+      <c r="N42" s="257"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G43" s="293"/>
-      <c r="H43" s="293"/>
+      <c r="G43" s="291"/>
+      <c r="H43" s="291"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G44" s="293"/>
-      <c r="H44" s="293"/>
+      <c r="G44" s="291"/>
+      <c r="H44" s="291"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G45" s="293"/>
-      <c r="H45" s="293"/>
+      <c r="G45" s="291"/>
+      <c r="H45" s="291"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="46">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="A3:K3"/>
@@ -6038,21 +7167,12 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:J5"/>
     <mergeCell ref="K5:K6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
     <mergeCell ref="E14:E17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="C18:C20"/>
@@ -6138,24 +7258,24 @@
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="422" t="s">
+      <c r="A4" s="406" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="422"/>
-      <c r="C4" s="422"/>
-      <c r="D4" s="422"/>
-      <c r="E4" s="422"/>
+      <c r="B4" s="406"/>
+      <c r="C4" s="406"/>
+      <c r="D4" s="406"/>
+      <c r="E4" s="406"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="423" t="s">
+      <c r="A5" s="407" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="423"/>
-      <c r="C5" s="423"/>
-      <c r="D5" s="423"/>
-      <c r="E5" s="423"/>
+      <c r="B5" s="407"/>
+      <c r="C5" s="407"/>
+      <c r="D5" s="407"/>
+      <c r="E5" s="407"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
@@ -6196,29 +7316,29 @@
       </c>
       <c r="C8" s="60">
         <f>'DOANH THU'!G79</f>
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="D8" s="70">
         <f>'DOANH THU'!I78</f>
-        <v>0</v>
+        <v>209090000</v>
       </c>
       <c r="E8" s="69"/>
       <c r="F8" s="61"/>
       <c r="G8" s="61"/>
     </row>
     <row r="9" spans="1:7" s="62" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="188">
+      <c r="A9" s="186">
         <v>2</v>
       </c>
-      <c r="B9" s="189" t="s">
+      <c r="B9" s="187" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="190"/>
-      <c r="D9" s="191">
+      <c r="C9" s="188"/>
+      <c r="D9" s="189">
         <f>'DOANH THU'!L78</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="192"/>
+        <v>97839750</v>
+      </c>
+      <c r="E9" s="190"/>
       <c r="F9" s="61"/>
       <c r="G9" s="61"/>
     </row>
@@ -6232,11 +7352,11 @@
       <c r="C10" s="72"/>
       <c r="D10" s="73">
         <f>'DOANH THU'!L80</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="424">
+        <v>4253900.0000000009</v>
+      </c>
+      <c r="E10" s="408">
         <f>D10+D11+D12</f>
-        <v>0</v>
+        <v>55097150.000000007</v>
       </c>
       <c r="F10" s="61"/>
       <c r="G10" s="61"/>
@@ -6251,9 +7371,9 @@
       <c r="C11" s="72"/>
       <c r="D11" s="73">
         <f>'DOANH THU'!L81</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="425"/>
+        <v>50843250.000000007</v>
+      </c>
+      <c r="E11" s="409"/>
       <c r="F11" s="61"/>
       <c r="G11" s="61"/>
     </row>
@@ -6264,7 +7384,7 @@
       <c r="B12" s="118"/>
       <c r="C12" s="118"/>
       <c r="D12" s="141"/>
-      <c r="E12" s="426"/>
+      <c r="E12" s="410"/>
       <c r="F12" s="61"/>
       <c r="G12" s="61"/>
     </row>
@@ -6278,7 +7398,7 @@
       <c r="C13" s="121"/>
       <c r="D13" s="120">
         <f>'Hàng khách trả'!I35</f>
-        <v>0</v>
+        <v>31730000</v>
       </c>
       <c r="E13" s="118"/>
       <c r="F13" s="61"/>
@@ -6294,7 +7414,7 @@
       <c r="C14" s="121"/>
       <c r="D14" s="120">
         <f>'Hàng khách trả'!K35</f>
-        <v>0</v>
+        <v>15865000</v>
       </c>
       <c r="E14" s="118"/>
       <c r="F14" s="61"/>
@@ -6310,7 +7430,7 @@
       <c r="C15" s="77"/>
       <c r="D15" s="78">
         <f>D9-D10-D11-D12-D14</f>
-        <v>0</v>
+        <v>26877599.999999993</v>
       </c>
       <c r="E15" s="75" t="s">
         <v>95</v>
@@ -6362,10 +7482,10 @@
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="59"/>
-      <c r="E19" s="186"/>
+      <c r="E19" s="184"/>
     </row>
     <row r="20" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="184">
+      <c r="A20" s="182">
         <v>2</v>
       </c>
       <c r="B20" s="139" t="s">
@@ -6373,10 +7493,10 @@
       </c>
       <c r="C20" s="140"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="187"/>
+      <c r="E20" s="185"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="184">
+      <c r="A21" s="182">
         <v>3</v>
       </c>
       <c r="B21" s="21" t="s">
@@ -6398,7 +7518,7 @@
       <c r="E22" s="36"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="184">
+      <c r="A23" s="182">
         <v>5</v>
       </c>
       <c r="B23" s="21" t="s">
@@ -6420,7 +7540,7 @@
       <c r="E24" s="36"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="184">
+      <c r="A25" s="182">
         <v>7</v>
       </c>
       <c r="B25" s="21" t="s">
@@ -6442,7 +7562,7 @@
       <c r="E26" s="36"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="185">
+      <c r="A27" s="183">
         <v>9</v>
       </c>
       <c r="B27" s="23" t="s">
@@ -6525,1640 +7645,1640 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="213" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="213" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="214" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="214" customWidth="1"/>
-    <col min="5" max="34" width="2.5703125" style="213" customWidth="1"/>
-    <col min="35" max="35" width="7.42578125" style="213" customWidth="1"/>
-    <col min="36" max="38" width="2.5703125" style="213" customWidth="1"/>
-    <col min="39" max="39" width="4.42578125" style="213" customWidth="1"/>
-    <col min="40" max="40" width="19.42578125" style="214" customWidth="1"/>
-    <col min="41" max="260" width="9" style="213"/>
-    <col min="261" max="261" width="3.28515625" style="213" customWidth="1"/>
-    <col min="262" max="262" width="20" style="213" customWidth="1"/>
-    <col min="263" max="263" width="24.5703125" style="213" customWidth="1"/>
-    <col min="264" max="293" width="4.42578125" style="213" customWidth="1"/>
-    <col min="294" max="294" width="2.5703125" style="213" customWidth="1"/>
-    <col min="295" max="295" width="6.140625" style="213" customWidth="1"/>
-    <col min="296" max="296" width="19.42578125" style="213" customWidth="1"/>
-    <col min="297" max="516" width="9" style="213"/>
-    <col min="517" max="517" width="3.28515625" style="213" customWidth="1"/>
-    <col min="518" max="518" width="20" style="213" customWidth="1"/>
-    <col min="519" max="519" width="24.5703125" style="213" customWidth="1"/>
-    <col min="520" max="549" width="4.42578125" style="213" customWidth="1"/>
-    <col min="550" max="550" width="2.5703125" style="213" customWidth="1"/>
-    <col min="551" max="551" width="6.140625" style="213" customWidth="1"/>
-    <col min="552" max="552" width="19.42578125" style="213" customWidth="1"/>
-    <col min="553" max="772" width="9" style="213"/>
-    <col min="773" max="773" width="3.28515625" style="213" customWidth="1"/>
-    <col min="774" max="774" width="20" style="213" customWidth="1"/>
-    <col min="775" max="775" width="24.5703125" style="213" customWidth="1"/>
-    <col min="776" max="805" width="4.42578125" style="213" customWidth="1"/>
-    <col min="806" max="806" width="2.5703125" style="213" customWidth="1"/>
-    <col min="807" max="807" width="6.140625" style="213" customWidth="1"/>
-    <col min="808" max="808" width="19.42578125" style="213" customWidth="1"/>
-    <col min="809" max="1028" width="9" style="213"/>
-    <col min="1029" max="1029" width="3.28515625" style="213" customWidth="1"/>
-    <col min="1030" max="1030" width="20" style="213" customWidth="1"/>
-    <col min="1031" max="1031" width="24.5703125" style="213" customWidth="1"/>
-    <col min="1032" max="1061" width="4.42578125" style="213" customWidth="1"/>
-    <col min="1062" max="1062" width="2.5703125" style="213" customWidth="1"/>
-    <col min="1063" max="1063" width="6.140625" style="213" customWidth="1"/>
-    <col min="1064" max="1064" width="19.42578125" style="213" customWidth="1"/>
-    <col min="1065" max="1284" width="9" style="213"/>
-    <col min="1285" max="1285" width="3.28515625" style="213" customWidth="1"/>
-    <col min="1286" max="1286" width="20" style="213" customWidth="1"/>
-    <col min="1287" max="1287" width="24.5703125" style="213" customWidth="1"/>
-    <col min="1288" max="1317" width="4.42578125" style="213" customWidth="1"/>
-    <col min="1318" max="1318" width="2.5703125" style="213" customWidth="1"/>
-    <col min="1319" max="1319" width="6.140625" style="213" customWidth="1"/>
-    <col min="1320" max="1320" width="19.42578125" style="213" customWidth="1"/>
-    <col min="1321" max="1540" width="9" style="213"/>
-    <col min="1541" max="1541" width="3.28515625" style="213" customWidth="1"/>
-    <col min="1542" max="1542" width="20" style="213" customWidth="1"/>
-    <col min="1543" max="1543" width="24.5703125" style="213" customWidth="1"/>
-    <col min="1544" max="1573" width="4.42578125" style="213" customWidth="1"/>
-    <col min="1574" max="1574" width="2.5703125" style="213" customWidth="1"/>
-    <col min="1575" max="1575" width="6.140625" style="213" customWidth="1"/>
-    <col min="1576" max="1576" width="19.42578125" style="213" customWidth="1"/>
-    <col min="1577" max="1796" width="9" style="213"/>
-    <col min="1797" max="1797" width="3.28515625" style="213" customWidth="1"/>
-    <col min="1798" max="1798" width="20" style="213" customWidth="1"/>
-    <col min="1799" max="1799" width="24.5703125" style="213" customWidth="1"/>
-    <col min="1800" max="1829" width="4.42578125" style="213" customWidth="1"/>
-    <col min="1830" max="1830" width="2.5703125" style="213" customWidth="1"/>
-    <col min="1831" max="1831" width="6.140625" style="213" customWidth="1"/>
-    <col min="1832" max="1832" width="19.42578125" style="213" customWidth="1"/>
-    <col min="1833" max="2052" width="9" style="213"/>
-    <col min="2053" max="2053" width="3.28515625" style="213" customWidth="1"/>
-    <col min="2054" max="2054" width="20" style="213" customWidth="1"/>
-    <col min="2055" max="2055" width="24.5703125" style="213" customWidth="1"/>
-    <col min="2056" max="2085" width="4.42578125" style="213" customWidth="1"/>
-    <col min="2086" max="2086" width="2.5703125" style="213" customWidth="1"/>
-    <col min="2087" max="2087" width="6.140625" style="213" customWidth="1"/>
-    <col min="2088" max="2088" width="19.42578125" style="213" customWidth="1"/>
-    <col min="2089" max="2308" width="9" style="213"/>
-    <col min="2309" max="2309" width="3.28515625" style="213" customWidth="1"/>
-    <col min="2310" max="2310" width="20" style="213" customWidth="1"/>
-    <col min="2311" max="2311" width="24.5703125" style="213" customWidth="1"/>
-    <col min="2312" max="2341" width="4.42578125" style="213" customWidth="1"/>
-    <col min="2342" max="2342" width="2.5703125" style="213" customWidth="1"/>
-    <col min="2343" max="2343" width="6.140625" style="213" customWidth="1"/>
-    <col min="2344" max="2344" width="19.42578125" style="213" customWidth="1"/>
-    <col min="2345" max="2564" width="9" style="213"/>
-    <col min="2565" max="2565" width="3.28515625" style="213" customWidth="1"/>
-    <col min="2566" max="2566" width="20" style="213" customWidth="1"/>
-    <col min="2567" max="2567" width="24.5703125" style="213" customWidth="1"/>
-    <col min="2568" max="2597" width="4.42578125" style="213" customWidth="1"/>
-    <col min="2598" max="2598" width="2.5703125" style="213" customWidth="1"/>
-    <col min="2599" max="2599" width="6.140625" style="213" customWidth="1"/>
-    <col min="2600" max="2600" width="19.42578125" style="213" customWidth="1"/>
-    <col min="2601" max="2820" width="9" style="213"/>
-    <col min="2821" max="2821" width="3.28515625" style="213" customWidth="1"/>
-    <col min="2822" max="2822" width="20" style="213" customWidth="1"/>
-    <col min="2823" max="2823" width="24.5703125" style="213" customWidth="1"/>
-    <col min="2824" max="2853" width="4.42578125" style="213" customWidth="1"/>
-    <col min="2854" max="2854" width="2.5703125" style="213" customWidth="1"/>
-    <col min="2855" max="2855" width="6.140625" style="213" customWidth="1"/>
-    <col min="2856" max="2856" width="19.42578125" style="213" customWidth="1"/>
-    <col min="2857" max="3076" width="9" style="213"/>
-    <col min="3077" max="3077" width="3.28515625" style="213" customWidth="1"/>
-    <col min="3078" max="3078" width="20" style="213" customWidth="1"/>
-    <col min="3079" max="3079" width="24.5703125" style="213" customWidth="1"/>
-    <col min="3080" max="3109" width="4.42578125" style="213" customWidth="1"/>
-    <col min="3110" max="3110" width="2.5703125" style="213" customWidth="1"/>
-    <col min="3111" max="3111" width="6.140625" style="213" customWidth="1"/>
-    <col min="3112" max="3112" width="19.42578125" style="213" customWidth="1"/>
-    <col min="3113" max="3332" width="9" style="213"/>
-    <col min="3333" max="3333" width="3.28515625" style="213" customWidth="1"/>
-    <col min="3334" max="3334" width="20" style="213" customWidth="1"/>
-    <col min="3335" max="3335" width="24.5703125" style="213" customWidth="1"/>
-    <col min="3336" max="3365" width="4.42578125" style="213" customWidth="1"/>
-    <col min="3366" max="3366" width="2.5703125" style="213" customWidth="1"/>
-    <col min="3367" max="3367" width="6.140625" style="213" customWidth="1"/>
-    <col min="3368" max="3368" width="19.42578125" style="213" customWidth="1"/>
-    <col min="3369" max="3588" width="9" style="213"/>
-    <col min="3589" max="3589" width="3.28515625" style="213" customWidth="1"/>
-    <col min="3590" max="3590" width="20" style="213" customWidth="1"/>
-    <col min="3591" max="3591" width="24.5703125" style="213" customWidth="1"/>
-    <col min="3592" max="3621" width="4.42578125" style="213" customWidth="1"/>
-    <col min="3622" max="3622" width="2.5703125" style="213" customWidth="1"/>
-    <col min="3623" max="3623" width="6.140625" style="213" customWidth="1"/>
-    <col min="3624" max="3624" width="19.42578125" style="213" customWidth="1"/>
-    <col min="3625" max="3844" width="9" style="213"/>
-    <col min="3845" max="3845" width="3.28515625" style="213" customWidth="1"/>
-    <col min="3846" max="3846" width="20" style="213" customWidth="1"/>
-    <col min="3847" max="3847" width="24.5703125" style="213" customWidth="1"/>
-    <col min="3848" max="3877" width="4.42578125" style="213" customWidth="1"/>
-    <col min="3878" max="3878" width="2.5703125" style="213" customWidth="1"/>
-    <col min="3879" max="3879" width="6.140625" style="213" customWidth="1"/>
-    <col min="3880" max="3880" width="19.42578125" style="213" customWidth="1"/>
-    <col min="3881" max="4100" width="9" style="213"/>
-    <col min="4101" max="4101" width="3.28515625" style="213" customWidth="1"/>
-    <col min="4102" max="4102" width="20" style="213" customWidth="1"/>
-    <col min="4103" max="4103" width="24.5703125" style="213" customWidth="1"/>
-    <col min="4104" max="4133" width="4.42578125" style="213" customWidth="1"/>
-    <col min="4134" max="4134" width="2.5703125" style="213" customWidth="1"/>
-    <col min="4135" max="4135" width="6.140625" style="213" customWidth="1"/>
-    <col min="4136" max="4136" width="19.42578125" style="213" customWidth="1"/>
-    <col min="4137" max="4356" width="9" style="213"/>
-    <col min="4357" max="4357" width="3.28515625" style="213" customWidth="1"/>
-    <col min="4358" max="4358" width="20" style="213" customWidth="1"/>
-    <col min="4359" max="4359" width="24.5703125" style="213" customWidth="1"/>
-    <col min="4360" max="4389" width="4.42578125" style="213" customWidth="1"/>
-    <col min="4390" max="4390" width="2.5703125" style="213" customWidth="1"/>
-    <col min="4391" max="4391" width="6.140625" style="213" customWidth="1"/>
-    <col min="4392" max="4392" width="19.42578125" style="213" customWidth="1"/>
-    <col min="4393" max="4612" width="9" style="213"/>
-    <col min="4613" max="4613" width="3.28515625" style="213" customWidth="1"/>
-    <col min="4614" max="4614" width="20" style="213" customWidth="1"/>
-    <col min="4615" max="4615" width="24.5703125" style="213" customWidth="1"/>
-    <col min="4616" max="4645" width="4.42578125" style="213" customWidth="1"/>
-    <col min="4646" max="4646" width="2.5703125" style="213" customWidth="1"/>
-    <col min="4647" max="4647" width="6.140625" style="213" customWidth="1"/>
-    <col min="4648" max="4648" width="19.42578125" style="213" customWidth="1"/>
-    <col min="4649" max="4868" width="9" style="213"/>
-    <col min="4869" max="4869" width="3.28515625" style="213" customWidth="1"/>
-    <col min="4870" max="4870" width="20" style="213" customWidth="1"/>
-    <col min="4871" max="4871" width="24.5703125" style="213" customWidth="1"/>
-    <col min="4872" max="4901" width="4.42578125" style="213" customWidth="1"/>
-    <col min="4902" max="4902" width="2.5703125" style="213" customWidth="1"/>
-    <col min="4903" max="4903" width="6.140625" style="213" customWidth="1"/>
-    <col min="4904" max="4904" width="19.42578125" style="213" customWidth="1"/>
-    <col min="4905" max="5124" width="9" style="213"/>
-    <col min="5125" max="5125" width="3.28515625" style="213" customWidth="1"/>
-    <col min="5126" max="5126" width="20" style="213" customWidth="1"/>
-    <col min="5127" max="5127" width="24.5703125" style="213" customWidth="1"/>
-    <col min="5128" max="5157" width="4.42578125" style="213" customWidth="1"/>
-    <col min="5158" max="5158" width="2.5703125" style="213" customWidth="1"/>
-    <col min="5159" max="5159" width="6.140625" style="213" customWidth="1"/>
-    <col min="5160" max="5160" width="19.42578125" style="213" customWidth="1"/>
-    <col min="5161" max="5380" width="9" style="213"/>
-    <col min="5381" max="5381" width="3.28515625" style="213" customWidth="1"/>
-    <col min="5382" max="5382" width="20" style="213" customWidth="1"/>
-    <col min="5383" max="5383" width="24.5703125" style="213" customWidth="1"/>
-    <col min="5384" max="5413" width="4.42578125" style="213" customWidth="1"/>
-    <col min="5414" max="5414" width="2.5703125" style="213" customWidth="1"/>
-    <col min="5415" max="5415" width="6.140625" style="213" customWidth="1"/>
-    <col min="5416" max="5416" width="19.42578125" style="213" customWidth="1"/>
-    <col min="5417" max="5636" width="9" style="213"/>
-    <col min="5637" max="5637" width="3.28515625" style="213" customWidth="1"/>
-    <col min="5638" max="5638" width="20" style="213" customWidth="1"/>
-    <col min="5639" max="5639" width="24.5703125" style="213" customWidth="1"/>
-    <col min="5640" max="5669" width="4.42578125" style="213" customWidth="1"/>
-    <col min="5670" max="5670" width="2.5703125" style="213" customWidth="1"/>
-    <col min="5671" max="5671" width="6.140625" style="213" customWidth="1"/>
-    <col min="5672" max="5672" width="19.42578125" style="213" customWidth="1"/>
-    <col min="5673" max="5892" width="9" style="213"/>
-    <col min="5893" max="5893" width="3.28515625" style="213" customWidth="1"/>
-    <col min="5894" max="5894" width="20" style="213" customWidth="1"/>
-    <col min="5895" max="5895" width="24.5703125" style="213" customWidth="1"/>
-    <col min="5896" max="5925" width="4.42578125" style="213" customWidth="1"/>
-    <col min="5926" max="5926" width="2.5703125" style="213" customWidth="1"/>
-    <col min="5927" max="5927" width="6.140625" style="213" customWidth="1"/>
-    <col min="5928" max="5928" width="19.42578125" style="213" customWidth="1"/>
-    <col min="5929" max="6148" width="9" style="213"/>
-    <col min="6149" max="6149" width="3.28515625" style="213" customWidth="1"/>
-    <col min="6150" max="6150" width="20" style="213" customWidth="1"/>
-    <col min="6151" max="6151" width="24.5703125" style="213" customWidth="1"/>
-    <col min="6152" max="6181" width="4.42578125" style="213" customWidth="1"/>
-    <col min="6182" max="6182" width="2.5703125" style="213" customWidth="1"/>
-    <col min="6183" max="6183" width="6.140625" style="213" customWidth="1"/>
-    <col min="6184" max="6184" width="19.42578125" style="213" customWidth="1"/>
-    <col min="6185" max="6404" width="9" style="213"/>
-    <col min="6405" max="6405" width="3.28515625" style="213" customWidth="1"/>
-    <col min="6406" max="6406" width="20" style="213" customWidth="1"/>
-    <col min="6407" max="6407" width="24.5703125" style="213" customWidth="1"/>
-    <col min="6408" max="6437" width="4.42578125" style="213" customWidth="1"/>
-    <col min="6438" max="6438" width="2.5703125" style="213" customWidth="1"/>
-    <col min="6439" max="6439" width="6.140625" style="213" customWidth="1"/>
-    <col min="6440" max="6440" width="19.42578125" style="213" customWidth="1"/>
-    <col min="6441" max="6660" width="9" style="213"/>
-    <col min="6661" max="6661" width="3.28515625" style="213" customWidth="1"/>
-    <col min="6662" max="6662" width="20" style="213" customWidth="1"/>
-    <col min="6663" max="6663" width="24.5703125" style="213" customWidth="1"/>
-    <col min="6664" max="6693" width="4.42578125" style="213" customWidth="1"/>
-    <col min="6694" max="6694" width="2.5703125" style="213" customWidth="1"/>
-    <col min="6695" max="6695" width="6.140625" style="213" customWidth="1"/>
-    <col min="6696" max="6696" width="19.42578125" style="213" customWidth="1"/>
-    <col min="6697" max="6916" width="9" style="213"/>
-    <col min="6917" max="6917" width="3.28515625" style="213" customWidth="1"/>
-    <col min="6918" max="6918" width="20" style="213" customWidth="1"/>
-    <col min="6919" max="6919" width="24.5703125" style="213" customWidth="1"/>
-    <col min="6920" max="6949" width="4.42578125" style="213" customWidth="1"/>
-    <col min="6950" max="6950" width="2.5703125" style="213" customWidth="1"/>
-    <col min="6951" max="6951" width="6.140625" style="213" customWidth="1"/>
-    <col min="6952" max="6952" width="19.42578125" style="213" customWidth="1"/>
-    <col min="6953" max="7172" width="9" style="213"/>
-    <col min="7173" max="7173" width="3.28515625" style="213" customWidth="1"/>
-    <col min="7174" max="7174" width="20" style="213" customWidth="1"/>
-    <col min="7175" max="7175" width="24.5703125" style="213" customWidth="1"/>
-    <col min="7176" max="7205" width="4.42578125" style="213" customWidth="1"/>
-    <col min="7206" max="7206" width="2.5703125" style="213" customWidth="1"/>
-    <col min="7207" max="7207" width="6.140625" style="213" customWidth="1"/>
-    <col min="7208" max="7208" width="19.42578125" style="213" customWidth="1"/>
-    <col min="7209" max="7428" width="9" style="213"/>
-    <col min="7429" max="7429" width="3.28515625" style="213" customWidth="1"/>
-    <col min="7430" max="7430" width="20" style="213" customWidth="1"/>
-    <col min="7431" max="7431" width="24.5703125" style="213" customWidth="1"/>
-    <col min="7432" max="7461" width="4.42578125" style="213" customWidth="1"/>
-    <col min="7462" max="7462" width="2.5703125" style="213" customWidth="1"/>
-    <col min="7463" max="7463" width="6.140625" style="213" customWidth="1"/>
-    <col min="7464" max="7464" width="19.42578125" style="213" customWidth="1"/>
-    <col min="7465" max="7684" width="9" style="213"/>
-    <col min="7685" max="7685" width="3.28515625" style="213" customWidth="1"/>
-    <col min="7686" max="7686" width="20" style="213" customWidth="1"/>
-    <col min="7687" max="7687" width="24.5703125" style="213" customWidth="1"/>
-    <col min="7688" max="7717" width="4.42578125" style="213" customWidth="1"/>
-    <col min="7718" max="7718" width="2.5703125" style="213" customWidth="1"/>
-    <col min="7719" max="7719" width="6.140625" style="213" customWidth="1"/>
-    <col min="7720" max="7720" width="19.42578125" style="213" customWidth="1"/>
-    <col min="7721" max="7940" width="9" style="213"/>
-    <col min="7941" max="7941" width="3.28515625" style="213" customWidth="1"/>
-    <col min="7942" max="7942" width="20" style="213" customWidth="1"/>
-    <col min="7943" max="7943" width="24.5703125" style="213" customWidth="1"/>
-    <col min="7944" max="7973" width="4.42578125" style="213" customWidth="1"/>
-    <col min="7974" max="7974" width="2.5703125" style="213" customWidth="1"/>
-    <col min="7975" max="7975" width="6.140625" style="213" customWidth="1"/>
-    <col min="7976" max="7976" width="19.42578125" style="213" customWidth="1"/>
-    <col min="7977" max="8196" width="9" style="213"/>
-    <col min="8197" max="8197" width="3.28515625" style="213" customWidth="1"/>
-    <col min="8198" max="8198" width="20" style="213" customWidth="1"/>
-    <col min="8199" max="8199" width="24.5703125" style="213" customWidth="1"/>
-    <col min="8200" max="8229" width="4.42578125" style="213" customWidth="1"/>
-    <col min="8230" max="8230" width="2.5703125" style="213" customWidth="1"/>
-    <col min="8231" max="8231" width="6.140625" style="213" customWidth="1"/>
-    <col min="8232" max="8232" width="19.42578125" style="213" customWidth="1"/>
-    <col min="8233" max="8452" width="9" style="213"/>
-    <col min="8453" max="8453" width="3.28515625" style="213" customWidth="1"/>
-    <col min="8454" max="8454" width="20" style="213" customWidth="1"/>
-    <col min="8455" max="8455" width="24.5703125" style="213" customWidth="1"/>
-    <col min="8456" max="8485" width="4.42578125" style="213" customWidth="1"/>
-    <col min="8486" max="8486" width="2.5703125" style="213" customWidth="1"/>
-    <col min="8487" max="8487" width="6.140625" style="213" customWidth="1"/>
-    <col min="8488" max="8488" width="19.42578125" style="213" customWidth="1"/>
-    <col min="8489" max="8708" width="9" style="213"/>
-    <col min="8709" max="8709" width="3.28515625" style="213" customWidth="1"/>
-    <col min="8710" max="8710" width="20" style="213" customWidth="1"/>
-    <col min="8711" max="8711" width="24.5703125" style="213" customWidth="1"/>
-    <col min="8712" max="8741" width="4.42578125" style="213" customWidth="1"/>
-    <col min="8742" max="8742" width="2.5703125" style="213" customWidth="1"/>
-    <col min="8743" max="8743" width="6.140625" style="213" customWidth="1"/>
-    <col min="8744" max="8744" width="19.42578125" style="213" customWidth="1"/>
-    <col min="8745" max="8964" width="9" style="213"/>
-    <col min="8965" max="8965" width="3.28515625" style="213" customWidth="1"/>
-    <col min="8966" max="8966" width="20" style="213" customWidth="1"/>
-    <col min="8967" max="8967" width="24.5703125" style="213" customWidth="1"/>
-    <col min="8968" max="8997" width="4.42578125" style="213" customWidth="1"/>
-    <col min="8998" max="8998" width="2.5703125" style="213" customWidth="1"/>
-    <col min="8999" max="8999" width="6.140625" style="213" customWidth="1"/>
-    <col min="9000" max="9000" width="19.42578125" style="213" customWidth="1"/>
-    <col min="9001" max="9220" width="9" style="213"/>
-    <col min="9221" max="9221" width="3.28515625" style="213" customWidth="1"/>
-    <col min="9222" max="9222" width="20" style="213" customWidth="1"/>
-    <col min="9223" max="9223" width="24.5703125" style="213" customWidth="1"/>
-    <col min="9224" max="9253" width="4.42578125" style="213" customWidth="1"/>
-    <col min="9254" max="9254" width="2.5703125" style="213" customWidth="1"/>
-    <col min="9255" max="9255" width="6.140625" style="213" customWidth="1"/>
-    <col min="9256" max="9256" width="19.42578125" style="213" customWidth="1"/>
-    <col min="9257" max="9476" width="9" style="213"/>
-    <col min="9477" max="9477" width="3.28515625" style="213" customWidth="1"/>
-    <col min="9478" max="9478" width="20" style="213" customWidth="1"/>
-    <col min="9479" max="9479" width="24.5703125" style="213" customWidth="1"/>
-    <col min="9480" max="9509" width="4.42578125" style="213" customWidth="1"/>
-    <col min="9510" max="9510" width="2.5703125" style="213" customWidth="1"/>
-    <col min="9511" max="9511" width="6.140625" style="213" customWidth="1"/>
-    <col min="9512" max="9512" width="19.42578125" style="213" customWidth="1"/>
-    <col min="9513" max="9732" width="9" style="213"/>
-    <col min="9733" max="9733" width="3.28515625" style="213" customWidth="1"/>
-    <col min="9734" max="9734" width="20" style="213" customWidth="1"/>
-    <col min="9735" max="9735" width="24.5703125" style="213" customWidth="1"/>
-    <col min="9736" max="9765" width="4.42578125" style="213" customWidth="1"/>
-    <col min="9766" max="9766" width="2.5703125" style="213" customWidth="1"/>
-    <col min="9767" max="9767" width="6.140625" style="213" customWidth="1"/>
-    <col min="9768" max="9768" width="19.42578125" style="213" customWidth="1"/>
-    <col min="9769" max="9988" width="9" style="213"/>
-    <col min="9989" max="9989" width="3.28515625" style="213" customWidth="1"/>
-    <col min="9990" max="9990" width="20" style="213" customWidth="1"/>
-    <col min="9991" max="9991" width="24.5703125" style="213" customWidth="1"/>
-    <col min="9992" max="10021" width="4.42578125" style="213" customWidth="1"/>
-    <col min="10022" max="10022" width="2.5703125" style="213" customWidth="1"/>
-    <col min="10023" max="10023" width="6.140625" style="213" customWidth="1"/>
-    <col min="10024" max="10024" width="19.42578125" style="213" customWidth="1"/>
-    <col min="10025" max="10244" width="9" style="213"/>
-    <col min="10245" max="10245" width="3.28515625" style="213" customWidth="1"/>
-    <col min="10246" max="10246" width="20" style="213" customWidth="1"/>
-    <col min="10247" max="10247" width="24.5703125" style="213" customWidth="1"/>
-    <col min="10248" max="10277" width="4.42578125" style="213" customWidth="1"/>
-    <col min="10278" max="10278" width="2.5703125" style="213" customWidth="1"/>
-    <col min="10279" max="10279" width="6.140625" style="213" customWidth="1"/>
-    <col min="10280" max="10280" width="19.42578125" style="213" customWidth="1"/>
-    <col min="10281" max="10500" width="9" style="213"/>
-    <col min="10501" max="10501" width="3.28515625" style="213" customWidth="1"/>
-    <col min="10502" max="10502" width="20" style="213" customWidth="1"/>
-    <col min="10503" max="10503" width="24.5703125" style="213" customWidth="1"/>
-    <col min="10504" max="10533" width="4.42578125" style="213" customWidth="1"/>
-    <col min="10534" max="10534" width="2.5703125" style="213" customWidth="1"/>
-    <col min="10535" max="10535" width="6.140625" style="213" customWidth="1"/>
-    <col min="10536" max="10536" width="19.42578125" style="213" customWidth="1"/>
-    <col min="10537" max="10756" width="9" style="213"/>
-    <col min="10757" max="10757" width="3.28515625" style="213" customWidth="1"/>
-    <col min="10758" max="10758" width="20" style="213" customWidth="1"/>
-    <col min="10759" max="10759" width="24.5703125" style="213" customWidth="1"/>
-    <col min="10760" max="10789" width="4.42578125" style="213" customWidth="1"/>
-    <col min="10790" max="10790" width="2.5703125" style="213" customWidth="1"/>
-    <col min="10791" max="10791" width="6.140625" style="213" customWidth="1"/>
-    <col min="10792" max="10792" width="19.42578125" style="213" customWidth="1"/>
-    <col min="10793" max="11012" width="9" style="213"/>
-    <col min="11013" max="11013" width="3.28515625" style="213" customWidth="1"/>
-    <col min="11014" max="11014" width="20" style="213" customWidth="1"/>
-    <col min="11015" max="11015" width="24.5703125" style="213" customWidth="1"/>
-    <col min="11016" max="11045" width="4.42578125" style="213" customWidth="1"/>
-    <col min="11046" max="11046" width="2.5703125" style="213" customWidth="1"/>
-    <col min="11047" max="11047" width="6.140625" style="213" customWidth="1"/>
-    <col min="11048" max="11048" width="19.42578125" style="213" customWidth="1"/>
-    <col min="11049" max="11268" width="9" style="213"/>
-    <col min="11269" max="11269" width="3.28515625" style="213" customWidth="1"/>
-    <col min="11270" max="11270" width="20" style="213" customWidth="1"/>
-    <col min="11271" max="11271" width="24.5703125" style="213" customWidth="1"/>
-    <col min="11272" max="11301" width="4.42578125" style="213" customWidth="1"/>
-    <col min="11302" max="11302" width="2.5703125" style="213" customWidth="1"/>
-    <col min="11303" max="11303" width="6.140625" style="213" customWidth="1"/>
-    <col min="11304" max="11304" width="19.42578125" style="213" customWidth="1"/>
-    <col min="11305" max="11524" width="9" style="213"/>
-    <col min="11525" max="11525" width="3.28515625" style="213" customWidth="1"/>
-    <col min="11526" max="11526" width="20" style="213" customWidth="1"/>
-    <col min="11527" max="11527" width="24.5703125" style="213" customWidth="1"/>
-    <col min="11528" max="11557" width="4.42578125" style="213" customWidth="1"/>
-    <col min="11558" max="11558" width="2.5703125" style="213" customWidth="1"/>
-    <col min="11559" max="11559" width="6.140625" style="213" customWidth="1"/>
-    <col min="11560" max="11560" width="19.42578125" style="213" customWidth="1"/>
-    <col min="11561" max="11780" width="9" style="213"/>
-    <col min="11781" max="11781" width="3.28515625" style="213" customWidth="1"/>
-    <col min="11782" max="11782" width="20" style="213" customWidth="1"/>
-    <col min="11783" max="11783" width="24.5703125" style="213" customWidth="1"/>
-    <col min="11784" max="11813" width="4.42578125" style="213" customWidth="1"/>
-    <col min="11814" max="11814" width="2.5703125" style="213" customWidth="1"/>
-    <col min="11815" max="11815" width="6.140625" style="213" customWidth="1"/>
-    <col min="11816" max="11816" width="19.42578125" style="213" customWidth="1"/>
-    <col min="11817" max="12036" width="9" style="213"/>
-    <col min="12037" max="12037" width="3.28515625" style="213" customWidth="1"/>
-    <col min="12038" max="12038" width="20" style="213" customWidth="1"/>
-    <col min="12039" max="12039" width="24.5703125" style="213" customWidth="1"/>
-    <col min="12040" max="12069" width="4.42578125" style="213" customWidth="1"/>
-    <col min="12070" max="12070" width="2.5703125" style="213" customWidth="1"/>
-    <col min="12071" max="12071" width="6.140625" style="213" customWidth="1"/>
-    <col min="12072" max="12072" width="19.42578125" style="213" customWidth="1"/>
-    <col min="12073" max="12292" width="9" style="213"/>
-    <col min="12293" max="12293" width="3.28515625" style="213" customWidth="1"/>
-    <col min="12294" max="12294" width="20" style="213" customWidth="1"/>
-    <col min="12295" max="12295" width="24.5703125" style="213" customWidth="1"/>
-    <col min="12296" max="12325" width="4.42578125" style="213" customWidth="1"/>
-    <col min="12326" max="12326" width="2.5703125" style="213" customWidth="1"/>
-    <col min="12327" max="12327" width="6.140625" style="213" customWidth="1"/>
-    <col min="12328" max="12328" width="19.42578125" style="213" customWidth="1"/>
-    <col min="12329" max="12548" width="9" style="213"/>
-    <col min="12549" max="12549" width="3.28515625" style="213" customWidth="1"/>
-    <col min="12550" max="12550" width="20" style="213" customWidth="1"/>
-    <col min="12551" max="12551" width="24.5703125" style="213" customWidth="1"/>
-    <col min="12552" max="12581" width="4.42578125" style="213" customWidth="1"/>
-    <col min="12582" max="12582" width="2.5703125" style="213" customWidth="1"/>
-    <col min="12583" max="12583" width="6.140625" style="213" customWidth="1"/>
-    <col min="12584" max="12584" width="19.42578125" style="213" customWidth="1"/>
-    <col min="12585" max="12804" width="9" style="213"/>
-    <col min="12805" max="12805" width="3.28515625" style="213" customWidth="1"/>
-    <col min="12806" max="12806" width="20" style="213" customWidth="1"/>
-    <col min="12807" max="12807" width="24.5703125" style="213" customWidth="1"/>
-    <col min="12808" max="12837" width="4.42578125" style="213" customWidth="1"/>
-    <col min="12838" max="12838" width="2.5703125" style="213" customWidth="1"/>
-    <col min="12839" max="12839" width="6.140625" style="213" customWidth="1"/>
-    <col min="12840" max="12840" width="19.42578125" style="213" customWidth="1"/>
-    <col min="12841" max="13060" width="9" style="213"/>
-    <col min="13061" max="13061" width="3.28515625" style="213" customWidth="1"/>
-    <col min="13062" max="13062" width="20" style="213" customWidth="1"/>
-    <col min="13063" max="13063" width="24.5703125" style="213" customWidth="1"/>
-    <col min="13064" max="13093" width="4.42578125" style="213" customWidth="1"/>
-    <col min="13094" max="13094" width="2.5703125" style="213" customWidth="1"/>
-    <col min="13095" max="13095" width="6.140625" style="213" customWidth="1"/>
-    <col min="13096" max="13096" width="19.42578125" style="213" customWidth="1"/>
-    <col min="13097" max="13316" width="9" style="213"/>
-    <col min="13317" max="13317" width="3.28515625" style="213" customWidth="1"/>
-    <col min="13318" max="13318" width="20" style="213" customWidth="1"/>
-    <col min="13319" max="13319" width="24.5703125" style="213" customWidth="1"/>
-    <col min="13320" max="13349" width="4.42578125" style="213" customWidth="1"/>
-    <col min="13350" max="13350" width="2.5703125" style="213" customWidth="1"/>
-    <col min="13351" max="13351" width="6.140625" style="213" customWidth="1"/>
-    <col min="13352" max="13352" width="19.42578125" style="213" customWidth="1"/>
-    <col min="13353" max="13572" width="9" style="213"/>
-    <col min="13573" max="13573" width="3.28515625" style="213" customWidth="1"/>
-    <col min="13574" max="13574" width="20" style="213" customWidth="1"/>
-    <col min="13575" max="13575" width="24.5703125" style="213" customWidth="1"/>
-    <col min="13576" max="13605" width="4.42578125" style="213" customWidth="1"/>
-    <col min="13606" max="13606" width="2.5703125" style="213" customWidth="1"/>
-    <col min="13607" max="13607" width="6.140625" style="213" customWidth="1"/>
-    <col min="13608" max="13608" width="19.42578125" style="213" customWidth="1"/>
-    <col min="13609" max="13828" width="9" style="213"/>
-    <col min="13829" max="13829" width="3.28515625" style="213" customWidth="1"/>
-    <col min="13830" max="13830" width="20" style="213" customWidth="1"/>
-    <col min="13831" max="13831" width="24.5703125" style="213" customWidth="1"/>
-    <col min="13832" max="13861" width="4.42578125" style="213" customWidth="1"/>
-    <col min="13862" max="13862" width="2.5703125" style="213" customWidth="1"/>
-    <col min="13863" max="13863" width="6.140625" style="213" customWidth="1"/>
-    <col min="13864" max="13864" width="19.42578125" style="213" customWidth="1"/>
-    <col min="13865" max="14084" width="9" style="213"/>
-    <col min="14085" max="14085" width="3.28515625" style="213" customWidth="1"/>
-    <col min="14086" max="14086" width="20" style="213" customWidth="1"/>
-    <col min="14087" max="14087" width="24.5703125" style="213" customWidth="1"/>
-    <col min="14088" max="14117" width="4.42578125" style="213" customWidth="1"/>
-    <col min="14118" max="14118" width="2.5703125" style="213" customWidth="1"/>
-    <col min="14119" max="14119" width="6.140625" style="213" customWidth="1"/>
-    <col min="14120" max="14120" width="19.42578125" style="213" customWidth="1"/>
-    <col min="14121" max="14340" width="9" style="213"/>
-    <col min="14341" max="14341" width="3.28515625" style="213" customWidth="1"/>
-    <col min="14342" max="14342" width="20" style="213" customWidth="1"/>
-    <col min="14343" max="14343" width="24.5703125" style="213" customWidth="1"/>
-    <col min="14344" max="14373" width="4.42578125" style="213" customWidth="1"/>
-    <col min="14374" max="14374" width="2.5703125" style="213" customWidth="1"/>
-    <col min="14375" max="14375" width="6.140625" style="213" customWidth="1"/>
-    <col min="14376" max="14376" width="19.42578125" style="213" customWidth="1"/>
-    <col min="14377" max="14596" width="9" style="213"/>
-    <col min="14597" max="14597" width="3.28515625" style="213" customWidth="1"/>
-    <col min="14598" max="14598" width="20" style="213" customWidth="1"/>
-    <col min="14599" max="14599" width="24.5703125" style="213" customWidth="1"/>
-    <col min="14600" max="14629" width="4.42578125" style="213" customWidth="1"/>
-    <col min="14630" max="14630" width="2.5703125" style="213" customWidth="1"/>
-    <col min="14631" max="14631" width="6.140625" style="213" customWidth="1"/>
-    <col min="14632" max="14632" width="19.42578125" style="213" customWidth="1"/>
-    <col min="14633" max="14852" width="9" style="213"/>
-    <col min="14853" max="14853" width="3.28515625" style="213" customWidth="1"/>
-    <col min="14854" max="14854" width="20" style="213" customWidth="1"/>
-    <col min="14855" max="14855" width="24.5703125" style="213" customWidth="1"/>
-    <col min="14856" max="14885" width="4.42578125" style="213" customWidth="1"/>
-    <col min="14886" max="14886" width="2.5703125" style="213" customWidth="1"/>
-    <col min="14887" max="14887" width="6.140625" style="213" customWidth="1"/>
-    <col min="14888" max="14888" width="19.42578125" style="213" customWidth="1"/>
-    <col min="14889" max="15108" width="9" style="213"/>
-    <col min="15109" max="15109" width="3.28515625" style="213" customWidth="1"/>
-    <col min="15110" max="15110" width="20" style="213" customWidth="1"/>
-    <col min="15111" max="15111" width="24.5703125" style="213" customWidth="1"/>
-    <col min="15112" max="15141" width="4.42578125" style="213" customWidth="1"/>
-    <col min="15142" max="15142" width="2.5703125" style="213" customWidth="1"/>
-    <col min="15143" max="15143" width="6.140625" style="213" customWidth="1"/>
-    <col min="15144" max="15144" width="19.42578125" style="213" customWidth="1"/>
-    <col min="15145" max="15364" width="9" style="213"/>
-    <col min="15365" max="15365" width="3.28515625" style="213" customWidth="1"/>
-    <col min="15366" max="15366" width="20" style="213" customWidth="1"/>
-    <col min="15367" max="15367" width="24.5703125" style="213" customWidth="1"/>
-    <col min="15368" max="15397" width="4.42578125" style="213" customWidth="1"/>
-    <col min="15398" max="15398" width="2.5703125" style="213" customWidth="1"/>
-    <col min="15399" max="15399" width="6.140625" style="213" customWidth="1"/>
-    <col min="15400" max="15400" width="19.42578125" style="213" customWidth="1"/>
-    <col min="15401" max="15620" width="9" style="213"/>
-    <col min="15621" max="15621" width="3.28515625" style="213" customWidth="1"/>
-    <col min="15622" max="15622" width="20" style="213" customWidth="1"/>
-    <col min="15623" max="15623" width="24.5703125" style="213" customWidth="1"/>
-    <col min="15624" max="15653" width="4.42578125" style="213" customWidth="1"/>
-    <col min="15654" max="15654" width="2.5703125" style="213" customWidth="1"/>
-    <col min="15655" max="15655" width="6.140625" style="213" customWidth="1"/>
-    <col min="15656" max="15656" width="19.42578125" style="213" customWidth="1"/>
-    <col min="15657" max="15876" width="9" style="213"/>
-    <col min="15877" max="15877" width="3.28515625" style="213" customWidth="1"/>
-    <col min="15878" max="15878" width="20" style="213" customWidth="1"/>
-    <col min="15879" max="15879" width="24.5703125" style="213" customWidth="1"/>
-    <col min="15880" max="15909" width="4.42578125" style="213" customWidth="1"/>
-    <col min="15910" max="15910" width="2.5703125" style="213" customWidth="1"/>
-    <col min="15911" max="15911" width="6.140625" style="213" customWidth="1"/>
-    <col min="15912" max="15912" width="19.42578125" style="213" customWidth="1"/>
-    <col min="15913" max="16132" width="9" style="213"/>
-    <col min="16133" max="16133" width="3.28515625" style="213" customWidth="1"/>
-    <col min="16134" max="16134" width="20" style="213" customWidth="1"/>
-    <col min="16135" max="16135" width="24.5703125" style="213" customWidth="1"/>
-    <col min="16136" max="16165" width="4.42578125" style="213" customWidth="1"/>
-    <col min="16166" max="16166" width="2.5703125" style="213" customWidth="1"/>
-    <col min="16167" max="16167" width="6.140625" style="213" customWidth="1"/>
-    <col min="16168" max="16168" width="19.42578125" style="213" customWidth="1"/>
-    <col min="16169" max="16384" width="9" style="213"/>
+    <col min="1" max="1" width="2.5703125" style="211" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="211" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="212" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="212" customWidth="1"/>
+    <col min="5" max="34" width="2.5703125" style="211" customWidth="1"/>
+    <col min="35" max="35" width="7.42578125" style="211" customWidth="1"/>
+    <col min="36" max="38" width="2.5703125" style="211" customWidth="1"/>
+    <col min="39" max="39" width="4.42578125" style="211" customWidth="1"/>
+    <col min="40" max="40" width="19.42578125" style="212" customWidth="1"/>
+    <col min="41" max="260" width="9" style="211"/>
+    <col min="261" max="261" width="3.28515625" style="211" customWidth="1"/>
+    <col min="262" max="262" width="20" style="211" customWidth="1"/>
+    <col min="263" max="263" width="24.5703125" style="211" customWidth="1"/>
+    <col min="264" max="293" width="4.42578125" style="211" customWidth="1"/>
+    <col min="294" max="294" width="2.5703125" style="211" customWidth="1"/>
+    <col min="295" max="295" width="6.140625" style="211" customWidth="1"/>
+    <col min="296" max="296" width="19.42578125" style="211" customWidth="1"/>
+    <col min="297" max="516" width="9" style="211"/>
+    <col min="517" max="517" width="3.28515625" style="211" customWidth="1"/>
+    <col min="518" max="518" width="20" style="211" customWidth="1"/>
+    <col min="519" max="519" width="24.5703125" style="211" customWidth="1"/>
+    <col min="520" max="549" width="4.42578125" style="211" customWidth="1"/>
+    <col min="550" max="550" width="2.5703125" style="211" customWidth="1"/>
+    <col min="551" max="551" width="6.140625" style="211" customWidth="1"/>
+    <col min="552" max="552" width="19.42578125" style="211" customWidth="1"/>
+    <col min="553" max="772" width="9" style="211"/>
+    <col min="773" max="773" width="3.28515625" style="211" customWidth="1"/>
+    <col min="774" max="774" width="20" style="211" customWidth="1"/>
+    <col min="775" max="775" width="24.5703125" style="211" customWidth="1"/>
+    <col min="776" max="805" width="4.42578125" style="211" customWidth="1"/>
+    <col min="806" max="806" width="2.5703125" style="211" customWidth="1"/>
+    <col min="807" max="807" width="6.140625" style="211" customWidth="1"/>
+    <col min="808" max="808" width="19.42578125" style="211" customWidth="1"/>
+    <col min="809" max="1028" width="9" style="211"/>
+    <col min="1029" max="1029" width="3.28515625" style="211" customWidth="1"/>
+    <col min="1030" max="1030" width="20" style="211" customWidth="1"/>
+    <col min="1031" max="1031" width="24.5703125" style="211" customWidth="1"/>
+    <col min="1032" max="1061" width="4.42578125" style="211" customWidth="1"/>
+    <col min="1062" max="1062" width="2.5703125" style="211" customWidth="1"/>
+    <col min="1063" max="1063" width="6.140625" style="211" customWidth="1"/>
+    <col min="1064" max="1064" width="19.42578125" style="211" customWidth="1"/>
+    <col min="1065" max="1284" width="9" style="211"/>
+    <col min="1285" max="1285" width="3.28515625" style="211" customWidth="1"/>
+    <col min="1286" max="1286" width="20" style="211" customWidth="1"/>
+    <col min="1287" max="1287" width="24.5703125" style="211" customWidth="1"/>
+    <col min="1288" max="1317" width="4.42578125" style="211" customWidth="1"/>
+    <col min="1318" max="1318" width="2.5703125" style="211" customWidth="1"/>
+    <col min="1319" max="1319" width="6.140625" style="211" customWidth="1"/>
+    <col min="1320" max="1320" width="19.42578125" style="211" customWidth="1"/>
+    <col min="1321" max="1540" width="9" style="211"/>
+    <col min="1541" max="1541" width="3.28515625" style="211" customWidth="1"/>
+    <col min="1542" max="1542" width="20" style="211" customWidth="1"/>
+    <col min="1543" max="1543" width="24.5703125" style="211" customWidth="1"/>
+    <col min="1544" max="1573" width="4.42578125" style="211" customWidth="1"/>
+    <col min="1574" max="1574" width="2.5703125" style="211" customWidth="1"/>
+    <col min="1575" max="1575" width="6.140625" style="211" customWidth="1"/>
+    <col min="1576" max="1576" width="19.42578125" style="211" customWidth="1"/>
+    <col min="1577" max="1796" width="9" style="211"/>
+    <col min="1797" max="1797" width="3.28515625" style="211" customWidth="1"/>
+    <col min="1798" max="1798" width="20" style="211" customWidth="1"/>
+    <col min="1799" max="1799" width="24.5703125" style="211" customWidth="1"/>
+    <col min="1800" max="1829" width="4.42578125" style="211" customWidth="1"/>
+    <col min="1830" max="1830" width="2.5703125" style="211" customWidth="1"/>
+    <col min="1831" max="1831" width="6.140625" style="211" customWidth="1"/>
+    <col min="1832" max="1832" width="19.42578125" style="211" customWidth="1"/>
+    <col min="1833" max="2052" width="9" style="211"/>
+    <col min="2053" max="2053" width="3.28515625" style="211" customWidth="1"/>
+    <col min="2054" max="2054" width="20" style="211" customWidth="1"/>
+    <col min="2055" max="2055" width="24.5703125" style="211" customWidth="1"/>
+    <col min="2056" max="2085" width="4.42578125" style="211" customWidth="1"/>
+    <col min="2086" max="2086" width="2.5703125" style="211" customWidth="1"/>
+    <col min="2087" max="2087" width="6.140625" style="211" customWidth="1"/>
+    <col min="2088" max="2088" width="19.42578125" style="211" customWidth="1"/>
+    <col min="2089" max="2308" width="9" style="211"/>
+    <col min="2309" max="2309" width="3.28515625" style="211" customWidth="1"/>
+    <col min="2310" max="2310" width="20" style="211" customWidth="1"/>
+    <col min="2311" max="2311" width="24.5703125" style="211" customWidth="1"/>
+    <col min="2312" max="2341" width="4.42578125" style="211" customWidth="1"/>
+    <col min="2342" max="2342" width="2.5703125" style="211" customWidth="1"/>
+    <col min="2343" max="2343" width="6.140625" style="211" customWidth="1"/>
+    <col min="2344" max="2344" width="19.42578125" style="211" customWidth="1"/>
+    <col min="2345" max="2564" width="9" style="211"/>
+    <col min="2565" max="2565" width="3.28515625" style="211" customWidth="1"/>
+    <col min="2566" max="2566" width="20" style="211" customWidth="1"/>
+    <col min="2567" max="2567" width="24.5703125" style="211" customWidth="1"/>
+    <col min="2568" max="2597" width="4.42578125" style="211" customWidth="1"/>
+    <col min="2598" max="2598" width="2.5703125" style="211" customWidth="1"/>
+    <col min="2599" max="2599" width="6.140625" style="211" customWidth="1"/>
+    <col min="2600" max="2600" width="19.42578125" style="211" customWidth="1"/>
+    <col min="2601" max="2820" width="9" style="211"/>
+    <col min="2821" max="2821" width="3.28515625" style="211" customWidth="1"/>
+    <col min="2822" max="2822" width="20" style="211" customWidth="1"/>
+    <col min="2823" max="2823" width="24.5703125" style="211" customWidth="1"/>
+    <col min="2824" max="2853" width="4.42578125" style="211" customWidth="1"/>
+    <col min="2854" max="2854" width="2.5703125" style="211" customWidth="1"/>
+    <col min="2855" max="2855" width="6.140625" style="211" customWidth="1"/>
+    <col min="2856" max="2856" width="19.42578125" style="211" customWidth="1"/>
+    <col min="2857" max="3076" width="9" style="211"/>
+    <col min="3077" max="3077" width="3.28515625" style="211" customWidth="1"/>
+    <col min="3078" max="3078" width="20" style="211" customWidth="1"/>
+    <col min="3079" max="3079" width="24.5703125" style="211" customWidth="1"/>
+    <col min="3080" max="3109" width="4.42578125" style="211" customWidth="1"/>
+    <col min="3110" max="3110" width="2.5703125" style="211" customWidth="1"/>
+    <col min="3111" max="3111" width="6.140625" style="211" customWidth="1"/>
+    <col min="3112" max="3112" width="19.42578125" style="211" customWidth="1"/>
+    <col min="3113" max="3332" width="9" style="211"/>
+    <col min="3333" max="3333" width="3.28515625" style="211" customWidth="1"/>
+    <col min="3334" max="3334" width="20" style="211" customWidth="1"/>
+    <col min="3335" max="3335" width="24.5703125" style="211" customWidth="1"/>
+    <col min="3336" max="3365" width="4.42578125" style="211" customWidth="1"/>
+    <col min="3366" max="3366" width="2.5703125" style="211" customWidth="1"/>
+    <col min="3367" max="3367" width="6.140625" style="211" customWidth="1"/>
+    <col min="3368" max="3368" width="19.42578125" style="211" customWidth="1"/>
+    <col min="3369" max="3588" width="9" style="211"/>
+    <col min="3589" max="3589" width="3.28515625" style="211" customWidth="1"/>
+    <col min="3590" max="3590" width="20" style="211" customWidth="1"/>
+    <col min="3591" max="3591" width="24.5703125" style="211" customWidth="1"/>
+    <col min="3592" max="3621" width="4.42578125" style="211" customWidth="1"/>
+    <col min="3622" max="3622" width="2.5703125" style="211" customWidth="1"/>
+    <col min="3623" max="3623" width="6.140625" style="211" customWidth="1"/>
+    <col min="3624" max="3624" width="19.42578125" style="211" customWidth="1"/>
+    <col min="3625" max="3844" width="9" style="211"/>
+    <col min="3845" max="3845" width="3.28515625" style="211" customWidth="1"/>
+    <col min="3846" max="3846" width="20" style="211" customWidth="1"/>
+    <col min="3847" max="3847" width="24.5703125" style="211" customWidth="1"/>
+    <col min="3848" max="3877" width="4.42578125" style="211" customWidth="1"/>
+    <col min="3878" max="3878" width="2.5703125" style="211" customWidth="1"/>
+    <col min="3879" max="3879" width="6.140625" style="211" customWidth="1"/>
+    <col min="3880" max="3880" width="19.42578125" style="211" customWidth="1"/>
+    <col min="3881" max="4100" width="9" style="211"/>
+    <col min="4101" max="4101" width="3.28515625" style="211" customWidth="1"/>
+    <col min="4102" max="4102" width="20" style="211" customWidth="1"/>
+    <col min="4103" max="4103" width="24.5703125" style="211" customWidth="1"/>
+    <col min="4104" max="4133" width="4.42578125" style="211" customWidth="1"/>
+    <col min="4134" max="4134" width="2.5703125" style="211" customWidth="1"/>
+    <col min="4135" max="4135" width="6.140625" style="211" customWidth="1"/>
+    <col min="4136" max="4136" width="19.42578125" style="211" customWidth="1"/>
+    <col min="4137" max="4356" width="9" style="211"/>
+    <col min="4357" max="4357" width="3.28515625" style="211" customWidth="1"/>
+    <col min="4358" max="4358" width="20" style="211" customWidth="1"/>
+    <col min="4359" max="4359" width="24.5703125" style="211" customWidth="1"/>
+    <col min="4360" max="4389" width="4.42578125" style="211" customWidth="1"/>
+    <col min="4390" max="4390" width="2.5703125" style="211" customWidth="1"/>
+    <col min="4391" max="4391" width="6.140625" style="211" customWidth="1"/>
+    <col min="4392" max="4392" width="19.42578125" style="211" customWidth="1"/>
+    <col min="4393" max="4612" width="9" style="211"/>
+    <col min="4613" max="4613" width="3.28515625" style="211" customWidth="1"/>
+    <col min="4614" max="4614" width="20" style="211" customWidth="1"/>
+    <col min="4615" max="4615" width="24.5703125" style="211" customWidth="1"/>
+    <col min="4616" max="4645" width="4.42578125" style="211" customWidth="1"/>
+    <col min="4646" max="4646" width="2.5703125" style="211" customWidth="1"/>
+    <col min="4647" max="4647" width="6.140625" style="211" customWidth="1"/>
+    <col min="4648" max="4648" width="19.42578125" style="211" customWidth="1"/>
+    <col min="4649" max="4868" width="9" style="211"/>
+    <col min="4869" max="4869" width="3.28515625" style="211" customWidth="1"/>
+    <col min="4870" max="4870" width="20" style="211" customWidth="1"/>
+    <col min="4871" max="4871" width="24.5703125" style="211" customWidth="1"/>
+    <col min="4872" max="4901" width="4.42578125" style="211" customWidth="1"/>
+    <col min="4902" max="4902" width="2.5703125" style="211" customWidth="1"/>
+    <col min="4903" max="4903" width="6.140625" style="211" customWidth="1"/>
+    <col min="4904" max="4904" width="19.42578125" style="211" customWidth="1"/>
+    <col min="4905" max="5124" width="9" style="211"/>
+    <col min="5125" max="5125" width="3.28515625" style="211" customWidth="1"/>
+    <col min="5126" max="5126" width="20" style="211" customWidth="1"/>
+    <col min="5127" max="5127" width="24.5703125" style="211" customWidth="1"/>
+    <col min="5128" max="5157" width="4.42578125" style="211" customWidth="1"/>
+    <col min="5158" max="5158" width="2.5703125" style="211" customWidth="1"/>
+    <col min="5159" max="5159" width="6.140625" style="211" customWidth="1"/>
+    <col min="5160" max="5160" width="19.42578125" style="211" customWidth="1"/>
+    <col min="5161" max="5380" width="9" style="211"/>
+    <col min="5381" max="5381" width="3.28515625" style="211" customWidth="1"/>
+    <col min="5382" max="5382" width="20" style="211" customWidth="1"/>
+    <col min="5383" max="5383" width="24.5703125" style="211" customWidth="1"/>
+    <col min="5384" max="5413" width="4.42578125" style="211" customWidth="1"/>
+    <col min="5414" max="5414" width="2.5703125" style="211" customWidth="1"/>
+    <col min="5415" max="5415" width="6.140625" style="211" customWidth="1"/>
+    <col min="5416" max="5416" width="19.42578125" style="211" customWidth="1"/>
+    <col min="5417" max="5636" width="9" style="211"/>
+    <col min="5637" max="5637" width="3.28515625" style="211" customWidth="1"/>
+    <col min="5638" max="5638" width="20" style="211" customWidth="1"/>
+    <col min="5639" max="5639" width="24.5703125" style="211" customWidth="1"/>
+    <col min="5640" max="5669" width="4.42578125" style="211" customWidth="1"/>
+    <col min="5670" max="5670" width="2.5703125" style="211" customWidth="1"/>
+    <col min="5671" max="5671" width="6.140625" style="211" customWidth="1"/>
+    <col min="5672" max="5672" width="19.42578125" style="211" customWidth="1"/>
+    <col min="5673" max="5892" width="9" style="211"/>
+    <col min="5893" max="5893" width="3.28515625" style="211" customWidth="1"/>
+    <col min="5894" max="5894" width="20" style="211" customWidth="1"/>
+    <col min="5895" max="5895" width="24.5703125" style="211" customWidth="1"/>
+    <col min="5896" max="5925" width="4.42578125" style="211" customWidth="1"/>
+    <col min="5926" max="5926" width="2.5703125" style="211" customWidth="1"/>
+    <col min="5927" max="5927" width="6.140625" style="211" customWidth="1"/>
+    <col min="5928" max="5928" width="19.42578125" style="211" customWidth="1"/>
+    <col min="5929" max="6148" width="9" style="211"/>
+    <col min="6149" max="6149" width="3.28515625" style="211" customWidth="1"/>
+    <col min="6150" max="6150" width="20" style="211" customWidth="1"/>
+    <col min="6151" max="6151" width="24.5703125" style="211" customWidth="1"/>
+    <col min="6152" max="6181" width="4.42578125" style="211" customWidth="1"/>
+    <col min="6182" max="6182" width="2.5703125" style="211" customWidth="1"/>
+    <col min="6183" max="6183" width="6.140625" style="211" customWidth="1"/>
+    <col min="6184" max="6184" width="19.42578125" style="211" customWidth="1"/>
+    <col min="6185" max="6404" width="9" style="211"/>
+    <col min="6405" max="6405" width="3.28515625" style="211" customWidth="1"/>
+    <col min="6406" max="6406" width="20" style="211" customWidth="1"/>
+    <col min="6407" max="6407" width="24.5703125" style="211" customWidth="1"/>
+    <col min="6408" max="6437" width="4.42578125" style="211" customWidth="1"/>
+    <col min="6438" max="6438" width="2.5703125" style="211" customWidth="1"/>
+    <col min="6439" max="6439" width="6.140625" style="211" customWidth="1"/>
+    <col min="6440" max="6440" width="19.42578125" style="211" customWidth="1"/>
+    <col min="6441" max="6660" width="9" style="211"/>
+    <col min="6661" max="6661" width="3.28515625" style="211" customWidth="1"/>
+    <col min="6662" max="6662" width="20" style="211" customWidth="1"/>
+    <col min="6663" max="6663" width="24.5703125" style="211" customWidth="1"/>
+    <col min="6664" max="6693" width="4.42578125" style="211" customWidth="1"/>
+    <col min="6694" max="6694" width="2.5703125" style="211" customWidth="1"/>
+    <col min="6695" max="6695" width="6.140625" style="211" customWidth="1"/>
+    <col min="6696" max="6696" width="19.42578125" style="211" customWidth="1"/>
+    <col min="6697" max="6916" width="9" style="211"/>
+    <col min="6917" max="6917" width="3.28515625" style="211" customWidth="1"/>
+    <col min="6918" max="6918" width="20" style="211" customWidth="1"/>
+    <col min="6919" max="6919" width="24.5703125" style="211" customWidth="1"/>
+    <col min="6920" max="6949" width="4.42578125" style="211" customWidth="1"/>
+    <col min="6950" max="6950" width="2.5703125" style="211" customWidth="1"/>
+    <col min="6951" max="6951" width="6.140625" style="211" customWidth="1"/>
+    <col min="6952" max="6952" width="19.42578125" style="211" customWidth="1"/>
+    <col min="6953" max="7172" width="9" style="211"/>
+    <col min="7173" max="7173" width="3.28515625" style="211" customWidth="1"/>
+    <col min="7174" max="7174" width="20" style="211" customWidth="1"/>
+    <col min="7175" max="7175" width="24.5703125" style="211" customWidth="1"/>
+    <col min="7176" max="7205" width="4.42578125" style="211" customWidth="1"/>
+    <col min="7206" max="7206" width="2.5703125" style="211" customWidth="1"/>
+    <col min="7207" max="7207" width="6.140625" style="211" customWidth="1"/>
+    <col min="7208" max="7208" width="19.42578125" style="211" customWidth="1"/>
+    <col min="7209" max="7428" width="9" style="211"/>
+    <col min="7429" max="7429" width="3.28515625" style="211" customWidth="1"/>
+    <col min="7430" max="7430" width="20" style="211" customWidth="1"/>
+    <col min="7431" max="7431" width="24.5703125" style="211" customWidth="1"/>
+    <col min="7432" max="7461" width="4.42578125" style="211" customWidth="1"/>
+    <col min="7462" max="7462" width="2.5703125" style="211" customWidth="1"/>
+    <col min="7463" max="7463" width="6.140625" style="211" customWidth="1"/>
+    <col min="7464" max="7464" width="19.42578125" style="211" customWidth="1"/>
+    <col min="7465" max="7684" width="9" style="211"/>
+    <col min="7685" max="7685" width="3.28515625" style="211" customWidth="1"/>
+    <col min="7686" max="7686" width="20" style="211" customWidth="1"/>
+    <col min="7687" max="7687" width="24.5703125" style="211" customWidth="1"/>
+    <col min="7688" max="7717" width="4.42578125" style="211" customWidth="1"/>
+    <col min="7718" max="7718" width="2.5703125" style="211" customWidth="1"/>
+    <col min="7719" max="7719" width="6.140625" style="211" customWidth="1"/>
+    <col min="7720" max="7720" width="19.42578125" style="211" customWidth="1"/>
+    <col min="7721" max="7940" width="9" style="211"/>
+    <col min="7941" max="7941" width="3.28515625" style="211" customWidth="1"/>
+    <col min="7942" max="7942" width="20" style="211" customWidth="1"/>
+    <col min="7943" max="7943" width="24.5703125" style="211" customWidth="1"/>
+    <col min="7944" max="7973" width="4.42578125" style="211" customWidth="1"/>
+    <col min="7974" max="7974" width="2.5703125" style="211" customWidth="1"/>
+    <col min="7975" max="7975" width="6.140625" style="211" customWidth="1"/>
+    <col min="7976" max="7976" width="19.42578125" style="211" customWidth="1"/>
+    <col min="7977" max="8196" width="9" style="211"/>
+    <col min="8197" max="8197" width="3.28515625" style="211" customWidth="1"/>
+    <col min="8198" max="8198" width="20" style="211" customWidth="1"/>
+    <col min="8199" max="8199" width="24.5703125" style="211" customWidth="1"/>
+    <col min="8200" max="8229" width="4.42578125" style="211" customWidth="1"/>
+    <col min="8230" max="8230" width="2.5703125" style="211" customWidth="1"/>
+    <col min="8231" max="8231" width="6.140625" style="211" customWidth="1"/>
+    <col min="8232" max="8232" width="19.42578125" style="211" customWidth="1"/>
+    <col min="8233" max="8452" width="9" style="211"/>
+    <col min="8453" max="8453" width="3.28515625" style="211" customWidth="1"/>
+    <col min="8454" max="8454" width="20" style="211" customWidth="1"/>
+    <col min="8455" max="8455" width="24.5703125" style="211" customWidth="1"/>
+    <col min="8456" max="8485" width="4.42578125" style="211" customWidth="1"/>
+    <col min="8486" max="8486" width="2.5703125" style="211" customWidth="1"/>
+    <col min="8487" max="8487" width="6.140625" style="211" customWidth="1"/>
+    <col min="8488" max="8488" width="19.42578125" style="211" customWidth="1"/>
+    <col min="8489" max="8708" width="9" style="211"/>
+    <col min="8709" max="8709" width="3.28515625" style="211" customWidth="1"/>
+    <col min="8710" max="8710" width="20" style="211" customWidth="1"/>
+    <col min="8711" max="8711" width="24.5703125" style="211" customWidth="1"/>
+    <col min="8712" max="8741" width="4.42578125" style="211" customWidth="1"/>
+    <col min="8742" max="8742" width="2.5703125" style="211" customWidth="1"/>
+    <col min="8743" max="8743" width="6.140625" style="211" customWidth="1"/>
+    <col min="8744" max="8744" width="19.42578125" style="211" customWidth="1"/>
+    <col min="8745" max="8964" width="9" style="211"/>
+    <col min="8965" max="8965" width="3.28515625" style="211" customWidth="1"/>
+    <col min="8966" max="8966" width="20" style="211" customWidth="1"/>
+    <col min="8967" max="8967" width="24.5703125" style="211" customWidth="1"/>
+    <col min="8968" max="8997" width="4.42578125" style="211" customWidth="1"/>
+    <col min="8998" max="8998" width="2.5703125" style="211" customWidth="1"/>
+    <col min="8999" max="8999" width="6.140625" style="211" customWidth="1"/>
+    <col min="9000" max="9000" width="19.42578125" style="211" customWidth="1"/>
+    <col min="9001" max="9220" width="9" style="211"/>
+    <col min="9221" max="9221" width="3.28515625" style="211" customWidth="1"/>
+    <col min="9222" max="9222" width="20" style="211" customWidth="1"/>
+    <col min="9223" max="9223" width="24.5703125" style="211" customWidth="1"/>
+    <col min="9224" max="9253" width="4.42578125" style="211" customWidth="1"/>
+    <col min="9254" max="9254" width="2.5703125" style="211" customWidth="1"/>
+    <col min="9255" max="9255" width="6.140625" style="211" customWidth="1"/>
+    <col min="9256" max="9256" width="19.42578125" style="211" customWidth="1"/>
+    <col min="9257" max="9476" width="9" style="211"/>
+    <col min="9477" max="9477" width="3.28515625" style="211" customWidth="1"/>
+    <col min="9478" max="9478" width="20" style="211" customWidth="1"/>
+    <col min="9479" max="9479" width="24.5703125" style="211" customWidth="1"/>
+    <col min="9480" max="9509" width="4.42578125" style="211" customWidth="1"/>
+    <col min="9510" max="9510" width="2.5703125" style="211" customWidth="1"/>
+    <col min="9511" max="9511" width="6.140625" style="211" customWidth="1"/>
+    <col min="9512" max="9512" width="19.42578125" style="211" customWidth="1"/>
+    <col min="9513" max="9732" width="9" style="211"/>
+    <col min="9733" max="9733" width="3.28515625" style="211" customWidth="1"/>
+    <col min="9734" max="9734" width="20" style="211" customWidth="1"/>
+    <col min="9735" max="9735" width="24.5703125" style="211" customWidth="1"/>
+    <col min="9736" max="9765" width="4.42578125" style="211" customWidth="1"/>
+    <col min="9766" max="9766" width="2.5703125" style="211" customWidth="1"/>
+    <col min="9767" max="9767" width="6.140625" style="211" customWidth="1"/>
+    <col min="9768" max="9768" width="19.42578125" style="211" customWidth="1"/>
+    <col min="9769" max="9988" width="9" style="211"/>
+    <col min="9989" max="9989" width="3.28515625" style="211" customWidth="1"/>
+    <col min="9990" max="9990" width="20" style="211" customWidth="1"/>
+    <col min="9991" max="9991" width="24.5703125" style="211" customWidth="1"/>
+    <col min="9992" max="10021" width="4.42578125" style="211" customWidth="1"/>
+    <col min="10022" max="10022" width="2.5703125" style="211" customWidth="1"/>
+    <col min="10023" max="10023" width="6.140625" style="211" customWidth="1"/>
+    <col min="10024" max="10024" width="19.42578125" style="211" customWidth="1"/>
+    <col min="10025" max="10244" width="9" style="211"/>
+    <col min="10245" max="10245" width="3.28515625" style="211" customWidth="1"/>
+    <col min="10246" max="10246" width="20" style="211" customWidth="1"/>
+    <col min="10247" max="10247" width="24.5703125" style="211" customWidth="1"/>
+    <col min="10248" max="10277" width="4.42578125" style="211" customWidth="1"/>
+    <col min="10278" max="10278" width="2.5703125" style="211" customWidth="1"/>
+    <col min="10279" max="10279" width="6.140625" style="211" customWidth="1"/>
+    <col min="10280" max="10280" width="19.42578125" style="211" customWidth="1"/>
+    <col min="10281" max="10500" width="9" style="211"/>
+    <col min="10501" max="10501" width="3.28515625" style="211" customWidth="1"/>
+    <col min="10502" max="10502" width="20" style="211" customWidth="1"/>
+    <col min="10503" max="10503" width="24.5703125" style="211" customWidth="1"/>
+    <col min="10504" max="10533" width="4.42578125" style="211" customWidth="1"/>
+    <col min="10534" max="10534" width="2.5703125" style="211" customWidth="1"/>
+    <col min="10535" max="10535" width="6.140625" style="211" customWidth="1"/>
+    <col min="10536" max="10536" width="19.42578125" style="211" customWidth="1"/>
+    <col min="10537" max="10756" width="9" style="211"/>
+    <col min="10757" max="10757" width="3.28515625" style="211" customWidth="1"/>
+    <col min="10758" max="10758" width="20" style="211" customWidth="1"/>
+    <col min="10759" max="10759" width="24.5703125" style="211" customWidth="1"/>
+    <col min="10760" max="10789" width="4.42578125" style="211" customWidth="1"/>
+    <col min="10790" max="10790" width="2.5703125" style="211" customWidth="1"/>
+    <col min="10791" max="10791" width="6.140625" style="211" customWidth="1"/>
+    <col min="10792" max="10792" width="19.42578125" style="211" customWidth="1"/>
+    <col min="10793" max="11012" width="9" style="211"/>
+    <col min="11013" max="11013" width="3.28515625" style="211" customWidth="1"/>
+    <col min="11014" max="11014" width="20" style="211" customWidth="1"/>
+    <col min="11015" max="11015" width="24.5703125" style="211" customWidth="1"/>
+    <col min="11016" max="11045" width="4.42578125" style="211" customWidth="1"/>
+    <col min="11046" max="11046" width="2.5703125" style="211" customWidth="1"/>
+    <col min="11047" max="11047" width="6.140625" style="211" customWidth="1"/>
+    <col min="11048" max="11048" width="19.42578125" style="211" customWidth="1"/>
+    <col min="11049" max="11268" width="9" style="211"/>
+    <col min="11269" max="11269" width="3.28515625" style="211" customWidth="1"/>
+    <col min="11270" max="11270" width="20" style="211" customWidth="1"/>
+    <col min="11271" max="11271" width="24.5703125" style="211" customWidth="1"/>
+    <col min="11272" max="11301" width="4.42578125" style="211" customWidth="1"/>
+    <col min="11302" max="11302" width="2.5703125" style="211" customWidth="1"/>
+    <col min="11303" max="11303" width="6.140625" style="211" customWidth="1"/>
+    <col min="11304" max="11304" width="19.42578125" style="211" customWidth="1"/>
+    <col min="11305" max="11524" width="9" style="211"/>
+    <col min="11525" max="11525" width="3.28515625" style="211" customWidth="1"/>
+    <col min="11526" max="11526" width="20" style="211" customWidth="1"/>
+    <col min="11527" max="11527" width="24.5703125" style="211" customWidth="1"/>
+    <col min="11528" max="11557" width="4.42578125" style="211" customWidth="1"/>
+    <col min="11558" max="11558" width="2.5703125" style="211" customWidth="1"/>
+    <col min="11559" max="11559" width="6.140625" style="211" customWidth="1"/>
+    <col min="11560" max="11560" width="19.42578125" style="211" customWidth="1"/>
+    <col min="11561" max="11780" width="9" style="211"/>
+    <col min="11781" max="11781" width="3.28515625" style="211" customWidth="1"/>
+    <col min="11782" max="11782" width="20" style="211" customWidth="1"/>
+    <col min="11783" max="11783" width="24.5703125" style="211" customWidth="1"/>
+    <col min="11784" max="11813" width="4.42578125" style="211" customWidth="1"/>
+    <col min="11814" max="11814" width="2.5703125" style="211" customWidth="1"/>
+    <col min="11815" max="11815" width="6.140625" style="211" customWidth="1"/>
+    <col min="11816" max="11816" width="19.42578125" style="211" customWidth="1"/>
+    <col min="11817" max="12036" width="9" style="211"/>
+    <col min="12037" max="12037" width="3.28515625" style="211" customWidth="1"/>
+    <col min="12038" max="12038" width="20" style="211" customWidth="1"/>
+    <col min="12039" max="12039" width="24.5703125" style="211" customWidth="1"/>
+    <col min="12040" max="12069" width="4.42578125" style="211" customWidth="1"/>
+    <col min="12070" max="12070" width="2.5703125" style="211" customWidth="1"/>
+    <col min="12071" max="12071" width="6.140625" style="211" customWidth="1"/>
+    <col min="12072" max="12072" width="19.42578125" style="211" customWidth="1"/>
+    <col min="12073" max="12292" width="9" style="211"/>
+    <col min="12293" max="12293" width="3.28515625" style="211" customWidth="1"/>
+    <col min="12294" max="12294" width="20" style="211" customWidth="1"/>
+    <col min="12295" max="12295" width="24.5703125" style="211" customWidth="1"/>
+    <col min="12296" max="12325" width="4.42578125" style="211" customWidth="1"/>
+    <col min="12326" max="12326" width="2.5703125" style="211" customWidth="1"/>
+    <col min="12327" max="12327" width="6.140625" style="211" customWidth="1"/>
+    <col min="12328" max="12328" width="19.42578125" style="211" customWidth="1"/>
+    <col min="12329" max="12548" width="9" style="211"/>
+    <col min="12549" max="12549" width="3.28515625" style="211" customWidth="1"/>
+    <col min="12550" max="12550" width="20" style="211" customWidth="1"/>
+    <col min="12551" max="12551" width="24.5703125" style="211" customWidth="1"/>
+    <col min="12552" max="12581" width="4.42578125" style="211" customWidth="1"/>
+    <col min="12582" max="12582" width="2.5703125" style="211" customWidth="1"/>
+    <col min="12583" max="12583" width="6.140625" style="211" customWidth="1"/>
+    <col min="12584" max="12584" width="19.42578125" style="211" customWidth="1"/>
+    <col min="12585" max="12804" width="9" style="211"/>
+    <col min="12805" max="12805" width="3.28515625" style="211" customWidth="1"/>
+    <col min="12806" max="12806" width="20" style="211" customWidth="1"/>
+    <col min="12807" max="12807" width="24.5703125" style="211" customWidth="1"/>
+    <col min="12808" max="12837" width="4.42578125" style="211" customWidth="1"/>
+    <col min="12838" max="12838" width="2.5703125" style="211" customWidth="1"/>
+    <col min="12839" max="12839" width="6.140625" style="211" customWidth="1"/>
+    <col min="12840" max="12840" width="19.42578125" style="211" customWidth="1"/>
+    <col min="12841" max="13060" width="9" style="211"/>
+    <col min="13061" max="13061" width="3.28515625" style="211" customWidth="1"/>
+    <col min="13062" max="13062" width="20" style="211" customWidth="1"/>
+    <col min="13063" max="13063" width="24.5703125" style="211" customWidth="1"/>
+    <col min="13064" max="13093" width="4.42578125" style="211" customWidth="1"/>
+    <col min="13094" max="13094" width="2.5703125" style="211" customWidth="1"/>
+    <col min="13095" max="13095" width="6.140625" style="211" customWidth="1"/>
+    <col min="13096" max="13096" width="19.42578125" style="211" customWidth="1"/>
+    <col min="13097" max="13316" width="9" style="211"/>
+    <col min="13317" max="13317" width="3.28515625" style="211" customWidth="1"/>
+    <col min="13318" max="13318" width="20" style="211" customWidth="1"/>
+    <col min="13319" max="13319" width="24.5703125" style="211" customWidth="1"/>
+    <col min="13320" max="13349" width="4.42578125" style="211" customWidth="1"/>
+    <col min="13350" max="13350" width="2.5703125" style="211" customWidth="1"/>
+    <col min="13351" max="13351" width="6.140625" style="211" customWidth="1"/>
+    <col min="13352" max="13352" width="19.42578125" style="211" customWidth="1"/>
+    <col min="13353" max="13572" width="9" style="211"/>
+    <col min="13573" max="13573" width="3.28515625" style="211" customWidth="1"/>
+    <col min="13574" max="13574" width="20" style="211" customWidth="1"/>
+    <col min="13575" max="13575" width="24.5703125" style="211" customWidth="1"/>
+    <col min="13576" max="13605" width="4.42578125" style="211" customWidth="1"/>
+    <col min="13606" max="13606" width="2.5703125" style="211" customWidth="1"/>
+    <col min="13607" max="13607" width="6.140625" style="211" customWidth="1"/>
+    <col min="13608" max="13608" width="19.42578125" style="211" customWidth="1"/>
+    <col min="13609" max="13828" width="9" style="211"/>
+    <col min="13829" max="13829" width="3.28515625" style="211" customWidth="1"/>
+    <col min="13830" max="13830" width="20" style="211" customWidth="1"/>
+    <col min="13831" max="13831" width="24.5703125" style="211" customWidth="1"/>
+    <col min="13832" max="13861" width="4.42578125" style="211" customWidth="1"/>
+    <col min="13862" max="13862" width="2.5703125" style="211" customWidth="1"/>
+    <col min="13863" max="13863" width="6.140625" style="211" customWidth="1"/>
+    <col min="13864" max="13864" width="19.42578125" style="211" customWidth="1"/>
+    <col min="13865" max="14084" width="9" style="211"/>
+    <col min="14085" max="14085" width="3.28515625" style="211" customWidth="1"/>
+    <col min="14086" max="14086" width="20" style="211" customWidth="1"/>
+    <col min="14087" max="14087" width="24.5703125" style="211" customWidth="1"/>
+    <col min="14088" max="14117" width="4.42578125" style="211" customWidth="1"/>
+    <col min="14118" max="14118" width="2.5703125" style="211" customWidth="1"/>
+    <col min="14119" max="14119" width="6.140625" style="211" customWidth="1"/>
+    <col min="14120" max="14120" width="19.42578125" style="211" customWidth="1"/>
+    <col min="14121" max="14340" width="9" style="211"/>
+    <col min="14341" max="14341" width="3.28515625" style="211" customWidth="1"/>
+    <col min="14342" max="14342" width="20" style="211" customWidth="1"/>
+    <col min="14343" max="14343" width="24.5703125" style="211" customWidth="1"/>
+    <col min="14344" max="14373" width="4.42578125" style="211" customWidth="1"/>
+    <col min="14374" max="14374" width="2.5703125" style="211" customWidth="1"/>
+    <col min="14375" max="14375" width="6.140625" style="211" customWidth="1"/>
+    <col min="14376" max="14376" width="19.42578125" style="211" customWidth="1"/>
+    <col min="14377" max="14596" width="9" style="211"/>
+    <col min="14597" max="14597" width="3.28515625" style="211" customWidth="1"/>
+    <col min="14598" max="14598" width="20" style="211" customWidth="1"/>
+    <col min="14599" max="14599" width="24.5703125" style="211" customWidth="1"/>
+    <col min="14600" max="14629" width="4.42578125" style="211" customWidth="1"/>
+    <col min="14630" max="14630" width="2.5703125" style="211" customWidth="1"/>
+    <col min="14631" max="14631" width="6.140625" style="211" customWidth="1"/>
+    <col min="14632" max="14632" width="19.42578125" style="211" customWidth="1"/>
+    <col min="14633" max="14852" width="9" style="211"/>
+    <col min="14853" max="14853" width="3.28515625" style="211" customWidth="1"/>
+    <col min="14854" max="14854" width="20" style="211" customWidth="1"/>
+    <col min="14855" max="14855" width="24.5703125" style="211" customWidth="1"/>
+    <col min="14856" max="14885" width="4.42578125" style="211" customWidth="1"/>
+    <col min="14886" max="14886" width="2.5703125" style="211" customWidth="1"/>
+    <col min="14887" max="14887" width="6.140625" style="211" customWidth="1"/>
+    <col min="14888" max="14888" width="19.42578125" style="211" customWidth="1"/>
+    <col min="14889" max="15108" width="9" style="211"/>
+    <col min="15109" max="15109" width="3.28515625" style="211" customWidth="1"/>
+    <col min="15110" max="15110" width="20" style="211" customWidth="1"/>
+    <col min="15111" max="15111" width="24.5703125" style="211" customWidth="1"/>
+    <col min="15112" max="15141" width="4.42578125" style="211" customWidth="1"/>
+    <col min="15142" max="15142" width="2.5703125" style="211" customWidth="1"/>
+    <col min="15143" max="15143" width="6.140625" style="211" customWidth="1"/>
+    <col min="15144" max="15144" width="19.42578125" style="211" customWidth="1"/>
+    <col min="15145" max="15364" width="9" style="211"/>
+    <col min="15365" max="15365" width="3.28515625" style="211" customWidth="1"/>
+    <col min="15366" max="15366" width="20" style="211" customWidth="1"/>
+    <col min="15367" max="15367" width="24.5703125" style="211" customWidth="1"/>
+    <col min="15368" max="15397" width="4.42578125" style="211" customWidth="1"/>
+    <col min="15398" max="15398" width="2.5703125" style="211" customWidth="1"/>
+    <col min="15399" max="15399" width="6.140625" style="211" customWidth="1"/>
+    <col min="15400" max="15400" width="19.42578125" style="211" customWidth="1"/>
+    <col min="15401" max="15620" width="9" style="211"/>
+    <col min="15621" max="15621" width="3.28515625" style="211" customWidth="1"/>
+    <col min="15622" max="15622" width="20" style="211" customWidth="1"/>
+    <col min="15623" max="15623" width="24.5703125" style="211" customWidth="1"/>
+    <col min="15624" max="15653" width="4.42578125" style="211" customWidth="1"/>
+    <col min="15654" max="15654" width="2.5703125" style="211" customWidth="1"/>
+    <col min="15655" max="15655" width="6.140625" style="211" customWidth="1"/>
+    <col min="15656" max="15656" width="19.42578125" style="211" customWidth="1"/>
+    <col min="15657" max="15876" width="9" style="211"/>
+    <col min="15877" max="15877" width="3.28515625" style="211" customWidth="1"/>
+    <col min="15878" max="15878" width="20" style="211" customWidth="1"/>
+    <col min="15879" max="15879" width="24.5703125" style="211" customWidth="1"/>
+    <col min="15880" max="15909" width="4.42578125" style="211" customWidth="1"/>
+    <col min="15910" max="15910" width="2.5703125" style="211" customWidth="1"/>
+    <col min="15911" max="15911" width="6.140625" style="211" customWidth="1"/>
+    <col min="15912" max="15912" width="19.42578125" style="211" customWidth="1"/>
+    <col min="15913" max="16132" width="9" style="211"/>
+    <col min="16133" max="16133" width="3.28515625" style="211" customWidth="1"/>
+    <col min="16134" max="16134" width="20" style="211" customWidth="1"/>
+    <col min="16135" max="16135" width="24.5703125" style="211" customWidth="1"/>
+    <col min="16136" max="16165" width="4.42578125" style="211" customWidth="1"/>
+    <col min="16166" max="16166" width="2.5703125" style="211" customWidth="1"/>
+    <col min="16167" max="16167" width="6.140625" style="211" customWidth="1"/>
+    <col min="16168" max="16168" width="19.42578125" style="211" customWidth="1"/>
+    <col min="16169" max="16384" width="9" style="211"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="Z1" s="433" t="s">
+      <c r="B1" s="209"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="Z1" s="417" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="434"/>
-      <c r="AB1" s="434"/>
-      <c r="AC1" s="434"/>
-      <c r="AD1" s="434"/>
-      <c r="AE1" s="434"/>
-      <c r="AF1" s="434"/>
-      <c r="AG1" s="434"/>
-      <c r="AH1" s="435"/>
+      <c r="AA1" s="418"/>
+      <c r="AB1" s="418"/>
+      <c r="AC1" s="418"/>
+      <c r="AD1" s="418"/>
+      <c r="AE1" s="418"/>
+      <c r="AF1" s="418"/>
+      <c r="AG1" s="418"/>
+      <c r="AH1" s="419"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="215" t="s">
+      <c r="A2" s="213" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="215"/>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="216"/>
-      <c r="Z2" s="427" t="s">
+      <c r="B2" s="213"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="Z2" s="411" t="s">
         <v>99</v>
       </c>
-      <c r="AA2" s="428"/>
-      <c r="AB2" s="428"/>
-      <c r="AC2" s="428"/>
-      <c r="AD2" s="428"/>
-      <c r="AE2" s="429"/>
-      <c r="AF2" s="430" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG2" s="431"/>
-      <c r="AH2" s="432"/>
+      <c r="AA2" s="412"/>
+      <c r="AB2" s="412"/>
+      <c r="AC2" s="412"/>
+      <c r="AD2" s="412"/>
+      <c r="AE2" s="413"/>
+      <c r="AF2" s="414" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG2" s="415"/>
+      <c r="AH2" s="416"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A3" s="215" t="s">
+      <c r="A3" s="213" t="s">
         <v>101</v>
       </c>
       <c r="B3" s="79"/>
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
-      <c r="Z3" s="427" t="s">
+      <c r="Z3" s="411" t="s">
         <v>102</v>
       </c>
-      <c r="AA3" s="428"/>
-      <c r="AB3" s="428"/>
-      <c r="AC3" s="428"/>
-      <c r="AD3" s="428"/>
-      <c r="AE3" s="429"/>
-      <c r="AF3" s="430" t="s">
+      <c r="AA3" s="412"/>
+      <c r="AB3" s="412"/>
+      <c r="AC3" s="412"/>
+      <c r="AD3" s="412"/>
+      <c r="AE3" s="413"/>
+      <c r="AF3" s="414" t="s">
         <v>103</v>
       </c>
-      <c r="AG3" s="431"/>
-      <c r="AH3" s="432"/>
+      <c r="AG3" s="415"/>
+      <c r="AH3" s="416"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A4" s="215" t="s">
+      <c r="A4" s="213" t="s">
         <v>104</v>
       </c>
       <c r="B4" s="79"/>
       <c r="C4" s="79"/>
       <c r="D4" s="79"/>
       <c r="E4" s="79"/>
-      <c r="T4" s="213" t="s">
+      <c r="T4" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="427" t="s">
+      <c r="Z4" s="411" t="s">
         <v>105</v>
       </c>
-      <c r="AA4" s="428"/>
-      <c r="AB4" s="428"/>
-      <c r="AC4" s="428"/>
-      <c r="AD4" s="428"/>
-      <c r="AE4" s="429"/>
-      <c r="AF4" s="430" t="s">
+      <c r="AA4" s="412"/>
+      <c r="AB4" s="412"/>
+      <c r="AC4" s="412"/>
+      <c r="AD4" s="412"/>
+      <c r="AE4" s="413"/>
+      <c r="AF4" s="414" t="s">
         <v>106</v>
       </c>
-      <c r="AG4" s="431"/>
-      <c r="AH4" s="432"/>
+      <c r="AG4" s="415"/>
+      <c r="AH4" s="416"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A5" s="215" t="s">
+      <c r="A5" s="213" t="s">
         <v>107</v>
       </c>
       <c r="B5" s="79"/>
       <c r="C5" s="79"/>
       <c r="D5" s="79"/>
       <c r="E5" s="79"/>
-      <c r="Z5" s="437" t="s">
+      <c r="Z5" s="421" t="s">
         <v>108</v>
       </c>
-      <c r="AA5" s="437"/>
-      <c r="AB5" s="437"/>
-      <c r="AC5" s="437"/>
-      <c r="AD5" s="437"/>
-      <c r="AE5" s="437"/>
-      <c r="AF5" s="438" t="s">
+      <c r="AA5" s="421"/>
+      <c r="AB5" s="421"/>
+      <c r="AC5" s="421"/>
+      <c r="AD5" s="421"/>
+      <c r="AE5" s="421"/>
+      <c r="AF5" s="422" t="s">
         <v>109</v>
       </c>
-      <c r="AG5" s="438"/>
-      <c r="AH5" s="438"/>
+      <c r="AG5" s="422"/>
+      <c r="AH5" s="422"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A6" s="215"/>
+      <c r="A6" s="213"/>
       <c r="B6" s="79"/>
       <c r="C6" s="79"/>
       <c r="D6" s="79"/>
       <c r="E6" s="79"/>
-      <c r="Z6" s="427" t="s">
+      <c r="Z6" s="411" t="s">
         <v>129</v>
       </c>
-      <c r="AA6" s="428"/>
-      <c r="AB6" s="428"/>
-      <c r="AC6" s="428"/>
-      <c r="AD6" s="428"/>
-      <c r="AE6" s="429"/>
-      <c r="AF6" s="430" t="s">
+      <c r="AA6" s="412"/>
+      <c r="AB6" s="412"/>
+      <c r="AC6" s="412"/>
+      <c r="AD6" s="412"/>
+      <c r="AE6" s="413"/>
+      <c r="AF6" s="414" t="s">
         <v>126</v>
       </c>
-      <c r="AG6" s="431"/>
-      <c r="AH6" s="432"/>
+      <c r="AG6" s="415"/>
+      <c r="AH6" s="416"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A7" s="217"/>
-      <c r="B7" s="217"/>
-      <c r="C7" s="218"/>
-      <c r="D7" s="218"/>
-      <c r="E7" s="217"/>
-    </row>
-    <row r="8" spans="1:40" s="220" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="439" t="s">
+      <c r="A7" s="215"/>
+      <c r="B7" s="215"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="215"/>
+    </row>
+    <row r="8" spans="1:40" s="218" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="423" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="439"/>
-      <c r="C8" s="439"/>
-      <c r="D8" s="439"/>
-      <c r="E8" s="439"/>
-      <c r="F8" s="439"/>
-      <c r="G8" s="439"/>
-      <c r="H8" s="439"/>
-      <c r="I8" s="439"/>
-      <c r="J8" s="439"/>
-      <c r="K8" s="439"/>
-      <c r="L8" s="439"/>
-      <c r="M8" s="439"/>
-      <c r="N8" s="439"/>
-      <c r="O8" s="439"/>
-      <c r="P8" s="439"/>
-      <c r="Q8" s="439"/>
-      <c r="R8" s="439"/>
-      <c r="S8" s="439"/>
-      <c r="T8" s="439"/>
-      <c r="U8" s="439"/>
-      <c r="V8" s="439"/>
-      <c r="W8" s="439"/>
-      <c r="X8" s="439"/>
-      <c r="Y8" s="439"/>
-      <c r="Z8" s="439"/>
-      <c r="AA8" s="439"/>
-      <c r="AB8" s="439"/>
-      <c r="AC8" s="439"/>
-      <c r="AD8" s="439"/>
-      <c r="AE8" s="439"/>
-      <c r="AF8" s="439"/>
-      <c r="AG8" s="439"/>
-      <c r="AH8" s="439"/>
-      <c r="AI8" s="439"/>
-      <c r="AJ8" s="439"/>
-      <c r="AK8" s="439"/>
-      <c r="AL8" s="439"/>
-      <c r="AM8" s="439"/>
-      <c r="AN8" s="219"/>
-    </row>
-    <row r="10" spans="1:40" s="225" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="440" t="s">
+      <c r="B8" s="423"/>
+      <c r="C8" s="423"/>
+      <c r="D8" s="423"/>
+      <c r="E8" s="423"/>
+      <c r="F8" s="423"/>
+      <c r="G8" s="423"/>
+      <c r="H8" s="423"/>
+      <c r="I8" s="423"/>
+      <c r="J8" s="423"/>
+      <c r="K8" s="423"/>
+      <c r="L8" s="423"/>
+      <c r="M8" s="423"/>
+      <c r="N8" s="423"/>
+      <c r="O8" s="423"/>
+      <c r="P8" s="423"/>
+      <c r="Q8" s="423"/>
+      <c r="R8" s="423"/>
+      <c r="S8" s="423"/>
+      <c r="T8" s="423"/>
+      <c r="U8" s="423"/>
+      <c r="V8" s="423"/>
+      <c r="W8" s="423"/>
+      <c r="X8" s="423"/>
+      <c r="Y8" s="423"/>
+      <c r="Z8" s="423"/>
+      <c r="AA8" s="423"/>
+      <c r="AB8" s="423"/>
+      <c r="AC8" s="423"/>
+      <c r="AD8" s="423"/>
+      <c r="AE8" s="423"/>
+      <c r="AF8" s="423"/>
+      <c r="AG8" s="423"/>
+      <c r="AH8" s="423"/>
+      <c r="AI8" s="423"/>
+      <c r="AJ8" s="423"/>
+      <c r="AK8" s="423"/>
+      <c r="AL8" s="423"/>
+      <c r="AM8" s="423"/>
+      <c r="AN8" s="217"/>
+    </row>
+    <row r="10" spans="1:40" s="223" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="424" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="440" t="s">
+      <c r="B10" s="424" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="440" t="s">
+      <c r="C10" s="424" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="443" t="s">
+      <c r="D10" s="427" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="444"/>
-      <c r="F10" s="444"/>
-      <c r="G10" s="444"/>
-      <c r="H10" s="444"/>
-      <c r="I10" s="444"/>
-      <c r="J10" s="444"/>
-      <c r="K10" s="444"/>
-      <c r="L10" s="444"/>
-      <c r="M10" s="444"/>
-      <c r="N10" s="444"/>
-      <c r="O10" s="444"/>
-      <c r="P10" s="444"/>
-      <c r="Q10" s="444"/>
-      <c r="R10" s="444"/>
-      <c r="S10" s="444"/>
-      <c r="T10" s="444"/>
-      <c r="U10" s="444"/>
-      <c r="V10" s="444"/>
-      <c r="W10" s="444"/>
-      <c r="X10" s="444"/>
-      <c r="Y10" s="444"/>
-      <c r="Z10" s="444"/>
-      <c r="AA10" s="444"/>
-      <c r="AB10" s="444"/>
-      <c r="AC10" s="444"/>
-      <c r="AD10" s="444"/>
-      <c r="AE10" s="444"/>
-      <c r="AF10" s="444"/>
-      <c r="AG10" s="444"/>
-      <c r="AH10" s="444"/>
-      <c r="AI10" s="445" t="s">
+      <c r="E10" s="428"/>
+      <c r="F10" s="428"/>
+      <c r="G10" s="428"/>
+      <c r="H10" s="428"/>
+      <c r="I10" s="428"/>
+      <c r="J10" s="428"/>
+      <c r="K10" s="428"/>
+      <c r="L10" s="428"/>
+      <c r="M10" s="428"/>
+      <c r="N10" s="428"/>
+      <c r="O10" s="428"/>
+      <c r="P10" s="428"/>
+      <c r="Q10" s="428"/>
+      <c r="R10" s="428"/>
+      <c r="S10" s="428"/>
+      <c r="T10" s="428"/>
+      <c r="U10" s="428"/>
+      <c r="V10" s="428"/>
+      <c r="W10" s="428"/>
+      <c r="X10" s="428"/>
+      <c r="Y10" s="428"/>
+      <c r="Z10" s="428"/>
+      <c r="AA10" s="428"/>
+      <c r="AB10" s="428"/>
+      <c r="AC10" s="428"/>
+      <c r="AD10" s="428"/>
+      <c r="AE10" s="428"/>
+      <c r="AF10" s="428"/>
+      <c r="AG10" s="428"/>
+      <c r="AH10" s="428"/>
+      <c r="AI10" s="429" t="s">
         <v>114</v>
       </c>
-      <c r="AJ10" s="221"/>
-      <c r="AK10" s="222"/>
-      <c r="AL10" s="222"/>
-      <c r="AM10" s="223"/>
-      <c r="AN10" s="224"/>
-    </row>
-    <row r="11" spans="1:40" s="225" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="441"/>
-      <c r="B11" s="441"/>
-      <c r="C11" s="441"/>
-      <c r="D11" s="226">
+      <c r="AJ10" s="219"/>
+      <c r="AK10" s="220"/>
+      <c r="AL10" s="220"/>
+      <c r="AM10" s="221"/>
+      <c r="AN10" s="222"/>
+    </row>
+    <row r="11" spans="1:40" s="223" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="425"/>
+      <c r="B11" s="425"/>
+      <c r="C11" s="425"/>
+      <c r="D11" s="224">
         <v>1</v>
       </c>
-      <c r="E11" s="226">
+      <c r="E11" s="224">
         <v>2</v>
       </c>
-      <c r="F11" s="226">
+      <c r="F11" s="224">
         <v>3</v>
       </c>
-      <c r="G11" s="226">
+      <c r="G11" s="224">
         <v>4</v>
       </c>
-      <c r="H11" s="226">
+      <c r="H11" s="224">
         <v>5</v>
       </c>
-      <c r="I11" s="226">
+      <c r="I11" s="224">
         <v>6</v>
       </c>
-      <c r="J11" s="226">
+      <c r="J11" s="224">
         <v>7</v>
       </c>
-      <c r="K11" s="226">
+      <c r="K11" s="224">
         <v>8</v>
       </c>
-      <c r="L11" s="226">
+      <c r="L11" s="224">
         <v>9</v>
       </c>
-      <c r="M11" s="226">
+      <c r="M11" s="224">
         <v>10</v>
       </c>
-      <c r="N11" s="226">
+      <c r="N11" s="224">
         <v>11</v>
       </c>
-      <c r="O11" s="226">
+      <c r="O11" s="224">
         <v>12</v>
       </c>
-      <c r="P11" s="226">
+      <c r="P11" s="224">
         <v>13</v>
       </c>
-      <c r="Q11" s="226">
+      <c r="Q11" s="224">
         <v>14</v>
       </c>
-      <c r="R11" s="226">
+      <c r="R11" s="224">
         <v>15</v>
       </c>
-      <c r="S11" s="226">
+      <c r="S11" s="224">
         <v>16</v>
       </c>
-      <c r="T11" s="226">
+      <c r="T11" s="224">
         <v>17</v>
       </c>
-      <c r="U11" s="226">
+      <c r="U11" s="224">
         <v>18</v>
       </c>
-      <c r="V11" s="226">
+      <c r="V11" s="224">
         <v>19</v>
       </c>
-      <c r="W11" s="226">
+      <c r="W11" s="224">
         <v>20</v>
       </c>
-      <c r="X11" s="226">
+      <c r="X11" s="224">
         <v>21</v>
       </c>
-      <c r="Y11" s="226">
+      <c r="Y11" s="224">
         <v>22</v>
       </c>
-      <c r="Z11" s="226">
+      <c r="Z11" s="224">
         <v>23</v>
       </c>
-      <c r="AA11" s="226">
+      <c r="AA11" s="224">
         <v>24</v>
       </c>
-      <c r="AB11" s="226">
+      <c r="AB11" s="224">
         <v>25</v>
       </c>
-      <c r="AC11" s="226">
+      <c r="AC11" s="224">
         <v>26</v>
       </c>
-      <c r="AD11" s="226">
+      <c r="AD11" s="224">
         <v>27</v>
       </c>
-      <c r="AE11" s="226">
+      <c r="AE11" s="224">
         <v>28</v>
       </c>
-      <c r="AF11" s="226">
+      <c r="AF11" s="224">
         <v>29</v>
       </c>
-      <c r="AG11" s="226">
+      <c r="AG11" s="224">
         <v>30</v>
       </c>
-      <c r="AH11" s="226">
+      <c r="AH11" s="224">
         <v>31</v>
       </c>
-      <c r="AI11" s="445"/>
-      <c r="AJ11" s="227"/>
-      <c r="AK11" s="223"/>
-      <c r="AL11" s="223"/>
-      <c r="AM11" s="223"/>
-      <c r="AN11" s="224"/>
-    </row>
-    <row r="12" spans="1:40" s="231" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="442"/>
-      <c r="B12" s="442"/>
-      <c r="C12" s="442"/>
-      <c r="D12" s="226" t="s">
+      <c r="AI11" s="429"/>
+      <c r="AJ11" s="225"/>
+      <c r="AK11" s="221"/>
+      <c r="AL11" s="221"/>
+      <c r="AM11" s="221"/>
+      <c r="AN11" s="222"/>
+    </row>
+    <row r="12" spans="1:40" s="229" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="426"/>
+      <c r="B12" s="426"/>
+      <c r="C12" s="426"/>
+      <c r="D12" s="224" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="228" t="s">
+      <c r="E12" s="226" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="226" t="s">
+      <c r="F12" s="224" t="s">
         <v>117</v>
       </c>
-      <c r="G12" s="228" t="s">
+      <c r="G12" s="226" t="s">
         <v>118</v>
       </c>
-      <c r="H12" s="229" t="s">
+      <c r="H12" s="227" t="s">
         <v>119</v>
       </c>
-      <c r="I12" s="228" t="s">
+      <c r="I12" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="J12" s="228" t="s">
+      <c r="J12" s="226" t="s">
         <v>121</v>
       </c>
-      <c r="K12" s="226" t="s">
+      <c r="K12" s="224" t="s">
         <v>115</v>
       </c>
-      <c r="L12" s="228" t="s">
+      <c r="L12" s="226" t="s">
         <v>116</v>
       </c>
-      <c r="M12" s="226" t="s">
+      <c r="M12" s="224" t="s">
         <v>117</v>
       </c>
-      <c r="N12" s="228" t="s">
+      <c r="N12" s="226" t="s">
         <v>118</v>
       </c>
-      <c r="O12" s="229" t="s">
+      <c r="O12" s="227" t="s">
         <v>119</v>
       </c>
-      <c r="P12" s="228" t="s">
+      <c r="P12" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="Q12" s="226" t="s">
+      <c r="Q12" s="224" t="s">
         <v>121</v>
       </c>
-      <c r="R12" s="228" t="s">
+      <c r="R12" s="226" t="s">
         <v>115</v>
       </c>
-      <c r="S12" s="228" t="s">
+      <c r="S12" s="226" t="s">
         <v>116</v>
       </c>
-      <c r="T12" s="228" t="s">
+      <c r="T12" s="226" t="s">
         <v>117</v>
       </c>
-      <c r="U12" s="228" t="s">
+      <c r="U12" s="226" t="s">
         <v>118</v>
       </c>
-      <c r="V12" s="229" t="s">
+      <c r="V12" s="227" t="s">
         <v>119</v>
       </c>
-      <c r="W12" s="228" t="s">
+      <c r="W12" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="X12" s="226" t="s">
+      <c r="X12" s="224" t="s">
         <v>121</v>
       </c>
-      <c r="Y12" s="228" t="s">
+      <c r="Y12" s="226" t="s">
         <v>115</v>
       </c>
-      <c r="Z12" s="228" t="s">
+      <c r="Z12" s="226" t="s">
         <v>116</v>
       </c>
-      <c r="AA12" s="228" t="s">
+      <c r="AA12" s="226" t="s">
         <v>117</v>
       </c>
-      <c r="AB12" s="228" t="s">
+      <c r="AB12" s="226" t="s">
         <v>118</v>
       </c>
-      <c r="AC12" s="229" t="s">
+      <c r="AC12" s="227" t="s">
         <v>119</v>
       </c>
-      <c r="AD12" s="228" t="s">
+      <c r="AD12" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="AE12" s="226" t="s">
+      <c r="AE12" s="224" t="s">
         <v>121</v>
       </c>
-      <c r="AF12" s="228" t="s">
+      <c r="AF12" s="226" t="s">
         <v>115</v>
       </c>
-      <c r="AG12" s="228" t="s">
+      <c r="AG12" s="226" t="s">
         <v>116</v>
       </c>
-      <c r="AH12" s="228" t="s">
+      <c r="AH12" s="226" t="s">
         <v>117</v>
       </c>
-      <c r="AI12" s="445"/>
-      <c r="AJ12" s="230"/>
-      <c r="AN12" s="232"/>
-    </row>
-    <row r="13" spans="1:40" s="231" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="233">
+      <c r="AI12" s="429"/>
+      <c r="AJ12" s="228"/>
+      <c r="AN12" s="230"/>
+    </row>
+    <row r="13" spans="1:40" s="229" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="231">
         <v>1</v>
       </c>
-      <c r="B13" s="233" t="s">
+      <c r="B13" s="231" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="233" t="s">
+      <c r="C13" s="231" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" s="234"/>
-      <c r="I13" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="J13" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="K13" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="L13" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="M13" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="N13" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="O13" s="234" t="s">
-        <v>100</v>
-      </c>
-      <c r="P13" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q13" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="R13" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="S13" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="T13" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="U13" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="V13" s="234"/>
-      <c r="W13" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="X13" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y13" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z13" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA13" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB13" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC13" s="234"/>
-      <c r="AD13" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE13" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF13" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG13" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH13" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI13" s="235">
+      <c r="D13" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="232"/>
+      <c r="I13" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="L13" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="M13" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="N13" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="O13" s="232" t="s">
+        <v>100</v>
+      </c>
+      <c r="P13" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="R13" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="S13" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="T13" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="U13" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="V13" s="232"/>
+      <c r="W13" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="X13" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y13" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z13" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA13" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB13" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC13" s="232"/>
+      <c r="AD13" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE13" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF13" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG13" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH13" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI13" s="233">
         <f>COUNTIF(D13:AH13,"x")+ COUNTIF(D13:AH13,"x/2")/2+COUNTIF(D13:AH13,"CT")+COUNTIF(D13:AH13,"TT")+COUNTIF(D13:AH13,"P")</f>
         <v>28</v>
       </c>
-      <c r="AJ13" s="230"/>
-      <c r="AN13" s="232"/>
-    </row>
-    <row r="14" spans="1:40" s="231" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="233">
+      <c r="AJ13" s="228"/>
+      <c r="AN13" s="230"/>
+    </row>
+    <row r="14" spans="1:40" s="229" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="231">
         <v>2</v>
       </c>
-      <c r="B14" s="236" t="s">
+      <c r="B14" s="234" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="237" t="s">
+      <c r="C14" s="235" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="H14" s="234"/>
-      <c r="I14" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="J14" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="K14" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="L14" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="M14" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="N14" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="O14" s="234" t="s">
-        <v>100</v>
-      </c>
-      <c r="P14" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="R14" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="S14" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="T14" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="U14" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="V14" s="234"/>
-      <c r="W14" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="X14" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y14" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z14" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA14" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB14" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC14" s="234"/>
-      <c r="AD14" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE14" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF14" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG14" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH14" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI14" s="235">
+      <c r="D14" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="232"/>
+      <c r="I14" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="L14" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="M14" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="N14" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="O14" s="232" t="s">
+        <v>100</v>
+      </c>
+      <c r="P14" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="R14" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="S14" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="T14" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="U14" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="V14" s="232"/>
+      <c r="W14" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="X14" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y14" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z14" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA14" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB14" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC14" s="232"/>
+      <c r="AD14" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE14" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF14" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG14" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH14" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI14" s="233">
         <f>COUNTIF(D14:AH14,"x")+ COUNTIF(D14:AH14,"x/2")/2+COUNTIF(D14:AH14,"CT")+COUNTIF(D14:AH14,"TT")+COUNTIF(D14:AH14,"P")</f>
         <v>28</v>
       </c>
-      <c r="AJ14" s="230"/>
-      <c r="AN14" s="232"/>
-    </row>
-    <row r="15" spans="1:40" s="231" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="233">
+      <c r="AJ14" s="228"/>
+      <c r="AN14" s="230"/>
+    </row>
+    <row r="15" spans="1:40" s="229" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="231">
         <v>3</v>
       </c>
-      <c r="B15" s="233" t="s">
+      <c r="B15" s="231" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="237" t="s">
+      <c r="C15" s="235" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" s="234"/>
-      <c r="I15" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="J15" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="K15" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="L15" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="M15" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="N15" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="O15" s="234" t="s">
-        <v>100</v>
-      </c>
-      <c r="P15" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q15" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="R15" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="S15" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="T15" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="U15" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="V15" s="234"/>
-      <c r="W15" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="X15" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y15" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z15" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA15" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB15" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC15" s="234"/>
-      <c r="AD15" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE15" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF15" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG15" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH15" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI15" s="235">
+      <c r="D15" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="232"/>
+      <c r="I15" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="J15" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="M15" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="N15" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="O15" s="232" t="s">
+        <v>100</v>
+      </c>
+      <c r="P15" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="R15" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="S15" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="T15" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="U15" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="V15" s="232"/>
+      <c r="W15" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="X15" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y15" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z15" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA15" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB15" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC15" s="232"/>
+      <c r="AD15" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE15" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF15" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG15" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH15" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI15" s="233">
         <f>COUNTIF(D15:AH15,"x")+ COUNTIF(D15:AH15,"x/2")/2+COUNTIF(D15:AH15,"CT")+COUNTIF(D15:AH15,"TT")+COUNTIF(D15:AH15,"P")</f>
         <v>28</v>
       </c>
-      <c r="AJ15" s="230"/>
-      <c r="AN15" s="232"/>
-    </row>
-    <row r="16" spans="1:40" s="231" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="233">
+      <c r="AJ15" s="228"/>
+      <c r="AN15" s="230"/>
+    </row>
+    <row r="16" spans="1:40" s="229" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="231">
         <v>4</v>
       </c>
-      <c r="B16" s="233" t="s">
+      <c r="B16" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="237" t="s">
+      <c r="C16" s="235" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="G16" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="H16" s="234" t="s">
-        <v>100</v>
-      </c>
-      <c r="I16" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="J16" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="K16" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="L16" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="M16" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="N16" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="O16" s="234" t="s">
-        <v>100</v>
-      </c>
-      <c r="P16" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q16" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="R16" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="S16" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="T16" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="U16" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="V16" s="234" t="s">
-        <v>100</v>
-      </c>
-      <c r="W16" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="X16" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y16" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z16" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA16" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB16" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC16" s="234" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD16" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE16" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF16" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG16" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH16" s="228" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI16" s="235">
+      <c r="D16" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="232" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="M16" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="N16" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="O16" s="232" t="s">
+        <v>100</v>
+      </c>
+      <c r="P16" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="R16" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="S16" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="T16" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="U16" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="V16" s="232" t="s">
+        <v>100</v>
+      </c>
+      <c r="W16" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="X16" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y16" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z16" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA16" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB16" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC16" s="232" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD16" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE16" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF16" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG16" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH16" s="226" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI16" s="233">
         <f>COUNTIF(D16:AH16,"x")+ COUNTIF(D16:AH16,"x/2")/2+COUNTIF(D16:AH16,"CT")+COUNTIF(D16:AH16,"TT")+COUNTIF(D16:AH16,"P")</f>
         <v>31</v>
       </c>
-      <c r="AJ16" s="230"/>
-      <c r="AN16" s="232"/>
-    </row>
-    <row r="17" spans="1:40" s="231" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="446" t="s">
+      <c r="AJ16" s="228"/>
+      <c r="AN16" s="230"/>
+    </row>
+    <row r="17" spans="1:40" s="229" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="430" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="447"/>
-      <c r="C17" s="238"/>
-      <c r="D17" s="238"/>
-      <c r="E17" s="239"/>
-      <c r="F17" s="239"/>
-      <c r="G17" s="239"/>
-      <c r="H17" s="239"/>
-      <c r="I17" s="239"/>
-      <c r="J17" s="239"/>
-      <c r="K17" s="239"/>
-      <c r="L17" s="239"/>
-      <c r="M17" s="239"/>
-      <c r="N17" s="239"/>
-      <c r="O17" s="239"/>
-      <c r="P17" s="239"/>
-      <c r="Q17" s="239"/>
-      <c r="R17" s="239"/>
-      <c r="S17" s="239"/>
-      <c r="T17" s="239"/>
-      <c r="U17" s="239"/>
-      <c r="V17" s="239"/>
-      <c r="W17" s="239"/>
-      <c r="X17" s="239"/>
-      <c r="Y17" s="239"/>
-      <c r="Z17" s="239"/>
-      <c r="AA17" s="239"/>
-      <c r="AB17" s="239"/>
-      <c r="AC17" s="239"/>
-      <c r="AD17" s="239"/>
-      <c r="AE17" s="239"/>
-      <c r="AF17" s="239"/>
-      <c r="AG17" s="239"/>
-      <c r="AH17" s="239"/>
-      <c r="AI17" s="240">
+      <c r="B17" s="431"/>
+      <c r="C17" s="236"/>
+      <c r="D17" s="236"/>
+      <c r="E17" s="237"/>
+      <c r="F17" s="237"/>
+      <c r="G17" s="237"/>
+      <c r="H17" s="237"/>
+      <c r="I17" s="237"/>
+      <c r="J17" s="237"/>
+      <c r="K17" s="237"/>
+      <c r="L17" s="237"/>
+      <c r="M17" s="237"/>
+      <c r="N17" s="237"/>
+      <c r="O17" s="237"/>
+      <c r="P17" s="237"/>
+      <c r="Q17" s="237"/>
+      <c r="R17" s="237"/>
+      <c r="S17" s="237"/>
+      <c r="T17" s="237"/>
+      <c r="U17" s="237"/>
+      <c r="V17" s="237"/>
+      <c r="W17" s="237"/>
+      <c r="X17" s="237"/>
+      <c r="Y17" s="237"/>
+      <c r="Z17" s="237"/>
+      <c r="AA17" s="237"/>
+      <c r="AB17" s="237"/>
+      <c r="AC17" s="237"/>
+      <c r="AD17" s="237"/>
+      <c r="AE17" s="237"/>
+      <c r="AF17" s="237"/>
+      <c r="AG17" s="237"/>
+      <c r="AH17" s="237"/>
+      <c r="AI17" s="238">
         <f>SUM(AI13:AI15)</f>
         <v>84</v>
       </c>
-      <c r="AJ17" s="241"/>
-      <c r="AK17" s="242"/>
-      <c r="AL17" s="242"/>
-      <c r="AN17" s="232"/>
-    </row>
-    <row r="19" spans="1:40" s="248" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="448"/>
-      <c r="B19" s="448"/>
-      <c r="C19" s="448"/>
-      <c r="D19" s="448"/>
-      <c r="E19" s="448"/>
-      <c r="F19" s="448"/>
-      <c r="G19" s="448"/>
-      <c r="H19" s="243"/>
-      <c r="I19" s="449"/>
-      <c r="J19" s="449"/>
-      <c r="K19" s="449"/>
-      <c r="L19" s="449"/>
-      <c r="M19" s="449"/>
-      <c r="N19" s="244"/>
-      <c r="O19" s="449"/>
-      <c r="P19" s="449"/>
-      <c r="Q19" s="449"/>
-      <c r="R19" s="449"/>
-      <c r="S19" s="449"/>
-      <c r="T19" s="449"/>
-      <c r="U19" s="449"/>
-      <c r="V19" s="449"/>
-      <c r="W19" s="449"/>
-      <c r="X19" s="449"/>
-      <c r="Y19" s="449"/>
-      <c r="Z19" s="245"/>
-      <c r="AA19" s="253" t="s">
+      <c r="AJ17" s="239"/>
+      <c r="AK17" s="240"/>
+      <c r="AL17" s="240"/>
+      <c r="AN17" s="230"/>
+    </row>
+    <row r="19" spans="1:40" s="246" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="432"/>
+      <c r="B19" s="432"/>
+      <c r="C19" s="432"/>
+      <c r="D19" s="432"/>
+      <c r="E19" s="432"/>
+      <c r="F19" s="432"/>
+      <c r="G19" s="432"/>
+      <c r="H19" s="241"/>
+      <c r="I19" s="433"/>
+      <c r="J19" s="433"/>
+      <c r="K19" s="433"/>
+      <c r="L19" s="433"/>
+      <c r="M19" s="433"/>
+      <c r="N19" s="242"/>
+      <c r="O19" s="433"/>
+      <c r="P19" s="433"/>
+      <c r="Q19" s="433"/>
+      <c r="R19" s="433"/>
+      <c r="S19" s="433"/>
+      <c r="T19" s="433"/>
+      <c r="U19" s="433"/>
+      <c r="V19" s="433"/>
+      <c r="W19" s="433"/>
+      <c r="X19" s="433"/>
+      <c r="Y19" s="433"/>
+      <c r="Z19" s="243"/>
+      <c r="AA19" s="251" t="s">
         <v>13</v>
       </c>
-      <c r="AB19" s="246"/>
-      <c r="AC19" s="449"/>
-      <c r="AD19" s="449"/>
-      <c r="AE19" s="449"/>
-      <c r="AF19" s="449"/>
-      <c r="AG19" s="449"/>
-      <c r="AH19" s="449"/>
-      <c r="AI19" s="449"/>
-      <c r="AJ19" s="449"/>
-      <c r="AK19" s="449"/>
-      <c r="AL19" s="449"/>
-      <c r="AM19" s="449"/>
-      <c r="AN19" s="247"/>
+      <c r="AB19" s="244"/>
+      <c r="AC19" s="433"/>
+      <c r="AD19" s="433"/>
+      <c r="AE19" s="433"/>
+      <c r="AF19" s="433"/>
+      <c r="AG19" s="433"/>
+      <c r="AH19" s="433"/>
+      <c r="AI19" s="433"/>
+      <c r="AJ19" s="433"/>
+      <c r="AK19" s="433"/>
+      <c r="AL19" s="433"/>
+      <c r="AM19" s="433"/>
+      <c r="AN19" s="245"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="AA20" s="254" t="s">
+      <c r="AA20" s="252" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A26" s="249"/>
-      <c r="B26" s="250"/>
-      <c r="C26" s="249"/>
-      <c r="D26" s="249"/>
+      <c r="A26" s="247"/>
+      <c r="B26" s="248"/>
+      <c r="C26" s="247"/>
+      <c r="D26" s="247"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A27" s="249"/>
-      <c r="B27" s="250"/>
-      <c r="C27" s="249"/>
-      <c r="D27" s="249"/>
+      <c r="A27" s="247"/>
+      <c r="B27" s="248"/>
+      <c r="C27" s="247"/>
+      <c r="D27" s="247"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A28" s="217"/>
-      <c r="B28" s="218"/>
-      <c r="C28" s="217"/>
-      <c r="D28" s="217"/>
+      <c r="A28" s="215"/>
+      <c r="B28" s="216"/>
+      <c r="C28" s="215"/>
+      <c r="D28" s="215"/>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A29" s="217"/>
-      <c r="B29" s="218"/>
-      <c r="C29" s="217"/>
-      <c r="D29" s="217"/>
-    </row>
-    <row r="33" spans="3:40" s="251" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AN33" s="252"/>
-    </row>
-    <row r="34" spans="3:40" s="251" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AN34" s="252"/>
-    </row>
-    <row r="35" spans="3:40" s="251" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="436"/>
-      <c r="H35" s="436"/>
-      <c r="I35" s="436"/>
-      <c r="J35" s="436"/>
-      <c r="K35" s="436"/>
-      <c r="L35" s="436"/>
-      <c r="M35" s="436"/>
-      <c r="N35" s="436"/>
-      <c r="O35" s="436"/>
-      <c r="P35" s="436"/>
-      <c r="Q35" s="436"/>
-      <c r="R35" s="436"/>
-      <c r="S35" s="436"/>
-      <c r="T35" s="436"/>
-      <c r="U35" s="436"/>
-      <c r="V35" s="436"/>
-      <c r="W35" s="436"/>
-      <c r="X35" s="436"/>
-      <c r="AN35" s="252"/>
-    </row>
-    <row r="36" spans="3:40" s="251" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="436"/>
-      <c r="H36" s="436"/>
-      <c r="I36" s="436"/>
-      <c r="J36" s="436"/>
-      <c r="K36" s="436"/>
-      <c r="L36" s="436"/>
-      <c r="M36" s="436"/>
-      <c r="N36" s="436"/>
-      <c r="O36" s="436"/>
-      <c r="P36" s="436"/>
-      <c r="Q36" s="436"/>
-      <c r="R36" s="436"/>
-      <c r="S36" s="436"/>
-      <c r="T36" s="436"/>
-      <c r="U36" s="436"/>
-      <c r="V36" s="436"/>
-      <c r="W36" s="436"/>
-      <c r="X36" s="436"/>
-      <c r="AN36" s="252"/>
-    </row>
-    <row r="37" spans="3:40" s="251" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="436"/>
-      <c r="H37" s="436"/>
-      <c r="I37" s="436"/>
-      <c r="J37" s="436"/>
-      <c r="K37" s="436"/>
-      <c r="L37" s="436"/>
-      <c r="M37" s="436"/>
-      <c r="N37" s="436"/>
-      <c r="O37" s="436"/>
-      <c r="P37" s="436"/>
-      <c r="Q37" s="436"/>
-      <c r="R37" s="436"/>
-      <c r="S37" s="436"/>
-      <c r="T37" s="436"/>
-      <c r="U37" s="436"/>
-      <c r="V37" s="436"/>
-      <c r="W37" s="436"/>
-      <c r="X37" s="436"/>
-      <c r="AN37" s="252"/>
-    </row>
-    <row r="38" spans="3:40" s="251" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="436"/>
-      <c r="H38" s="436"/>
-      <c r="I38" s="436"/>
-      <c r="J38" s="436"/>
-      <c r="K38" s="436"/>
-      <c r="L38" s="436"/>
-      <c r="M38" s="436"/>
-      <c r="N38" s="436"/>
-      <c r="O38" s="436"/>
-      <c r="P38" s="436"/>
-      <c r="Q38" s="436"/>
-      <c r="R38" s="436"/>
-      <c r="S38" s="436"/>
-      <c r="T38" s="436"/>
-      <c r="U38" s="436"/>
-      <c r="V38" s="436"/>
-      <c r="W38" s="436"/>
-      <c r="X38" s="436"/>
-      <c r="AN38" s="252"/>
-    </row>
-    <row r="39" spans="3:40" s="251" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="436"/>
-      <c r="H39" s="436"/>
-      <c r="I39" s="436"/>
-      <c r="J39" s="436"/>
-      <c r="K39" s="436"/>
-      <c r="L39" s="436"/>
-      <c r="M39" s="436"/>
-      <c r="N39" s="436"/>
-      <c r="O39" s="436"/>
-      <c r="P39" s="436"/>
-      <c r="Q39" s="436"/>
-      <c r="R39" s="436"/>
-      <c r="S39" s="436"/>
-      <c r="T39" s="436"/>
-      <c r="U39" s="436"/>
-      <c r="V39" s="436"/>
-      <c r="W39" s="436"/>
-      <c r="X39" s="436"/>
-      <c r="AN39" s="252"/>
+      <c r="A29" s="215"/>
+      <c r="B29" s="216"/>
+      <c r="C29" s="215"/>
+      <c r="D29" s="215"/>
+    </row>
+    <row r="33" spans="3:40" s="249" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AN33" s="250"/>
+    </row>
+    <row r="34" spans="3:40" s="249" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AN34" s="250"/>
+    </row>
+    <row r="35" spans="3:40" s="249" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="420"/>
+      <c r="H35" s="420"/>
+      <c r="I35" s="420"/>
+      <c r="J35" s="420"/>
+      <c r="K35" s="420"/>
+      <c r="L35" s="420"/>
+      <c r="M35" s="420"/>
+      <c r="N35" s="420"/>
+      <c r="O35" s="420"/>
+      <c r="P35" s="420"/>
+      <c r="Q35" s="420"/>
+      <c r="R35" s="420"/>
+      <c r="S35" s="420"/>
+      <c r="T35" s="420"/>
+      <c r="U35" s="420"/>
+      <c r="V35" s="420"/>
+      <c r="W35" s="420"/>
+      <c r="X35" s="420"/>
+      <c r="AN35" s="250"/>
+    </row>
+    <row r="36" spans="3:40" s="249" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="420"/>
+      <c r="H36" s="420"/>
+      <c r="I36" s="420"/>
+      <c r="J36" s="420"/>
+      <c r="K36" s="420"/>
+      <c r="L36" s="420"/>
+      <c r="M36" s="420"/>
+      <c r="N36" s="420"/>
+      <c r="O36" s="420"/>
+      <c r="P36" s="420"/>
+      <c r="Q36" s="420"/>
+      <c r="R36" s="420"/>
+      <c r="S36" s="420"/>
+      <c r="T36" s="420"/>
+      <c r="U36" s="420"/>
+      <c r="V36" s="420"/>
+      <c r="W36" s="420"/>
+      <c r="X36" s="420"/>
+      <c r="AN36" s="250"/>
+    </row>
+    <row r="37" spans="3:40" s="249" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="420"/>
+      <c r="H37" s="420"/>
+      <c r="I37" s="420"/>
+      <c r="J37" s="420"/>
+      <c r="K37" s="420"/>
+      <c r="L37" s="420"/>
+      <c r="M37" s="420"/>
+      <c r="N37" s="420"/>
+      <c r="O37" s="420"/>
+      <c r="P37" s="420"/>
+      <c r="Q37" s="420"/>
+      <c r="R37" s="420"/>
+      <c r="S37" s="420"/>
+      <c r="T37" s="420"/>
+      <c r="U37" s="420"/>
+      <c r="V37" s="420"/>
+      <c r="W37" s="420"/>
+      <c r="X37" s="420"/>
+      <c r="AN37" s="250"/>
+    </row>
+    <row r="38" spans="3:40" s="249" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="420"/>
+      <c r="H38" s="420"/>
+      <c r="I38" s="420"/>
+      <c r="J38" s="420"/>
+      <c r="K38" s="420"/>
+      <c r="L38" s="420"/>
+      <c r="M38" s="420"/>
+      <c r="N38" s="420"/>
+      <c r="O38" s="420"/>
+      <c r="P38" s="420"/>
+      <c r="Q38" s="420"/>
+      <c r="R38" s="420"/>
+      <c r="S38" s="420"/>
+      <c r="T38" s="420"/>
+      <c r="U38" s="420"/>
+      <c r="V38" s="420"/>
+      <c r="W38" s="420"/>
+      <c r="X38" s="420"/>
+      <c r="AN38" s="250"/>
+    </row>
+    <row r="39" spans="3:40" s="249" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="420"/>
+      <c r="H39" s="420"/>
+      <c r="I39" s="420"/>
+      <c r="J39" s="420"/>
+      <c r="K39" s="420"/>
+      <c r="L39" s="420"/>
+      <c r="M39" s="420"/>
+      <c r="N39" s="420"/>
+      <c r="O39" s="420"/>
+      <c r="P39" s="420"/>
+      <c r="Q39" s="420"/>
+      <c r="R39" s="420"/>
+      <c r="S39" s="420"/>
+      <c r="T39" s="420"/>
+      <c r="U39" s="420"/>
+      <c r="V39" s="420"/>
+      <c r="W39" s="420"/>
+      <c r="X39" s="420"/>
+      <c r="AN39" s="250"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.25">
-      <c r="C40" s="213"/>
-      <c r="D40" s="213"/>
-      <c r="G40" s="436"/>
-      <c r="H40" s="436"/>
-      <c r="I40" s="436"/>
-      <c r="J40" s="436"/>
-      <c r="K40" s="436"/>
-      <c r="L40" s="436"/>
-      <c r="M40" s="436"/>
-      <c r="N40" s="436"/>
-      <c r="O40" s="436"/>
-      <c r="P40" s="436"/>
-      <c r="Q40" s="436"/>
-      <c r="R40" s="436"/>
-      <c r="S40" s="436"/>
-      <c r="T40" s="436"/>
-      <c r="U40" s="436"/>
-      <c r="V40" s="436"/>
-      <c r="W40" s="436"/>
-      <c r="X40" s="436"/>
-      <c r="AN40" s="213"/>
+      <c r="C40" s="211"/>
+      <c r="D40" s="211"/>
+      <c r="G40" s="420"/>
+      <c r="H40" s="420"/>
+      <c r="I40" s="420"/>
+      <c r="J40" s="420"/>
+      <c r="K40" s="420"/>
+      <c r="L40" s="420"/>
+      <c r="M40" s="420"/>
+      <c r="N40" s="420"/>
+      <c r="O40" s="420"/>
+      <c r="P40" s="420"/>
+      <c r="Q40" s="420"/>
+      <c r="R40" s="420"/>
+      <c r="S40" s="420"/>
+      <c r="T40" s="420"/>
+      <c r="U40" s="420"/>
+      <c r="V40" s="420"/>
+      <c r="W40" s="420"/>
+      <c r="X40" s="420"/>
+      <c r="AN40" s="211"/>
     </row>
     <row r="41" spans="3:40" x14ac:dyDescent="0.25">
-      <c r="C41" s="213"/>
-      <c r="D41" s="213"/>
-      <c r="AN41" s="213"/>
+      <c r="C41" s="211"/>
+      <c r="D41" s="211"/>
+      <c r="AN41" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -9035,38 +10155,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="458" t="s">
+      <c r="A1" s="442" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="458"/>
-      <c r="C1" s="458"/>
-      <c r="D1" s="458"/>
+      <c r="B1" s="442"/>
+      <c r="C1" s="442"/>
+      <c r="D1" s="442"/>
       <c r="E1" s="80"/>
-      <c r="F1" s="459" t="s">
+      <c r="F1" s="443" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="459"/>
-      <c r="H1" s="459"/>
-      <c r="I1" s="459"/>
-      <c r="J1" s="459"/>
-      <c r="K1" s="459"/>
+      <c r="G1" s="443"/>
+      <c r="H1" s="443"/>
+      <c r="I1" s="443"/>
+      <c r="J1" s="443"/>
+      <c r="K1" s="443"/>
     </row>
     <row r="2" spans="1:12" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="460" t="s">
+      <c r="A2" s="444" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="460"/>
-      <c r="C2" s="460"/>
-      <c r="D2" s="460"/>
+      <c r="B2" s="444"/>
+      <c r="C2" s="444"/>
+      <c r="D2" s="444"/>
       <c r="E2" s="80"/>
-      <c r="F2" s="461" t="s">
+      <c r="F2" s="445" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="461"/>
-      <c r="H2" s="461"/>
-      <c r="I2" s="461"/>
-      <c r="J2" s="461"/>
-      <c r="K2" s="461"/>
+      <c r="G2" s="445"/>
+      <c r="H2" s="445"/>
+      <c r="I2" s="445"/>
+      <c r="J2" s="445"/>
+      <c r="K2" s="445"/>
     </row>
     <row r="3" spans="1:12" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
@@ -9079,43 +10199,43 @@
       <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:12" s="42" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="462" t="s">
+      <c r="A4" s="446" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="462"/>
-      <c r="C4" s="462"/>
-      <c r="D4" s="462"/>
-      <c r="E4" s="462"/>
-      <c r="F4" s="462"/>
-      <c r="G4" s="462"/>
-      <c r="H4" s="462"/>
-      <c r="I4" s="462"/>
-      <c r="J4" s="462"/>
-      <c r="K4" s="462"/>
-      <c r="L4" s="462"/>
+      <c r="B4" s="446"/>
+      <c r="C4" s="446"/>
+      <c r="D4" s="446"/>
+      <c r="E4" s="446"/>
+      <c r="F4" s="446"/>
+      <c r="G4" s="446"/>
+      <c r="H4" s="446"/>
+      <c r="I4" s="446"/>
+      <c r="J4" s="446"/>
+      <c r="K4" s="446"/>
+      <c r="L4" s="446"/>
     </row>
     <row r="5" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="463" t="s">
+      <c r="A5" s="447" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="463"/>
-      <c r="C5" s="463"/>
-      <c r="D5" s="463"/>
-      <c r="E5" s="463"/>
-      <c r="F5" s="463"/>
-      <c r="G5" s="463"/>
-      <c r="H5" s="463"/>
-      <c r="I5" s="463"/>
-      <c r="J5" s="463"/>
-      <c r="K5" s="463"/>
-      <c r="L5" s="463"/>
+      <c r="B5" s="447"/>
+      <c r="C5" s="447"/>
+      <c r="D5" s="447"/>
+      <c r="E5" s="447"/>
+      <c r="F5" s="447"/>
+      <c r="G5" s="447"/>
+      <c r="H5" s="447"/>
+      <c r="I5" s="447"/>
+      <c r="J5" s="447"/>
+      <c r="K5" s="447"/>
+      <c r="L5" s="447"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J6" s="464" t="s">
+      <c r="J6" s="448" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="464"/>
-      <c r="L6" s="464"/>
+      <c r="K6" s="448"/>
+      <c r="L6" s="448"/>
     </row>
     <row r="7" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="146" t="s">
@@ -9182,12 +10302,12 @@
       <c r="L8" s="146"/>
     </row>
     <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="455" t="s">
+      <c r="A9" s="439" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="456"/>
-      <c r="C9" s="456"/>
-      <c r="D9" s="457"/>
+      <c r="B9" s="440"/>
+      <c r="C9" s="440"/>
+      <c r="D9" s="441"/>
       <c r="E9" s="148"/>
       <c r="F9" s="152">
         <f>SUM(F10:F12)</f>
@@ -9310,12 +10430,12 @@
       <c r="L12" s="50"/>
     </row>
     <row r="13" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="452" t="s">
+      <c r="A13" s="436" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="453"/>
-      <c r="C13" s="453"/>
-      <c r="D13" s="454"/>
+      <c r="B13" s="437"/>
+      <c r="C13" s="437"/>
+      <c r="D13" s="438"/>
       <c r="E13" s="89"/>
       <c r="F13" s="152">
         <f>SUM(F14:F14)</f>
@@ -9372,11 +10492,11 @@
       <c r="L14" s="54"/>
     </row>
     <row r="15" spans="1:12" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="465" t="s">
+      <c r="A15" s="449" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="466"/>
-      <c r="C15" s="467"/>
+      <c r="B15" s="450"/>
+      <c r="C15" s="451"/>
       <c r="D15" s="86"/>
       <c r="E15" s="87"/>
       <c r="F15" s="86">
@@ -9403,14 +10523,14 @@
       <c r="L15" s="85"/>
     </row>
     <row r="17" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="450"/>
-      <c r="C17" s="450"/>
-      <c r="D17" s="450"/>
+      <c r="B17" s="434"/>
+      <c r="C17" s="434"/>
+      <c r="D17" s="434"/>
       <c r="E17" s="82"/>
-      <c r="H17" s="450"/>
-      <c r="I17" s="450"/>
-      <c r="J17" s="450"/>
-      <c r="K17" s="450"/>
+      <c r="H17" s="434"/>
+      <c r="I17" s="434"/>
+      <c r="J17" s="434"/>
+      <c r="K17" s="434"/>
     </row>
     <row r="18" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B18" s="143" t="s">
@@ -9422,12 +10542,12 @@
         <v>84</v>
       </c>
       <c r="G18" s="143"/>
-      <c r="H18" s="450" t="s">
+      <c r="H18" s="434" t="s">
         <v>90</v>
       </c>
-      <c r="I18" s="450"/>
-      <c r="J18" s="450"/>
-      <c r="K18" s="450"/>
+      <c r="I18" s="434"/>
+      <c r="J18" s="434"/>
+      <c r="K18" s="434"/>
     </row>
     <row r="19" spans="2:11" s="144" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B19" s="145" t="s">
@@ -9439,12 +10559,12 @@
         <v>91</v>
       </c>
       <c r="G19" s="145"/>
-      <c r="H19" s="451" t="s">
+      <c r="H19" s="435" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="451"/>
-      <c r="J19" s="451"/>
-      <c r="K19" s="451"/>
+      <c r="I19" s="435"/>
+      <c r="J19" s="435"/>
+      <c r="K19" s="435"/>
     </row>
     <row r="22" spans="2:11" s="96" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="91"/>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 12_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 12_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="2"/>
+    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="185">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -575,6 +575,9 @@
   </si>
   <si>
     <t>Thanh Hà</t>
+  </si>
+  <si>
+    <t>31h Nanomilk+10h SN trừ vinamilk,bỉm</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1125,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="489">
+  <cellXfs count="490">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1959,354 +1962,6 @@
     <xf numFmtId="168" fontId="28" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2316,17 +1971,8 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="28" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="28" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2394,17 +2040,377 @@
     <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2787,16 +2793,16 @@
       <c r="Q2" s="106"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="342" t="s">
+      <c r="A3" s="372" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="342"/>
-      <c r="C3" s="342"/>
-      <c r="D3" s="342"/>
-      <c r="E3" s="342"/>
-      <c r="F3" s="342"/>
-      <c r="G3" s="342"/>
-      <c r="H3" s="342"/>
+      <c r="B3" s="372"/>
+      <c r="C3" s="372"/>
+      <c r="D3" s="372"/>
+      <c r="E3" s="372"/>
+      <c r="F3" s="372"/>
+      <c r="G3" s="372"/>
+      <c r="H3" s="372"/>
       <c r="I3" s="107"/>
       <c r="J3" s="107"/>
       <c r="K3" s="107"/>
@@ -2808,32 +2814,32 @@
       <c r="Q3" s="107"/>
     </row>
     <row r="4" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="343" t="s">
+      <c r="A4" s="373" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="343" t="s">
+      <c r="B4" s="373" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="343" t="s">
+      <c r="C4" s="373" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="344" t="s">
+      <c r="D4" s="374" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="345" t="s">
+      <c r="E4" s="375" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="345"/>
-      <c r="G4" s="345" t="s">
+      <c r="F4" s="375"/>
+      <c r="G4" s="375" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="345"/>
+      <c r="H4" s="375"/>
     </row>
     <row r="5" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="343"/>
-      <c r="B5" s="343"/>
-      <c r="C5" s="343"/>
-      <c r="D5" s="344"/>
+      <c r="A5" s="373"/>
+      <c r="B5" s="373"/>
+      <c r="C5" s="373"/>
+      <c r="D5" s="374"/>
       <c r="E5" s="203" t="s">
         <v>80</v>
       </c>
@@ -3056,8 +3062,8 @@
       <c r="F25" s="108"/>
       <c r="G25" s="95"/>
       <c r="H25" s="110"/>
-      <c r="K25" s="336"/>
-      <c r="L25" s="337"/>
+      <c r="K25" s="366"/>
+      <c r="L25" s="367"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="92"/>
@@ -3678,12 +3684,12 @@
       <c r="H86" s="110"/>
     </row>
     <row r="87" spans="1:10" s="113" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="339" t="s">
+      <c r="A87" s="369" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="340"/>
-      <c r="C87" s="340"/>
-      <c r="D87" s="341"/>
+      <c r="B87" s="370"/>
+      <c r="C87" s="370"/>
+      <c r="D87" s="371"/>
       <c r="E87" s="112">
         <f>SUM(E9:E86)</f>
         <v>0</v>
@@ -3714,11 +3720,11 @@
       <c r="J88" s="114"/>
     </row>
     <row r="89" spans="1:10" s="113" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A89" s="338" t="s">
+      <c r="A89" s="368" t="s">
         <v>81</v>
       </c>
-      <c r="B89" s="338"/>
-      <c r="C89" s="338"/>
+      <c r="B89" s="368"/>
+      <c r="C89" s="368"/>
       <c r="D89" s="115"/>
       <c r="E89" s="116"/>
       <c r="F89" s="116"/>
@@ -3807,13 +3813,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="385" t="s">
+      <c r="A1" s="393" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="385"/>
-      <c r="C1" s="385"/>
-      <c r="D1" s="385"/>
-      <c r="E1" s="385"/>
+      <c r="B1" s="393"/>
+      <c r="C1" s="393"/>
+      <c r="D1" s="393"/>
+      <c r="E1" s="393"/>
       <c r="H1" s="124"/>
       <c r="I1" s="124"/>
       <c r="J1" s="124"/>
@@ -3843,194 +3849,194 @@
       <c r="P2" s="128"/>
     </row>
     <row r="3" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="386" t="s">
+      <c r="A3" s="394" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="386"/>
-      <c r="C3" s="386"/>
-      <c r="D3" s="386"/>
-      <c r="E3" s="386"/>
-      <c r="F3" s="386"/>
-      <c r="G3" s="386"/>
-      <c r="H3" s="386"/>
-      <c r="I3" s="386"/>
-      <c r="J3" s="386"/>
-      <c r="K3" s="386"/>
-      <c r="L3" s="386"/>
-      <c r="M3" s="386"/>
-      <c r="N3" s="386"/>
-      <c r="O3" s="386"/>
-      <c r="P3" s="386"/>
+      <c r="B3" s="394"/>
+      <c r="C3" s="394"/>
+      <c r="D3" s="394"/>
+      <c r="E3" s="394"/>
+      <c r="F3" s="394"/>
+      <c r="G3" s="394"/>
+      <c r="H3" s="394"/>
+      <c r="I3" s="394"/>
+      <c r="J3" s="394"/>
+      <c r="K3" s="394"/>
+      <c r="L3" s="394"/>
+      <c r="M3" s="394"/>
+      <c r="N3" s="394"/>
+      <c r="O3" s="394"/>
+      <c r="P3" s="394"/>
     </row>
     <row r="4" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="386" t="s">
+      <c r="A4" s="394" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="386"/>
-      <c r="C4" s="386"/>
-      <c r="D4" s="386"/>
-      <c r="E4" s="386"/>
-      <c r="F4" s="386"/>
-      <c r="G4" s="386"/>
-      <c r="H4" s="386"/>
-      <c r="I4" s="386"/>
-      <c r="J4" s="386"/>
-      <c r="K4" s="386"/>
-      <c r="L4" s="386"/>
-      <c r="M4" s="386"/>
-      <c r="N4" s="386"/>
-      <c r="O4" s="386"/>
-      <c r="P4" s="386"/>
+      <c r="B4" s="394"/>
+      <c r="C4" s="394"/>
+      <c r="D4" s="394"/>
+      <c r="E4" s="394"/>
+      <c r="F4" s="394"/>
+      <c r="G4" s="394"/>
+      <c r="H4" s="394"/>
+      <c r="I4" s="394"/>
+      <c r="J4" s="394"/>
+      <c r="K4" s="394"/>
+      <c r="L4" s="394"/>
+      <c r="M4" s="394"/>
+      <c r="N4" s="394"/>
+      <c r="O4" s="394"/>
+      <c r="P4" s="394"/>
     </row>
     <row r="5" spans="1:16" s="123" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="378" t="s">
+      <c r="A5" s="399" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="379" t="s">
+      <c r="B5" s="400" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="378" t="s">
+      <c r="C5" s="399" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="378" t="s">
+      <c r="D5" s="399" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="378"/>
-      <c r="F5" s="380" t="s">
+      <c r="E5" s="399"/>
+      <c r="F5" s="396" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="380"/>
-      <c r="H5" s="380"/>
-      <c r="I5" s="380"/>
-      <c r="J5" s="380"/>
-      <c r="K5" s="380"/>
-      <c r="L5" s="380"/>
-      <c r="M5" s="387" t="s">
+      <c r="G5" s="396"/>
+      <c r="H5" s="396"/>
+      <c r="I5" s="396"/>
+      <c r="J5" s="396"/>
+      <c r="K5" s="396"/>
+      <c r="L5" s="396"/>
+      <c r="M5" s="395" t="s">
         <v>125</v>
       </c>
-      <c r="N5" s="387"/>
-      <c r="O5" s="387"/>
-      <c r="P5" s="380" t="s">
+      <c r="N5" s="395"/>
+      <c r="O5" s="395"/>
+      <c r="P5" s="396" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="123" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="378"/>
-      <c r="B6" s="379"/>
-      <c r="C6" s="378"/>
-      <c r="D6" s="378" t="s">
+      <c r="A6" s="399"/>
+      <c r="B6" s="400"/>
+      <c r="C6" s="399"/>
+      <c r="D6" s="399" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="378" t="s">
+      <c r="E6" s="399" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="378" t="s">
+      <c r="F6" s="399" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="378" t="s">
+      <c r="G6" s="399" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="381" t="s">
+      <c r="H6" s="397" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="381" t="s">
+      <c r="I6" s="397" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="382" t="s">
+      <c r="J6" s="401" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="382"/>
-      <c r="L6" s="381" t="s">
+      <c r="K6" s="401"/>
+      <c r="L6" s="397" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="381" t="s">
+      <c r="M6" s="397" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="381" t="s">
+      <c r="N6" s="397" t="s">
         <v>80</v>
       </c>
-      <c r="O6" s="381" t="s">
+      <c r="O6" s="397" t="s">
         <v>82</v>
       </c>
-      <c r="P6" s="380"/>
+      <c r="P6" s="396"/>
     </row>
     <row r="7" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="378"/>
-      <c r="B7" s="379"/>
-      <c r="C7" s="378"/>
-      <c r="D7" s="378"/>
-      <c r="E7" s="378"/>
-      <c r="F7" s="378"/>
-      <c r="G7" s="378"/>
-      <c r="H7" s="381"/>
-      <c r="I7" s="381"/>
+      <c r="A7" s="399"/>
+      <c r="B7" s="400"/>
+      <c r="C7" s="399"/>
+      <c r="D7" s="399"/>
+      <c r="E7" s="399"/>
+      <c r="F7" s="399"/>
+      <c r="G7" s="399"/>
+      <c r="H7" s="397"/>
+      <c r="I7" s="397"/>
       <c r="J7" s="204" t="s">
         <v>83</v>
       </c>
       <c r="K7" s="194" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="381"/>
-      <c r="M7" s="381"/>
-      <c r="N7" s="381"/>
-      <c r="O7" s="381"/>
-      <c r="P7" s="380"/>
+      <c r="L7" s="397"/>
+      <c r="M7" s="397"/>
+      <c r="N7" s="397"/>
+      <c r="O7" s="397"/>
+      <c r="P7" s="396"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="452">
+      <c r="A8" s="336">
         <v>1264</v>
       </c>
-      <c r="B8" s="453">
+      <c r="B8" s="337">
         <v>44166</v>
       </c>
-      <c r="C8" s="452" t="s">
+      <c r="C8" s="336" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="452"/>
-      <c r="E8" s="452"/>
-      <c r="F8" s="454" t="s">
+      <c r="D8" s="336"/>
+      <c r="E8" s="336"/>
+      <c r="F8" s="338" t="s">
         <v>141</v>
       </c>
-      <c r="G8" s="454">
+      <c r="G8" s="338">
         <v>1</v>
       </c>
-      <c r="H8" s="455">
+      <c r="H8" s="339">
         <v>465000</v>
       </c>
-      <c r="I8" s="455">
+      <c r="I8" s="339">
         <f>G8*H8</f>
         <v>465000</v>
       </c>
-      <c r="J8" s="455"/>
-      <c r="K8" s="456">
+      <c r="J8" s="339"/>
+      <c r="K8" s="340">
         <v>0.41</v>
       </c>
-      <c r="L8" s="455">
+      <c r="L8" s="339">
         <f>I8*(1-K8)</f>
         <v>274350.00000000006</v>
       </c>
-      <c r="M8" s="455"/>
-      <c r="N8" s="455">
+      <c r="M8" s="339"/>
+      <c r="N8" s="339">
         <f>L8</f>
         <v>274350.00000000006</v>
       </c>
-      <c r="O8" s="455"/>
-      <c r="P8" s="454"/>
+      <c r="O8" s="339"/>
+      <c r="P8" s="338"/>
     </row>
     <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="457" t="s">
+      <c r="A9" s="382" t="s">
         <v>153</v>
       </c>
-      <c r="B9" s="366">
+      <c r="B9" s="379">
         <v>44168</v>
       </c>
-      <c r="C9" s="369" t="s">
+      <c r="C9" s="376" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="369" t="s">
+      <c r="D9" s="376" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="457" t="s">
+      <c r="E9" s="382" t="s">
         <v>152</v>
       </c>
       <c r="F9" s="161" t="s">
@@ -4060,11 +4066,11 @@
       <c r="P9" s="161"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="458"/>
-      <c r="B10" s="367"/>
-      <c r="C10" s="370"/>
-      <c r="D10" s="370"/>
-      <c r="E10" s="458"/>
+      <c r="A10" s="383"/>
+      <c r="B10" s="380"/>
+      <c r="C10" s="377"/>
+      <c r="D10" s="377"/>
+      <c r="E10" s="383"/>
       <c r="F10" s="172" t="s">
         <v>145</v>
       </c>
@@ -4092,11 +4098,11 @@
       <c r="P10" s="172"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="458"/>
-      <c r="B11" s="367"/>
-      <c r="C11" s="370"/>
-      <c r="D11" s="370"/>
-      <c r="E11" s="458"/>
+      <c r="A11" s="383"/>
+      <c r="B11" s="380"/>
+      <c r="C11" s="377"/>
+      <c r="D11" s="377"/>
+      <c r="E11" s="383"/>
       <c r="F11" s="172" t="s">
         <v>146</v>
       </c>
@@ -4124,11 +4130,11 @@
       <c r="P11" s="172"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="458"/>
-      <c r="B12" s="367"/>
-      <c r="C12" s="370"/>
-      <c r="D12" s="370"/>
-      <c r="E12" s="458"/>
+      <c r="A12" s="383"/>
+      <c r="B12" s="380"/>
+      <c r="C12" s="377"/>
+      <c r="D12" s="377"/>
+      <c r="E12" s="383"/>
       <c r="F12" s="172" t="s">
         <v>147</v>
       </c>
@@ -4142,7 +4148,7 @@
         <f t="shared" si="1"/>
         <v>2425000</v>
       </c>
-      <c r="J12" s="459"/>
+      <c r="J12" s="341"/>
       <c r="K12" s="174">
         <v>1</v>
       </c>
@@ -4156,11 +4162,11 @@
       <c r="P12" s="303"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="458"/>
-      <c r="B13" s="367"/>
-      <c r="C13" s="370"/>
-      <c r="D13" s="370"/>
-      <c r="E13" s="458"/>
+      <c r="A13" s="383"/>
+      <c r="B13" s="380"/>
+      <c r="C13" s="377"/>
+      <c r="D13" s="377"/>
+      <c r="E13" s="383"/>
       <c r="F13" s="172" t="s">
         <v>148</v>
       </c>
@@ -4188,11 +4194,11 @@
       <c r="P13" s="303"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="458"/>
-      <c r="B14" s="367"/>
-      <c r="C14" s="370"/>
-      <c r="D14" s="370"/>
-      <c r="E14" s="458"/>
+      <c r="A14" s="383"/>
+      <c r="B14" s="380"/>
+      <c r="C14" s="377"/>
+      <c r="D14" s="377"/>
+      <c r="E14" s="383"/>
       <c r="F14" s="172" t="s">
         <v>149</v>
       </c>
@@ -4220,11 +4226,11 @@
       <c r="P14" s="172"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="458"/>
-      <c r="B15" s="367"/>
-      <c r="C15" s="370"/>
-      <c r="D15" s="370"/>
-      <c r="E15" s="458"/>
+      <c r="A15" s="383"/>
+      <c r="B15" s="380"/>
+      <c r="C15" s="377"/>
+      <c r="D15" s="377"/>
+      <c r="E15" s="383"/>
       <c r="F15" s="172" t="s">
         <v>150</v>
       </c>
@@ -4252,11 +4258,11 @@
       <c r="P15" s="197"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="460"/>
-      <c r="B16" s="368"/>
-      <c r="C16" s="371"/>
-      <c r="D16" s="371"/>
-      <c r="E16" s="460"/>
+      <c r="A16" s="384"/>
+      <c r="B16" s="381"/>
+      <c r="C16" s="378"/>
+      <c r="D16" s="378"/>
+      <c r="E16" s="384"/>
       <c r="F16" s="164" t="s">
         <v>151</v>
       </c>
@@ -4284,17 +4290,17 @@
       <c r="P16" s="164"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="369">
+      <c r="A17" s="376">
         <v>1269</v>
       </c>
-      <c r="B17" s="366">
+      <c r="B17" s="379">
         <v>44169</v>
       </c>
-      <c r="C17" s="369"/>
-      <c r="D17" s="369" t="s">
+      <c r="C17" s="376"/>
+      <c r="D17" s="376" t="s">
         <v>154</v>
       </c>
-      <c r="E17" s="369" t="s">
+      <c r="E17" s="376" t="s">
         <v>155</v>
       </c>
       <c r="F17" s="161" t="s">
@@ -4327,11 +4333,11 @@
       <c r="P17" s="161"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="371"/>
-      <c r="B18" s="368"/>
-      <c r="C18" s="371"/>
-      <c r="D18" s="371"/>
-      <c r="E18" s="371"/>
+      <c r="A18" s="378"/>
+      <c r="B18" s="381"/>
+      <c r="C18" s="378"/>
+      <c r="D18" s="378"/>
+      <c r="E18" s="378"/>
       <c r="F18" s="164" t="s">
         <v>151</v>
       </c>
@@ -4516,75 +4522,75 @@
       <c r="G22" s="334">
         <v>2</v>
       </c>
-      <c r="H22" s="461">
+      <c r="H22" s="342">
         <v>455000</v>
       </c>
-      <c r="I22" s="461">
+      <c r="I22" s="342">
         <f t="shared" si="1"/>
         <v>910000</v>
       </c>
-      <c r="J22" s="461"/>
-      <c r="K22" s="462">
+      <c r="J22" s="342"/>
+      <c r="K22" s="343">
         <v>0.41</v>
       </c>
-      <c r="L22" s="461">
+      <c r="L22" s="342">
         <f t="shared" si="0"/>
         <v>536900.00000000012</v>
       </c>
-      <c r="M22" s="461">
+      <c r="M22" s="342">
         <f>L22</f>
         <v>536900.00000000012</v>
       </c>
-      <c r="N22" s="461"/>
-      <c r="O22" s="461"/>
+      <c r="N22" s="342"/>
+      <c r="O22" s="342"/>
       <c r="P22" s="334"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="369">
+      <c r="A23" s="376">
         <v>682</v>
       </c>
-      <c r="B23" s="366">
+      <c r="B23" s="379">
         <v>44174</v>
       </c>
-      <c r="C23" s="369"/>
-      <c r="D23" s="457" t="s">
+      <c r="C23" s="376"/>
+      <c r="D23" s="382" t="s">
         <v>165</v>
       </c>
-      <c r="E23" s="369"/>
+      <c r="E23" s="376"/>
       <c r="F23" s="333" t="s">
         <v>164</v>
       </c>
       <c r="G23" s="333">
         <v>24</v>
       </c>
-      <c r="H23" s="463">
+      <c r="H23" s="344">
         <v>455000</v>
       </c>
-      <c r="I23" s="463">
+      <c r="I23" s="344">
         <f t="shared" si="1"/>
         <v>10920000</v>
       </c>
-      <c r="J23" s="463"/>
-      <c r="K23" s="464">
+      <c r="J23" s="344"/>
+      <c r="K23" s="345">
         <v>1</v>
       </c>
-      <c r="L23" s="463">
+      <c r="L23" s="344">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M23" s="463"/>
-      <c r="N23" s="463"/>
-      <c r="O23" s="463"/>
-      <c r="P23" s="372" t="s">
+      <c r="M23" s="344"/>
+      <c r="N23" s="344"/>
+      <c r="O23" s="344"/>
+      <c r="P23" s="385" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="370"/>
-      <c r="B24" s="367"/>
-      <c r="C24" s="370"/>
-      <c r="D24" s="458"/>
-      <c r="E24" s="370"/>
+      <c r="A24" s="377"/>
+      <c r="B24" s="380"/>
+      <c r="C24" s="377"/>
+      <c r="D24" s="383"/>
+      <c r="E24" s="377"/>
       <c r="F24" s="168" t="s">
         <v>141</v>
       </c>
@@ -4609,39 +4615,39 @@
       <c r="M24" s="169"/>
       <c r="N24" s="169"/>
       <c r="O24" s="169"/>
-      <c r="P24" s="347"/>
+      <c r="P24" s="389"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="371"/>
-      <c r="B25" s="368"/>
-      <c r="C25" s="371"/>
-      <c r="D25" s="460"/>
-      <c r="E25" s="371"/>
+      <c r="A25" s="378"/>
+      <c r="B25" s="381"/>
+      <c r="C25" s="378"/>
+      <c r="D25" s="384"/>
+      <c r="E25" s="378"/>
       <c r="F25" s="171" t="s">
         <v>151</v>
       </c>
       <c r="G25" s="171">
         <v>6</v>
       </c>
-      <c r="H25" s="465">
+      <c r="H25" s="346">
         <v>455000</v>
       </c>
-      <c r="I25" s="465">
+      <c r="I25" s="346">
         <f t="shared" si="1"/>
         <v>2730000</v>
       </c>
-      <c r="J25" s="465"/>
-      <c r="K25" s="466">
+      <c r="J25" s="346"/>
+      <c r="K25" s="347">
         <v>1</v>
       </c>
-      <c r="L25" s="465">
+      <c r="L25" s="346">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M25" s="465"/>
-      <c r="N25" s="465"/>
-      <c r="O25" s="465"/>
-      <c r="P25" s="373"/>
+      <c r="M25" s="346"/>
+      <c r="N25" s="346"/>
+      <c r="O25" s="346"/>
+      <c r="P25" s="386"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="306">
@@ -4687,49 +4693,49 @@
       <c r="P26" s="306"/>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="369">
+      <c r="A27" s="376">
         <v>1290</v>
       </c>
-      <c r="B27" s="366">
+      <c r="B27" s="379">
         <v>44175</v>
       </c>
-      <c r="C27" s="369"/>
-      <c r="D27" s="457" t="s">
+      <c r="C27" s="376"/>
+      <c r="D27" s="382" t="s">
         <v>168</v>
       </c>
-      <c r="E27" s="369"/>
+      <c r="E27" s="376"/>
       <c r="F27" s="333" t="s">
         <v>144</v>
       </c>
       <c r="G27" s="333">
         <v>1</v>
       </c>
-      <c r="H27" s="463">
+      <c r="H27" s="344">
         <v>225000</v>
       </c>
-      <c r="I27" s="463">
+      <c r="I27" s="344">
         <f t="shared" si="1"/>
         <v>225000</v>
       </c>
-      <c r="J27" s="463"/>
-      <c r="K27" s="464">
+      <c r="J27" s="344"/>
+      <c r="K27" s="345">
         <v>1</v>
       </c>
-      <c r="L27" s="463">
+      <c r="L27" s="344">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M27" s="463"/>
-      <c r="N27" s="463"/>
-      <c r="O27" s="463"/>
+      <c r="M27" s="344"/>
+      <c r="N27" s="344"/>
+      <c r="O27" s="344"/>
       <c r="P27" s="333"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="370"/>
-      <c r="B28" s="367"/>
-      <c r="C28" s="370"/>
-      <c r="D28" s="458"/>
-      <c r="E28" s="370"/>
+      <c r="A28" s="377"/>
+      <c r="B28" s="380"/>
+      <c r="C28" s="377"/>
+      <c r="D28" s="383"/>
+      <c r="E28" s="377"/>
       <c r="F28" s="172" t="s">
         <v>164</v>
       </c>
@@ -4757,11 +4763,11 @@
       <c r="P28" s="168"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="371"/>
-      <c r="B29" s="368"/>
-      <c r="C29" s="371"/>
-      <c r="D29" s="460"/>
-      <c r="E29" s="371"/>
+      <c r="A29" s="378"/>
+      <c r="B29" s="381"/>
+      <c r="C29" s="378"/>
+      <c r="D29" s="384"/>
+      <c r="E29" s="378"/>
       <c r="F29" s="164" t="s">
         <v>147</v>
       </c>
@@ -4789,49 +4795,49 @@
       <c r="P29" s="171"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="452">
+      <c r="A30" s="336">
         <v>1280</v>
       </c>
-      <c r="B30" s="453">
+      <c r="B30" s="337">
         <v>44175</v>
       </c>
-      <c r="C30" s="452" t="s">
+      <c r="C30" s="336" t="s">
         <v>157</v>
       </c>
-      <c r="D30" s="452" t="s">
+      <c r="D30" s="336" t="s">
         <v>169</v>
       </c>
-      <c r="E30" s="452" t="s">
+      <c r="E30" s="336" t="s">
         <v>170</v>
       </c>
-      <c r="F30" s="454" t="s">
+      <c r="F30" s="338" t="s">
         <v>147</v>
       </c>
-      <c r="G30" s="454">
+      <c r="G30" s="338">
         <v>2</v>
       </c>
-      <c r="H30" s="455">
+      <c r="H30" s="339">
         <v>485000</v>
       </c>
-      <c r="I30" s="455">
+      <c r="I30" s="339">
         <f t="shared" si="1"/>
         <v>970000</v>
       </c>
-      <c r="J30" s="455"/>
-      <c r="K30" s="456">
+      <c r="J30" s="339"/>
+      <c r="K30" s="340">
         <v>0.41</v>
       </c>
-      <c r="L30" s="455">
+      <c r="L30" s="339">
         <f t="shared" si="0"/>
         <v>572300.00000000012</v>
       </c>
-      <c r="M30" s="455">
+      <c r="M30" s="339">
         <f>L30</f>
         <v>572300.00000000012</v>
       </c>
-      <c r="N30" s="455"/>
-      <c r="O30" s="455"/>
-      <c r="P30" s="452"/>
+      <c r="N30" s="339"/>
+      <c r="O30" s="339"/>
+      <c r="P30" s="336"/>
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="306">
@@ -4879,19 +4885,19 @@
       <c r="P31" s="306"/>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="369">
+      <c r="A32" s="376">
         <v>1284</v>
       </c>
-      <c r="B32" s="366">
+      <c r="B32" s="379">
         <v>44177</v>
       </c>
-      <c r="C32" s="369" t="s">
+      <c r="C32" s="376" t="s">
         <v>157</v>
       </c>
-      <c r="D32" s="369" t="s">
+      <c r="D32" s="376" t="s">
         <v>173</v>
       </c>
-      <c r="E32" s="369" t="s">
+      <c r="E32" s="376" t="s">
         <v>174</v>
       </c>
       <c r="F32" s="161" t="s">
@@ -4924,11 +4930,11 @@
       <c r="P32" s="333"/>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="371"/>
-      <c r="B33" s="368"/>
-      <c r="C33" s="371"/>
-      <c r="D33" s="371"/>
-      <c r="E33" s="371"/>
+      <c r="A33" s="378"/>
+      <c r="B33" s="381"/>
+      <c r="C33" s="378"/>
+      <c r="D33" s="378"/>
+      <c r="E33" s="378"/>
       <c r="F33" s="164" t="s">
         <v>147</v>
       </c>
@@ -5043,17 +5049,17 @@
       <c r="P35" s="306"/>
     </row>
     <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="369">
+      <c r="A36" s="376">
         <v>1287</v>
       </c>
-      <c r="B36" s="366">
+      <c r="B36" s="379">
         <v>44179</v>
       </c>
-      <c r="C36" s="369"/>
-      <c r="D36" s="457" t="s">
+      <c r="C36" s="376"/>
+      <c r="D36" s="382" t="s">
         <v>176</v>
       </c>
-      <c r="E36" s="369"/>
+      <c r="E36" s="376"/>
       <c r="F36" s="161" t="s">
         <v>164</v>
       </c>
@@ -5084,11 +5090,11 @@
       <c r="P36" s="333"/>
     </row>
     <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="370"/>
-      <c r="B37" s="367"/>
-      <c r="C37" s="370"/>
-      <c r="D37" s="458"/>
-      <c r="E37" s="370"/>
+      <c r="A37" s="377"/>
+      <c r="B37" s="380"/>
+      <c r="C37" s="377"/>
+      <c r="D37" s="383"/>
+      <c r="E37" s="377"/>
       <c r="F37" s="172" t="s">
         <v>147</v>
       </c>
@@ -5113,17 +5119,17 @@
       <c r="M37" s="173"/>
       <c r="N37" s="173"/>
       <c r="O37" s="173">
-        <f t="shared" ref="O37:O41" si="2">L37</f>
+        <f t="shared" ref="O37:O39" si="2">L37</f>
         <v>8730000</v>
       </c>
       <c r="P37" s="168"/>
     </row>
     <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="370"/>
-      <c r="B38" s="367"/>
-      <c r="C38" s="370"/>
-      <c r="D38" s="458"/>
-      <c r="E38" s="370"/>
+      <c r="A38" s="377"/>
+      <c r="B38" s="380"/>
+      <c r="C38" s="377"/>
+      <c r="D38" s="383"/>
+      <c r="E38" s="377"/>
       <c r="F38" s="172" t="s">
         <v>148</v>
       </c>
@@ -5154,11 +5160,11 @@
       <c r="P38" s="172"/>
     </row>
     <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="371"/>
-      <c r="B39" s="368"/>
-      <c r="C39" s="371"/>
-      <c r="D39" s="460"/>
-      <c r="E39" s="371"/>
+      <c r="A39" s="378"/>
+      <c r="B39" s="381"/>
+      <c r="C39" s="378"/>
+      <c r="D39" s="384"/>
+      <c r="E39" s="378"/>
       <c r="F39" s="164" t="s">
         <v>151</v>
       </c>
@@ -5189,17 +5195,17 @@
       <c r="P39" s="164"/>
     </row>
     <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="372">
+      <c r="A40" s="385">
         <v>1295</v>
       </c>
-      <c r="B40" s="374">
+      <c r="B40" s="387">
         <v>44545</v>
       </c>
-      <c r="C40" s="372"/>
-      <c r="D40" s="372" t="s">
+      <c r="C40" s="385"/>
+      <c r="D40" s="385" t="s">
         <v>177</v>
       </c>
-      <c r="E40" s="372" t="s">
+      <c r="E40" s="385" t="s">
         <v>178</v>
       </c>
       <c r="F40" s="205" t="s">
@@ -5236,11 +5242,11 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="373"/>
-      <c r="B41" s="375"/>
-      <c r="C41" s="373"/>
-      <c r="D41" s="373"/>
-      <c r="E41" s="373"/>
+      <c r="A41" s="386"/>
+      <c r="B41" s="388"/>
+      <c r="C41" s="386"/>
+      <c r="D41" s="386"/>
+      <c r="E41" s="386"/>
       <c r="F41" s="164" t="s">
         <v>164</v>
       </c>
@@ -5271,19 +5277,19 @@
       <c r="P41" s="311"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="369">
+      <c r="A42" s="376">
         <v>1294</v>
       </c>
-      <c r="B42" s="366">
+      <c r="B42" s="379">
         <v>44180</v>
       </c>
-      <c r="C42" s="369" t="s">
+      <c r="C42" s="376" t="s">
         <v>180</v>
       </c>
-      <c r="D42" s="369" t="s">
+      <c r="D42" s="376" t="s">
         <v>180</v>
       </c>
-      <c r="E42" s="369"/>
+      <c r="E42" s="376"/>
       <c r="F42" s="161" t="s">
         <v>164</v>
       </c>
@@ -5314,11 +5320,11 @@
       <c r="P42" s="316"/>
     </row>
     <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="370"/>
-      <c r="B43" s="367"/>
-      <c r="C43" s="370"/>
-      <c r="D43" s="370"/>
-      <c r="E43" s="370"/>
+      <c r="A43" s="377"/>
+      <c r="B43" s="380"/>
+      <c r="C43" s="377"/>
+      <c r="D43" s="377"/>
+      <c r="E43" s="377"/>
       <c r="F43" s="172" t="s">
         <v>141</v>
       </c>
@@ -5349,11 +5355,11 @@
       <c r="P43" s="197"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="371"/>
-      <c r="B44" s="368"/>
-      <c r="C44" s="371"/>
-      <c r="D44" s="371"/>
-      <c r="E44" s="371"/>
+      <c r="A44" s="378"/>
+      <c r="B44" s="381"/>
+      <c r="C44" s="378"/>
+      <c r="D44" s="378"/>
+      <c r="E44" s="378"/>
       <c r="F44" s="164" t="s">
         <v>147</v>
       </c>
@@ -5427,19 +5433,19 @@
       <c r="P45" s="167"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="369">
+      <c r="A46" s="376">
         <v>1298</v>
       </c>
-      <c r="B46" s="366">
+      <c r="B46" s="379">
         <v>44181</v>
       </c>
-      <c r="C46" s="369" t="s">
+      <c r="C46" s="376" t="s">
         <v>157</v>
       </c>
-      <c r="D46" s="457" t="s">
+      <c r="D46" s="382" t="s">
         <v>181</v>
       </c>
-      <c r="E46" s="369" t="s">
+      <c r="E46" s="376" t="s">
         <v>182</v>
       </c>
       <c r="F46" s="161" t="s">
@@ -5472,11 +5478,11 @@
       <c r="P46" s="316"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="370"/>
-      <c r="B47" s="367"/>
-      <c r="C47" s="370"/>
-      <c r="D47" s="458"/>
-      <c r="E47" s="370"/>
+      <c r="A47" s="377"/>
+      <c r="B47" s="380"/>
+      <c r="C47" s="377"/>
+      <c r="D47" s="383"/>
+      <c r="E47" s="377"/>
       <c r="F47" s="168" t="s">
         <v>141</v>
       </c>
@@ -5507,11 +5513,11 @@
       <c r="P47" s="197"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="370"/>
-      <c r="B48" s="367"/>
-      <c r="C48" s="370"/>
-      <c r="D48" s="458"/>
-      <c r="E48" s="370"/>
+      <c r="A48" s="377"/>
+      <c r="B48" s="380"/>
+      <c r="C48" s="377"/>
+      <c r="D48" s="383"/>
+      <c r="E48" s="377"/>
       <c r="F48" s="172" t="s">
         <v>147</v>
       </c>
@@ -5542,11 +5548,11 @@
       <c r="P48" s="172"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="371"/>
-      <c r="B49" s="368"/>
-      <c r="C49" s="371"/>
-      <c r="D49" s="460"/>
-      <c r="E49" s="371"/>
+      <c r="A49" s="378"/>
+      <c r="B49" s="381"/>
+      <c r="C49" s="378"/>
+      <c r="D49" s="384"/>
+      <c r="E49" s="378"/>
       <c r="F49" s="164" t="s">
         <v>148</v>
       </c>
@@ -5582,24 +5588,24 @@
       <c r="C50" s="334"/>
       <c r="D50" s="334"/>
       <c r="E50" s="334"/>
-      <c r="F50" s="467"/>
-      <c r="G50" s="467"/>
-      <c r="H50" s="468"/>
-      <c r="I50" s="468"/>
-      <c r="J50" s="468"/>
-      <c r="K50" s="469"/>
-      <c r="L50" s="468"/>
-      <c r="M50" s="468"/>
-      <c r="N50" s="468"/>
-      <c r="O50" s="468"/>
-      <c r="P50" s="470"/>
+      <c r="F50" s="348"/>
+      <c r="G50" s="348"/>
+      <c r="H50" s="349"/>
+      <c r="I50" s="349"/>
+      <c r="J50" s="349"/>
+      <c r="K50" s="350"/>
+      <c r="L50" s="349"/>
+      <c r="M50" s="349"/>
+      <c r="N50" s="349"/>
+      <c r="O50" s="349"/>
+      <c r="P50" s="351"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="369"/>
-      <c r="B51" s="366"/>
-      <c r="C51" s="369"/>
-      <c r="D51" s="369"/>
-      <c r="E51" s="369"/>
+      <c r="A51" s="376"/>
+      <c r="B51" s="379"/>
+      <c r="C51" s="376"/>
+      <c r="D51" s="376"/>
+      <c r="E51" s="376"/>
       <c r="F51" s="161"/>
       <c r="G51" s="161"/>
       <c r="H51" s="162"/>
@@ -5613,11 +5619,11 @@
       <c r="P51" s="316"/>
     </row>
     <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="370"/>
-      <c r="B52" s="367"/>
-      <c r="C52" s="370"/>
-      <c r="D52" s="370"/>
-      <c r="E52" s="370"/>
+      <c r="A52" s="377"/>
+      <c r="B52" s="380"/>
+      <c r="C52" s="377"/>
+      <c r="D52" s="377"/>
+      <c r="E52" s="377"/>
       <c r="F52" s="172"/>
       <c r="G52" s="172"/>
       <c r="H52" s="173"/>
@@ -5631,11 +5637,11 @@
       <c r="P52" s="197"/>
     </row>
     <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="370"/>
-      <c r="B53" s="367"/>
-      <c r="C53" s="370"/>
-      <c r="D53" s="370"/>
-      <c r="E53" s="370"/>
+      <c r="A53" s="377"/>
+      <c r="B53" s="380"/>
+      <c r="C53" s="377"/>
+      <c r="D53" s="377"/>
+      <c r="E53" s="377"/>
       <c r="F53" s="172"/>
       <c r="G53" s="172"/>
       <c r="H53" s="173"/>
@@ -5649,11 +5655,11 @@
       <c r="P53" s="172"/>
     </row>
     <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="371"/>
-      <c r="B54" s="368"/>
-      <c r="C54" s="371"/>
-      <c r="D54" s="371"/>
-      <c r="E54" s="371"/>
+      <c r="A54" s="378"/>
+      <c r="B54" s="381"/>
+      <c r="C54" s="378"/>
+      <c r="D54" s="378"/>
+      <c r="E54" s="378"/>
       <c r="F54" s="164"/>
       <c r="G54" s="164"/>
       <c r="H54" s="165"/>
@@ -5667,11 +5673,11 @@
       <c r="P54" s="164"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="369"/>
-      <c r="B55" s="366"/>
-      <c r="C55" s="369"/>
-      <c r="D55" s="369"/>
-      <c r="E55" s="369"/>
+      <c r="A55" s="376"/>
+      <c r="B55" s="379"/>
+      <c r="C55" s="376"/>
+      <c r="D55" s="376"/>
+      <c r="E55" s="376"/>
       <c r="F55" s="161"/>
       <c r="G55" s="161"/>
       <c r="H55" s="162"/>
@@ -5685,11 +5691,11 @@
       <c r="P55" s="161"/>
     </row>
     <row r="56" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="370"/>
-      <c r="B56" s="367"/>
-      <c r="C56" s="370"/>
-      <c r="D56" s="370"/>
-      <c r="E56" s="370"/>
+      <c r="A56" s="377"/>
+      <c r="B56" s="380"/>
+      <c r="C56" s="377"/>
+      <c r="D56" s="377"/>
+      <c r="E56" s="377"/>
       <c r="F56" s="172"/>
       <c r="G56" s="172"/>
       <c r="H56" s="173"/>
@@ -5703,11 +5709,11 @@
       <c r="P56" s="172"/>
     </row>
     <row r="57" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="371"/>
-      <c r="B57" s="368"/>
-      <c r="C57" s="371"/>
-      <c r="D57" s="371"/>
-      <c r="E57" s="371"/>
+      <c r="A57" s="378"/>
+      <c r="B57" s="381"/>
+      <c r="C57" s="378"/>
+      <c r="D57" s="378"/>
+      <c r="E57" s="378"/>
       <c r="F57" s="164"/>
       <c r="G57" s="164"/>
       <c r="H57" s="165"/>
@@ -5757,11 +5763,11 @@
       <c r="P59" s="172"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="346"/>
-      <c r="B60" s="361"/>
-      <c r="C60" s="346"/>
-      <c r="D60" s="346"/>
-      <c r="E60" s="346"/>
+      <c r="A60" s="402"/>
+      <c r="B60" s="404"/>
+      <c r="C60" s="402"/>
+      <c r="D60" s="402"/>
+      <c r="E60" s="402"/>
       <c r="F60" s="172"/>
       <c r="G60" s="172"/>
       <c r="H60" s="173"/>
@@ -5775,11 +5781,11 @@
       <c r="P60" s="172"/>
     </row>
     <row r="61" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="348"/>
-      <c r="B61" s="363"/>
-      <c r="C61" s="348"/>
-      <c r="D61" s="348"/>
-      <c r="E61" s="348"/>
+      <c r="A61" s="403"/>
+      <c r="B61" s="405"/>
+      <c r="C61" s="403"/>
+      <c r="D61" s="403"/>
+      <c r="E61" s="403"/>
       <c r="F61" s="172"/>
       <c r="G61" s="172"/>
       <c r="H61" s="173"/>
@@ -5793,11 +5799,11 @@
       <c r="P61" s="172"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" s="346"/>
-      <c r="B62" s="361"/>
-      <c r="C62" s="346"/>
-      <c r="D62" s="346"/>
-      <c r="E62" s="346"/>
+      <c r="A62" s="402"/>
+      <c r="B62" s="404"/>
+      <c r="C62" s="402"/>
+      <c r="D62" s="402"/>
+      <c r="E62" s="402"/>
       <c r="F62" s="172"/>
       <c r="G62" s="172"/>
       <c r="H62" s="173"/>
@@ -5811,11 +5817,11 @@
       <c r="P62" s="172"/>
     </row>
     <row r="63" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="348"/>
-      <c r="B63" s="363"/>
-      <c r="C63" s="348"/>
-      <c r="D63" s="348"/>
-      <c r="E63" s="348"/>
+      <c r="A63" s="403"/>
+      <c r="B63" s="405"/>
+      <c r="C63" s="403"/>
+      <c r="D63" s="403"/>
+      <c r="E63" s="403"/>
       <c r="F63" s="172"/>
       <c r="G63" s="172"/>
       <c r="H63" s="173"/>
@@ -5865,11 +5871,11 @@
       <c r="P65" s="172"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="346"/>
-      <c r="B66" s="361"/>
-      <c r="C66" s="346"/>
-      <c r="D66" s="346"/>
-      <c r="E66" s="346"/>
+      <c r="A66" s="402"/>
+      <c r="B66" s="404"/>
+      <c r="C66" s="402"/>
+      <c r="D66" s="402"/>
+      <c r="E66" s="402"/>
       <c r="F66" s="172"/>
       <c r="G66" s="172"/>
       <c r="H66" s="173"/>
@@ -5880,14 +5886,14 @@
       <c r="M66" s="173"/>
       <c r="N66" s="173"/>
       <c r="O66" s="173"/>
-      <c r="P66" s="364"/>
+      <c r="P66" s="406"/>
     </row>
     <row r="67" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="348"/>
-      <c r="B67" s="363"/>
-      <c r="C67" s="348"/>
-      <c r="D67" s="348"/>
-      <c r="E67" s="348"/>
+      <c r="A67" s="403"/>
+      <c r="B67" s="405"/>
+      <c r="C67" s="403"/>
+      <c r="D67" s="403"/>
+      <c r="E67" s="403"/>
       <c r="F67" s="172"/>
       <c r="G67" s="172"/>
       <c r="H67" s="173"/>
@@ -5898,130 +5904,130 @@
       <c r="M67" s="173"/>
       <c r="N67" s="173"/>
       <c r="O67" s="173"/>
-      <c r="P67" s="365"/>
+      <c r="P67" s="407"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="346"/>
-      <c r="B68" s="361"/>
-      <c r="C68" s="346"/>
-      <c r="D68" s="358"/>
-      <c r="E68" s="346"/>
+      <c r="A68" s="402"/>
+      <c r="B68" s="404"/>
+      <c r="C68" s="402"/>
+      <c r="D68" s="417"/>
+      <c r="E68" s="402"/>
       <c r="F68" s="172"/>
       <c r="G68" s="172"/>
       <c r="H68" s="173"/>
       <c r="I68" s="173"/>
-      <c r="J68" s="349"/>
-      <c r="K68" s="352"/>
-      <c r="L68" s="355"/>
-      <c r="M68" s="355"/>
+      <c r="J68" s="408"/>
+      <c r="K68" s="411"/>
+      <c r="L68" s="414"/>
+      <c r="M68" s="414"/>
       <c r="N68" s="173"/>
       <c r="O68" s="173"/>
       <c r="P68" s="172"/>
     </row>
     <row r="69" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="347"/>
-      <c r="B69" s="362"/>
-      <c r="C69" s="347"/>
-      <c r="D69" s="359"/>
-      <c r="E69" s="347"/>
+      <c r="A69" s="389"/>
+      <c r="B69" s="420"/>
+      <c r="C69" s="389"/>
+      <c r="D69" s="418"/>
+      <c r="E69" s="389"/>
       <c r="F69" s="172"/>
       <c r="G69" s="172"/>
       <c r="H69" s="173"/>
       <c r="I69" s="173"/>
-      <c r="J69" s="350"/>
-      <c r="K69" s="353"/>
-      <c r="L69" s="356"/>
-      <c r="M69" s="356"/>
+      <c r="J69" s="409"/>
+      <c r="K69" s="412"/>
+      <c r="L69" s="415"/>
+      <c r="M69" s="415"/>
       <c r="N69" s="173"/>
       <c r="O69" s="173"/>
       <c r="P69" s="172"/>
     </row>
     <row r="70" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="347"/>
-      <c r="B70" s="362"/>
-      <c r="C70" s="347"/>
-      <c r="D70" s="359"/>
-      <c r="E70" s="347"/>
+      <c r="A70" s="389"/>
+      <c r="B70" s="420"/>
+      <c r="C70" s="389"/>
+      <c r="D70" s="418"/>
+      <c r="E70" s="389"/>
       <c r="F70" s="172"/>
       <c r="G70" s="172"/>
       <c r="H70" s="173"/>
       <c r="I70" s="173"/>
-      <c r="J70" s="350"/>
-      <c r="K70" s="353"/>
-      <c r="L70" s="356"/>
-      <c r="M70" s="356"/>
+      <c r="J70" s="409"/>
+      <c r="K70" s="412"/>
+      <c r="L70" s="415"/>
+      <c r="M70" s="415"/>
       <c r="N70" s="173"/>
       <c r="O70" s="173"/>
       <c r="P70" s="172"/>
     </row>
     <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="347"/>
-      <c r="B71" s="362"/>
-      <c r="C71" s="347"/>
-      <c r="D71" s="359"/>
-      <c r="E71" s="347"/>
+      <c r="A71" s="389"/>
+      <c r="B71" s="420"/>
+      <c r="C71" s="389"/>
+      <c r="D71" s="418"/>
+      <c r="E71" s="389"/>
       <c r="F71" s="172"/>
       <c r="G71" s="172"/>
       <c r="H71" s="173"/>
       <c r="I71" s="173"/>
-      <c r="J71" s="350"/>
-      <c r="K71" s="353"/>
-      <c r="L71" s="356"/>
-      <c r="M71" s="356"/>
+      <c r="J71" s="409"/>
+      <c r="K71" s="412"/>
+      <c r="L71" s="415"/>
+      <c r="M71" s="415"/>
       <c r="N71" s="173"/>
       <c r="O71" s="173"/>
       <c r="P71" s="172"/>
     </row>
     <row r="72" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="347"/>
-      <c r="B72" s="362"/>
-      <c r="C72" s="347"/>
-      <c r="D72" s="359"/>
-      <c r="E72" s="347"/>
+      <c r="A72" s="389"/>
+      <c r="B72" s="420"/>
+      <c r="C72" s="389"/>
+      <c r="D72" s="418"/>
+      <c r="E72" s="389"/>
       <c r="F72" s="172"/>
       <c r="G72" s="172"/>
       <c r="H72" s="173"/>
       <c r="I72" s="173"/>
-      <c r="J72" s="350"/>
-      <c r="K72" s="353"/>
-      <c r="L72" s="356"/>
-      <c r="M72" s="356"/>
+      <c r="J72" s="409"/>
+      <c r="K72" s="412"/>
+      <c r="L72" s="415"/>
+      <c r="M72" s="415"/>
       <c r="N72" s="173"/>
       <c r="O72" s="173"/>
       <c r="P72" s="172"/>
     </row>
     <row r="73" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="347"/>
-      <c r="B73" s="362"/>
-      <c r="C73" s="347"/>
-      <c r="D73" s="359"/>
-      <c r="E73" s="347"/>
+      <c r="A73" s="389"/>
+      <c r="B73" s="420"/>
+      <c r="C73" s="389"/>
+      <c r="D73" s="418"/>
+      <c r="E73" s="389"/>
       <c r="F73" s="172"/>
       <c r="G73" s="172"/>
       <c r="H73" s="173"/>
       <c r="I73" s="173"/>
-      <c r="J73" s="350"/>
-      <c r="K73" s="353"/>
-      <c r="L73" s="356"/>
-      <c r="M73" s="356"/>
+      <c r="J73" s="409"/>
+      <c r="K73" s="412"/>
+      <c r="L73" s="415"/>
+      <c r="M73" s="415"/>
       <c r="N73" s="173"/>
       <c r="O73" s="173"/>
       <c r="P73" s="172"/>
     </row>
     <row r="74" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="348"/>
-      <c r="B74" s="363"/>
-      <c r="C74" s="348"/>
-      <c r="D74" s="360"/>
-      <c r="E74" s="348"/>
+      <c r="A74" s="403"/>
+      <c r="B74" s="405"/>
+      <c r="C74" s="403"/>
+      <c r="D74" s="419"/>
+      <c r="E74" s="403"/>
       <c r="F74" s="172"/>
       <c r="G74" s="172"/>
       <c r="H74" s="173"/>
       <c r="I74" s="173"/>
-      <c r="J74" s="351"/>
-      <c r="K74" s="354"/>
-      <c r="L74" s="357"/>
-      <c r="M74" s="357"/>
+      <c r="J74" s="410"/>
+      <c r="K74" s="413"/>
+      <c r="L74" s="416"/>
+      <c r="M74" s="416"/>
       <c r="N74" s="173"/>
       <c r="O74" s="173"/>
       <c r="P74" s="197"/>
@@ -6081,14 +6087,14 @@
       <c r="P77" s="164"/>
     </row>
     <row r="78" spans="1:17" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="377" t="s">
+      <c r="A78" s="398" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="377"/>
-      <c r="C78" s="377"/>
-      <c r="D78" s="377"/>
-      <c r="E78" s="377"/>
-      <c r="F78" s="377"/>
+      <c r="B78" s="398"/>
+      <c r="C78" s="398"/>
+      <c r="D78" s="398"/>
+      <c r="E78" s="398"/>
+      <c r="F78" s="398"/>
       <c r="G78" s="131">
         <f>SUM(G8:G77)</f>
         <v>503</v>
@@ -6108,17 +6114,17 @@
       <c r="N78" s="132"/>
       <c r="O78" s="132"/>
       <c r="P78" s="132"/>
-      <c r="Q78" s="383"/>
+      <c r="Q78" s="390"/>
     </row>
     <row r="79" spans="1:17" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="376" t="s">
+      <c r="A79" s="391" t="s">
         <v>135</v>
       </c>
-      <c r="B79" s="376"/>
-      <c r="C79" s="376"/>
-      <c r="D79" s="376"/>
-      <c r="E79" s="376"/>
-      <c r="F79" s="376"/>
+      <c r="B79" s="391"/>
+      <c r="C79" s="391"/>
+      <c r="D79" s="391"/>
+      <c r="E79" s="391"/>
+      <c r="F79" s="391"/>
       <c r="G79" s="131">
         <f>G78</f>
         <v>503</v>
@@ -6135,17 +6141,17 @@
       <c r="N79" s="136"/>
       <c r="O79" s="136"/>
       <c r="P79" s="136"/>
-      <c r="Q79" s="383"/>
+      <c r="Q79" s="390"/>
     </row>
     <row r="80" spans="1:17" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="384" t="s">
+      <c r="A80" s="392" t="s">
         <v>77</v>
       </c>
-      <c r="B80" s="384"/>
-      <c r="C80" s="384"/>
-      <c r="D80" s="384"/>
-      <c r="E80" s="384"/>
-      <c r="F80" s="384"/>
+      <c r="B80" s="392"/>
+      <c r="C80" s="392"/>
+      <c r="D80" s="392"/>
+      <c r="E80" s="392"/>
+      <c r="F80" s="392"/>
       <c r="G80" s="137" t="s">
         <v>45</v>
       </c>
@@ -6163,14 +6169,14 @@
       <c r="P80" s="138"/>
     </row>
     <row r="81" spans="1:16" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="376" t="s">
+      <c r="A81" s="391" t="s">
         <v>78</v>
       </c>
-      <c r="B81" s="376"/>
-      <c r="C81" s="376"/>
-      <c r="D81" s="376"/>
-      <c r="E81" s="376"/>
-      <c r="F81" s="376"/>
+      <c r="B81" s="391"/>
+      <c r="C81" s="391"/>
+      <c r="D81" s="391"/>
+      <c r="E81" s="391"/>
+      <c r="F81" s="391"/>
       <c r="G81" s="136"/>
       <c r="H81" s="136"/>
       <c r="I81" s="132"/>
@@ -6186,14 +6192,14 @@
       <c r="P81" s="138"/>
     </row>
     <row r="82" spans="1:16" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="376" t="s">
+      <c r="A82" s="391" t="s">
         <v>79</v>
       </c>
-      <c r="B82" s="376"/>
-      <c r="C82" s="376"/>
-      <c r="D82" s="376"/>
-      <c r="E82" s="376"/>
-      <c r="F82" s="376"/>
+      <c r="B82" s="391"/>
+      <c r="C82" s="391"/>
+      <c r="D82" s="391"/>
+      <c r="E82" s="391"/>
+      <c r="F82" s="391"/>
       <c r="G82" s="136"/>
       <c r="H82" s="136"/>
       <c r="I82" s="132"/>
@@ -6264,52 +6270,31 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="108">
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="Q78:Q79"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E68:E74"/>
+    <mergeCell ref="J68:J74"/>
+    <mergeCell ref="K68:K74"/>
+    <mergeCell ref="L68:L74"/>
+    <mergeCell ref="M68:M74"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="D68:D74"/>
+    <mergeCell ref="B68:B74"/>
+    <mergeCell ref="C68:C74"/>
+    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B62:B63"/>
     <mergeCell ref="A81:F81"/>
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="A78:F78"/>
@@ -6334,6 +6319,22 @@
     <mergeCell ref="C55:C57"/>
     <mergeCell ref="A51:A54"/>
     <mergeCell ref="D9:D16"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="Q78:Q79"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="D17:D18"/>
     <mergeCell ref="E9:E16"/>
     <mergeCell ref="C9:C16"/>
     <mergeCell ref="B9:B16"/>
@@ -6342,36 +6343,41 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="E23:E25"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
     <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="E68:E74"/>
-    <mergeCell ref="J68:J74"/>
-    <mergeCell ref="K68:K74"/>
-    <mergeCell ref="L68:L74"/>
-    <mergeCell ref="M68:M74"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="D68:D74"/>
-    <mergeCell ref="B68:B74"/>
-    <mergeCell ref="C68:C74"/>
-    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="E46:E49"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.22" top="0.4" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -6382,7 +6388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14:E17"/>
     </sheetView>
   </sheetViews>
@@ -6416,75 +6422,75 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="398" t="s">
+      <c r="A3" s="427" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="398"/>
-      <c r="C3" s="398"/>
-      <c r="D3" s="398"/>
-      <c r="E3" s="398"/>
-      <c r="F3" s="398"/>
-      <c r="G3" s="398"/>
-      <c r="H3" s="398"/>
-      <c r="I3" s="398"/>
-      <c r="J3" s="398"/>
-      <c r="K3" s="398"/>
+      <c r="B3" s="427"/>
+      <c r="C3" s="427"/>
+      <c r="D3" s="427"/>
+      <c r="E3" s="427"/>
+      <c r="F3" s="427"/>
+      <c r="G3" s="427"/>
+      <c r="H3" s="427"/>
+      <c r="I3" s="427"/>
+      <c r="J3" s="427"/>
+      <c r="K3" s="427"/>
       <c r="L3" s="259"/>
       <c r="M3" s="259"/>
       <c r="N3" s="259"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="399" t="s">
+      <c r="A4" s="428" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="399"/>
-      <c r="C4" s="399"/>
-      <c r="D4" s="399"/>
-      <c r="E4" s="399"/>
-      <c r="F4" s="399"/>
-      <c r="G4" s="399"/>
-      <c r="H4" s="399"/>
-      <c r="I4" s="399"/>
-      <c r="J4" s="400"/>
-      <c r="K4" s="399"/>
+      <c r="B4" s="428"/>
+      <c r="C4" s="428"/>
+      <c r="D4" s="428"/>
+      <c r="E4" s="428"/>
+      <c r="F4" s="428"/>
+      <c r="G4" s="428"/>
+      <c r="H4" s="428"/>
+      <c r="I4" s="428"/>
+      <c r="J4" s="429"/>
+      <c r="K4" s="428"/>
       <c r="L4" s="260"/>
       <c r="M4" s="260"/>
       <c r="N4" s="260"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="401" t="s">
+      <c r="A5" s="430" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="402" t="s">
+      <c r="B5" s="431" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="401" t="s">
+      <c r="C5" s="430" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="401" t="s">
+      <c r="D5" s="430" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="401"/>
-      <c r="F5" s="403" t="s">
+      <c r="E5" s="430"/>
+      <c r="F5" s="432" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="403"/>
-      <c r="H5" s="403"/>
-      <c r="I5" s="403"/>
-      <c r="J5" s="404"/>
-      <c r="K5" s="405" t="s">
+      <c r="G5" s="432"/>
+      <c r="H5" s="432"/>
+      <c r="I5" s="432"/>
+      <c r="J5" s="433"/>
+      <c r="K5" s="434" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="397" t="s">
+      <c r="L5" s="426" t="s">
         <v>92</v>
       </c>
-      <c r="M5" s="397"/>
-      <c r="N5" s="397"/>
+      <c r="M5" s="426"/>
+      <c r="N5" s="426"/>
     </row>
     <row r="6" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="401"/>
-      <c r="B6" s="402"/>
-      <c r="C6" s="401"/>
+      <c r="A6" s="430"/>
+      <c r="B6" s="431"/>
+      <c r="C6" s="430"/>
       <c r="D6" s="261" t="s">
         <v>40</v>
       </c>
@@ -6506,7 +6512,7 @@
       <c r="J6" s="265" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="405"/>
+      <c r="K6" s="434"/>
       <c r="L6" s="266" t="s">
         <v>52</v>
       </c>
@@ -6518,89 +6524,89 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="479">
+      <c r="A7" s="360">
         <v>1270</v>
       </c>
-      <c r="B7" s="480"/>
-      <c r="C7" s="479"/>
-      <c r="D7" s="479"/>
-      <c r="E7" s="479"/>
-      <c r="F7" s="479"/>
-      <c r="G7" s="479"/>
-      <c r="H7" s="481"/>
-      <c r="I7" s="481"/>
-      <c r="J7" s="482"/>
-      <c r="K7" s="481"/>
-      <c r="L7" s="483"/>
-      <c r="M7" s="483"/>
-      <c r="N7" s="484"/>
+      <c r="B7" s="361"/>
+      <c r="C7" s="360"/>
+      <c r="D7" s="360"/>
+      <c r="E7" s="360"/>
+      <c r="F7" s="360"/>
+      <c r="G7" s="360"/>
+      <c r="H7" s="362"/>
+      <c r="I7" s="362"/>
+      <c r="J7" s="363"/>
+      <c r="K7" s="362"/>
+      <c r="L7" s="364"/>
+      <c r="M7" s="364"/>
+      <c r="N7" s="365"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="479">
+      <c r="A8" s="360">
         <v>1291</v>
       </c>
-      <c r="B8" s="480"/>
-      <c r="C8" s="479"/>
-      <c r="D8" s="479"/>
-      <c r="E8" s="479"/>
-      <c r="F8" s="479"/>
-      <c r="G8" s="479"/>
-      <c r="H8" s="481"/>
-      <c r="I8" s="481"/>
-      <c r="J8" s="482"/>
-      <c r="K8" s="481"/>
-      <c r="L8" s="483"/>
-      <c r="M8" s="483"/>
-      <c r="N8" s="484"/>
+      <c r="B8" s="361"/>
+      <c r="C8" s="360"/>
+      <c r="D8" s="360"/>
+      <c r="E8" s="360"/>
+      <c r="F8" s="360"/>
+      <c r="G8" s="360"/>
+      <c r="H8" s="362"/>
+      <c r="I8" s="362"/>
+      <c r="J8" s="363"/>
+      <c r="K8" s="362"/>
+      <c r="L8" s="364"/>
+      <c r="M8" s="364"/>
+      <c r="N8" s="365"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="479">
+      <c r="A9" s="360">
         <v>1276</v>
       </c>
-      <c r="B9" s="480">
+      <c r="B9" s="361">
         <v>44173</v>
       </c>
-      <c r="C9" s="479"/>
-      <c r="D9" s="479" t="s">
+      <c r="C9" s="360"/>
+      <c r="D9" s="360" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="479"/>
-      <c r="F9" s="479" t="s">
+      <c r="E9" s="360"/>
+      <c r="F9" s="360" t="s">
         <v>164</v>
       </c>
-      <c r="G9" s="479">
+      <c r="G9" s="360">
         <v>3</v>
       </c>
-      <c r="H9" s="481">
+      <c r="H9" s="362">
         <v>455000</v>
       </c>
-      <c r="I9" s="481">
+      <c r="I9" s="362">
         <f>H9</f>
         <v>455000</v>
       </c>
-      <c r="J9" s="482">
+      <c r="J9" s="363">
         <v>0.5</v>
       </c>
-      <c r="K9" s="481">
+      <c r="K9" s="362">
         <f>I9*(1-J9)</f>
         <v>227500</v>
       </c>
-      <c r="L9" s="483"/>
-      <c r="M9" s="483"/>
-      <c r="N9" s="484"/>
+      <c r="L9" s="364"/>
+      <c r="M9" s="364"/>
+      <c r="N9" s="365"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="485">
+      <c r="A10" s="421">
         <v>1282</v>
       </c>
-      <c r="B10" s="486">
+      <c r="B10" s="423">
         <v>44175</v>
       </c>
-      <c r="C10" s="485"/>
-      <c r="D10" s="485" t="s">
+      <c r="C10" s="421"/>
+      <c r="D10" s="421" t="s">
         <v>183</v>
       </c>
-      <c r="E10" s="485"/>
+      <c r="E10" s="421"/>
       <c r="F10" s="267" t="s">
         <v>141</v>
       </c>
@@ -6626,11 +6632,11 @@
       <c r="N10" s="271"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="487"/>
-      <c r="B11" s="488"/>
-      <c r="C11" s="487"/>
-      <c r="D11" s="487"/>
-      <c r="E11" s="487"/>
+      <c r="A11" s="422"/>
+      <c r="B11" s="424"/>
+      <c r="C11" s="422"/>
+      <c r="D11" s="422"/>
+      <c r="E11" s="422"/>
       <c r="F11" s="278" t="s">
         <v>147</v>
       </c>
@@ -6656,17 +6662,17 @@
       <c r="N11" s="283"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="485">
+      <c r="A12" s="421">
         <v>1278</v>
       </c>
-      <c r="B12" s="486">
+      <c r="B12" s="423">
         <v>44540</v>
       </c>
-      <c r="C12" s="485"/>
-      <c r="D12" s="485" t="s">
+      <c r="C12" s="421"/>
+      <c r="D12" s="421" t="s">
         <v>183</v>
       </c>
-      <c r="E12" s="485"/>
+      <c r="E12" s="421"/>
       <c r="F12" s="267" t="s">
         <v>164</v>
       </c>
@@ -6692,11 +6698,11 @@
       <c r="N12" s="271"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="487"/>
-      <c r="B13" s="488"/>
-      <c r="C13" s="487"/>
-      <c r="D13" s="487"/>
-      <c r="E13" s="487"/>
+      <c r="A13" s="422"/>
+      <c r="B13" s="424"/>
+      <c r="C13" s="422"/>
+      <c r="D13" s="422"/>
+      <c r="E13" s="422"/>
       <c r="F13" s="278" t="s">
         <v>141</v>
       </c>
@@ -6722,27 +6728,27 @@
       <c r="N13" s="283"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="471"/>
-      <c r="B14" s="473"/>
-      <c r="C14" s="471"/>
-      <c r="D14" s="471"/>
-      <c r="E14" s="392"/>
-      <c r="F14" s="472"/>
-      <c r="G14" s="472"/>
-      <c r="H14" s="475"/>
-      <c r="I14" s="475"/>
-      <c r="J14" s="476"/>
-      <c r="K14" s="475"/>
-      <c r="L14" s="477"/>
-      <c r="M14" s="477"/>
-      <c r="N14" s="478"/>
+      <c r="A14" s="352"/>
+      <c r="B14" s="354"/>
+      <c r="C14" s="352"/>
+      <c r="D14" s="352"/>
+      <c r="E14" s="435"/>
+      <c r="F14" s="353"/>
+      <c r="G14" s="353"/>
+      <c r="H14" s="356"/>
+      <c r="I14" s="356"/>
+      <c r="J14" s="357"/>
+      <c r="K14" s="356"/>
+      <c r="L14" s="358"/>
+      <c r="M14" s="358"/>
+      <c r="N14" s="359"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="471"/>
-      <c r="B15" s="473"/>
-      <c r="C15" s="471"/>
-      <c r="D15" s="471"/>
-      <c r="E15" s="392"/>
+      <c r="A15" s="352"/>
+      <c r="B15" s="354"/>
+      <c r="C15" s="352"/>
+      <c r="D15" s="352"/>
+      <c r="E15" s="435"/>
       <c r="F15" s="272"/>
       <c r="G15" s="272"/>
       <c r="H15" s="273"/>
@@ -6754,11 +6760,11 @@
       <c r="N15" s="276"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="471"/>
-      <c r="B16" s="473"/>
-      <c r="C16" s="471"/>
-      <c r="D16" s="471"/>
-      <c r="E16" s="392"/>
+      <c r="A16" s="352"/>
+      <c r="B16" s="354"/>
+      <c r="C16" s="352"/>
+      <c r="D16" s="352"/>
+      <c r="E16" s="435"/>
       <c r="F16" s="272"/>
       <c r="G16" s="272"/>
       <c r="H16" s="273"/>
@@ -6770,11 +6776,11 @@
       <c r="N16" s="276"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="472"/>
-      <c r="B17" s="474"/>
-      <c r="C17" s="472"/>
-      <c r="D17" s="472"/>
-      <c r="E17" s="394"/>
+      <c r="A17" s="353"/>
+      <c r="B17" s="355"/>
+      <c r="C17" s="353"/>
+      <c r="D17" s="353"/>
+      <c r="E17" s="436"/>
       <c r="F17" s="272"/>
       <c r="G17" s="272"/>
       <c r="H17" s="273"/>
@@ -6786,11 +6792,11 @@
       <c r="N17" s="276"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="391"/>
-      <c r="B18" s="388"/>
-      <c r="C18" s="391"/>
-      <c r="D18" s="391"/>
-      <c r="E18" s="391"/>
+      <c r="A18" s="437"/>
+      <c r="B18" s="438"/>
+      <c r="C18" s="437"/>
+      <c r="D18" s="437"/>
+      <c r="E18" s="437"/>
       <c r="F18" s="272"/>
       <c r="G18" s="272"/>
       <c r="H18" s="273"/>
@@ -6802,11 +6808,11 @@
       <c r="N18" s="276"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="392"/>
-      <c r="B19" s="389"/>
-      <c r="C19" s="392"/>
-      <c r="D19" s="392"/>
-      <c r="E19" s="392"/>
+      <c r="A19" s="435"/>
+      <c r="B19" s="439"/>
+      <c r="C19" s="435"/>
+      <c r="D19" s="435"/>
+      <c r="E19" s="435"/>
       <c r="F19" s="272"/>
       <c r="G19" s="272"/>
       <c r="H19" s="273"/>
@@ -6818,11 +6824,11 @@
       <c r="N19" s="276"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="394"/>
-      <c r="B20" s="395"/>
-      <c r="C20" s="394"/>
-      <c r="D20" s="394"/>
-      <c r="E20" s="394"/>
+      <c r="A20" s="436"/>
+      <c r="B20" s="440"/>
+      <c r="C20" s="436"/>
+      <c r="D20" s="436"/>
+      <c r="E20" s="436"/>
       <c r="F20" s="272"/>
       <c r="G20" s="272"/>
       <c r="H20" s="273"/>
@@ -6850,11 +6856,11 @@
       <c r="N21" s="276"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="391"/>
-      <c r="B22" s="388"/>
-      <c r="C22" s="391"/>
-      <c r="D22" s="391"/>
-      <c r="E22" s="391"/>
+      <c r="A22" s="437"/>
+      <c r="B22" s="438"/>
+      <c r="C22" s="437"/>
+      <c r="D22" s="437"/>
+      <c r="E22" s="437"/>
       <c r="F22" s="272"/>
       <c r="G22" s="272"/>
       <c r="H22" s="273"/>
@@ -6866,11 +6872,11 @@
       <c r="N22" s="276"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="392"/>
-      <c r="B23" s="389"/>
-      <c r="C23" s="392"/>
-      <c r="D23" s="392"/>
-      <c r="E23" s="392"/>
+      <c r="A23" s="435"/>
+      <c r="B23" s="439"/>
+      <c r="C23" s="435"/>
+      <c r="D23" s="435"/>
+      <c r="E23" s="435"/>
       <c r="F23" s="272"/>
       <c r="G23" s="272"/>
       <c r="H23" s="273"/>
@@ -6882,11 +6888,11 @@
       <c r="N23" s="276"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="394"/>
-      <c r="B24" s="395"/>
-      <c r="C24" s="394"/>
-      <c r="D24" s="394"/>
-      <c r="E24" s="394"/>
+      <c r="A24" s="436"/>
+      <c r="B24" s="440"/>
+      <c r="C24" s="436"/>
+      <c r="D24" s="436"/>
+      <c r="E24" s="436"/>
       <c r="F24" s="272"/>
       <c r="G24" s="272"/>
       <c r="H24" s="273"/>
@@ -6930,11 +6936,11 @@
       <c r="N26" s="276"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="391"/>
-      <c r="B27" s="388"/>
-      <c r="C27" s="391"/>
-      <c r="D27" s="391"/>
-      <c r="E27" s="391"/>
+      <c r="A27" s="437"/>
+      <c r="B27" s="438"/>
+      <c r="C27" s="437"/>
+      <c r="D27" s="437"/>
+      <c r="E27" s="437"/>
       <c r="F27" s="272"/>
       <c r="G27" s="272"/>
       <c r="H27" s="273"/>
@@ -6946,11 +6952,11 @@
       <c r="N27" s="276"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="394"/>
-      <c r="B28" s="395"/>
-      <c r="C28" s="394"/>
-      <c r="D28" s="394"/>
-      <c r="E28" s="394"/>
+      <c r="A28" s="436"/>
+      <c r="B28" s="440"/>
+      <c r="C28" s="436"/>
+      <c r="D28" s="436"/>
+      <c r="E28" s="436"/>
       <c r="F28" s="272"/>
       <c r="G28" s="272"/>
       <c r="H28" s="273"/>
@@ -6962,11 +6968,11 @@
       <c r="N28" s="276"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="391"/>
-      <c r="B29" s="388"/>
-      <c r="C29" s="391"/>
-      <c r="D29" s="391"/>
-      <c r="E29" s="391"/>
+      <c r="A29" s="437"/>
+      <c r="B29" s="438"/>
+      <c r="C29" s="437"/>
+      <c r="D29" s="437"/>
+      <c r="E29" s="437"/>
       <c r="F29" s="272"/>
       <c r="G29" s="272"/>
       <c r="H29" s="273"/>
@@ -6978,11 +6984,11 @@
       <c r="N29" s="276"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="394"/>
-      <c r="B30" s="395"/>
-      <c r="C30" s="394"/>
-      <c r="D30" s="394"/>
-      <c r="E30" s="394"/>
+      <c r="A30" s="436"/>
+      <c r="B30" s="440"/>
+      <c r="C30" s="436"/>
+      <c r="D30" s="436"/>
+      <c r="E30" s="436"/>
       <c r="F30" s="272"/>
       <c r="G30" s="272"/>
       <c r="H30" s="273"/>
@@ -6994,11 +7000,11 @@
       <c r="N30" s="276"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="391"/>
-      <c r="B31" s="388"/>
-      <c r="C31" s="391"/>
-      <c r="D31" s="391"/>
-      <c r="E31" s="391"/>
+      <c r="A31" s="437"/>
+      <c r="B31" s="438"/>
+      <c r="C31" s="437"/>
+      <c r="D31" s="437"/>
+      <c r="E31" s="437"/>
       <c r="F31" s="272"/>
       <c r="G31" s="272"/>
       <c r="H31" s="273"/>
@@ -7010,11 +7016,11 @@
       <c r="N31" s="276"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="392"/>
-      <c r="B32" s="389"/>
-      <c r="C32" s="392"/>
-      <c r="D32" s="392"/>
-      <c r="E32" s="392"/>
+      <c r="A32" s="435"/>
+      <c r="B32" s="439"/>
+      <c r="C32" s="435"/>
+      <c r="D32" s="435"/>
+      <c r="E32" s="435"/>
       <c r="F32" s="272"/>
       <c r="G32" s="272"/>
       <c r="H32" s="273"/>
@@ -7026,11 +7032,11 @@
       <c r="N32" s="276"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="392"/>
-      <c r="B33" s="389"/>
-      <c r="C33" s="392"/>
-      <c r="D33" s="392"/>
-      <c r="E33" s="392"/>
+      <c r="A33" s="435"/>
+      <c r="B33" s="439"/>
+      <c r="C33" s="435"/>
+      <c r="D33" s="435"/>
+      <c r="E33" s="435"/>
       <c r="F33" s="272"/>
       <c r="G33" s="272"/>
       <c r="H33" s="273"/>
@@ -7042,11 +7048,11 @@
       <c r="N33" s="276"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="393"/>
-      <c r="B34" s="390"/>
-      <c r="C34" s="393"/>
-      <c r="D34" s="393"/>
-      <c r="E34" s="393"/>
+      <c r="A34" s="442"/>
+      <c r="B34" s="441"/>
+      <c r="C34" s="442"/>
+      <c r="D34" s="442"/>
+      <c r="E34" s="442"/>
       <c r="F34" s="278"/>
       <c r="G34" s="278"/>
       <c r="H34" s="279"/>
@@ -7058,13 +7064,13 @@
       <c r="N34" s="283"/>
     </row>
     <row r="35" spans="1:14" s="290" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="396" t="s">
+      <c r="A35" s="425" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="396"/>
-      <c r="C35" s="396"/>
-      <c r="D35" s="396"/>
-      <c r="E35" s="396"/>
+      <c r="B35" s="425"/>
+      <c r="C35" s="425"/>
+      <c r="D35" s="425"/>
+      <c r="E35" s="425"/>
       <c r="F35" s="284"/>
       <c r="G35" s="284">
         <f>SUM(G7:G34)</f>
@@ -7152,11 +7158,31 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="A3:K3"/>
@@ -7173,31 +7199,11 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.28000000000000003" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7258,24 +7264,24 @@
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="406" t="s">
+      <c r="A4" s="443" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="406"/>
-      <c r="C4" s="406"/>
-      <c r="D4" s="406"/>
-      <c r="E4" s="406"/>
+      <c r="B4" s="443"/>
+      <c r="C4" s="443"/>
+      <c r="D4" s="443"/>
+      <c r="E4" s="443"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="407" t="s">
+      <c r="A5" s="444" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="407"/>
-      <c r="C5" s="407"/>
-      <c r="D5" s="407"/>
-      <c r="E5" s="407"/>
+      <c r="B5" s="444"/>
+      <c r="C5" s="444"/>
+      <c r="D5" s="444"/>
+      <c r="E5" s="444"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
@@ -7354,7 +7360,7 @@
         <f>'DOANH THU'!L80</f>
         <v>4253900.0000000009</v>
       </c>
-      <c r="E10" s="408">
+      <c r="E10" s="445">
         <f>D10+D11+D12</f>
         <v>55097150.000000007</v>
       </c>
@@ -7373,7 +7379,7 @@
         <f>'DOANH THU'!L81</f>
         <v>50843250.000000007</v>
       </c>
-      <c r="E11" s="409"/>
+      <c r="E11" s="446"/>
       <c r="F11" s="61"/>
       <c r="G11" s="61"/>
     </row>
@@ -7384,7 +7390,7 @@
       <c r="B12" s="118"/>
       <c r="C12" s="118"/>
       <c r="D12" s="141"/>
-      <c r="E12" s="410"/>
+      <c r="E12" s="447"/>
       <c r="F12" s="61"/>
       <c r="G12" s="61"/>
     </row>
@@ -8169,17 +8175,17 @@
       <c r="C1" s="210"/>
       <c r="D1" s="210"/>
       <c r="E1" s="210"/>
-      <c r="Z1" s="417" t="s">
+      <c r="Z1" s="468" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="418"/>
-      <c r="AB1" s="418"/>
-      <c r="AC1" s="418"/>
-      <c r="AD1" s="418"/>
-      <c r="AE1" s="418"/>
-      <c r="AF1" s="418"/>
-      <c r="AG1" s="418"/>
-      <c r="AH1" s="419"/>
+      <c r="AA1" s="469"/>
+      <c r="AB1" s="469"/>
+      <c r="AC1" s="469"/>
+      <c r="AD1" s="469"/>
+      <c r="AE1" s="469"/>
+      <c r="AF1" s="469"/>
+      <c r="AG1" s="469"/>
+      <c r="AH1" s="470"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="213" t="s">
@@ -8189,19 +8195,19 @@
       <c r="C2" s="214"/>
       <c r="D2" s="214"/>
       <c r="E2" s="214"/>
-      <c r="Z2" s="411" t="s">
+      <c r="Z2" s="462" t="s">
         <v>99</v>
       </c>
-      <c r="AA2" s="412"/>
-      <c r="AB2" s="412"/>
-      <c r="AC2" s="412"/>
-      <c r="AD2" s="412"/>
-      <c r="AE2" s="413"/>
-      <c r="AF2" s="414" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG2" s="415"/>
-      <c r="AH2" s="416"/>
+      <c r="AA2" s="463"/>
+      <c r="AB2" s="463"/>
+      <c r="AC2" s="463"/>
+      <c r="AD2" s="463"/>
+      <c r="AE2" s="464"/>
+      <c r="AF2" s="465" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG2" s="466"/>
+      <c r="AH2" s="467"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="213" t="s">
@@ -8211,19 +8217,19 @@
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
-      <c r="Z3" s="411" t="s">
+      <c r="Z3" s="462" t="s">
         <v>102</v>
       </c>
-      <c r="AA3" s="412"/>
-      <c r="AB3" s="412"/>
-      <c r="AC3" s="412"/>
-      <c r="AD3" s="412"/>
-      <c r="AE3" s="413"/>
-      <c r="AF3" s="414" t="s">
+      <c r="AA3" s="463"/>
+      <c r="AB3" s="463"/>
+      <c r="AC3" s="463"/>
+      <c r="AD3" s="463"/>
+      <c r="AE3" s="464"/>
+      <c r="AF3" s="465" t="s">
         <v>103</v>
       </c>
-      <c r="AG3" s="415"/>
-      <c r="AH3" s="416"/>
+      <c r="AG3" s="466"/>
+      <c r="AH3" s="467"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="213" t="s">
@@ -8236,19 +8242,19 @@
       <c r="T4" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="411" t="s">
+      <c r="Z4" s="462" t="s">
         <v>105</v>
       </c>
-      <c r="AA4" s="412"/>
-      <c r="AB4" s="412"/>
-      <c r="AC4" s="412"/>
-      <c r="AD4" s="412"/>
-      <c r="AE4" s="413"/>
-      <c r="AF4" s="414" t="s">
+      <c r="AA4" s="463"/>
+      <c r="AB4" s="463"/>
+      <c r="AC4" s="463"/>
+      <c r="AD4" s="463"/>
+      <c r="AE4" s="464"/>
+      <c r="AF4" s="465" t="s">
         <v>106</v>
       </c>
-      <c r="AG4" s="415"/>
-      <c r="AH4" s="416"/>
+      <c r="AG4" s="466"/>
+      <c r="AH4" s="467"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="213" t="s">
@@ -8258,19 +8264,19 @@
       <c r="C5" s="79"/>
       <c r="D5" s="79"/>
       <c r="E5" s="79"/>
-      <c r="Z5" s="421" t="s">
+      <c r="Z5" s="449" t="s">
         <v>108</v>
       </c>
-      <c r="AA5" s="421"/>
-      <c r="AB5" s="421"/>
-      <c r="AC5" s="421"/>
-      <c r="AD5" s="421"/>
-      <c r="AE5" s="421"/>
-      <c r="AF5" s="422" t="s">
+      <c r="AA5" s="449"/>
+      <c r="AB5" s="449"/>
+      <c r="AC5" s="449"/>
+      <c r="AD5" s="449"/>
+      <c r="AE5" s="449"/>
+      <c r="AF5" s="450" t="s">
         <v>109</v>
       </c>
-      <c r="AG5" s="422"/>
-      <c r="AH5" s="422"/>
+      <c r="AG5" s="450"/>
+      <c r="AH5" s="450"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="213"/>
@@ -8278,19 +8284,19 @@
       <c r="C6" s="79"/>
       <c r="D6" s="79"/>
       <c r="E6" s="79"/>
-      <c r="Z6" s="411" t="s">
+      <c r="Z6" s="462" t="s">
         <v>129</v>
       </c>
-      <c r="AA6" s="412"/>
-      <c r="AB6" s="412"/>
-      <c r="AC6" s="412"/>
-      <c r="AD6" s="412"/>
-      <c r="AE6" s="413"/>
-      <c r="AF6" s="414" t="s">
+      <c r="AA6" s="463"/>
+      <c r="AB6" s="463"/>
+      <c r="AC6" s="463"/>
+      <c r="AD6" s="463"/>
+      <c r="AE6" s="464"/>
+      <c r="AF6" s="465" t="s">
         <v>126</v>
       </c>
-      <c r="AG6" s="415"/>
-      <c r="AH6" s="416"/>
+      <c r="AG6" s="466"/>
+      <c r="AH6" s="467"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="215"/>
@@ -8300,93 +8306,93 @@
       <c r="E7" s="215"/>
     </row>
     <row r="8" spans="1:40" s="218" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="423" t="s">
+      <c r="A8" s="451" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="423"/>
-      <c r="C8" s="423"/>
-      <c r="D8" s="423"/>
-      <c r="E8" s="423"/>
-      <c r="F8" s="423"/>
-      <c r="G8" s="423"/>
-      <c r="H8" s="423"/>
-      <c r="I8" s="423"/>
-      <c r="J8" s="423"/>
-      <c r="K8" s="423"/>
-      <c r="L8" s="423"/>
-      <c r="M8" s="423"/>
-      <c r="N8" s="423"/>
-      <c r="O8" s="423"/>
-      <c r="P8" s="423"/>
-      <c r="Q8" s="423"/>
-      <c r="R8" s="423"/>
-      <c r="S8" s="423"/>
-      <c r="T8" s="423"/>
-      <c r="U8" s="423"/>
-      <c r="V8" s="423"/>
-      <c r="W8" s="423"/>
-      <c r="X8" s="423"/>
-      <c r="Y8" s="423"/>
-      <c r="Z8" s="423"/>
-      <c r="AA8" s="423"/>
-      <c r="AB8" s="423"/>
-      <c r="AC8" s="423"/>
-      <c r="AD8" s="423"/>
-      <c r="AE8" s="423"/>
-      <c r="AF8" s="423"/>
-      <c r="AG8" s="423"/>
-      <c r="AH8" s="423"/>
-      <c r="AI8" s="423"/>
-      <c r="AJ8" s="423"/>
-      <c r="AK8" s="423"/>
-      <c r="AL8" s="423"/>
-      <c r="AM8" s="423"/>
+      <c r="B8" s="451"/>
+      <c r="C8" s="451"/>
+      <c r="D8" s="451"/>
+      <c r="E8" s="451"/>
+      <c r="F8" s="451"/>
+      <c r="G8" s="451"/>
+      <c r="H8" s="451"/>
+      <c r="I8" s="451"/>
+      <c r="J8" s="451"/>
+      <c r="K8" s="451"/>
+      <c r="L8" s="451"/>
+      <c r="M8" s="451"/>
+      <c r="N8" s="451"/>
+      <c r="O8" s="451"/>
+      <c r="P8" s="451"/>
+      <c r="Q8" s="451"/>
+      <c r="R8" s="451"/>
+      <c r="S8" s="451"/>
+      <c r="T8" s="451"/>
+      <c r="U8" s="451"/>
+      <c r="V8" s="451"/>
+      <c r="W8" s="451"/>
+      <c r="X8" s="451"/>
+      <c r="Y8" s="451"/>
+      <c r="Z8" s="451"/>
+      <c r="AA8" s="451"/>
+      <c r="AB8" s="451"/>
+      <c r="AC8" s="451"/>
+      <c r="AD8" s="451"/>
+      <c r="AE8" s="451"/>
+      <c r="AF8" s="451"/>
+      <c r="AG8" s="451"/>
+      <c r="AH8" s="451"/>
+      <c r="AI8" s="451"/>
+      <c r="AJ8" s="451"/>
+      <c r="AK8" s="451"/>
+      <c r="AL8" s="451"/>
+      <c r="AM8" s="451"/>
       <c r="AN8" s="217"/>
     </row>
     <row r="10" spans="1:40" s="223" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="424" t="s">
+      <c r="A10" s="452" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="424" t="s">
+      <c r="B10" s="452" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="424" t="s">
+      <c r="C10" s="452" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="427" t="s">
+      <c r="D10" s="455" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="428"/>
-      <c r="F10" s="428"/>
-      <c r="G10" s="428"/>
-      <c r="H10" s="428"/>
-      <c r="I10" s="428"/>
-      <c r="J10" s="428"/>
-      <c r="K10" s="428"/>
-      <c r="L10" s="428"/>
-      <c r="M10" s="428"/>
-      <c r="N10" s="428"/>
-      <c r="O10" s="428"/>
-      <c r="P10" s="428"/>
-      <c r="Q10" s="428"/>
-      <c r="R10" s="428"/>
-      <c r="S10" s="428"/>
-      <c r="T10" s="428"/>
-      <c r="U10" s="428"/>
-      <c r="V10" s="428"/>
-      <c r="W10" s="428"/>
-      <c r="X10" s="428"/>
-      <c r="Y10" s="428"/>
-      <c r="Z10" s="428"/>
-      <c r="AA10" s="428"/>
-      <c r="AB10" s="428"/>
-      <c r="AC10" s="428"/>
-      <c r="AD10" s="428"/>
-      <c r="AE10" s="428"/>
-      <c r="AF10" s="428"/>
-      <c r="AG10" s="428"/>
-      <c r="AH10" s="428"/>
-      <c r="AI10" s="429" t="s">
+      <c r="E10" s="456"/>
+      <c r="F10" s="456"/>
+      <c r="G10" s="456"/>
+      <c r="H10" s="456"/>
+      <c r="I10" s="456"/>
+      <c r="J10" s="456"/>
+      <c r="K10" s="456"/>
+      <c r="L10" s="456"/>
+      <c r="M10" s="456"/>
+      <c r="N10" s="456"/>
+      <c r="O10" s="456"/>
+      <c r="P10" s="456"/>
+      <c r="Q10" s="456"/>
+      <c r="R10" s="456"/>
+      <c r="S10" s="456"/>
+      <c r="T10" s="456"/>
+      <c r="U10" s="456"/>
+      <c r="V10" s="456"/>
+      <c r="W10" s="456"/>
+      <c r="X10" s="456"/>
+      <c r="Y10" s="456"/>
+      <c r="Z10" s="456"/>
+      <c r="AA10" s="456"/>
+      <c r="AB10" s="456"/>
+      <c r="AC10" s="456"/>
+      <c r="AD10" s="456"/>
+      <c r="AE10" s="456"/>
+      <c r="AF10" s="456"/>
+      <c r="AG10" s="456"/>
+      <c r="AH10" s="456"/>
+      <c r="AI10" s="457" t="s">
         <v>114</v>
       </c>
       <c r="AJ10" s="219"/>
@@ -8396,9 +8402,9 @@
       <c r="AN10" s="222"/>
     </row>
     <row r="11" spans="1:40" s="223" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="425"/>
-      <c r="B11" s="425"/>
-      <c r="C11" s="425"/>
+      <c r="A11" s="453"/>
+      <c r="B11" s="453"/>
+      <c r="C11" s="453"/>
       <c r="D11" s="224">
         <v>1</v>
       </c>
@@ -8492,7 +8498,7 @@
       <c r="AH11" s="224">
         <v>31</v>
       </c>
-      <c r="AI11" s="429"/>
+      <c r="AI11" s="457"/>
       <c r="AJ11" s="225"/>
       <c r="AK11" s="221"/>
       <c r="AL11" s="221"/>
@@ -8500,9 +8506,9 @@
       <c r="AN11" s="222"/>
     </row>
     <row r="12" spans="1:40" s="229" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="426"/>
-      <c r="B12" s="426"/>
-      <c r="C12" s="426"/>
+      <c r="A12" s="454"/>
+      <c r="B12" s="454"/>
+      <c r="C12" s="454"/>
       <c r="D12" s="224" t="s">
         <v>115</v>
       </c>
@@ -8596,7 +8602,7 @@
       <c r="AH12" s="226" t="s">
         <v>117</v>
       </c>
-      <c r="AI12" s="429"/>
+      <c r="AI12" s="457"/>
       <c r="AJ12" s="228"/>
       <c r="AN12" s="230"/>
     </row>
@@ -9023,10 +9029,10 @@
       <c r="AN16" s="230"/>
     </row>
     <row r="17" spans="1:40" s="229" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="430" t="s">
+      <c r="A17" s="458" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="431"/>
+      <c r="B17" s="459"/>
       <c r="C17" s="236"/>
       <c r="D17" s="236"/>
       <c r="E17" s="237"/>
@@ -9069,47 +9075,47 @@
       <c r="AN17" s="230"/>
     </row>
     <row r="19" spans="1:40" s="246" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="432"/>
-      <c r="B19" s="432"/>
-      <c r="C19" s="432"/>
-      <c r="D19" s="432"/>
-      <c r="E19" s="432"/>
-      <c r="F19" s="432"/>
-      <c r="G19" s="432"/>
+      <c r="A19" s="460"/>
+      <c r="B19" s="460"/>
+      <c r="C19" s="460"/>
+      <c r="D19" s="460"/>
+      <c r="E19" s="460"/>
+      <c r="F19" s="460"/>
+      <c r="G19" s="460"/>
       <c r="H19" s="241"/>
-      <c r="I19" s="433"/>
-      <c r="J19" s="433"/>
-      <c r="K19" s="433"/>
-      <c r="L19" s="433"/>
-      <c r="M19" s="433"/>
+      <c r="I19" s="461"/>
+      <c r="J19" s="461"/>
+      <c r="K19" s="461"/>
+      <c r="L19" s="461"/>
+      <c r="M19" s="461"/>
       <c r="N19" s="242"/>
-      <c r="O19" s="433"/>
-      <c r="P19" s="433"/>
-      <c r="Q19" s="433"/>
-      <c r="R19" s="433"/>
-      <c r="S19" s="433"/>
-      <c r="T19" s="433"/>
-      <c r="U19" s="433"/>
-      <c r="V19" s="433"/>
-      <c r="W19" s="433"/>
-      <c r="X19" s="433"/>
-      <c r="Y19" s="433"/>
+      <c r="O19" s="461"/>
+      <c r="P19" s="461"/>
+      <c r="Q19" s="461"/>
+      <c r="R19" s="461"/>
+      <c r="S19" s="461"/>
+      <c r="T19" s="461"/>
+      <c r="U19" s="461"/>
+      <c r="V19" s="461"/>
+      <c r="W19" s="461"/>
+      <c r="X19" s="461"/>
+      <c r="Y19" s="461"/>
       <c r="Z19" s="243"/>
       <c r="AA19" s="251" t="s">
         <v>13</v>
       </c>
       <c r="AB19" s="244"/>
-      <c r="AC19" s="433"/>
-      <c r="AD19" s="433"/>
-      <c r="AE19" s="433"/>
-      <c r="AF19" s="433"/>
-      <c r="AG19" s="433"/>
-      <c r="AH19" s="433"/>
-      <c r="AI19" s="433"/>
-      <c r="AJ19" s="433"/>
-      <c r="AK19" s="433"/>
-      <c r="AL19" s="433"/>
-      <c r="AM19" s="433"/>
+      <c r="AC19" s="461"/>
+      <c r="AD19" s="461"/>
+      <c r="AE19" s="461"/>
+      <c r="AF19" s="461"/>
+      <c r="AG19" s="461"/>
+      <c r="AH19" s="461"/>
+      <c r="AI19" s="461"/>
+      <c r="AJ19" s="461"/>
+      <c r="AK19" s="461"/>
+      <c r="AL19" s="461"/>
+      <c r="AM19" s="461"/>
       <c r="AN19" s="245"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
@@ -9148,131 +9154,131 @@
       <c r="AN34" s="250"/>
     </row>
     <row r="35" spans="3:40" s="249" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="420"/>
-      <c r="H35" s="420"/>
-      <c r="I35" s="420"/>
-      <c r="J35" s="420"/>
-      <c r="K35" s="420"/>
-      <c r="L35" s="420"/>
-      <c r="M35" s="420"/>
-      <c r="N35" s="420"/>
-      <c r="O35" s="420"/>
-      <c r="P35" s="420"/>
-      <c r="Q35" s="420"/>
-      <c r="R35" s="420"/>
-      <c r="S35" s="420"/>
-      <c r="T35" s="420"/>
-      <c r="U35" s="420"/>
-      <c r="V35" s="420"/>
-      <c r="W35" s="420"/>
-      <c r="X35" s="420"/>
+      <c r="G35" s="448"/>
+      <c r="H35" s="448"/>
+      <c r="I35" s="448"/>
+      <c r="J35" s="448"/>
+      <c r="K35" s="448"/>
+      <c r="L35" s="448"/>
+      <c r="M35" s="448"/>
+      <c r="N35" s="448"/>
+      <c r="O35" s="448"/>
+      <c r="P35" s="448"/>
+      <c r="Q35" s="448"/>
+      <c r="R35" s="448"/>
+      <c r="S35" s="448"/>
+      <c r="T35" s="448"/>
+      <c r="U35" s="448"/>
+      <c r="V35" s="448"/>
+      <c r="W35" s="448"/>
+      <c r="X35" s="448"/>
       <c r="AN35" s="250"/>
     </row>
     <row r="36" spans="3:40" s="249" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="420"/>
-      <c r="H36" s="420"/>
-      <c r="I36" s="420"/>
-      <c r="J36" s="420"/>
-      <c r="K36" s="420"/>
-      <c r="L36" s="420"/>
-      <c r="M36" s="420"/>
-      <c r="N36" s="420"/>
-      <c r="O36" s="420"/>
-      <c r="P36" s="420"/>
-      <c r="Q36" s="420"/>
-      <c r="R36" s="420"/>
-      <c r="S36" s="420"/>
-      <c r="T36" s="420"/>
-      <c r="U36" s="420"/>
-      <c r="V36" s="420"/>
-      <c r="W36" s="420"/>
-      <c r="X36" s="420"/>
+      <c r="G36" s="448"/>
+      <c r="H36" s="448"/>
+      <c r="I36" s="448"/>
+      <c r="J36" s="448"/>
+      <c r="K36" s="448"/>
+      <c r="L36" s="448"/>
+      <c r="M36" s="448"/>
+      <c r="N36" s="448"/>
+      <c r="O36" s="448"/>
+      <c r="P36" s="448"/>
+      <c r="Q36" s="448"/>
+      <c r="R36" s="448"/>
+      <c r="S36" s="448"/>
+      <c r="T36" s="448"/>
+      <c r="U36" s="448"/>
+      <c r="V36" s="448"/>
+      <c r="W36" s="448"/>
+      <c r="X36" s="448"/>
       <c r="AN36" s="250"/>
     </row>
     <row r="37" spans="3:40" s="249" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="420"/>
-      <c r="H37" s="420"/>
-      <c r="I37" s="420"/>
-      <c r="J37" s="420"/>
-      <c r="K37" s="420"/>
-      <c r="L37" s="420"/>
-      <c r="M37" s="420"/>
-      <c r="N37" s="420"/>
-      <c r="O37" s="420"/>
-      <c r="P37" s="420"/>
-      <c r="Q37" s="420"/>
-      <c r="R37" s="420"/>
-      <c r="S37" s="420"/>
-      <c r="T37" s="420"/>
-      <c r="U37" s="420"/>
-      <c r="V37" s="420"/>
-      <c r="W37" s="420"/>
-      <c r="X37" s="420"/>
+      <c r="G37" s="448"/>
+      <c r="H37" s="448"/>
+      <c r="I37" s="448"/>
+      <c r="J37" s="448"/>
+      <c r="K37" s="448"/>
+      <c r="L37" s="448"/>
+      <c r="M37" s="448"/>
+      <c r="N37" s="448"/>
+      <c r="O37" s="448"/>
+      <c r="P37" s="448"/>
+      <c r="Q37" s="448"/>
+      <c r="R37" s="448"/>
+      <c r="S37" s="448"/>
+      <c r="T37" s="448"/>
+      <c r="U37" s="448"/>
+      <c r="V37" s="448"/>
+      <c r="W37" s="448"/>
+      <c r="X37" s="448"/>
       <c r="AN37" s="250"/>
     </row>
     <row r="38" spans="3:40" s="249" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="420"/>
-      <c r="H38" s="420"/>
-      <c r="I38" s="420"/>
-      <c r="J38" s="420"/>
-      <c r="K38" s="420"/>
-      <c r="L38" s="420"/>
-      <c r="M38" s="420"/>
-      <c r="N38" s="420"/>
-      <c r="O38" s="420"/>
-      <c r="P38" s="420"/>
-      <c r="Q38" s="420"/>
-      <c r="R38" s="420"/>
-      <c r="S38" s="420"/>
-      <c r="T38" s="420"/>
-      <c r="U38" s="420"/>
-      <c r="V38" s="420"/>
-      <c r="W38" s="420"/>
-      <c r="X38" s="420"/>
+      <c r="G38" s="448"/>
+      <c r="H38" s="448"/>
+      <c r="I38" s="448"/>
+      <c r="J38" s="448"/>
+      <c r="K38" s="448"/>
+      <c r="L38" s="448"/>
+      <c r="M38" s="448"/>
+      <c r="N38" s="448"/>
+      <c r="O38" s="448"/>
+      <c r="P38" s="448"/>
+      <c r="Q38" s="448"/>
+      <c r="R38" s="448"/>
+      <c r="S38" s="448"/>
+      <c r="T38" s="448"/>
+      <c r="U38" s="448"/>
+      <c r="V38" s="448"/>
+      <c r="W38" s="448"/>
+      <c r="X38" s="448"/>
       <c r="AN38" s="250"/>
     </row>
     <row r="39" spans="3:40" s="249" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="420"/>
-      <c r="H39" s="420"/>
-      <c r="I39" s="420"/>
-      <c r="J39" s="420"/>
-      <c r="K39" s="420"/>
-      <c r="L39" s="420"/>
-      <c r="M39" s="420"/>
-      <c r="N39" s="420"/>
-      <c r="O39" s="420"/>
-      <c r="P39" s="420"/>
-      <c r="Q39" s="420"/>
-      <c r="R39" s="420"/>
-      <c r="S39" s="420"/>
-      <c r="T39" s="420"/>
-      <c r="U39" s="420"/>
-      <c r="V39" s="420"/>
-      <c r="W39" s="420"/>
-      <c r="X39" s="420"/>
+      <c r="G39" s="448"/>
+      <c r="H39" s="448"/>
+      <c r="I39" s="448"/>
+      <c r="J39" s="448"/>
+      <c r="K39" s="448"/>
+      <c r="L39" s="448"/>
+      <c r="M39" s="448"/>
+      <c r="N39" s="448"/>
+      <c r="O39" s="448"/>
+      <c r="P39" s="448"/>
+      <c r="Q39" s="448"/>
+      <c r="R39" s="448"/>
+      <c r="S39" s="448"/>
+      <c r="T39" s="448"/>
+      <c r="U39" s="448"/>
+      <c r="V39" s="448"/>
+      <c r="W39" s="448"/>
+      <c r="X39" s="448"/>
       <c r="AN39" s="250"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C40" s="211"/>
       <c r="D40" s="211"/>
-      <c r="G40" s="420"/>
-      <c r="H40" s="420"/>
-      <c r="I40" s="420"/>
-      <c r="J40" s="420"/>
-      <c r="K40" s="420"/>
-      <c r="L40" s="420"/>
-      <c r="M40" s="420"/>
-      <c r="N40" s="420"/>
-      <c r="O40" s="420"/>
-      <c r="P40" s="420"/>
-      <c r="Q40" s="420"/>
-      <c r="R40" s="420"/>
-      <c r="S40" s="420"/>
-      <c r="T40" s="420"/>
-      <c r="U40" s="420"/>
-      <c r="V40" s="420"/>
-      <c r="W40" s="420"/>
-      <c r="X40" s="420"/>
+      <c r="G40" s="448"/>
+      <c r="H40" s="448"/>
+      <c r="I40" s="448"/>
+      <c r="J40" s="448"/>
+      <c r="K40" s="448"/>
+      <c r="L40" s="448"/>
+      <c r="M40" s="448"/>
+      <c r="N40" s="448"/>
+      <c r="O40" s="448"/>
+      <c r="P40" s="448"/>
+      <c r="Q40" s="448"/>
+      <c r="R40" s="448"/>
+      <c r="S40" s="448"/>
+      <c r="T40" s="448"/>
+      <c r="U40" s="448"/>
+      <c r="V40" s="448"/>
+      <c r="W40" s="448"/>
+      <c r="X40" s="448"/>
       <c r="AN40" s="211"/>
     </row>
     <row r="41" spans="3:40" x14ac:dyDescent="0.25">
@@ -9282,6 +9288,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="Z1:AH1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
     <mergeCell ref="G35:X40"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AH5"/>
@@ -9298,13 +9311,6 @@
     <mergeCell ref="AC19:AM19"/>
     <mergeCell ref="Z6:AE6"/>
     <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="Z1:AH1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -9313,10 +9319,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -9327,12 +9333,13 @@
     <col min="4" max="4" width="12.28515625" style="44" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="43" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="44" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="44" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="44" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" style="44" customWidth="1"/>
     <col min="9" max="10" width="15.7109375" style="44" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="44" customWidth="1"/>
     <col min="12" max="12" width="7.140625" style="44" customWidth="1"/>
-    <col min="13" max="256" width="9" style="44"/>
+    <col min="13" max="13" width="17.42578125" style="44" customWidth="1"/>
+    <col min="14" max="256" width="9" style="44"/>
     <col min="257" max="257" width="5.28515625" style="44" customWidth="1"/>
     <col min="258" max="258" width="14.28515625" style="44" customWidth="1"/>
     <col min="259" max="259" width="9.7109375" style="44" customWidth="1"/>
@@ -10154,41 +10161,41 @@
     <col min="16141" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="442" t="s">
+    <row r="1" spans="1:13" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="479" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="442"/>
-      <c r="C1" s="442"/>
-      <c r="D1" s="442"/>
+      <c r="B1" s="479"/>
+      <c r="C1" s="479"/>
+      <c r="D1" s="479"/>
       <c r="E1" s="80"/>
-      <c r="F1" s="443" t="s">
+      <c r="F1" s="480" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="443"/>
-      <c r="H1" s="443"/>
-      <c r="I1" s="443"/>
-      <c r="J1" s="443"/>
-      <c r="K1" s="443"/>
-    </row>
-    <row r="2" spans="1:12" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="444" t="s">
+      <c r="G1" s="480"/>
+      <c r="H1" s="480"/>
+      <c r="I1" s="480"/>
+      <c r="J1" s="480"/>
+      <c r="K1" s="480"/>
+    </row>
+    <row r="2" spans="1:13" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="481" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="444"/>
-      <c r="C2" s="444"/>
-      <c r="D2" s="444"/>
+      <c r="B2" s="481"/>
+      <c r="C2" s="481"/>
+      <c r="D2" s="481"/>
       <c r="E2" s="80"/>
-      <c r="F2" s="445" t="s">
+      <c r="F2" s="482" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="445"/>
-      <c r="H2" s="445"/>
-      <c r="I2" s="445"/>
-      <c r="J2" s="445"/>
-      <c r="K2" s="445"/>
-    </row>
-    <row r="3" spans="1:12" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G2" s="482"/>
+      <c r="H2" s="482"/>
+      <c r="I2" s="482"/>
+      <c r="J2" s="482"/>
+      <c r="K2" s="482"/>
+    </row>
+    <row r="3" spans="1:13" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -10198,46 +10205,46 @@
       <c r="H3" s="81"/>
       <c r="I3" s="81"/>
     </row>
-    <row r="4" spans="1:12" s="42" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="446" t="s">
+    <row r="4" spans="1:13" s="42" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="483" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="446"/>
-      <c r="C4" s="446"/>
-      <c r="D4" s="446"/>
-      <c r="E4" s="446"/>
-      <c r="F4" s="446"/>
-      <c r="G4" s="446"/>
-      <c r="H4" s="446"/>
-      <c r="I4" s="446"/>
-      <c r="J4" s="446"/>
-      <c r="K4" s="446"/>
-      <c r="L4" s="446"/>
-    </row>
-    <row r="5" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="447" t="s">
+      <c r="B4" s="483"/>
+      <c r="C4" s="483"/>
+      <c r="D4" s="483"/>
+      <c r="E4" s="483"/>
+      <c r="F4" s="483"/>
+      <c r="G4" s="483"/>
+      <c r="H4" s="483"/>
+      <c r="I4" s="483"/>
+      <c r="J4" s="483"/>
+      <c r="K4" s="483"/>
+      <c r="L4" s="483"/>
+    </row>
+    <row r="5" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="484" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="447"/>
-      <c r="C5" s="447"/>
-      <c r="D5" s="447"/>
-      <c r="E5" s="447"/>
-      <c r="F5" s="447"/>
-      <c r="G5" s="447"/>
-      <c r="H5" s="447"/>
-      <c r="I5" s="447"/>
-      <c r="J5" s="447"/>
-      <c r="K5" s="447"/>
-      <c r="L5" s="447"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J6" s="448" t="s">
+      <c r="B5" s="484"/>
+      <c r="C5" s="484"/>
+      <c r="D5" s="484"/>
+      <c r="E5" s="484"/>
+      <c r="F5" s="484"/>
+      <c r="G5" s="484"/>
+      <c r="H5" s="484"/>
+      <c r="I5" s="484"/>
+      <c r="J5" s="484"/>
+      <c r="K5" s="484"/>
+      <c r="L5" s="484"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J6" s="485" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="448"/>
-      <c r="L6" s="448"/>
-    </row>
-    <row r="7" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="K6" s="485"/>
+      <c r="L6" s="485"/>
+    </row>
+    <row r="7" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="146" t="s">
         <v>17</v>
       </c>
@@ -10275,7 +10282,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="146"/>
       <c r="B8" s="147"/>
       <c r="C8" s="147"/>
@@ -10301,13 +10308,13 @@
       <c r="K8" s="147"/>
       <c r="L8" s="146"/>
     </row>
-    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="439" t="s">
+    <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="476" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="440"/>
-      <c r="C9" s="440"/>
-      <c r="D9" s="441"/>
+      <c r="B9" s="477"/>
+      <c r="C9" s="477"/>
+      <c r="D9" s="478"/>
       <c r="E9" s="148"/>
       <c r="F9" s="152">
         <f>SUM(F10:F12)</f>
@@ -10332,7 +10339,7 @@
       <c r="K9" s="147"/>
       <c r="L9" s="146"/>
     </row>
-    <row r="10" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="150">
         <v>1</v>
       </c>
@@ -10365,7 +10372,7 @@
       <c r="K10" s="83"/>
       <c r="L10" s="150"/>
     </row>
-    <row r="11" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="45">
         <v>3</v>
       </c>
@@ -10398,7 +10405,7 @@
       <c r="K11" s="48"/>
       <c r="L11" s="45"/>
     </row>
-    <row r="12" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="50">
         <v>4</v>
       </c>
@@ -10429,13 +10436,13 @@
       <c r="K12" s="53"/>
       <c r="L12" s="50"/>
     </row>
-    <row r="13" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="436" t="s">
+    <row r="13" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="473" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="437"/>
-      <c r="C13" s="437"/>
-      <c r="D13" s="438"/>
+      <c r="B13" s="474"/>
+      <c r="C13" s="474"/>
+      <c r="D13" s="475"/>
       <c r="E13" s="89"/>
       <c r="F13" s="152">
         <f>SUM(F14:F14)</f>
@@ -10443,7 +10450,7 @@
       </c>
       <c r="G13" s="152">
         <f>SUM(G14:G14)</f>
-        <v>0</v>
+        <v>1650000</v>
       </c>
       <c r="H13" s="152">
         <f>SUM(H14:H14)</f>
@@ -10455,12 +10462,12 @@
       </c>
       <c r="J13" s="152">
         <f>SUM(J14:J14)</f>
-        <v>4173076.9230769235</v>
+        <v>5823076.9230769239</v>
       </c>
       <c r="K13" s="153"/>
       <c r="L13" s="147"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="54">
         <v>2</v>
       </c>
@@ -10481,22 +10488,28 @@
         <f>D14/26*E14</f>
         <v>4173076.9230769235</v>
       </c>
-      <c r="G14" s="57"/>
+      <c r="G14" s="57">
+        <f>31*50000+10*10000</f>
+        <v>1650000</v>
+      </c>
       <c r="H14" s="57"/>
       <c r="I14" s="57"/>
       <c r="J14" s="57">
         <f>F14+G14-H14+I14</f>
-        <v>4173076.9230769235</v>
+        <v>5823076.9230769239</v>
       </c>
       <c r="K14" s="57"/>
       <c r="L14" s="54"/>
-    </row>
-    <row r="15" spans="1:12" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="449" t="s">
+      <c r="M14" s="489" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="486" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="450"/>
-      <c r="C15" s="451"/>
+      <c r="B15" s="487"/>
+      <c r="C15" s="488"/>
       <c r="D15" s="86"/>
       <c r="E15" s="87"/>
       <c r="F15" s="86">
@@ -10505,7 +10518,7 @@
       </c>
       <c r="G15" s="86">
         <f>G13+G9</f>
-        <v>0</v>
+        <v>1650000</v>
       </c>
       <c r="H15" s="86">
         <f>H13+H9</f>
@@ -10517,20 +10530,20 @@
       </c>
       <c r="J15" s="86">
         <f>J13+J9</f>
-        <v>217023364</v>
+        <v>218673364</v>
       </c>
       <c r="K15" s="85"/>
       <c r="L15" s="85"/>
     </row>
     <row r="17" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="434"/>
-      <c r="C17" s="434"/>
-      <c r="D17" s="434"/>
+      <c r="B17" s="471"/>
+      <c r="C17" s="471"/>
+      <c r="D17" s="471"/>
       <c r="E17" s="82"/>
-      <c r="H17" s="434"/>
-      <c r="I17" s="434"/>
-      <c r="J17" s="434"/>
-      <c r="K17" s="434"/>
+      <c r="H17" s="471"/>
+      <c r="I17" s="471"/>
+      <c r="J17" s="471"/>
+      <c r="K17" s="471"/>
     </row>
     <row r="18" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B18" s="143" t="s">
@@ -10542,12 +10555,12 @@
         <v>84</v>
       </c>
       <c r="G18" s="143"/>
-      <c r="H18" s="434" t="s">
+      <c r="H18" s="471" t="s">
         <v>90</v>
       </c>
-      <c r="I18" s="434"/>
-      <c r="J18" s="434"/>
-      <c r="K18" s="434"/>
+      <c r="I18" s="471"/>
+      <c r="J18" s="471"/>
+      <c r="K18" s="471"/>
     </row>
     <row r="19" spans="2:11" s="144" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B19" s="145" t="s">
@@ -10559,12 +10572,12 @@
         <v>91</v>
       </c>
       <c r="G19" s="145"/>
-      <c r="H19" s="435" t="s">
+      <c r="H19" s="472" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="435"/>
-      <c r="J19" s="435"/>
-      <c r="K19" s="435"/>
+      <c r="I19" s="472"/>
+      <c r="J19" s="472"/>
+      <c r="K19" s="472"/>
     </row>
     <row r="22" spans="2:11" s="96" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="91"/>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 12_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 12_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="5"/>
+    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -577,7 +577,7 @@
     <t>Thanh Hà</t>
   </si>
   <si>
-    <t>31h Nanomilk+10h SN trừ vinamilk,bỉm</t>
+    <t>31h NNM+10h SN</t>
   </si>
 </sst>
 </file>
@@ -2040,6 +2040,9 @@
     <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2070,6 +2073,87 @@
     <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2086,6 +2170,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2109,112 +2208,28 @@
     <xf numFmtId="168" fontId="28" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2247,28 +2262,16 @@
     <xf numFmtId="167" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2286,6 +2289,33 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2328,33 +2358,6 @@
     <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2408,9 +2411,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2793,16 +2793,16 @@
       <c r="Q2" s="106"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="372" t="s">
+      <c r="A3" s="373" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="372"/>
-      <c r="C3" s="372"/>
-      <c r="D3" s="372"/>
-      <c r="E3" s="372"/>
-      <c r="F3" s="372"/>
-      <c r="G3" s="372"/>
-      <c r="H3" s="372"/>
+      <c r="B3" s="373"/>
+      <c r="C3" s="373"/>
+      <c r="D3" s="373"/>
+      <c r="E3" s="373"/>
+      <c r="F3" s="373"/>
+      <c r="G3" s="373"/>
+      <c r="H3" s="373"/>
       <c r="I3" s="107"/>
       <c r="J3" s="107"/>
       <c r="K3" s="107"/>
@@ -2814,32 +2814,32 @@
       <c r="Q3" s="107"/>
     </row>
     <row r="4" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="373" t="s">
+      <c r="A4" s="374" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="373" t="s">
+      <c r="B4" s="374" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="373" t="s">
+      <c r="C4" s="374" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="374" t="s">
+      <c r="D4" s="375" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="375" t="s">
+      <c r="E4" s="376" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="375"/>
-      <c r="G4" s="375" t="s">
+      <c r="F4" s="376"/>
+      <c r="G4" s="376" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="375"/>
+      <c r="H4" s="376"/>
     </row>
     <row r="5" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="373"/>
-      <c r="B5" s="373"/>
-      <c r="C5" s="373"/>
-      <c r="D5" s="374"/>
+      <c r="A5" s="374"/>
+      <c r="B5" s="374"/>
+      <c r="C5" s="374"/>
+      <c r="D5" s="375"/>
       <c r="E5" s="203" t="s">
         <v>80</v>
       </c>
@@ -3062,8 +3062,8 @@
       <c r="F25" s="108"/>
       <c r="G25" s="95"/>
       <c r="H25" s="110"/>
-      <c r="K25" s="366"/>
-      <c r="L25" s="367"/>
+      <c r="K25" s="367"/>
+      <c r="L25" s="368"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="92"/>
@@ -3684,12 +3684,12 @@
       <c r="H86" s="110"/>
     </row>
     <row r="87" spans="1:10" s="113" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="369" t="s">
+      <c r="A87" s="370" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="370"/>
-      <c r="C87" s="370"/>
-      <c r="D87" s="371"/>
+      <c r="B87" s="371"/>
+      <c r="C87" s="371"/>
+      <c r="D87" s="372"/>
       <c r="E87" s="112">
         <f>SUM(E9:E86)</f>
         <v>0</v>
@@ -3720,11 +3720,11 @@
       <c r="J88" s="114"/>
     </row>
     <row r="89" spans="1:10" s="113" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A89" s="368" t="s">
+      <c r="A89" s="369" t="s">
         <v>81</v>
       </c>
-      <c r="B89" s="368"/>
-      <c r="C89" s="368"/>
+      <c r="B89" s="369"/>
+      <c r="C89" s="369"/>
       <c r="D89" s="115"/>
       <c r="E89" s="116"/>
       <c r="F89" s="116"/>
@@ -3813,13 +3813,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="393" t="s">
+      <c r="A1" s="412" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="393"/>
-      <c r="C1" s="393"/>
-      <c r="D1" s="393"/>
-      <c r="E1" s="393"/>
+      <c r="B1" s="412"/>
+      <c r="C1" s="412"/>
+      <c r="D1" s="412"/>
+      <c r="E1" s="412"/>
       <c r="H1" s="124"/>
       <c r="I1" s="124"/>
       <c r="J1" s="124"/>
@@ -3849,44 +3849,44 @@
       <c r="P2" s="128"/>
     </row>
     <row r="3" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="394" t="s">
+      <c r="A3" s="413" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="394"/>
-      <c r="C3" s="394"/>
-      <c r="D3" s="394"/>
-      <c r="E3" s="394"/>
-      <c r="F3" s="394"/>
-      <c r="G3" s="394"/>
-      <c r="H3" s="394"/>
-      <c r="I3" s="394"/>
-      <c r="J3" s="394"/>
-      <c r="K3" s="394"/>
-      <c r="L3" s="394"/>
-      <c r="M3" s="394"/>
-      <c r="N3" s="394"/>
-      <c r="O3" s="394"/>
-      <c r="P3" s="394"/>
+      <c r="B3" s="413"/>
+      <c r="C3" s="413"/>
+      <c r="D3" s="413"/>
+      <c r="E3" s="413"/>
+      <c r="F3" s="413"/>
+      <c r="G3" s="413"/>
+      <c r="H3" s="413"/>
+      <c r="I3" s="413"/>
+      <c r="J3" s="413"/>
+      <c r="K3" s="413"/>
+      <c r="L3" s="413"/>
+      <c r="M3" s="413"/>
+      <c r="N3" s="413"/>
+      <c r="O3" s="413"/>
+      <c r="P3" s="413"/>
     </row>
     <row r="4" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="394" t="s">
+      <c r="A4" s="413" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="394"/>
-      <c r="C4" s="394"/>
-      <c r="D4" s="394"/>
-      <c r="E4" s="394"/>
-      <c r="F4" s="394"/>
-      <c r="G4" s="394"/>
-      <c r="H4" s="394"/>
-      <c r="I4" s="394"/>
-      <c r="J4" s="394"/>
-      <c r="K4" s="394"/>
-      <c r="L4" s="394"/>
-      <c r="M4" s="394"/>
-      <c r="N4" s="394"/>
-      <c r="O4" s="394"/>
-      <c r="P4" s="394"/>
+      <c r="B4" s="413"/>
+      <c r="C4" s="413"/>
+      <c r="D4" s="413"/>
+      <c r="E4" s="413"/>
+      <c r="F4" s="413"/>
+      <c r="G4" s="413"/>
+      <c r="H4" s="413"/>
+      <c r="I4" s="413"/>
+      <c r="J4" s="413"/>
+      <c r="K4" s="413"/>
+      <c r="L4" s="413"/>
+      <c r="M4" s="413"/>
+      <c r="N4" s="413"/>
+      <c r="O4" s="413"/>
+      <c r="P4" s="413"/>
     </row>
     <row r="5" spans="1:16" s="123" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="399" t="s">
@@ -3902,21 +3902,21 @@
         <v>39</v>
       </c>
       <c r="E5" s="399"/>
-      <c r="F5" s="396" t="s">
+      <c r="F5" s="401" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="396"/>
-      <c r="H5" s="396"/>
-      <c r="I5" s="396"/>
-      <c r="J5" s="396"/>
-      <c r="K5" s="396"/>
-      <c r="L5" s="396"/>
-      <c r="M5" s="395" t="s">
+      <c r="G5" s="401"/>
+      <c r="H5" s="401"/>
+      <c r="I5" s="401"/>
+      <c r="J5" s="401"/>
+      <c r="K5" s="401"/>
+      <c r="L5" s="401"/>
+      <c r="M5" s="414" t="s">
         <v>125</v>
       </c>
-      <c r="N5" s="395"/>
-      <c r="O5" s="395"/>
-      <c r="P5" s="396" t="s">
+      <c r="N5" s="414"/>
+      <c r="O5" s="414"/>
+      <c r="P5" s="401" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3936,29 +3936,29 @@
       <c r="G6" s="399" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="397" t="s">
+      <c r="H6" s="402" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="397" t="s">
+      <c r="I6" s="402" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="401" t="s">
+      <c r="J6" s="403" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="401"/>
-      <c r="L6" s="397" t="s">
+      <c r="K6" s="403"/>
+      <c r="L6" s="402" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="397" t="s">
+      <c r="M6" s="402" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="397" t="s">
+      <c r="N6" s="402" t="s">
         <v>80</v>
       </c>
-      <c r="O6" s="397" t="s">
+      <c r="O6" s="402" t="s">
         <v>82</v>
       </c>
-      <c r="P6" s="396"/>
+      <c r="P6" s="401"/>
     </row>
     <row r="7" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="399"/>
@@ -3968,19 +3968,19 @@
       <c r="E7" s="399"/>
       <c r="F7" s="399"/>
       <c r="G7" s="399"/>
-      <c r="H7" s="397"/>
-      <c r="I7" s="397"/>
+      <c r="H7" s="402"/>
+      <c r="I7" s="402"/>
       <c r="J7" s="204" t="s">
         <v>83</v>
       </c>
       <c r="K7" s="194" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="397"/>
-      <c r="M7" s="397"/>
-      <c r="N7" s="397"/>
-      <c r="O7" s="397"/>
-      <c r="P7" s="396"/>
+      <c r="L7" s="402"/>
+      <c r="M7" s="402"/>
+      <c r="N7" s="402"/>
+      <c r="O7" s="402"/>
+      <c r="P7" s="401"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="336">
@@ -4024,19 +4024,19 @@
       <c r="P8" s="338"/>
     </row>
     <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="382" t="s">
+      <c r="A9" s="415" t="s">
         <v>153</v>
       </c>
-      <c r="B9" s="379">
+      <c r="B9" s="407">
         <v>44168</v>
       </c>
-      <c r="C9" s="376" t="s">
+      <c r="C9" s="404" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="376" t="s">
+      <c r="D9" s="404" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="382" t="s">
+      <c r="E9" s="415" t="s">
         <v>152</v>
       </c>
       <c r="F9" s="161" t="s">
@@ -4066,11 +4066,11 @@
       <c r="P9" s="161"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="383"/>
-      <c r="B10" s="380"/>
-      <c r="C10" s="377"/>
-      <c r="D10" s="377"/>
-      <c r="E10" s="383"/>
+      <c r="A10" s="416"/>
+      <c r="B10" s="408"/>
+      <c r="C10" s="405"/>
+      <c r="D10" s="405"/>
+      <c r="E10" s="416"/>
       <c r="F10" s="172" t="s">
         <v>145</v>
       </c>
@@ -4098,11 +4098,11 @@
       <c r="P10" s="172"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="383"/>
-      <c r="B11" s="380"/>
-      <c r="C11" s="377"/>
-      <c r="D11" s="377"/>
-      <c r="E11" s="383"/>
+      <c r="A11" s="416"/>
+      <c r="B11" s="408"/>
+      <c r="C11" s="405"/>
+      <c r="D11" s="405"/>
+      <c r="E11" s="416"/>
       <c r="F11" s="172" t="s">
         <v>146</v>
       </c>
@@ -4130,11 +4130,11 @@
       <c r="P11" s="172"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="383"/>
-      <c r="B12" s="380"/>
-      <c r="C12" s="377"/>
-      <c r="D12" s="377"/>
-      <c r="E12" s="383"/>
+      <c r="A12" s="416"/>
+      <c r="B12" s="408"/>
+      <c r="C12" s="405"/>
+      <c r="D12" s="405"/>
+      <c r="E12" s="416"/>
       <c r="F12" s="172" t="s">
         <v>147</v>
       </c>
@@ -4162,11 +4162,11 @@
       <c r="P12" s="303"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="383"/>
-      <c r="B13" s="380"/>
-      <c r="C13" s="377"/>
-      <c r="D13" s="377"/>
-      <c r="E13" s="383"/>
+      <c r="A13" s="416"/>
+      <c r="B13" s="408"/>
+      <c r="C13" s="405"/>
+      <c r="D13" s="405"/>
+      <c r="E13" s="416"/>
       <c r="F13" s="172" t="s">
         <v>148</v>
       </c>
@@ -4194,11 +4194,11 @@
       <c r="P13" s="303"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="383"/>
-      <c r="B14" s="380"/>
-      <c r="C14" s="377"/>
-      <c r="D14" s="377"/>
-      <c r="E14" s="383"/>
+      <c r="A14" s="416"/>
+      <c r="B14" s="408"/>
+      <c r="C14" s="405"/>
+      <c r="D14" s="405"/>
+      <c r="E14" s="416"/>
       <c r="F14" s="172" t="s">
         <v>149</v>
       </c>
@@ -4226,11 +4226,11 @@
       <c r="P14" s="172"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="383"/>
-      <c r="B15" s="380"/>
-      <c r="C15" s="377"/>
-      <c r="D15" s="377"/>
-      <c r="E15" s="383"/>
+      <c r="A15" s="416"/>
+      <c r="B15" s="408"/>
+      <c r="C15" s="405"/>
+      <c r="D15" s="405"/>
+      <c r="E15" s="416"/>
       <c r="F15" s="172" t="s">
         <v>150</v>
       </c>
@@ -4258,11 +4258,11 @@
       <c r="P15" s="197"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="384"/>
-      <c r="B16" s="381"/>
-      <c r="C16" s="378"/>
-      <c r="D16" s="378"/>
-      <c r="E16" s="384"/>
+      <c r="A16" s="417"/>
+      <c r="B16" s="409"/>
+      <c r="C16" s="406"/>
+      <c r="D16" s="406"/>
+      <c r="E16" s="417"/>
       <c r="F16" s="164" t="s">
         <v>151</v>
       </c>
@@ -4290,17 +4290,17 @@
       <c r="P16" s="164"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="376">
+      <c r="A17" s="404">
         <v>1269</v>
       </c>
-      <c r="B17" s="379">
+      <c r="B17" s="407">
         <v>44169</v>
       </c>
-      <c r="C17" s="376"/>
-      <c r="D17" s="376" t="s">
+      <c r="C17" s="404"/>
+      <c r="D17" s="404" t="s">
         <v>154</v>
       </c>
-      <c r="E17" s="376" t="s">
+      <c r="E17" s="404" t="s">
         <v>155</v>
       </c>
       <c r="F17" s="161" t="s">
@@ -4333,11 +4333,11 @@
       <c r="P17" s="161"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="378"/>
-      <c r="B18" s="381"/>
-      <c r="C18" s="378"/>
-      <c r="D18" s="378"/>
-      <c r="E18" s="378"/>
+      <c r="A18" s="406"/>
+      <c r="B18" s="409"/>
+      <c r="C18" s="406"/>
+      <c r="D18" s="406"/>
+      <c r="E18" s="406"/>
       <c r="F18" s="164" t="s">
         <v>151</v>
       </c>
@@ -4546,17 +4546,17 @@
       <c r="P22" s="334"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="376">
+      <c r="A23" s="404">
         <v>682</v>
       </c>
-      <c r="B23" s="379">
+      <c r="B23" s="407">
         <v>44174</v>
       </c>
-      <c r="C23" s="376"/>
-      <c r="D23" s="382" t="s">
+      <c r="C23" s="404"/>
+      <c r="D23" s="415" t="s">
         <v>165</v>
       </c>
-      <c r="E23" s="376"/>
+      <c r="E23" s="404"/>
       <c r="F23" s="333" t="s">
         <v>164</v>
       </c>
@@ -4581,16 +4581,16 @@
       <c r="M23" s="344"/>
       <c r="N23" s="344"/>
       <c r="O23" s="344"/>
-      <c r="P23" s="385" t="s">
+      <c r="P23" s="418" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="377"/>
-      <c r="B24" s="380"/>
-      <c r="C24" s="377"/>
-      <c r="D24" s="383"/>
-      <c r="E24" s="377"/>
+      <c r="A24" s="405"/>
+      <c r="B24" s="408"/>
+      <c r="C24" s="405"/>
+      <c r="D24" s="416"/>
+      <c r="E24" s="405"/>
       <c r="F24" s="168" t="s">
         <v>141</v>
       </c>
@@ -4615,14 +4615,14 @@
       <c r="M24" s="169"/>
       <c r="N24" s="169"/>
       <c r="O24" s="169"/>
-      <c r="P24" s="389"/>
+      <c r="P24" s="378"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="378"/>
-      <c r="B25" s="381"/>
-      <c r="C25" s="378"/>
-      <c r="D25" s="384"/>
-      <c r="E25" s="378"/>
+      <c r="A25" s="406"/>
+      <c r="B25" s="409"/>
+      <c r="C25" s="406"/>
+      <c r="D25" s="417"/>
+      <c r="E25" s="406"/>
       <c r="F25" s="171" t="s">
         <v>151</v>
       </c>
@@ -4647,7 +4647,7 @@
       <c r="M25" s="346"/>
       <c r="N25" s="346"/>
       <c r="O25" s="346"/>
-      <c r="P25" s="386"/>
+      <c r="P25" s="419"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="306">
@@ -4693,17 +4693,17 @@
       <c r="P26" s="306"/>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="376">
+      <c r="A27" s="404">
         <v>1290</v>
       </c>
-      <c r="B27" s="379">
+      <c r="B27" s="407">
         <v>44175</v>
       </c>
-      <c r="C27" s="376"/>
-      <c r="D27" s="382" t="s">
+      <c r="C27" s="404"/>
+      <c r="D27" s="415" t="s">
         <v>168</v>
       </c>
-      <c r="E27" s="376"/>
+      <c r="E27" s="404"/>
       <c r="F27" s="333" t="s">
         <v>144</v>
       </c>
@@ -4731,11 +4731,11 @@
       <c r="P27" s="333"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="377"/>
-      <c r="B28" s="380"/>
-      <c r="C28" s="377"/>
-      <c r="D28" s="383"/>
-      <c r="E28" s="377"/>
+      <c r="A28" s="405"/>
+      <c r="B28" s="408"/>
+      <c r="C28" s="405"/>
+      <c r="D28" s="416"/>
+      <c r="E28" s="405"/>
       <c r="F28" s="172" t="s">
         <v>164</v>
       </c>
@@ -4763,11 +4763,11 @@
       <c r="P28" s="168"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="378"/>
-      <c r="B29" s="381"/>
-      <c r="C29" s="378"/>
-      <c r="D29" s="384"/>
-      <c r="E29" s="378"/>
+      <c r="A29" s="406"/>
+      <c r="B29" s="409"/>
+      <c r="C29" s="406"/>
+      <c r="D29" s="417"/>
+      <c r="E29" s="406"/>
       <c r="F29" s="164" t="s">
         <v>147</v>
       </c>
@@ -4885,19 +4885,19 @@
       <c r="P31" s="306"/>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="376">
+      <c r="A32" s="404">
         <v>1284</v>
       </c>
-      <c r="B32" s="379">
+      <c r="B32" s="407">
         <v>44177</v>
       </c>
-      <c r="C32" s="376" t="s">
+      <c r="C32" s="404" t="s">
         <v>157</v>
       </c>
-      <c r="D32" s="376" t="s">
+      <c r="D32" s="404" t="s">
         <v>173</v>
       </c>
-      <c r="E32" s="376" t="s">
+      <c r="E32" s="404" t="s">
         <v>174</v>
       </c>
       <c r="F32" s="161" t="s">
@@ -4930,11 +4930,11 @@
       <c r="P32" s="333"/>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="378"/>
-      <c r="B33" s="381"/>
-      <c r="C33" s="378"/>
-      <c r="D33" s="378"/>
-      <c r="E33" s="378"/>
+      <c r="A33" s="406"/>
+      <c r="B33" s="409"/>
+      <c r="C33" s="406"/>
+      <c r="D33" s="406"/>
+      <c r="E33" s="406"/>
       <c r="F33" s="164" t="s">
         <v>147</v>
       </c>
@@ -5049,17 +5049,17 @@
       <c r="P35" s="306"/>
     </row>
     <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="376">
+      <c r="A36" s="404">
         <v>1287</v>
       </c>
-      <c r="B36" s="379">
+      <c r="B36" s="407">
         <v>44179</v>
       </c>
-      <c r="C36" s="376"/>
-      <c r="D36" s="382" t="s">
+      <c r="C36" s="404"/>
+      <c r="D36" s="415" t="s">
         <v>176</v>
       </c>
-      <c r="E36" s="376"/>
+      <c r="E36" s="404"/>
       <c r="F36" s="161" t="s">
         <v>164</v>
       </c>
@@ -5090,11 +5090,11 @@
       <c r="P36" s="333"/>
     </row>
     <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="377"/>
-      <c r="B37" s="380"/>
-      <c r="C37" s="377"/>
-      <c r="D37" s="383"/>
-      <c r="E37" s="377"/>
+      <c r="A37" s="405"/>
+      <c r="B37" s="408"/>
+      <c r="C37" s="405"/>
+      <c r="D37" s="416"/>
+      <c r="E37" s="405"/>
       <c r="F37" s="172" t="s">
         <v>147</v>
       </c>
@@ -5125,11 +5125,11 @@
       <c r="P37" s="168"/>
     </row>
     <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="377"/>
-      <c r="B38" s="380"/>
-      <c r="C38" s="377"/>
-      <c r="D38" s="383"/>
-      <c r="E38" s="377"/>
+      <c r="A38" s="405"/>
+      <c r="B38" s="408"/>
+      <c r="C38" s="405"/>
+      <c r="D38" s="416"/>
+      <c r="E38" s="405"/>
       <c r="F38" s="172" t="s">
         <v>148</v>
       </c>
@@ -5160,11 +5160,11 @@
       <c r="P38" s="172"/>
     </row>
     <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="378"/>
-      <c r="B39" s="381"/>
-      <c r="C39" s="378"/>
-      <c r="D39" s="384"/>
-      <c r="E39" s="378"/>
+      <c r="A39" s="406"/>
+      <c r="B39" s="409"/>
+      <c r="C39" s="406"/>
+      <c r="D39" s="417"/>
+      <c r="E39" s="406"/>
       <c r="F39" s="164" t="s">
         <v>151</v>
       </c>
@@ -5195,17 +5195,17 @@
       <c r="P39" s="164"/>
     </row>
     <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="385">
+      <c r="A40" s="418">
         <v>1295</v>
       </c>
-      <c r="B40" s="387">
+      <c r="B40" s="420">
         <v>44545</v>
       </c>
-      <c r="C40" s="385"/>
-      <c r="D40" s="385" t="s">
+      <c r="C40" s="418"/>
+      <c r="D40" s="418" t="s">
         <v>177</v>
       </c>
-      <c r="E40" s="385" t="s">
+      <c r="E40" s="418" t="s">
         <v>178</v>
       </c>
       <c r="F40" s="205" t="s">
@@ -5242,11 +5242,11 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="386"/>
-      <c r="B41" s="388"/>
-      <c r="C41" s="386"/>
-      <c r="D41" s="386"/>
-      <c r="E41" s="386"/>
+      <c r="A41" s="419"/>
+      <c r="B41" s="421"/>
+      <c r="C41" s="419"/>
+      <c r="D41" s="419"/>
+      <c r="E41" s="419"/>
       <c r="F41" s="164" t="s">
         <v>164</v>
       </c>
@@ -5277,19 +5277,19 @@
       <c r="P41" s="311"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="376">
+      <c r="A42" s="404">
         <v>1294</v>
       </c>
-      <c r="B42" s="379">
+      <c r="B42" s="407">
         <v>44180</v>
       </c>
-      <c r="C42" s="376" t="s">
+      <c r="C42" s="404" t="s">
         <v>180</v>
       </c>
-      <c r="D42" s="376" t="s">
+      <c r="D42" s="404" t="s">
         <v>180</v>
       </c>
-      <c r="E42" s="376"/>
+      <c r="E42" s="404"/>
       <c r="F42" s="161" t="s">
         <v>164</v>
       </c>
@@ -5320,11 +5320,11 @@
       <c r="P42" s="316"/>
     </row>
     <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="377"/>
-      <c r="B43" s="380"/>
-      <c r="C43" s="377"/>
-      <c r="D43" s="377"/>
-      <c r="E43" s="377"/>
+      <c r="A43" s="405"/>
+      <c r="B43" s="408"/>
+      <c r="C43" s="405"/>
+      <c r="D43" s="405"/>
+      <c r="E43" s="405"/>
       <c r="F43" s="172" t="s">
         <v>141</v>
       </c>
@@ -5355,11 +5355,11 @@
       <c r="P43" s="197"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="378"/>
-      <c r="B44" s="381"/>
-      <c r="C44" s="378"/>
-      <c r="D44" s="378"/>
-      <c r="E44" s="378"/>
+      <c r="A44" s="406"/>
+      <c r="B44" s="409"/>
+      <c r="C44" s="406"/>
+      <c r="D44" s="406"/>
+      <c r="E44" s="406"/>
       <c r="F44" s="164" t="s">
         <v>147</v>
       </c>
@@ -5433,19 +5433,19 @@
       <c r="P45" s="167"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="376">
+      <c r="A46" s="404">
         <v>1298</v>
       </c>
-      <c r="B46" s="379">
+      <c r="B46" s="407">
         <v>44181</v>
       </c>
-      <c r="C46" s="376" t="s">
+      <c r="C46" s="404" t="s">
         <v>157</v>
       </c>
-      <c r="D46" s="382" t="s">
+      <c r="D46" s="415" t="s">
         <v>181</v>
       </c>
-      <c r="E46" s="376" t="s">
+      <c r="E46" s="404" t="s">
         <v>182</v>
       </c>
       <c r="F46" s="161" t="s">
@@ -5478,11 +5478,11 @@
       <c r="P46" s="316"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="377"/>
-      <c r="B47" s="380"/>
-      <c r="C47" s="377"/>
-      <c r="D47" s="383"/>
-      <c r="E47" s="377"/>
+      <c r="A47" s="405"/>
+      <c r="B47" s="408"/>
+      <c r="C47" s="405"/>
+      <c r="D47" s="416"/>
+      <c r="E47" s="405"/>
       <c r="F47" s="168" t="s">
         <v>141</v>
       </c>
@@ -5513,11 +5513,11 @@
       <c r="P47" s="197"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="377"/>
-      <c r="B48" s="380"/>
-      <c r="C48" s="377"/>
-      <c r="D48" s="383"/>
-      <c r="E48" s="377"/>
+      <c r="A48" s="405"/>
+      <c r="B48" s="408"/>
+      <c r="C48" s="405"/>
+      <c r="D48" s="416"/>
+      <c r="E48" s="405"/>
       <c r="F48" s="172" t="s">
         <v>147</v>
       </c>
@@ -5548,11 +5548,11 @@
       <c r="P48" s="172"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="378"/>
-      <c r="B49" s="381"/>
-      <c r="C49" s="378"/>
-      <c r="D49" s="384"/>
-      <c r="E49" s="378"/>
+      <c r="A49" s="406"/>
+      <c r="B49" s="409"/>
+      <c r="C49" s="406"/>
+      <c r="D49" s="417"/>
+      <c r="E49" s="406"/>
       <c r="F49" s="164" t="s">
         <v>148</v>
       </c>
@@ -5601,11 +5601,11 @@
       <c r="P50" s="351"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="376"/>
-      <c r="B51" s="379"/>
-      <c r="C51" s="376"/>
-      <c r="D51" s="376"/>
-      <c r="E51" s="376"/>
+      <c r="A51" s="404"/>
+      <c r="B51" s="407"/>
+      <c r="C51" s="404"/>
+      <c r="D51" s="404"/>
+      <c r="E51" s="404"/>
       <c r="F51" s="161"/>
       <c r="G51" s="161"/>
       <c r="H51" s="162"/>
@@ -5619,11 +5619,11 @@
       <c r="P51" s="316"/>
     </row>
     <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="377"/>
-      <c r="B52" s="380"/>
-      <c r="C52" s="377"/>
-      <c r="D52" s="377"/>
-      <c r="E52" s="377"/>
+      <c r="A52" s="405"/>
+      <c r="B52" s="408"/>
+      <c r="C52" s="405"/>
+      <c r="D52" s="405"/>
+      <c r="E52" s="405"/>
       <c r="F52" s="172"/>
       <c r="G52" s="172"/>
       <c r="H52" s="173"/>
@@ -5637,11 +5637,11 @@
       <c r="P52" s="197"/>
     </row>
     <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="377"/>
-      <c r="B53" s="380"/>
-      <c r="C53" s="377"/>
-      <c r="D53" s="377"/>
-      <c r="E53" s="377"/>
+      <c r="A53" s="405"/>
+      <c r="B53" s="408"/>
+      <c r="C53" s="405"/>
+      <c r="D53" s="405"/>
+      <c r="E53" s="405"/>
       <c r="F53" s="172"/>
       <c r="G53" s="172"/>
       <c r="H53" s="173"/>
@@ -5655,11 +5655,11 @@
       <c r="P53" s="172"/>
     </row>
     <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="378"/>
-      <c r="B54" s="381"/>
-      <c r="C54" s="378"/>
-      <c r="D54" s="378"/>
-      <c r="E54" s="378"/>
+      <c r="A54" s="406"/>
+      <c r="B54" s="409"/>
+      <c r="C54" s="406"/>
+      <c r="D54" s="406"/>
+      <c r="E54" s="406"/>
       <c r="F54" s="164"/>
       <c r="G54" s="164"/>
       <c r="H54" s="165"/>
@@ -5673,11 +5673,11 @@
       <c r="P54" s="164"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="376"/>
-      <c r="B55" s="379"/>
-      <c r="C55" s="376"/>
-      <c r="D55" s="376"/>
-      <c r="E55" s="376"/>
+      <c r="A55" s="404"/>
+      <c r="B55" s="407"/>
+      <c r="C55" s="404"/>
+      <c r="D55" s="404"/>
+      <c r="E55" s="404"/>
       <c r="F55" s="161"/>
       <c r="G55" s="161"/>
       <c r="H55" s="162"/>
@@ -5691,11 +5691,11 @@
       <c r="P55" s="161"/>
     </row>
     <row r="56" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="377"/>
-      <c r="B56" s="380"/>
-      <c r="C56" s="377"/>
-      <c r="D56" s="377"/>
-      <c r="E56" s="377"/>
+      <c r="A56" s="405"/>
+      <c r="B56" s="408"/>
+      <c r="C56" s="405"/>
+      <c r="D56" s="405"/>
+      <c r="E56" s="405"/>
       <c r="F56" s="172"/>
       <c r="G56" s="172"/>
       <c r="H56" s="173"/>
@@ -5709,11 +5709,11 @@
       <c r="P56" s="172"/>
     </row>
     <row r="57" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="378"/>
-      <c r="B57" s="381"/>
-      <c r="C57" s="378"/>
-      <c r="D57" s="378"/>
-      <c r="E57" s="378"/>
+      <c r="A57" s="406"/>
+      <c r="B57" s="409"/>
+      <c r="C57" s="406"/>
+      <c r="D57" s="406"/>
+      <c r="E57" s="406"/>
       <c r="F57" s="164"/>
       <c r="G57" s="164"/>
       <c r="H57" s="165"/>
@@ -5763,11 +5763,11 @@
       <c r="P59" s="172"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="402"/>
-      <c r="B60" s="404"/>
-      <c r="C60" s="402"/>
-      <c r="D60" s="402"/>
-      <c r="E60" s="402"/>
+      <c r="A60" s="377"/>
+      <c r="B60" s="392"/>
+      <c r="C60" s="377"/>
+      <c r="D60" s="377"/>
+      <c r="E60" s="377"/>
       <c r="F60" s="172"/>
       <c r="G60" s="172"/>
       <c r="H60" s="173"/>
@@ -5781,11 +5781,11 @@
       <c r="P60" s="172"/>
     </row>
     <row r="61" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="403"/>
-      <c r="B61" s="405"/>
-      <c r="C61" s="403"/>
-      <c r="D61" s="403"/>
-      <c r="E61" s="403"/>
+      <c r="A61" s="379"/>
+      <c r="B61" s="394"/>
+      <c r="C61" s="379"/>
+      <c r="D61" s="379"/>
+      <c r="E61" s="379"/>
       <c r="F61" s="172"/>
       <c r="G61" s="172"/>
       <c r="H61" s="173"/>
@@ -5799,11 +5799,11 @@
       <c r="P61" s="172"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" s="402"/>
-      <c r="B62" s="404"/>
-      <c r="C62" s="402"/>
-      <c r="D62" s="402"/>
-      <c r="E62" s="402"/>
+      <c r="A62" s="377"/>
+      <c r="B62" s="392"/>
+      <c r="C62" s="377"/>
+      <c r="D62" s="377"/>
+      <c r="E62" s="377"/>
       <c r="F62" s="172"/>
       <c r="G62" s="172"/>
       <c r="H62" s="173"/>
@@ -5817,11 +5817,11 @@
       <c r="P62" s="172"/>
     </row>
     <row r="63" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="403"/>
-      <c r="B63" s="405"/>
-      <c r="C63" s="403"/>
-      <c r="D63" s="403"/>
-      <c r="E63" s="403"/>
+      <c r="A63" s="379"/>
+      <c r="B63" s="394"/>
+      <c r="C63" s="379"/>
+      <c r="D63" s="379"/>
+      <c r="E63" s="379"/>
       <c r="F63" s="172"/>
       <c r="G63" s="172"/>
       <c r="H63" s="173"/>
@@ -5871,11 +5871,11 @@
       <c r="P65" s="172"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="402"/>
-      <c r="B66" s="404"/>
-      <c r="C66" s="402"/>
-      <c r="D66" s="402"/>
-      <c r="E66" s="402"/>
+      <c r="A66" s="377"/>
+      <c r="B66" s="392"/>
+      <c r="C66" s="377"/>
+      <c r="D66" s="377"/>
+      <c r="E66" s="377"/>
       <c r="F66" s="172"/>
       <c r="G66" s="172"/>
       <c r="H66" s="173"/>
@@ -5886,14 +5886,14 @@
       <c r="M66" s="173"/>
       <c r="N66" s="173"/>
       <c r="O66" s="173"/>
-      <c r="P66" s="406"/>
+      <c r="P66" s="395"/>
     </row>
     <row r="67" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="403"/>
-      <c r="B67" s="405"/>
-      <c r="C67" s="403"/>
-      <c r="D67" s="403"/>
-      <c r="E67" s="403"/>
+      <c r="A67" s="379"/>
+      <c r="B67" s="394"/>
+      <c r="C67" s="379"/>
+      <c r="D67" s="379"/>
+      <c r="E67" s="379"/>
       <c r="F67" s="172"/>
       <c r="G67" s="172"/>
       <c r="H67" s="173"/>
@@ -5904,130 +5904,130 @@
       <c r="M67" s="173"/>
       <c r="N67" s="173"/>
       <c r="O67" s="173"/>
-      <c r="P67" s="407"/>
+      <c r="P67" s="396"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="402"/>
-      <c r="B68" s="404"/>
-      <c r="C68" s="402"/>
-      <c r="D68" s="417"/>
-      <c r="E68" s="402"/>
+      <c r="A68" s="377"/>
+      <c r="B68" s="392"/>
+      <c r="C68" s="377"/>
+      <c r="D68" s="389"/>
+      <c r="E68" s="377"/>
       <c r="F68" s="172"/>
       <c r="G68" s="172"/>
       <c r="H68" s="173"/>
       <c r="I68" s="173"/>
-      <c r="J68" s="408"/>
-      <c r="K68" s="411"/>
-      <c r="L68" s="414"/>
-      <c r="M68" s="414"/>
+      <c r="J68" s="380"/>
+      <c r="K68" s="383"/>
+      <c r="L68" s="386"/>
+      <c r="M68" s="386"/>
       <c r="N68" s="173"/>
       <c r="O68" s="173"/>
       <c r="P68" s="172"/>
     </row>
     <row r="69" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="389"/>
-      <c r="B69" s="420"/>
-      <c r="C69" s="389"/>
-      <c r="D69" s="418"/>
-      <c r="E69" s="389"/>
+      <c r="A69" s="378"/>
+      <c r="B69" s="393"/>
+      <c r="C69" s="378"/>
+      <c r="D69" s="390"/>
+      <c r="E69" s="378"/>
       <c r="F69" s="172"/>
       <c r="G69" s="172"/>
       <c r="H69" s="173"/>
       <c r="I69" s="173"/>
-      <c r="J69" s="409"/>
-      <c r="K69" s="412"/>
-      <c r="L69" s="415"/>
-      <c r="M69" s="415"/>
+      <c r="J69" s="381"/>
+      <c r="K69" s="384"/>
+      <c r="L69" s="387"/>
+      <c r="M69" s="387"/>
       <c r="N69" s="173"/>
       <c r="O69" s="173"/>
       <c r="P69" s="172"/>
     </row>
     <row r="70" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="389"/>
-      <c r="B70" s="420"/>
-      <c r="C70" s="389"/>
-      <c r="D70" s="418"/>
-      <c r="E70" s="389"/>
+      <c r="A70" s="378"/>
+      <c r="B70" s="393"/>
+      <c r="C70" s="378"/>
+      <c r="D70" s="390"/>
+      <c r="E70" s="378"/>
       <c r="F70" s="172"/>
       <c r="G70" s="172"/>
       <c r="H70" s="173"/>
       <c r="I70" s="173"/>
-      <c r="J70" s="409"/>
-      <c r="K70" s="412"/>
-      <c r="L70" s="415"/>
-      <c r="M70" s="415"/>
+      <c r="J70" s="381"/>
+      <c r="K70" s="384"/>
+      <c r="L70" s="387"/>
+      <c r="M70" s="387"/>
       <c r="N70" s="173"/>
       <c r="O70" s="173"/>
       <c r="P70" s="172"/>
     </row>
     <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="389"/>
-      <c r="B71" s="420"/>
-      <c r="C71" s="389"/>
-      <c r="D71" s="418"/>
-      <c r="E71" s="389"/>
+      <c r="A71" s="378"/>
+      <c r="B71" s="393"/>
+      <c r="C71" s="378"/>
+      <c r="D71" s="390"/>
+      <c r="E71" s="378"/>
       <c r="F71" s="172"/>
       <c r="G71" s="172"/>
       <c r="H71" s="173"/>
       <c r="I71" s="173"/>
-      <c r="J71" s="409"/>
-      <c r="K71" s="412"/>
-      <c r="L71" s="415"/>
-      <c r="M71" s="415"/>
+      <c r="J71" s="381"/>
+      <c r="K71" s="384"/>
+      <c r="L71" s="387"/>
+      <c r="M71" s="387"/>
       <c r="N71" s="173"/>
       <c r="O71" s="173"/>
       <c r="P71" s="172"/>
     </row>
     <row r="72" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="389"/>
-      <c r="B72" s="420"/>
-      <c r="C72" s="389"/>
-      <c r="D72" s="418"/>
-      <c r="E72" s="389"/>
+      <c r="A72" s="378"/>
+      <c r="B72" s="393"/>
+      <c r="C72" s="378"/>
+      <c r="D72" s="390"/>
+      <c r="E72" s="378"/>
       <c r="F72" s="172"/>
       <c r="G72" s="172"/>
       <c r="H72" s="173"/>
       <c r="I72" s="173"/>
-      <c r="J72" s="409"/>
-      <c r="K72" s="412"/>
-      <c r="L72" s="415"/>
-      <c r="M72" s="415"/>
+      <c r="J72" s="381"/>
+      <c r="K72" s="384"/>
+      <c r="L72" s="387"/>
+      <c r="M72" s="387"/>
       <c r="N72" s="173"/>
       <c r="O72" s="173"/>
       <c r="P72" s="172"/>
     </row>
     <row r="73" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="389"/>
-      <c r="B73" s="420"/>
-      <c r="C73" s="389"/>
-      <c r="D73" s="418"/>
-      <c r="E73" s="389"/>
+      <c r="A73" s="378"/>
+      <c r="B73" s="393"/>
+      <c r="C73" s="378"/>
+      <c r="D73" s="390"/>
+      <c r="E73" s="378"/>
       <c r="F73" s="172"/>
       <c r="G73" s="172"/>
       <c r="H73" s="173"/>
       <c r="I73" s="173"/>
-      <c r="J73" s="409"/>
-      <c r="K73" s="412"/>
-      <c r="L73" s="415"/>
-      <c r="M73" s="415"/>
+      <c r="J73" s="381"/>
+      <c r="K73" s="384"/>
+      <c r="L73" s="387"/>
+      <c r="M73" s="387"/>
       <c r="N73" s="173"/>
       <c r="O73" s="173"/>
       <c r="P73" s="172"/>
     </row>
     <row r="74" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="403"/>
-      <c r="B74" s="405"/>
-      <c r="C74" s="403"/>
-      <c r="D74" s="419"/>
-      <c r="E74" s="403"/>
+      <c r="A74" s="379"/>
+      <c r="B74" s="394"/>
+      <c r="C74" s="379"/>
+      <c r="D74" s="391"/>
+      <c r="E74" s="379"/>
       <c r="F74" s="172"/>
       <c r="G74" s="172"/>
       <c r="H74" s="173"/>
       <c r="I74" s="173"/>
-      <c r="J74" s="410"/>
-      <c r="K74" s="413"/>
-      <c r="L74" s="416"/>
-      <c r="M74" s="416"/>
+      <c r="J74" s="382"/>
+      <c r="K74" s="385"/>
+      <c r="L74" s="388"/>
+      <c r="M74" s="388"/>
       <c r="N74" s="173"/>
       <c r="O74" s="173"/>
       <c r="P74" s="197"/>
@@ -6114,17 +6114,17 @@
       <c r="N78" s="132"/>
       <c r="O78" s="132"/>
       <c r="P78" s="132"/>
-      <c r="Q78" s="390"/>
+      <c r="Q78" s="410"/>
     </row>
     <row r="79" spans="1:17" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="391" t="s">
+      <c r="A79" s="397" t="s">
         <v>135</v>
       </c>
-      <c r="B79" s="391"/>
-      <c r="C79" s="391"/>
-      <c r="D79" s="391"/>
-      <c r="E79" s="391"/>
-      <c r="F79" s="391"/>
+      <c r="B79" s="397"/>
+      <c r="C79" s="397"/>
+      <c r="D79" s="397"/>
+      <c r="E79" s="397"/>
+      <c r="F79" s="397"/>
       <c r="G79" s="131">
         <f>G78</f>
         <v>503</v>
@@ -6141,17 +6141,17 @@
       <c r="N79" s="136"/>
       <c r="O79" s="136"/>
       <c r="P79" s="136"/>
-      <c r="Q79" s="390"/>
+      <c r="Q79" s="410"/>
     </row>
     <row r="80" spans="1:17" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="392" t="s">
+      <c r="A80" s="411" t="s">
         <v>77</v>
       </c>
-      <c r="B80" s="392"/>
-      <c r="C80" s="392"/>
-      <c r="D80" s="392"/>
-      <c r="E80" s="392"/>
-      <c r="F80" s="392"/>
+      <c r="B80" s="411"/>
+      <c r="C80" s="411"/>
+      <c r="D80" s="411"/>
+      <c r="E80" s="411"/>
+      <c r="F80" s="411"/>
       <c r="G80" s="137" t="s">
         <v>45</v>
       </c>
@@ -6169,14 +6169,14 @@
       <c r="P80" s="138"/>
     </row>
     <row r="81" spans="1:16" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="391" t="s">
+      <c r="A81" s="397" t="s">
         <v>78</v>
       </c>
-      <c r="B81" s="391"/>
-      <c r="C81" s="391"/>
-      <c r="D81" s="391"/>
-      <c r="E81" s="391"/>
-      <c r="F81" s="391"/>
+      <c r="B81" s="397"/>
+      <c r="C81" s="397"/>
+      <c r="D81" s="397"/>
+      <c r="E81" s="397"/>
+      <c r="F81" s="397"/>
       <c r="G81" s="136"/>
       <c r="H81" s="136"/>
       <c r="I81" s="132"/>
@@ -6192,14 +6192,14 @@
       <c r="P81" s="138"/>
     </row>
     <row r="82" spans="1:16" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="391" t="s">
+      <c r="A82" s="397" t="s">
         <v>79</v>
       </c>
-      <c r="B82" s="391"/>
-      <c r="C82" s="391"/>
-      <c r="D82" s="391"/>
-      <c r="E82" s="391"/>
-      <c r="F82" s="391"/>
+      <c r="B82" s="397"/>
+      <c r="C82" s="397"/>
+      <c r="D82" s="397"/>
+      <c r="E82" s="397"/>
+      <c r="F82" s="397"/>
       <c r="G82" s="136"/>
       <c r="H82" s="136"/>
       <c r="I82" s="132"/>
@@ -6270,31 +6270,65 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="108">
-    <mergeCell ref="E68:E74"/>
-    <mergeCell ref="J68:J74"/>
-    <mergeCell ref="K68:K74"/>
-    <mergeCell ref="L68:L74"/>
-    <mergeCell ref="M68:M74"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="D68:D74"/>
-    <mergeCell ref="B68:B74"/>
-    <mergeCell ref="C68:C74"/>
-    <mergeCell ref="A68:A74"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="Q78:Q79"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E9:E16"/>
+    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="E23:E25"/>
     <mergeCell ref="A81:F81"/>
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="A78:F78"/>
@@ -6319,65 +6353,31 @@
     <mergeCell ref="C55:C57"/>
     <mergeCell ref="A51:A54"/>
     <mergeCell ref="D9:D16"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="Q78:Q79"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E9:E16"/>
-    <mergeCell ref="C9:C16"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="E68:E74"/>
+    <mergeCell ref="J68:J74"/>
+    <mergeCell ref="K68:K74"/>
+    <mergeCell ref="L68:L74"/>
+    <mergeCell ref="M68:M74"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="D68:D74"/>
+    <mergeCell ref="B68:B74"/>
+    <mergeCell ref="C68:C74"/>
+    <mergeCell ref="A68:A74"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.22" top="0.4" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -6422,75 +6422,75 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="427" t="s">
+      <c r="A3" s="432" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="427"/>
-      <c r="C3" s="427"/>
-      <c r="D3" s="427"/>
-      <c r="E3" s="427"/>
-      <c r="F3" s="427"/>
-      <c r="G3" s="427"/>
-      <c r="H3" s="427"/>
-      <c r="I3" s="427"/>
-      <c r="J3" s="427"/>
-      <c r="K3" s="427"/>
+      <c r="B3" s="432"/>
+      <c r="C3" s="432"/>
+      <c r="D3" s="432"/>
+      <c r="E3" s="432"/>
+      <c r="F3" s="432"/>
+      <c r="G3" s="432"/>
+      <c r="H3" s="432"/>
+      <c r="I3" s="432"/>
+      <c r="J3" s="432"/>
+      <c r="K3" s="432"/>
       <c r="L3" s="259"/>
       <c r="M3" s="259"/>
       <c r="N3" s="259"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="428" t="s">
+      <c r="A4" s="433" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="428"/>
-      <c r="C4" s="428"/>
-      <c r="D4" s="428"/>
-      <c r="E4" s="428"/>
-      <c r="F4" s="428"/>
-      <c r="G4" s="428"/>
-      <c r="H4" s="428"/>
-      <c r="I4" s="428"/>
-      <c r="J4" s="429"/>
-      <c r="K4" s="428"/>
+      <c r="B4" s="433"/>
+      <c r="C4" s="433"/>
+      <c r="D4" s="433"/>
+      <c r="E4" s="433"/>
+      <c r="F4" s="433"/>
+      <c r="G4" s="433"/>
+      <c r="H4" s="433"/>
+      <c r="I4" s="433"/>
+      <c r="J4" s="434"/>
+      <c r="K4" s="433"/>
       <c r="L4" s="260"/>
       <c r="M4" s="260"/>
       <c r="N4" s="260"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="430" t="s">
+      <c r="A5" s="435" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="431" t="s">
+      <c r="B5" s="436" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="430" t="s">
+      <c r="C5" s="435" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="430" t="s">
+      <c r="D5" s="435" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="430"/>
-      <c r="F5" s="432" t="s">
+      <c r="E5" s="435"/>
+      <c r="F5" s="437" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="432"/>
-      <c r="H5" s="432"/>
-      <c r="I5" s="432"/>
-      <c r="J5" s="433"/>
-      <c r="K5" s="434" t="s">
+      <c r="G5" s="437"/>
+      <c r="H5" s="437"/>
+      <c r="I5" s="437"/>
+      <c r="J5" s="438"/>
+      <c r="K5" s="439" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="426" t="s">
+      <c r="L5" s="431" t="s">
         <v>92</v>
       </c>
-      <c r="M5" s="426"/>
-      <c r="N5" s="426"/>
+      <c r="M5" s="431"/>
+      <c r="N5" s="431"/>
     </row>
     <row r="6" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="430"/>
-      <c r="B6" s="431"/>
-      <c r="C6" s="430"/>
+      <c r="A6" s="435"/>
+      <c r="B6" s="436"/>
+      <c r="C6" s="435"/>
       <c r="D6" s="261" t="s">
         <v>40</v>
       </c>
@@ -6512,7 +6512,7 @@
       <c r="J6" s="265" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="434"/>
+      <c r="K6" s="439"/>
       <c r="L6" s="266" t="s">
         <v>52</v>
       </c>
@@ -6596,17 +6596,17 @@
       <c r="N9" s="365"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="421">
+      <c r="A10" s="440">
         <v>1282</v>
       </c>
-      <c r="B10" s="423">
+      <c r="B10" s="442">
         <v>44175</v>
       </c>
-      <c r="C10" s="421"/>
-      <c r="D10" s="421" t="s">
+      <c r="C10" s="440"/>
+      <c r="D10" s="440" t="s">
         <v>183</v>
       </c>
-      <c r="E10" s="421"/>
+      <c r="E10" s="440"/>
       <c r="F10" s="267" t="s">
         <v>141</v>
       </c>
@@ -6632,11 +6632,11 @@
       <c r="N10" s="271"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="422"/>
-      <c r="B11" s="424"/>
-      <c r="C11" s="422"/>
-      <c r="D11" s="422"/>
-      <c r="E11" s="422"/>
+      <c r="A11" s="441"/>
+      <c r="B11" s="443"/>
+      <c r="C11" s="441"/>
+      <c r="D11" s="441"/>
+      <c r="E11" s="441"/>
       <c r="F11" s="278" t="s">
         <v>147</v>
       </c>
@@ -6662,17 +6662,17 @@
       <c r="N11" s="283"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="421">
+      <c r="A12" s="440">
         <v>1278</v>
       </c>
-      <c r="B12" s="423">
+      <c r="B12" s="442">
         <v>44540</v>
       </c>
-      <c r="C12" s="421"/>
-      <c r="D12" s="421" t="s">
+      <c r="C12" s="440"/>
+      <c r="D12" s="440" t="s">
         <v>183</v>
       </c>
-      <c r="E12" s="421"/>
+      <c r="E12" s="440"/>
       <c r="F12" s="267" t="s">
         <v>164</v>
       </c>
@@ -6698,11 +6698,11 @@
       <c r="N12" s="271"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="422"/>
-      <c r="B13" s="424"/>
-      <c r="C13" s="422"/>
-      <c r="D13" s="422"/>
-      <c r="E13" s="422"/>
+      <c r="A13" s="441"/>
+      <c r="B13" s="443"/>
+      <c r="C13" s="441"/>
+      <c r="D13" s="441"/>
+      <c r="E13" s="441"/>
       <c r="F13" s="278" t="s">
         <v>141</v>
       </c>
@@ -6732,7 +6732,7 @@
       <c r="B14" s="354"/>
       <c r="C14" s="352"/>
       <c r="D14" s="352"/>
-      <c r="E14" s="435"/>
+      <c r="E14" s="426"/>
       <c r="F14" s="353"/>
       <c r="G14" s="353"/>
       <c r="H14" s="356"/>
@@ -6748,7 +6748,7 @@
       <c r="B15" s="354"/>
       <c r="C15" s="352"/>
       <c r="D15" s="352"/>
-      <c r="E15" s="435"/>
+      <c r="E15" s="426"/>
       <c r="F15" s="272"/>
       <c r="G15" s="272"/>
       <c r="H15" s="273"/>
@@ -6764,7 +6764,7 @@
       <c r="B16" s="354"/>
       <c r="C16" s="352"/>
       <c r="D16" s="352"/>
-      <c r="E16" s="435"/>
+      <c r="E16" s="426"/>
       <c r="F16" s="272"/>
       <c r="G16" s="272"/>
       <c r="H16" s="273"/>
@@ -6780,7 +6780,7 @@
       <c r="B17" s="355"/>
       <c r="C17" s="353"/>
       <c r="D17" s="353"/>
-      <c r="E17" s="436"/>
+      <c r="E17" s="428"/>
       <c r="F17" s="272"/>
       <c r="G17" s="272"/>
       <c r="H17" s="273"/>
@@ -6792,11 +6792,11 @@
       <c r="N17" s="276"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="437"/>
-      <c r="B18" s="438"/>
-      <c r="C18" s="437"/>
-      <c r="D18" s="437"/>
-      <c r="E18" s="437"/>
+      <c r="A18" s="425"/>
+      <c r="B18" s="422"/>
+      <c r="C18" s="425"/>
+      <c r="D18" s="425"/>
+      <c r="E18" s="425"/>
       <c r="F18" s="272"/>
       <c r="G18" s="272"/>
       <c r="H18" s="273"/>
@@ -6808,11 +6808,11 @@
       <c r="N18" s="276"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="435"/>
-      <c r="B19" s="439"/>
-      <c r="C19" s="435"/>
-      <c r="D19" s="435"/>
-      <c r="E19" s="435"/>
+      <c r="A19" s="426"/>
+      <c r="B19" s="423"/>
+      <c r="C19" s="426"/>
+      <c r="D19" s="426"/>
+      <c r="E19" s="426"/>
       <c r="F19" s="272"/>
       <c r="G19" s="272"/>
       <c r="H19" s="273"/>
@@ -6824,11 +6824,11 @@
       <c r="N19" s="276"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="436"/>
-      <c r="B20" s="440"/>
-      <c r="C20" s="436"/>
-      <c r="D20" s="436"/>
-      <c r="E20" s="436"/>
+      <c r="A20" s="428"/>
+      <c r="B20" s="429"/>
+      <c r="C20" s="428"/>
+      <c r="D20" s="428"/>
+      <c r="E20" s="428"/>
       <c r="F20" s="272"/>
       <c r="G20" s="272"/>
       <c r="H20" s="273"/>
@@ -6856,11 +6856,11 @@
       <c r="N21" s="276"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="437"/>
-      <c r="B22" s="438"/>
-      <c r="C22" s="437"/>
-      <c r="D22" s="437"/>
-      <c r="E22" s="437"/>
+      <c r="A22" s="425"/>
+      <c r="B22" s="422"/>
+      <c r="C22" s="425"/>
+      <c r="D22" s="425"/>
+      <c r="E22" s="425"/>
       <c r="F22" s="272"/>
       <c r="G22" s="272"/>
       <c r="H22" s="273"/>
@@ -6872,11 +6872,11 @@
       <c r="N22" s="276"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="435"/>
-      <c r="B23" s="439"/>
-      <c r="C23" s="435"/>
-      <c r="D23" s="435"/>
-      <c r="E23" s="435"/>
+      <c r="A23" s="426"/>
+      <c r="B23" s="423"/>
+      <c r="C23" s="426"/>
+      <c r="D23" s="426"/>
+      <c r="E23" s="426"/>
       <c r="F23" s="272"/>
       <c r="G23" s="272"/>
       <c r="H23" s="273"/>
@@ -6888,11 +6888,11 @@
       <c r="N23" s="276"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="436"/>
-      <c r="B24" s="440"/>
-      <c r="C24" s="436"/>
-      <c r="D24" s="436"/>
-      <c r="E24" s="436"/>
+      <c r="A24" s="428"/>
+      <c r="B24" s="429"/>
+      <c r="C24" s="428"/>
+      <c r="D24" s="428"/>
+      <c r="E24" s="428"/>
       <c r="F24" s="272"/>
       <c r="G24" s="272"/>
       <c r="H24" s="273"/>
@@ -6936,11 +6936,11 @@
       <c r="N26" s="276"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="437"/>
-      <c r="B27" s="438"/>
-      <c r="C27" s="437"/>
-      <c r="D27" s="437"/>
-      <c r="E27" s="437"/>
+      <c r="A27" s="425"/>
+      <c r="B27" s="422"/>
+      <c r="C27" s="425"/>
+      <c r="D27" s="425"/>
+      <c r="E27" s="425"/>
       <c r="F27" s="272"/>
       <c r="G27" s="272"/>
       <c r="H27" s="273"/>
@@ -6952,11 +6952,11 @@
       <c r="N27" s="276"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="436"/>
-      <c r="B28" s="440"/>
-      <c r="C28" s="436"/>
-      <c r="D28" s="436"/>
-      <c r="E28" s="436"/>
+      <c r="A28" s="428"/>
+      <c r="B28" s="429"/>
+      <c r="C28" s="428"/>
+      <c r="D28" s="428"/>
+      <c r="E28" s="428"/>
       <c r="F28" s="272"/>
       <c r="G28" s="272"/>
       <c r="H28" s="273"/>
@@ -6968,11 +6968,11 @@
       <c r="N28" s="276"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="437"/>
-      <c r="B29" s="438"/>
-      <c r="C29" s="437"/>
-      <c r="D29" s="437"/>
-      <c r="E29" s="437"/>
+      <c r="A29" s="425"/>
+      <c r="B29" s="422"/>
+      <c r="C29" s="425"/>
+      <c r="D29" s="425"/>
+      <c r="E29" s="425"/>
       <c r="F29" s="272"/>
       <c r="G29" s="272"/>
       <c r="H29" s="273"/>
@@ -6984,11 +6984,11 @@
       <c r="N29" s="276"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="436"/>
-      <c r="B30" s="440"/>
-      <c r="C30" s="436"/>
-      <c r="D30" s="436"/>
-      <c r="E30" s="436"/>
+      <c r="A30" s="428"/>
+      <c r="B30" s="429"/>
+      <c r="C30" s="428"/>
+      <c r="D30" s="428"/>
+      <c r="E30" s="428"/>
       <c r="F30" s="272"/>
       <c r="G30" s="272"/>
       <c r="H30" s="273"/>
@@ -7000,11 +7000,11 @@
       <c r="N30" s="276"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="437"/>
-      <c r="B31" s="438"/>
-      <c r="C31" s="437"/>
-      <c r="D31" s="437"/>
-      <c r="E31" s="437"/>
+      <c r="A31" s="425"/>
+      <c r="B31" s="422"/>
+      <c r="C31" s="425"/>
+      <c r="D31" s="425"/>
+      <c r="E31" s="425"/>
       <c r="F31" s="272"/>
       <c r="G31" s="272"/>
       <c r="H31" s="273"/>
@@ -7016,11 +7016,11 @@
       <c r="N31" s="276"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="435"/>
-      <c r="B32" s="439"/>
-      <c r="C32" s="435"/>
-      <c r="D32" s="435"/>
-      <c r="E32" s="435"/>
+      <c r="A32" s="426"/>
+      <c r="B32" s="423"/>
+      <c r="C32" s="426"/>
+      <c r="D32" s="426"/>
+      <c r="E32" s="426"/>
       <c r="F32" s="272"/>
       <c r="G32" s="272"/>
       <c r="H32" s="273"/>
@@ -7032,11 +7032,11 @@
       <c r="N32" s="276"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="435"/>
-      <c r="B33" s="439"/>
-      <c r="C33" s="435"/>
-      <c r="D33" s="435"/>
-      <c r="E33" s="435"/>
+      <c r="A33" s="426"/>
+      <c r="B33" s="423"/>
+      <c r="C33" s="426"/>
+      <c r="D33" s="426"/>
+      <c r="E33" s="426"/>
       <c r="F33" s="272"/>
       <c r="G33" s="272"/>
       <c r="H33" s="273"/>
@@ -7048,11 +7048,11 @@
       <c r="N33" s="276"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="442"/>
-      <c r="B34" s="441"/>
-      <c r="C34" s="442"/>
-      <c r="D34" s="442"/>
-      <c r="E34" s="442"/>
+      <c r="A34" s="427"/>
+      <c r="B34" s="424"/>
+      <c r="C34" s="427"/>
+      <c r="D34" s="427"/>
+      <c r="E34" s="427"/>
       <c r="F34" s="278"/>
       <c r="G34" s="278"/>
       <c r="H34" s="279"/>
@@ -7064,13 +7064,13 @@
       <c r="N34" s="283"/>
     </row>
     <row r="35" spans="1:14" s="290" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="425" t="s">
+      <c r="A35" s="430" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="425"/>
-      <c r="C35" s="425"/>
-      <c r="D35" s="425"/>
-      <c r="E35" s="425"/>
+      <c r="B35" s="430"/>
+      <c r="C35" s="430"/>
+      <c r="D35" s="430"/>
+      <c r="E35" s="430"/>
       <c r="F35" s="284"/>
       <c r="G35" s="284">
         <f>SUM(G7:G34)</f>
@@ -7158,31 +7158,11 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="A3:K3"/>
@@ -7199,11 +7179,31 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.28000000000000003" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7264,24 +7264,24 @@
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="443" t="s">
+      <c r="A4" s="444" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="443"/>
-      <c r="C4" s="443"/>
-      <c r="D4" s="443"/>
-      <c r="E4" s="443"/>
+      <c r="B4" s="444"/>
+      <c r="C4" s="444"/>
+      <c r="D4" s="444"/>
+      <c r="E4" s="444"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="444" t="s">
+      <c r="A5" s="445" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="444"/>
-      <c r="C5" s="444"/>
-      <c r="D5" s="444"/>
-      <c r="E5" s="444"/>
+      <c r="B5" s="445"/>
+      <c r="C5" s="445"/>
+      <c r="D5" s="445"/>
+      <c r="E5" s="445"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
@@ -7360,7 +7360,7 @@
         <f>'DOANH THU'!L80</f>
         <v>4253900.0000000009</v>
       </c>
-      <c r="E10" s="445">
+      <c r="E10" s="446">
         <f>D10+D11+D12</f>
         <v>55097150.000000007</v>
       </c>
@@ -7379,7 +7379,7 @@
         <f>'DOANH THU'!L81</f>
         <v>50843250.000000007</v>
       </c>
-      <c r="E11" s="446"/>
+      <c r="E11" s="447"/>
       <c r="F11" s="61"/>
       <c r="G11" s="61"/>
     </row>
@@ -7390,7 +7390,7 @@
       <c r="B12" s="118"/>
       <c r="C12" s="118"/>
       <c r="D12" s="141"/>
-      <c r="E12" s="447"/>
+      <c r="E12" s="448"/>
       <c r="F12" s="61"/>
       <c r="G12" s="61"/>
     </row>
@@ -7645,8 +7645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AN17" sqref="AN17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8175,17 +8175,17 @@
       <c r="C1" s="210"/>
       <c r="D1" s="210"/>
       <c r="E1" s="210"/>
-      <c r="Z1" s="468" t="s">
+      <c r="Z1" s="455" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="469"/>
-      <c r="AB1" s="469"/>
-      <c r="AC1" s="469"/>
-      <c r="AD1" s="469"/>
-      <c r="AE1" s="469"/>
-      <c r="AF1" s="469"/>
-      <c r="AG1" s="469"/>
-      <c r="AH1" s="470"/>
+      <c r="AA1" s="456"/>
+      <c r="AB1" s="456"/>
+      <c r="AC1" s="456"/>
+      <c r="AD1" s="456"/>
+      <c r="AE1" s="456"/>
+      <c r="AF1" s="456"/>
+      <c r="AG1" s="456"/>
+      <c r="AH1" s="457"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="213" t="s">
@@ -8195,19 +8195,19 @@
       <c r="C2" s="214"/>
       <c r="D2" s="214"/>
       <c r="E2" s="214"/>
-      <c r="Z2" s="462" t="s">
+      <c r="Z2" s="449" t="s">
         <v>99</v>
       </c>
-      <c r="AA2" s="463"/>
-      <c r="AB2" s="463"/>
-      <c r="AC2" s="463"/>
-      <c r="AD2" s="463"/>
-      <c r="AE2" s="464"/>
-      <c r="AF2" s="465" t="s">
+      <c r="AA2" s="450"/>
+      <c r="AB2" s="450"/>
+      <c r="AC2" s="450"/>
+      <c r="AD2" s="450"/>
+      <c r="AE2" s="451"/>
+      <c r="AF2" s="452" t="s">
         <v>100</v>
       </c>
-      <c r="AG2" s="466"/>
-      <c r="AH2" s="467"/>
+      <c r="AG2" s="453"/>
+      <c r="AH2" s="454"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="213" t="s">
@@ -8217,19 +8217,19 @@
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
-      <c r="Z3" s="462" t="s">
+      <c r="Z3" s="449" t="s">
         <v>102</v>
       </c>
-      <c r="AA3" s="463"/>
-      <c r="AB3" s="463"/>
-      <c r="AC3" s="463"/>
-      <c r="AD3" s="463"/>
-      <c r="AE3" s="464"/>
-      <c r="AF3" s="465" t="s">
+      <c r="AA3" s="450"/>
+      <c r="AB3" s="450"/>
+      <c r="AC3" s="450"/>
+      <c r="AD3" s="450"/>
+      <c r="AE3" s="451"/>
+      <c r="AF3" s="452" t="s">
         <v>103</v>
       </c>
-      <c r="AG3" s="466"/>
-      <c r="AH3" s="467"/>
+      <c r="AG3" s="453"/>
+      <c r="AH3" s="454"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="213" t="s">
@@ -8242,19 +8242,19 @@
       <c r="T4" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="462" t="s">
+      <c r="Z4" s="449" t="s">
         <v>105</v>
       </c>
-      <c r="AA4" s="463"/>
-      <c r="AB4" s="463"/>
-      <c r="AC4" s="463"/>
-      <c r="AD4" s="463"/>
-      <c r="AE4" s="464"/>
-      <c r="AF4" s="465" t="s">
+      <c r="AA4" s="450"/>
+      <c r="AB4" s="450"/>
+      <c r="AC4" s="450"/>
+      <c r="AD4" s="450"/>
+      <c r="AE4" s="451"/>
+      <c r="AF4" s="452" t="s">
         <v>106</v>
       </c>
-      <c r="AG4" s="466"/>
-      <c r="AH4" s="467"/>
+      <c r="AG4" s="453"/>
+      <c r="AH4" s="454"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="213" t="s">
@@ -8264,19 +8264,19 @@
       <c r="C5" s="79"/>
       <c r="D5" s="79"/>
       <c r="E5" s="79"/>
-      <c r="Z5" s="449" t="s">
+      <c r="Z5" s="459" t="s">
         <v>108</v>
       </c>
-      <c r="AA5" s="449"/>
-      <c r="AB5" s="449"/>
-      <c r="AC5" s="449"/>
-      <c r="AD5" s="449"/>
-      <c r="AE5" s="449"/>
-      <c r="AF5" s="450" t="s">
+      <c r="AA5" s="459"/>
+      <c r="AB5" s="459"/>
+      <c r="AC5" s="459"/>
+      <c r="AD5" s="459"/>
+      <c r="AE5" s="459"/>
+      <c r="AF5" s="460" t="s">
         <v>109</v>
       </c>
-      <c r="AG5" s="450"/>
-      <c r="AH5" s="450"/>
+      <c r="AG5" s="460"/>
+      <c r="AH5" s="460"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="213"/>
@@ -8284,19 +8284,19 @@
       <c r="C6" s="79"/>
       <c r="D6" s="79"/>
       <c r="E6" s="79"/>
-      <c r="Z6" s="462" t="s">
+      <c r="Z6" s="449" t="s">
         <v>129</v>
       </c>
-      <c r="AA6" s="463"/>
-      <c r="AB6" s="463"/>
-      <c r="AC6" s="463"/>
-      <c r="AD6" s="463"/>
-      <c r="AE6" s="464"/>
-      <c r="AF6" s="465" t="s">
+      <c r="AA6" s="450"/>
+      <c r="AB6" s="450"/>
+      <c r="AC6" s="450"/>
+      <c r="AD6" s="450"/>
+      <c r="AE6" s="451"/>
+      <c r="AF6" s="452" t="s">
         <v>126</v>
       </c>
-      <c r="AG6" s="466"/>
-      <c r="AH6" s="467"/>
+      <c r="AG6" s="453"/>
+      <c r="AH6" s="454"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="215"/>
@@ -8306,93 +8306,93 @@
       <c r="E7" s="215"/>
     </row>
     <row r="8" spans="1:40" s="218" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="451" t="s">
+      <c r="A8" s="461" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="451"/>
-      <c r="C8" s="451"/>
-      <c r="D8" s="451"/>
-      <c r="E8" s="451"/>
-      <c r="F8" s="451"/>
-      <c r="G8" s="451"/>
-      <c r="H8" s="451"/>
-      <c r="I8" s="451"/>
-      <c r="J8" s="451"/>
-      <c r="K8" s="451"/>
-      <c r="L8" s="451"/>
-      <c r="M8" s="451"/>
-      <c r="N8" s="451"/>
-      <c r="O8" s="451"/>
-      <c r="P8" s="451"/>
-      <c r="Q8" s="451"/>
-      <c r="R8" s="451"/>
-      <c r="S8" s="451"/>
-      <c r="T8" s="451"/>
-      <c r="U8" s="451"/>
-      <c r="V8" s="451"/>
-      <c r="W8" s="451"/>
-      <c r="X8" s="451"/>
-      <c r="Y8" s="451"/>
-      <c r="Z8" s="451"/>
-      <c r="AA8" s="451"/>
-      <c r="AB8" s="451"/>
-      <c r="AC8" s="451"/>
-      <c r="AD8" s="451"/>
-      <c r="AE8" s="451"/>
-      <c r="AF8" s="451"/>
-      <c r="AG8" s="451"/>
-      <c r="AH8" s="451"/>
-      <c r="AI8" s="451"/>
-      <c r="AJ8" s="451"/>
-      <c r="AK8" s="451"/>
-      <c r="AL8" s="451"/>
-      <c r="AM8" s="451"/>
+      <c r="B8" s="461"/>
+      <c r="C8" s="461"/>
+      <c r="D8" s="461"/>
+      <c r="E8" s="461"/>
+      <c r="F8" s="461"/>
+      <c r="G8" s="461"/>
+      <c r="H8" s="461"/>
+      <c r="I8" s="461"/>
+      <c r="J8" s="461"/>
+      <c r="K8" s="461"/>
+      <c r="L8" s="461"/>
+      <c r="M8" s="461"/>
+      <c r="N8" s="461"/>
+      <c r="O8" s="461"/>
+      <c r="P8" s="461"/>
+      <c r="Q8" s="461"/>
+      <c r="R8" s="461"/>
+      <c r="S8" s="461"/>
+      <c r="T8" s="461"/>
+      <c r="U8" s="461"/>
+      <c r="V8" s="461"/>
+      <c r="W8" s="461"/>
+      <c r="X8" s="461"/>
+      <c r="Y8" s="461"/>
+      <c r="Z8" s="461"/>
+      <c r="AA8" s="461"/>
+      <c r="AB8" s="461"/>
+      <c r="AC8" s="461"/>
+      <c r="AD8" s="461"/>
+      <c r="AE8" s="461"/>
+      <c r="AF8" s="461"/>
+      <c r="AG8" s="461"/>
+      <c r="AH8" s="461"/>
+      <c r="AI8" s="461"/>
+      <c r="AJ8" s="461"/>
+      <c r="AK8" s="461"/>
+      <c r="AL8" s="461"/>
+      <c r="AM8" s="461"/>
       <c r="AN8" s="217"/>
     </row>
     <row r="10" spans="1:40" s="223" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="452" t="s">
+      <c r="A10" s="462" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="452" t="s">
+      <c r="B10" s="462" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="452" t="s">
+      <c r="C10" s="462" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="455" t="s">
+      <c r="D10" s="465" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="456"/>
-      <c r="F10" s="456"/>
-      <c r="G10" s="456"/>
-      <c r="H10" s="456"/>
-      <c r="I10" s="456"/>
-      <c r="J10" s="456"/>
-      <c r="K10" s="456"/>
-      <c r="L10" s="456"/>
-      <c r="M10" s="456"/>
-      <c r="N10" s="456"/>
-      <c r="O10" s="456"/>
-      <c r="P10" s="456"/>
-      <c r="Q10" s="456"/>
-      <c r="R10" s="456"/>
-      <c r="S10" s="456"/>
-      <c r="T10" s="456"/>
-      <c r="U10" s="456"/>
-      <c r="V10" s="456"/>
-      <c r="W10" s="456"/>
-      <c r="X10" s="456"/>
-      <c r="Y10" s="456"/>
-      <c r="Z10" s="456"/>
-      <c r="AA10" s="456"/>
-      <c r="AB10" s="456"/>
-      <c r="AC10" s="456"/>
-      <c r="AD10" s="456"/>
-      <c r="AE10" s="456"/>
-      <c r="AF10" s="456"/>
-      <c r="AG10" s="456"/>
-      <c r="AH10" s="456"/>
-      <c r="AI10" s="457" t="s">
+      <c r="E10" s="466"/>
+      <c r="F10" s="466"/>
+      <c r="G10" s="466"/>
+      <c r="H10" s="466"/>
+      <c r="I10" s="466"/>
+      <c r="J10" s="466"/>
+      <c r="K10" s="466"/>
+      <c r="L10" s="466"/>
+      <c r="M10" s="466"/>
+      <c r="N10" s="466"/>
+      <c r="O10" s="466"/>
+      <c r="P10" s="466"/>
+      <c r="Q10" s="466"/>
+      <c r="R10" s="466"/>
+      <c r="S10" s="466"/>
+      <c r="T10" s="466"/>
+      <c r="U10" s="466"/>
+      <c r="V10" s="466"/>
+      <c r="W10" s="466"/>
+      <c r="X10" s="466"/>
+      <c r="Y10" s="466"/>
+      <c r="Z10" s="466"/>
+      <c r="AA10" s="466"/>
+      <c r="AB10" s="466"/>
+      <c r="AC10" s="466"/>
+      <c r="AD10" s="466"/>
+      <c r="AE10" s="466"/>
+      <c r="AF10" s="466"/>
+      <c r="AG10" s="466"/>
+      <c r="AH10" s="466"/>
+      <c r="AI10" s="467" t="s">
         <v>114</v>
       </c>
       <c r="AJ10" s="219"/>
@@ -8402,9 +8402,9 @@
       <c r="AN10" s="222"/>
     </row>
     <row r="11" spans="1:40" s="223" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="453"/>
-      <c r="B11" s="453"/>
-      <c r="C11" s="453"/>
+      <c r="A11" s="463"/>
+      <c r="B11" s="463"/>
+      <c r="C11" s="463"/>
       <c r="D11" s="224">
         <v>1</v>
       </c>
@@ -8498,7 +8498,7 @@
       <c r="AH11" s="224">
         <v>31</v>
       </c>
-      <c r="AI11" s="457"/>
+      <c r="AI11" s="467"/>
       <c r="AJ11" s="225"/>
       <c r="AK11" s="221"/>
       <c r="AL11" s="221"/>
@@ -8506,9 +8506,9 @@
       <c r="AN11" s="222"/>
     </row>
     <row r="12" spans="1:40" s="229" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="454"/>
-      <c r="B12" s="454"/>
-      <c r="C12" s="454"/>
+      <c r="A12" s="464"/>
+      <c r="B12" s="464"/>
+      <c r="C12" s="464"/>
       <c r="D12" s="224" t="s">
         <v>115</v>
       </c>
@@ -8602,7 +8602,7 @@
       <c r="AH12" s="226" t="s">
         <v>117</v>
       </c>
-      <c r="AI12" s="457"/>
+      <c r="AI12" s="467"/>
       <c r="AJ12" s="228"/>
       <c r="AN12" s="230"/>
     </row>
@@ -8663,10 +8663,10 @@
         <v>100</v>
       </c>
       <c r="T13" s="226" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="U13" s="226" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="V13" s="232"/>
       <c r="W13" s="226" t="s">
@@ -8676,13 +8676,13 @@
         <v>100</v>
       </c>
       <c r="Y13" s="226" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="Z13" s="226" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="AA13" s="226" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="AB13" s="226" t="s">
         <v>100</v>
@@ -8767,10 +8767,10 @@
         <v>100</v>
       </c>
       <c r="T14" s="226" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="U14" s="226" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="V14" s="232"/>
       <c r="W14" s="226" t="s">
@@ -8780,13 +8780,13 @@
         <v>100</v>
       </c>
       <c r="Y14" s="226" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="Z14" s="226" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="AA14" s="226" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="AB14" s="226" t="s">
         <v>100</v>
@@ -8871,10 +8871,10 @@
         <v>100</v>
       </c>
       <c r="T15" s="226" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="U15" s="226" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="V15" s="232"/>
       <c r="W15" s="226" t="s">
@@ -8884,13 +8884,13 @@
         <v>100</v>
       </c>
       <c r="Y15" s="226" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="Z15" s="226" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="AA15" s="226" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="AB15" s="226" t="s">
         <v>100</v>
@@ -9029,10 +9029,10 @@
       <c r="AN16" s="230"/>
     </row>
     <row r="17" spans="1:40" s="229" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="458" t="s">
+      <c r="A17" s="468" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="459"/>
+      <c r="B17" s="469"/>
       <c r="C17" s="236"/>
       <c r="D17" s="236"/>
       <c r="E17" s="237"/>
@@ -9075,47 +9075,47 @@
       <c r="AN17" s="230"/>
     </row>
     <row r="19" spans="1:40" s="246" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="460"/>
-      <c r="B19" s="460"/>
-      <c r="C19" s="460"/>
-      <c r="D19" s="460"/>
-      <c r="E19" s="460"/>
-      <c r="F19" s="460"/>
-      <c r="G19" s="460"/>
+      <c r="A19" s="470"/>
+      <c r="B19" s="470"/>
+      <c r="C19" s="470"/>
+      <c r="D19" s="470"/>
+      <c r="E19" s="470"/>
+      <c r="F19" s="470"/>
+      <c r="G19" s="470"/>
       <c r="H19" s="241"/>
-      <c r="I19" s="461"/>
-      <c r="J19" s="461"/>
-      <c r="K19" s="461"/>
-      <c r="L19" s="461"/>
-      <c r="M19" s="461"/>
+      <c r="I19" s="471"/>
+      <c r="J19" s="471"/>
+      <c r="K19" s="471"/>
+      <c r="L19" s="471"/>
+      <c r="M19" s="471"/>
       <c r="N19" s="242"/>
-      <c r="O19" s="461"/>
-      <c r="P19" s="461"/>
-      <c r="Q19" s="461"/>
-      <c r="R19" s="461"/>
-      <c r="S19" s="461"/>
-      <c r="T19" s="461"/>
-      <c r="U19" s="461"/>
-      <c r="V19" s="461"/>
-      <c r="W19" s="461"/>
-      <c r="X19" s="461"/>
-      <c r="Y19" s="461"/>
+      <c r="O19" s="471"/>
+      <c r="P19" s="471"/>
+      <c r="Q19" s="471"/>
+      <c r="R19" s="471"/>
+      <c r="S19" s="471"/>
+      <c r="T19" s="471"/>
+      <c r="U19" s="471"/>
+      <c r="V19" s="471"/>
+      <c r="W19" s="471"/>
+      <c r="X19" s="471"/>
+      <c r="Y19" s="471"/>
       <c r="Z19" s="243"/>
       <c r="AA19" s="251" t="s">
         <v>13</v>
       </c>
       <c r="AB19" s="244"/>
-      <c r="AC19" s="461"/>
-      <c r="AD19" s="461"/>
-      <c r="AE19" s="461"/>
-      <c r="AF19" s="461"/>
-      <c r="AG19" s="461"/>
-      <c r="AH19" s="461"/>
-      <c r="AI19" s="461"/>
-      <c r="AJ19" s="461"/>
-      <c r="AK19" s="461"/>
-      <c r="AL19" s="461"/>
-      <c r="AM19" s="461"/>
+      <c r="AC19" s="471"/>
+      <c r="AD19" s="471"/>
+      <c r="AE19" s="471"/>
+      <c r="AF19" s="471"/>
+      <c r="AG19" s="471"/>
+      <c r="AH19" s="471"/>
+      <c r="AI19" s="471"/>
+      <c r="AJ19" s="471"/>
+      <c r="AK19" s="471"/>
+      <c r="AL19" s="471"/>
+      <c r="AM19" s="471"/>
       <c r="AN19" s="245"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
@@ -9154,131 +9154,131 @@
       <c r="AN34" s="250"/>
     </row>
     <row r="35" spans="3:40" s="249" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="448"/>
-      <c r="H35" s="448"/>
-      <c r="I35" s="448"/>
-      <c r="J35" s="448"/>
-      <c r="K35" s="448"/>
-      <c r="L35" s="448"/>
-      <c r="M35" s="448"/>
-      <c r="N35" s="448"/>
-      <c r="O35" s="448"/>
-      <c r="P35" s="448"/>
-      <c r="Q35" s="448"/>
-      <c r="R35" s="448"/>
-      <c r="S35" s="448"/>
-      <c r="T35" s="448"/>
-      <c r="U35" s="448"/>
-      <c r="V35" s="448"/>
-      <c r="W35" s="448"/>
-      <c r="X35" s="448"/>
+      <c r="G35" s="458"/>
+      <c r="H35" s="458"/>
+      <c r="I35" s="458"/>
+      <c r="J35" s="458"/>
+      <c r="K35" s="458"/>
+      <c r="L35" s="458"/>
+      <c r="M35" s="458"/>
+      <c r="N35" s="458"/>
+      <c r="O35" s="458"/>
+      <c r="P35" s="458"/>
+      <c r="Q35" s="458"/>
+      <c r="R35" s="458"/>
+      <c r="S35" s="458"/>
+      <c r="T35" s="458"/>
+      <c r="U35" s="458"/>
+      <c r="V35" s="458"/>
+      <c r="W35" s="458"/>
+      <c r="X35" s="458"/>
       <c r="AN35" s="250"/>
     </row>
     <row r="36" spans="3:40" s="249" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="448"/>
-      <c r="H36" s="448"/>
-      <c r="I36" s="448"/>
-      <c r="J36" s="448"/>
-      <c r="K36" s="448"/>
-      <c r="L36" s="448"/>
-      <c r="M36" s="448"/>
-      <c r="N36" s="448"/>
-      <c r="O36" s="448"/>
-      <c r="P36" s="448"/>
-      <c r="Q36" s="448"/>
-      <c r="R36" s="448"/>
-      <c r="S36" s="448"/>
-      <c r="T36" s="448"/>
-      <c r="U36" s="448"/>
-      <c r="V36" s="448"/>
-      <c r="W36" s="448"/>
-      <c r="X36" s="448"/>
+      <c r="G36" s="458"/>
+      <c r="H36" s="458"/>
+      <c r="I36" s="458"/>
+      <c r="J36" s="458"/>
+      <c r="K36" s="458"/>
+      <c r="L36" s="458"/>
+      <c r="M36" s="458"/>
+      <c r="N36" s="458"/>
+      <c r="O36" s="458"/>
+      <c r="P36" s="458"/>
+      <c r="Q36" s="458"/>
+      <c r="R36" s="458"/>
+      <c r="S36" s="458"/>
+      <c r="T36" s="458"/>
+      <c r="U36" s="458"/>
+      <c r="V36" s="458"/>
+      <c r="W36" s="458"/>
+      <c r="X36" s="458"/>
       <c r="AN36" s="250"/>
     </row>
     <row r="37" spans="3:40" s="249" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="448"/>
-      <c r="H37" s="448"/>
-      <c r="I37" s="448"/>
-      <c r="J37" s="448"/>
-      <c r="K37" s="448"/>
-      <c r="L37" s="448"/>
-      <c r="M37" s="448"/>
-      <c r="N37" s="448"/>
-      <c r="O37" s="448"/>
-      <c r="P37" s="448"/>
-      <c r="Q37" s="448"/>
-      <c r="R37" s="448"/>
-      <c r="S37" s="448"/>
-      <c r="T37" s="448"/>
-      <c r="U37" s="448"/>
-      <c r="V37" s="448"/>
-      <c r="W37" s="448"/>
-      <c r="X37" s="448"/>
+      <c r="G37" s="458"/>
+      <c r="H37" s="458"/>
+      <c r="I37" s="458"/>
+      <c r="J37" s="458"/>
+      <c r="K37" s="458"/>
+      <c r="L37" s="458"/>
+      <c r="M37" s="458"/>
+      <c r="N37" s="458"/>
+      <c r="O37" s="458"/>
+      <c r="P37" s="458"/>
+      <c r="Q37" s="458"/>
+      <c r="R37" s="458"/>
+      <c r="S37" s="458"/>
+      <c r="T37" s="458"/>
+      <c r="U37" s="458"/>
+      <c r="V37" s="458"/>
+      <c r="W37" s="458"/>
+      <c r="X37" s="458"/>
       <c r="AN37" s="250"/>
     </row>
     <row r="38" spans="3:40" s="249" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="448"/>
-      <c r="H38" s="448"/>
-      <c r="I38" s="448"/>
-      <c r="J38" s="448"/>
-      <c r="K38" s="448"/>
-      <c r="L38" s="448"/>
-      <c r="M38" s="448"/>
-      <c r="N38" s="448"/>
-      <c r="O38" s="448"/>
-      <c r="P38" s="448"/>
-      <c r="Q38" s="448"/>
-      <c r="R38" s="448"/>
-      <c r="S38" s="448"/>
-      <c r="T38" s="448"/>
-      <c r="U38" s="448"/>
-      <c r="V38" s="448"/>
-      <c r="W38" s="448"/>
-      <c r="X38" s="448"/>
+      <c r="G38" s="458"/>
+      <c r="H38" s="458"/>
+      <c r="I38" s="458"/>
+      <c r="J38" s="458"/>
+      <c r="K38" s="458"/>
+      <c r="L38" s="458"/>
+      <c r="M38" s="458"/>
+      <c r="N38" s="458"/>
+      <c r="O38" s="458"/>
+      <c r="P38" s="458"/>
+      <c r="Q38" s="458"/>
+      <c r="R38" s="458"/>
+      <c r="S38" s="458"/>
+      <c r="T38" s="458"/>
+      <c r="U38" s="458"/>
+      <c r="V38" s="458"/>
+      <c r="W38" s="458"/>
+      <c r="X38" s="458"/>
       <c r="AN38" s="250"/>
     </row>
     <row r="39" spans="3:40" s="249" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="448"/>
-      <c r="H39" s="448"/>
-      <c r="I39" s="448"/>
-      <c r="J39" s="448"/>
-      <c r="K39" s="448"/>
-      <c r="L39" s="448"/>
-      <c r="M39" s="448"/>
-      <c r="N39" s="448"/>
-      <c r="O39" s="448"/>
-      <c r="P39" s="448"/>
-      <c r="Q39" s="448"/>
-      <c r="R39" s="448"/>
-      <c r="S39" s="448"/>
-      <c r="T39" s="448"/>
-      <c r="U39" s="448"/>
-      <c r="V39" s="448"/>
-      <c r="W39" s="448"/>
-      <c r="X39" s="448"/>
+      <c r="G39" s="458"/>
+      <c r="H39" s="458"/>
+      <c r="I39" s="458"/>
+      <c r="J39" s="458"/>
+      <c r="K39" s="458"/>
+      <c r="L39" s="458"/>
+      <c r="M39" s="458"/>
+      <c r="N39" s="458"/>
+      <c r="O39" s="458"/>
+      <c r="P39" s="458"/>
+      <c r="Q39" s="458"/>
+      <c r="R39" s="458"/>
+      <c r="S39" s="458"/>
+      <c r="T39" s="458"/>
+      <c r="U39" s="458"/>
+      <c r="V39" s="458"/>
+      <c r="W39" s="458"/>
+      <c r="X39" s="458"/>
       <c r="AN39" s="250"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C40" s="211"/>
       <c r="D40" s="211"/>
-      <c r="G40" s="448"/>
-      <c r="H40" s="448"/>
-      <c r="I40" s="448"/>
-      <c r="J40" s="448"/>
-      <c r="K40" s="448"/>
-      <c r="L40" s="448"/>
-      <c r="M40" s="448"/>
-      <c r="N40" s="448"/>
-      <c r="O40" s="448"/>
-      <c r="P40" s="448"/>
-      <c r="Q40" s="448"/>
-      <c r="R40" s="448"/>
-      <c r="S40" s="448"/>
-      <c r="T40" s="448"/>
-      <c r="U40" s="448"/>
-      <c r="V40" s="448"/>
-      <c r="W40" s="448"/>
-      <c r="X40" s="448"/>
+      <c r="G40" s="458"/>
+      <c r="H40" s="458"/>
+      <c r="I40" s="458"/>
+      <c r="J40" s="458"/>
+      <c r="K40" s="458"/>
+      <c r="L40" s="458"/>
+      <c r="M40" s="458"/>
+      <c r="N40" s="458"/>
+      <c r="O40" s="458"/>
+      <c r="P40" s="458"/>
+      <c r="Q40" s="458"/>
+      <c r="R40" s="458"/>
+      <c r="S40" s="458"/>
+      <c r="T40" s="458"/>
+      <c r="U40" s="458"/>
+      <c r="V40" s="458"/>
+      <c r="W40" s="458"/>
+      <c r="X40" s="458"/>
       <c r="AN40" s="211"/>
     </row>
     <row r="41" spans="3:40" x14ac:dyDescent="0.25">
@@ -9288,13 +9288,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="Z1:AH1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
     <mergeCell ref="G35:X40"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AH5"/>
@@ -9311,6 +9304,13 @@
     <mergeCell ref="AC19:AM19"/>
     <mergeCell ref="Z6:AE6"/>
     <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="Z1:AH1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -9319,10 +9319,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -9333,9 +9333,10 @@
     <col min="4" max="4" width="12.28515625" style="44" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="43" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="44" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="44" customWidth="1"/>
-    <col min="9" max="10" width="15.7109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="44" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" style="44" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="44" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="44" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="44" customWidth="1"/>
     <col min="12" max="12" width="7.140625" style="44" customWidth="1"/>
     <col min="13" max="13" width="17.42578125" style="44" customWidth="1"/>
@@ -10161,41 +10162,41 @@
     <col min="16141" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="479" t="s">
+    <row r="1" spans="1:12" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="480" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="479"/>
-      <c r="C1" s="479"/>
-      <c r="D1" s="479"/>
+      <c r="B1" s="480"/>
+      <c r="C1" s="480"/>
+      <c r="D1" s="480"/>
       <c r="E1" s="80"/>
-      <c r="F1" s="480" t="s">
+      <c r="F1" s="481" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="480"/>
-      <c r="H1" s="480"/>
-      <c r="I1" s="480"/>
-      <c r="J1" s="480"/>
-      <c r="K1" s="480"/>
-    </row>
-    <row r="2" spans="1:13" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="481" t="s">
+      <c r="G1" s="481"/>
+      <c r="H1" s="481"/>
+      <c r="I1" s="481"/>
+      <c r="J1" s="481"/>
+      <c r="K1" s="481"/>
+    </row>
+    <row r="2" spans="1:12" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="482" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="481"/>
-      <c r="C2" s="481"/>
-      <c r="D2" s="481"/>
+      <c r="B2" s="482"/>
+      <c r="C2" s="482"/>
+      <c r="D2" s="482"/>
       <c r="E2" s="80"/>
-      <c r="F2" s="482" t="s">
+      <c r="F2" s="483" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="482"/>
-      <c r="H2" s="482"/>
-      <c r="I2" s="482"/>
-      <c r="J2" s="482"/>
-      <c r="K2" s="482"/>
-    </row>
-    <row r="3" spans="1:13" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G2" s="483"/>
+      <c r="H2" s="483"/>
+      <c r="I2" s="483"/>
+      <c r="J2" s="483"/>
+      <c r="K2" s="483"/>
+    </row>
+    <row r="3" spans="1:12" s="39" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -10205,46 +10206,46 @@
       <c r="H3" s="81"/>
       <c r="I3" s="81"/>
     </row>
-    <row r="4" spans="1:13" s="42" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="483" t="s">
+    <row r="4" spans="1:12" s="42" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="484" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="483"/>
-      <c r="C4" s="483"/>
-      <c r="D4" s="483"/>
-      <c r="E4" s="483"/>
-      <c r="F4" s="483"/>
-      <c r="G4" s="483"/>
-      <c r="H4" s="483"/>
-      <c r="I4" s="483"/>
-      <c r="J4" s="483"/>
-      <c r="K4" s="483"/>
-      <c r="L4" s="483"/>
-    </row>
-    <row r="5" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="484" t="s">
+      <c r="B4" s="484"/>
+      <c r="C4" s="484"/>
+      <c r="D4" s="484"/>
+      <c r="E4" s="484"/>
+      <c r="F4" s="484"/>
+      <c r="G4" s="484"/>
+      <c r="H4" s="484"/>
+      <c r="I4" s="484"/>
+      <c r="J4" s="484"/>
+      <c r="K4" s="484"/>
+      <c r="L4" s="484"/>
+    </row>
+    <row r="5" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="485" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="484"/>
-      <c r="C5" s="484"/>
-      <c r="D5" s="484"/>
-      <c r="E5" s="484"/>
-      <c r="F5" s="484"/>
-      <c r="G5" s="484"/>
-      <c r="H5" s="484"/>
-      <c r="I5" s="484"/>
-      <c r="J5" s="484"/>
-      <c r="K5" s="484"/>
-      <c r="L5" s="484"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J6" s="485" t="s">
+      <c r="B5" s="485"/>
+      <c r="C5" s="485"/>
+      <c r="D5" s="485"/>
+      <c r="E5" s="485"/>
+      <c r="F5" s="485"/>
+      <c r="G5" s="485"/>
+      <c r="H5" s="485"/>
+      <c r="I5" s="485"/>
+      <c r="J5" s="485"/>
+      <c r="K5" s="485"/>
+      <c r="L5" s="485"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="486" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="485"/>
-      <c r="L6" s="485"/>
-    </row>
-    <row r="7" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="K6" s="486"/>
+      <c r="L6" s="486"/>
+    </row>
+    <row r="7" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="146" t="s">
         <v>17</v>
       </c>
@@ -10282,7 +10283,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="146"/>
       <c r="B8" s="147"/>
       <c r="C8" s="147"/>
@@ -10308,13 +10309,13 @@
       <c r="K8" s="147"/>
       <c r="L8" s="146"/>
     </row>
-    <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="476" t="s">
+    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="477" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="477"/>
-      <c r="C9" s="477"/>
-      <c r="D9" s="478"/>
+      <c r="B9" s="478"/>
+      <c r="C9" s="478"/>
+      <c r="D9" s="479"/>
       <c r="E9" s="148"/>
       <c r="F9" s="152">
         <f>SUM(F10:F12)</f>
@@ -10339,7 +10340,7 @@
       <c r="K9" s="147"/>
       <c r="L9" s="146"/>
     </row>
-    <row r="10" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="150">
         <v>1</v>
       </c>
@@ -10372,7 +10373,7 @@
       <c r="K10" s="83"/>
       <c r="L10" s="150"/>
     </row>
-    <row r="11" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="45">
         <v>3</v>
       </c>
@@ -10405,7 +10406,7 @@
       <c r="K11" s="48"/>
       <c r="L11" s="45"/>
     </row>
-    <row r="12" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="50">
         <v>4</v>
       </c>
@@ -10436,13 +10437,13 @@
       <c r="K12" s="53"/>
       <c r="L12" s="50"/>
     </row>
-    <row r="13" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="473" t="s">
+    <row r="13" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="474" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="474"/>
-      <c r="C13" s="474"/>
-      <c r="D13" s="475"/>
+      <c r="B13" s="475"/>
+      <c r="C13" s="475"/>
+      <c r="D13" s="476"/>
       <c r="E13" s="89"/>
       <c r="F13" s="152">
         <f>SUM(F14:F14)</f>
@@ -10467,7 +10468,7 @@
       <c r="K13" s="153"/>
       <c r="L13" s="147"/>
     </row>
-    <row r="14" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" s="54">
         <v>2</v>
       </c>
@@ -10499,17 +10500,16 @@
         <v>5823076.9230769239</v>
       </c>
       <c r="K14" s="57"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="489" t="s">
+      <c r="L14" s="366" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="486" t="s">
+    <row r="15" spans="1:12" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="487" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="487"/>
-      <c r="C15" s="488"/>
+      <c r="B15" s="488"/>
+      <c r="C15" s="489"/>
       <c r="D15" s="86"/>
       <c r="E15" s="87"/>
       <c r="F15" s="86">
@@ -10536,14 +10536,14 @@
       <c r="L15" s="85"/>
     </row>
     <row r="17" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="471"/>
-      <c r="C17" s="471"/>
-      <c r="D17" s="471"/>
+      <c r="B17" s="472"/>
+      <c r="C17" s="472"/>
+      <c r="D17" s="472"/>
       <c r="E17" s="82"/>
-      <c r="H17" s="471"/>
-      <c r="I17" s="471"/>
-      <c r="J17" s="471"/>
-      <c r="K17" s="471"/>
+      <c r="H17" s="472"/>
+      <c r="I17" s="472"/>
+      <c r="J17" s="472"/>
+      <c r="K17" s="472"/>
     </row>
     <row r="18" spans="2:11" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B18" s="143" t="s">
@@ -10555,12 +10555,12 @@
         <v>84</v>
       </c>
       <c r="G18" s="143"/>
-      <c r="H18" s="471" t="s">
+      <c r="H18" s="472" t="s">
         <v>90</v>
       </c>
-      <c r="I18" s="471"/>
-      <c r="J18" s="471"/>
-      <c r="K18" s="471"/>
+      <c r="I18" s="472"/>
+      <c r="J18" s="472"/>
+      <c r="K18" s="472"/>
     </row>
     <row r="19" spans="2:11" s="144" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B19" s="145" t="s">
@@ -10572,12 +10572,12 @@
         <v>91</v>
       </c>
       <c r="G19" s="145"/>
-      <c r="H19" s="472" t="s">
+      <c r="H19" s="473" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="472"/>
-      <c r="J19" s="472"/>
-      <c r="K19" s="472"/>
+      <c r="I19" s="473"/>
+      <c r="J19" s="473"/>
+      <c r="K19" s="473"/>
     </row>
     <row r="22" spans="2:11" s="96" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="91"/>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 12_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 12_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="4"/>
+    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="186">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -577,7 +577,10 @@
     <t>Thanh Hà</t>
   </si>
   <si>
-    <t>31h NNM+10h SN</t>
+    <t>Chị trường</t>
+  </si>
+  <si>
+    <t>Demo</t>
   </si>
 </sst>
 </file>
@@ -585,13 +588,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="d/mm/yyyy;@"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="46" x14ac:knownFonts="1">
     <font>
@@ -1118,9 +1121,9 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
@@ -1164,7 +1167,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1178,14 +1181,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1197,15 +1200,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1237,10 +1240,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1252,10 +1255,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1264,16 +1267,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1288,7 +1291,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1298,12 +1301,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1312,7 +1315,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1327,50 +1330,50 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1378,10 +1381,10 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1390,25 +1393,25 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1416,24 +1419,24 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1442,13 +1445,13 @@
     <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="29" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="29" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="30" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="30" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="30" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="30" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="30" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="30" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="30" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1460,11 +1463,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1492,28 +1495,28 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1521,7 +1524,7 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1531,7 +1534,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1542,7 +1545,7 @@
     <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -1565,12 +1568,12 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1579,36 +1582,36 @@
     <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1681,7 +1684,7 @@
     <xf numFmtId="0" fontId="41" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="41" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="41" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1690,19 +1693,19 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="41" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="41" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="41" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="41" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="39" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="39" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="41" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="41" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="41" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="41" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1714,7 +1717,7 @@
     <xf numFmtId="3" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1750,7 +1753,7 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1771,7 +1774,7 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1786,7 +1789,7 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="22" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1795,13 +1798,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="22" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1810,46 +1813,46 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="22" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="22" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="22" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="16" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1868,21 +1871,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="24" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="24" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1891,13 +1894,13 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1915,7 +1918,7 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1930,70 +1933,70 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2004,13 +2007,13 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="22" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2019,16 +2022,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="22" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2037,13 +2040,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2070,7 +2073,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2082,13 +2085,13 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2100,13 +2103,13 @@
     <xf numFmtId="9" fontId="28" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2118,13 +2121,13 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2142,13 +2145,13 @@
     <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2163,13 +2166,13 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2184,7 +2187,7 @@
     <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2202,19 +2205,19 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2229,7 +2232,7 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2250,7 +2253,7 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2259,7 +2262,7 @@
     <xf numFmtId="9" fontId="23" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2268,10 +2271,10 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2280,13 +2283,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3788,7 +3791,7 @@
   <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
@@ -6388,8 +6391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6527,16 +6530,34 @@
       <c r="A7" s="360">
         <v>1270</v>
       </c>
-      <c r="B7" s="361"/>
+      <c r="B7" s="361">
+        <v>44169</v>
+      </c>
       <c r="C7" s="360"/>
-      <c r="D7" s="360"/>
+      <c r="D7" s="360" t="s">
+        <v>184</v>
+      </c>
       <c r="E7" s="360"/>
-      <c r="F7" s="360"/>
-      <c r="G7" s="360"/>
-      <c r="H7" s="362"/>
-      <c r="I7" s="362"/>
-      <c r="J7" s="363"/>
-      <c r="K7" s="362"/>
+      <c r="F7" s="360" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="360">
+        <v>28</v>
+      </c>
+      <c r="H7" s="362">
+        <v>455000</v>
+      </c>
+      <c r="I7" s="362">
+        <f>G7*H7</f>
+        <v>12740000</v>
+      </c>
+      <c r="J7" s="363">
+        <v>0.41</v>
+      </c>
+      <c r="K7" s="362">
+        <f>I7*(1-J7)</f>
+        <v>7516600.0000000009</v>
+      </c>
       <c r="L7" s="364"/>
       <c r="M7" s="364"/>
       <c r="N7" s="365"/>
@@ -6545,16 +6566,36 @@
       <c r="A8" s="360">
         <v>1291</v>
       </c>
-      <c r="B8" s="361"/>
-      <c r="C8" s="360"/>
-      <c r="D8" s="360"/>
+      <c r="B8" s="361">
+        <v>44172</v>
+      </c>
+      <c r="C8" s="360" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="360" t="s">
+        <v>185</v>
+      </c>
       <c r="E8" s="360"/>
-      <c r="F8" s="360"/>
-      <c r="G8" s="360"/>
-      <c r="H8" s="362"/>
-      <c r="I8" s="362"/>
-      <c r="J8" s="363"/>
-      <c r="K8" s="362"/>
+      <c r="F8" s="360" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="360">
+        <v>1</v>
+      </c>
+      <c r="H8" s="362">
+        <v>455000</v>
+      </c>
+      <c r="I8" s="362">
+        <f>G8*H8</f>
+        <v>455000</v>
+      </c>
+      <c r="J8" s="363">
+        <v>0.41</v>
+      </c>
+      <c r="K8" s="362">
+        <f>I8*(1-J8)</f>
+        <v>268450.00000000006</v>
+      </c>
       <c r="L8" s="364"/>
       <c r="M8" s="364"/>
       <c r="N8" s="365"/>
@@ -7074,17 +7115,17 @@
       <c r="F35" s="284"/>
       <c r="G35" s="284">
         <f>SUM(G7:G34)</f>
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="H35" s="285"/>
       <c r="I35" s="285">
         <f>SUM(I7:I34)</f>
-        <v>31730000</v>
+        <v>44925000</v>
       </c>
       <c r="J35" s="286"/>
       <c r="K35" s="287">
         <f>SUM(K7:K34)</f>
-        <v>15865000</v>
+        <v>23650050</v>
       </c>
       <c r="L35" s="288"/>
       <c r="M35" s="288"/>
@@ -7404,7 +7445,7 @@
       <c r="C13" s="121"/>
       <c r="D13" s="120">
         <f>'Hàng khách trả'!I35</f>
-        <v>31730000</v>
+        <v>44925000</v>
       </c>
       <c r="E13" s="118"/>
       <c r="F13" s="61"/>
@@ -7420,7 +7461,7 @@
       <c r="C14" s="121"/>
       <c r="D14" s="120">
         <f>'Hàng khách trả'!K35</f>
-        <v>15865000</v>
+        <v>23650050</v>
       </c>
       <c r="E14" s="118"/>
       <c r="F14" s="61"/>
@@ -7436,7 +7477,7 @@
       <c r="C15" s="77"/>
       <c r="D15" s="78">
         <f>D9-D10-D11-D12-D14</f>
-        <v>26877599.999999993</v>
+        <v>19092549.999999993</v>
       </c>
       <c r="E15" s="75" t="s">
         <v>95</v>
@@ -7645,7 +7686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AN17" sqref="AN17"/>
     </sheetView>
   </sheetViews>
@@ -9322,7 +9363,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="L24" sqref="L23:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -10468,7 +10509,7 @@
       <c r="K13" s="153"/>
       <c r="L13" s="147"/>
     </row>
-    <row r="14" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="54">
         <v>2</v>
       </c>
@@ -10500,9 +10541,7 @@
         <v>5823076.9230769239</v>
       </c>
       <c r="K14" s="57"/>
-      <c r="L14" s="366" t="s">
-        <v>184</v>
-      </c>
+      <c r="L14" s="366"/>
     </row>
     <row r="15" spans="1:12" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A15" s="487" t="s">
